--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623ABE20-3F6F-40CB-96D7-6241647ACCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE89D8-D625-4154-9364-53EA6EB234F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="437">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3618,6 +3618,96 @@
   </si>
   <si>
     <t>如果要在值类型和引用类型（站直堆引用）之间转换，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.Round();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期,日期格式,日期加减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime.Now();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime.Now().ToString("yyyymmdd");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime.Now().AddYears(2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.Pow(10, 15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL检查运算符</t>
+  </si>
+  <si>
+    <t>链接点这里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4306,8 +4396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4504,7 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
@@ -5959,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6897,121 +6987,205 @@
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15">
-      <c r="A171" s="36" t="s">
+    <row r="170" spans="1:6" ht="15">
+      <c r="B170" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F170" s="26"/>
+    </row>
+    <row r="172" spans="1:6" ht="15">
+      <c r="A172" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B172" s="26" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15">
-      <c r="B172" s="28" t="s">
+    <row r="173" spans="1:6" ht="15">
+      <c r="B173" s="28" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="B173" s="21">
+    <row r="174" spans="1:6">
+      <c r="B174" s="21">
         <v>1</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D174" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15">
-      <c r="B174" s="21">
+    <row r="175" spans="1:6" ht="15">
+      <c r="B175" s="21">
         <v>2</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D175" s="26" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="B175" s="21">
-        <v>3</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="B176" s="21">
+        <v>3</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="B177" s="21">
         <v>4</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D177" s="21" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
-      <c r="B177" s="21">
+    <row r="178" spans="1:10">
+      <c r="B178" s="21">
         <v>5</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D178" s="21" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="178" spans="2:4">
-      <c r="B178" s="21">
+    <row r="179" spans="1:10">
+      <c r="B179" s="21">
         <v>6</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D179" s="21" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="15">
-      <c r="B179" s="21">
+    <row r="180" spans="1:10" ht="15">
+      <c r="B180" s="21">
         <v>7</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="D180" s="21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
-      <c r="B180" s="21">
+    <row r="181" spans="1:10">
+      <c r="B181" s="21">
         <v>8</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D181" s="21" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="181" spans="2:4">
-      <c r="B181" s="21">
+    <row r="182" spans="1:10">
+      <c r="B182" s="21">
         <v>9</v>
       </c>
-      <c r="D181" s="37" t="s">
+      <c r="D182" s="37" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="15">
-      <c r="B182" s="21">
+    <row r="183" spans="1:10" ht="15">
+      <c r="B183" s="21">
         <v>10</v>
       </c>
-      <c r="D182" s="26" t="s">
+      <c r="D183" s="26" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="15">
-      <c r="B183" s="21">
+    <row r="184" spans="1:10" ht="15">
+      <c r="B184" s="21">
         <v>11</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D184" s="21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
-      <c r="B184" s="21">
+    <row r="185" spans="1:10">
+      <c r="B185" s="21">
         <v>12</v>
       </c>
-      <c r="D184" s="21" t="s">
+      <c r="D185" s="21" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
-      <c r="B185" s="21">
+    <row r="186" spans="1:10">
+      <c r="B186" s="21">
         <v>13</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D186" s="21" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="32" customFormat="1">
+      <c r="A189" s="35"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="31"/>
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
+    </row>
+    <row r="190" spans="1:10" ht="18">
+      <c r="B190" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="B191" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="32" customFormat="1">
+      <c r="A193" s="35"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="1:10" ht="18">
+      <c r="B194" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="F195" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="B196" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="B197" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="B198" s="21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15">
+      <c r="B201" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="B202" s="21" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7019,8 +7193,11 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{340CCFD2-0E14-48E2-88D3-1D550CA65E69}"/>
     <hyperlink ref="D79" r:id="rId2" xr:uid="{661EC16D-F618-4203-B0A9-E3AB380FE4C4}"/>
+    <hyperlink ref="D190" r:id="rId3" xr:uid="{97FA210E-CD5E-4CDA-9B07-EC8855E301B0}"/>
+    <hyperlink ref="F195" r:id="rId4" xr:uid="{6929704B-2C9F-41DB-BAB7-FD609916B54B}"/>
+    <hyperlink ref="E170" r:id="rId5" xr:uid="{79955797-CA20-4910-ACC4-49651D62BA88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE89D8-D625-4154-9364-53EA6EB234F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D7C151-9D79-4B80-80D1-12512522A8DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="438">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3708,6 +3708,10 @@
   </si>
   <si>
     <t>链接点这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乌龟里已经跟踪的文件,不同通过修改.gitignore文件进行忽律; 能使用小乌龟的删除,并保留本地副本功能, 修改索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4592,10 +4596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5672,12 +5676,12 @@
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
     </row>
-    <row r="161" spans="2:5">
+    <row r="161" spans="2:6">
       <c r="B161" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="2:5">
+    <row r="163" spans="2:6">
       <c r="B163" t="s">
         <v>362</v>
       </c>
@@ -5685,25 +5689,37 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="2:5">
+    <row r="164" spans="2:6">
       <c r="B164" t="s">
         <v>367</v>
       </c>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="2:6">
       <c r="B165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="2:5">
+    <row r="166" spans="2:6">
       <c r="B166" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="2:5">
+    <row r="167" spans="2:6">
       <c r="B167" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6051,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206:B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D7C151-9D79-4B80-80D1-12512522A8DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F87BA2-978E-47C4-AF34-6330D0C576F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="464">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3712,6 +3712,158 @@
   </si>
   <si>
     <t>小乌龟里已经跟踪的文件,不同通过修改.gitignore文件进行忽律; 能使用小乌龟的删除,并保留本地副本功能, 修改索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的条件语句,主要有两个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对同一个变量的不同变量值做判断时,switch效率更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do…while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少执行一次.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(expression1; expression2;expression3; )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(i=0; i&lt;10; i++)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteLine(i);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">expression1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始条件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">expression2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断的条件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">expression3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行statement后,改变的条件, 供下次循环判断,如累加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try-catch-finally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4143,7 +4295,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4401,7 +4553,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4598,7 +4750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
@@ -6065,10 +6217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206:B207"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7204,6 +7356,148 @@
         <v>433</v>
       </c>
     </row>
+    <row r="205" spans="1:10" ht="15">
+      <c r="A205" s="36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="B206" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15">
+      <c r="B207" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15">
+      <c r="A208" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15">
+      <c r="B210" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15">
+      <c r="B213" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E213" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15">
+      <c r="B214" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="E214" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15">
+      <c r="B215" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="B216" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="B217" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="B218" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15">
+      <c r="A220" s="36">
+        <v>4.3</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15">
+      <c r="A225" s="36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B225" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="B226" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="B227" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F87BA2-978E-47C4-AF34-6330D0C576F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B605BF-9DF5-4DC9-8CA1-475A0523A7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="468">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3864,6 +3864,21 @@
   </si>
   <si>
     <t>throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个控制台程序下,多个main函数的运行方法:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就可以正确的启动</t>
+  </si>
+  <si>
+    <t>在启动对象中选择想要的启动对象,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目文件上,右击,选择左侧应用程序标签,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4295,7 +4310,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6217,10 +6232,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+      <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7498,6 +7513,29 @@
         <v>463</v>
       </c>
     </row>
+    <row r="229" spans="1:2" ht="15">
+      <c r="A229" s="36">
+        <v>5</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15">
+      <c r="B230" s="26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="B231" s="26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="B232" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B605BF-9DF5-4DC9-8CA1-475A0523A7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDB242-EA09-4E44-8CE4-B256AF344E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="469">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3879,6 +3879,11 @@
   </si>
   <si>
     <t>在项目文件上,右击,选择左侧应用程序标签,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 安装epplus
+2 实现案例1 (sample1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4567,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4691,12 +4696,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="27.6">
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6234,7 +6242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
@@ -7526,12 +7534,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" ht="15">
       <c r="B231" s="26" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" ht="15">
       <c r="B232" s="26" t="s">
         <v>465</v>
       </c>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,27 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDB242-EA09-4E44-8CE4-B256AF344E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7650D-FDB4-4E00-8772-8B2340E9DF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
     <sheet name="知识点积累" sheetId="7" r:id="rId2"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId3"/>
     <sheet name="C#基础笔记" sheetId="8" r:id="rId4"/>
+    <sheet name="09书上未实现的代码记录" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="479">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3884,6 +3891,45 @@
   <si>
     <t>1 安装epplus
 2 实现案例1 (sample1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0504b FamilyCreat2有未来完成的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//书上3-32 第67页</t>
+  </si>
+  <si>
+    <t>完成销项</t>
+  </si>
+  <si>
+    <t>//0505有为完成代码,获得族下面所有族类型的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在0506里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,销项.</t>
+  </si>
+  <si>
+    <t>//0606有为完成代码</t>
+  </si>
+  <si>
+    <t>过滤得到非familySymbol的数量不一致。</t>
+  </si>
+  <si>
+    <t>求完数
+/// 求1000以内的所有"完数"
+/// 完数的定义: 一个数恰好等于它的所有因子之和.
+例如6=1+2+3
+ 28 =1+2+4+7+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建墙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4160,7 +4206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4221,6 +4267,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4572,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -4771,10 +4824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5851,12 +5904,12 @@
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
     </row>
-    <row r="161" spans="2:6">
-      <c r="B161" t="s">
+    <row r="161" spans="1:8" ht="20.399999999999999">
+      <c r="B161" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="2:6">
+    <row r="163" spans="1:8">
       <c r="B163" t="s">
         <v>362</v>
       </c>
@@ -5864,37 +5917,52 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="2:6">
+    <row r="164" spans="1:8">
       <c r="B164" t="s">
         <v>367</v>
       </c>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:6">
+    <row r="165" spans="1:8">
       <c r="B165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="2:6">
+    <row r="166" spans="1:8">
       <c r="B166" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="2:6">
+    <row r="167" spans="1:8">
       <c r="B167" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="2:6">
+    <row r="169" spans="1:8">
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34"/>
       <c r="F169" s="34"/>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="1:8">
       <c r="B170" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="34"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="34"/>
+    </row>
+    <row r="174" spans="1:8" ht="20.399999999999999">
+      <c r="B174" s="40" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7556,4 +7624,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="38" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="38"/>
+    <col min="3" max="3" width="30.6640625" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="42.33203125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7650D-FDB4-4E00-8772-8B2340E9DF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59AFC8-D4DE-43EE-B15C-3D88DBC2D0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="489">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3930,6 +3930,46 @@
   </si>
   <si>
     <t>创建墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的参数传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于引用类型, 不管是将其作为值参数传递,还是作为引用参数传递,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都可以在方法成员内部修改器内容.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而值类型则不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型用ref 修饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类和对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类型的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4826,7 +4866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
@@ -6308,10 +6348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H227" sqref="H227"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7571,7 +7611,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15">
+    <row r="225" spans="1:10" ht="15">
       <c r="A225" s="36">
         <v>4.4000000000000004</v>
       </c>
@@ -7579,17 +7619,17 @@
         <v>461</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:10">
       <c r="B226" s="21" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:10">
       <c r="B227" s="21" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15">
+    <row r="229" spans="1:10" ht="15">
       <c r="A229" s="36">
         <v>5</v>
       </c>
@@ -7597,19 +7637,89 @@
         <v>464</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15">
+    <row r="230" spans="1:10" ht="15">
       <c r="B230" s="26" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15">
+    <row r="231" spans="1:10" ht="15">
       <c r="B231" s="26" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15">
+    <row r="232" spans="1:10" ht="15">
       <c r="B232" s="26" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" s="35"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="31"/>
+      <c r="G234" s="31"/>
+      <c r="H234" s="31"/>
+      <c r="I234" s="31"/>
+      <c r="J234" s="31"/>
+    </row>
+    <row r="235" spans="1:10" ht="18">
+      <c r="B235" s="29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15">
+      <c r="A236" s="26">
+        <v>1</v>
+      </c>
+      <c r="B236" s="26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15">
+      <c r="A237" s="26"/>
+      <c r="B237" s="26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="15">
+      <c r="B238" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15">
+      <c r="C239" s="26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15">
+      <c r="B240" s="26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15">
+      <c r="C241" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="36">
+        <v>2</v>
+      </c>
+      <c r="B242" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15">
+      <c r="A244" s="36">
+        <v>3</v>
+      </c>
+      <c r="B244" s="26" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59AFC8-D4DE-43EE-B15C-3D88DBC2D0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBB4C0-4286-4D3A-84F9-7EB02C08E53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="490">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3971,6 +3971,9 @@
   <si>
     <t>数组类型的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来你要从三方面来学习1.c#基础，2.基础算法，3，revitapi</t>
   </si>
 </sst>
 </file>
@@ -4663,10 +4666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4851,6 +4854,20 @@
       <c r="C14" s="1" t="s">
         <v>420</v>
       </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6021,7 +6038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19A328-C3A2-44A6-ADFF-C9F20C374AAC}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -6348,10 +6365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7720,6 +7737,11 @@
       </c>
       <c r="B244" s="26" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15">
+      <c r="B245" s="26" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBB4C0-4286-4D3A-84F9-7EB02C08E53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE762F-57E4-4D95-B036-4190EE60E601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="493">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3974,6 +3974,18 @@
   </si>
   <si>
     <t>接下来你要从三方面来学习1.c#基础，2.基础算法，3，revitapi</t>
+  </si>
+  <si>
+    <t>实现的功能要严格满足需求提出的要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要设计一个对你来说最好用的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1110Exercise10  ,求两个整数最大公约数.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4411,7 +4423,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4668,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4863,11 +4875,21 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17"/>
+    <row r="16" spans="1:6" ht="27.6">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7760,10 +7782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -7821,6 +7843,14 @@
         <v>477</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE762F-57E4-4D95-B036-4190EE60E601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D1E3E-7074-45E1-81B2-E599DAF29315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="548">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3937,26 +3937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于引用类型, 不管是将其作为值参数传递,还是作为引用参数传递,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都可以在方法成员内部修改器内容.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而值类型则不能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用类型用ref 修饰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类和对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3969,10 +3949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数组类型的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来你要从三方面来学习1.c#基础，2.基础算法，3，revitapi</t>
   </si>
   <si>
@@ -3985,6 +3961,531 @@
   </si>
   <si>
     <t>F1110Exercise10  ,求两个整数最大公约数.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref的目的在于将值类型参数当作引用型参数传递到函数，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是函数的输入参数，并且在函数内部的任何改变也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out的目的在于获取函数的返回值，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是输出参数，由函数内部计算得到的值再回传到函数外部，因此必须在</t>
+  </si>
+  <si>
+    <t>ref必须在函数体外初始化</t>
+  </si>
+  <si>
+    <r>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须在函数体内初始化，这使得在外面初始化变得没意义</t>
+    </r>
+  </si>
+  <si>
+    <t>两者在函数体内的任何修改都将影响到函数体外面。</t>
+  </si>
+  <si>
+    <t>params 关键字</t>
+  </si>
+  <si>
+    <t>params 关键字可以指定在参数数目可变处采用参数的方法参数</t>
+  </si>
+  <si>
+    <t>例如:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> fn(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] list) {</t>
+    </r>
+  </si>
+  <si>
+    <t>在方法声明中的 params 关键字之后不允许任何其他参数</t>
+  </si>
+  <si>
+    <t>并且在方法声明中只允许一个 params 关键字</t>
+  </si>
+  <si>
+    <t>继承和多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生类想覆盖基类的的成员时, 派生类的成员加关键字new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解多态性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多态分为编译时的多态和运行时多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译时的多态: 方法重载和操作符重载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法重载:同一个方法名,参数不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符重载: 重新定义+ -操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接在这</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如重新定义自定义类的加减操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0055AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> Box </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0055AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Box b, Box c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Box box </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> Box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>运行时多态:重写虚拟成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基类的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回值类型前用virtual修饰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生类的方法,返回值前用override修饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写的方法,签名参数应一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类中某一个方法不需要被重写,甚至不应该被继承时使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类定义时, 使用 sealed Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sealed public overide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用重写的方法也可以用sealed修饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封的方法,不能被重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封类: 定义了一个不能被继承的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试,不用new也行,重写就行,但是会有错误提示.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口和抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义：接口是一种约束形式，其中只包括成员定义，不包含成员实现的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口的主要目的是为不相关的类提供通用的处理服务，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口是让一个类具有两个以上基类的唯一方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <r>
+      <t>接口声明的方式与声明类的方式相似，但使用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>关键字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口的一般定义格式如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有: new public protected internal private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface-body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接口成员的定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3992,7 +4493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4227,6 +4728,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0055AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF136EC2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4261,7 +4799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4329,6 +4867,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4423,7 +4968,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4872,7 +5417,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27.6">
@@ -4880,7 +5425,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -4888,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -6387,10 +6932,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J299"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I300" sqref="I300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7705,65 +8250,372 @@
     </row>
     <row r="235" spans="1:10" ht="18">
       <c r="B235" s="29" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15">
-      <c r="A236" s="26">
+      <c r="B236" s="26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15">
+      <c r="A237" s="26">
         <v>1</v>
       </c>
-      <c r="B236" s="26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="15">
-      <c r="A237" s="26"/>
       <c r="B237" s="26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15">
+      <c r="A238" s="26"/>
       <c r="B238" s="26" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15">
-      <c r="C239" s="26" t="s">
-        <v>481</v>
-      </c>
+      <c r="B239" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C239" s="26"/>
     </row>
     <row r="240" spans="1:10" ht="15">
-      <c r="B240" s="26" t="s">
+      <c r="B240" s="26"/>
+      <c r="C240" s="26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15">
+      <c r="A241" s="36">
+        <v>2</v>
+      </c>
+      <c r="B241" s="21" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="15">
-      <c r="C241" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D241" s="26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="36">
-        <v>2</v>
-      </c>
-      <c r="B242" s="21" t="s">
-        <v>487</v>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+    </row>
+    <row r="242" spans="1:4" ht="15">
+      <c r="B242" s="26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15">
+      <c r="B243" s="26" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15">
-      <c r="A244" s="36">
+      <c r="B244" s="26"/>
+      <c r="C244" s="21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15">
+      <c r="A245" s="36">
         <v>3</v>
       </c>
-      <c r="B244" s="26" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15">
       <c r="B245" s="26" t="s">
-        <v>483</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15">
+      <c r="A247" s="36">
+        <v>4</v>
+      </c>
+      <c r="B247" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15">
+      <c r="B248" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15">
+      <c r="C249" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D249" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15">
+      <c r="B250" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15">
+      <c r="B251" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="18">
+      <c r="A254" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" s="29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15">
+      <c r="A256" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="B256" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="15">
+      <c r="A257" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="15">
+      <c r="C258" s="26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="15">
+      <c r="D259" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="15">
+      <c r="A260" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="B260" s="26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="15">
+      <c r="B261" s="26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="15">
+      <c r="B263" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="15">
+      <c r="C264" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="15">
+      <c r="C265" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="15">
+      <c r="D266" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="15">
+      <c r="C267" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="D268" s="21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="D269" s="43" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="D270" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="15">
+      <c r="B272" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15">
+      <c r="D273" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15">
+      <c r="D274" s="26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15">
+      <c r="D275" s="26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15">
+      <c r="A277" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15">
+      <c r="B278" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15">
+      <c r="B279" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15">
+      <c r="C280" s="26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15">
+      <c r="B281" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15">
+      <c r="C282" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15">
+      <c r="C283" s="26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15">
+      <c r="C284" s="26"/>
+    </row>
+    <row r="285" spans="1:6" ht="13.8" customHeight="1">
+      <c r="C285" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="13.8" customHeight="1">
+      <c r="C286" s="26"/>
+    </row>
+    <row r="287" spans="1:6" ht="18">
+      <c r="A287" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15">
+      <c r="B288" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="E288" s="26"/>
+      <c r="F288" s="26"/>
+    </row>
+    <row r="289" spans="2:8" ht="15">
+      <c r="B289" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="C289" s="26"/>
+      <c r="D289" s="26"/>
+      <c r="E289" s="26"/>
+      <c r="F289" s="26"/>
+    </row>
+    <row r="290" spans="2:8" ht="15">
+      <c r="B290" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="C290" s="26"/>
+      <c r="D290" s="26"/>
+      <c r="E290" s="26"/>
+      <c r="F290" s="26"/>
+    </row>
+    <row r="291" spans="2:8" ht="15">
+      <c r="B291" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C291" s="26"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="26"/>
+    </row>
+    <row r="292" spans="2:8" ht="15">
+      <c r="B292" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C292" s="26"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="26"/>
+      <c r="G292" s="26"/>
+      <c r="H292" s="26"/>
+    </row>
+    <row r="293" spans="2:8" ht="15">
+      <c r="B293" s="26"/>
+      <c r="C293" s="26"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="26"/>
+      <c r="F293" s="26"/>
+      <c r="G293" s="26"/>
+      <c r="H293" s="26"/>
+    </row>
+    <row r="294" spans="2:8" ht="15">
+      <c r="B294" s="26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" ht="15">
+      <c r="B295" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" ht="15">
+      <c r="B296" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="E296" s="26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" ht="15">
+      <c r="B297" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="D297" s="26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" ht="15">
+      <c r="B298" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D298" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" ht="15">
+      <c r="B299" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="D299" s="26" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -7774,9 +8626,10 @@
     <hyperlink ref="D190" r:id="rId3" xr:uid="{97FA210E-CD5E-4CDA-9B07-EC8855E301B0}"/>
     <hyperlink ref="F195" r:id="rId4" xr:uid="{6929704B-2C9F-41DB-BAB7-FD609916B54B}"/>
     <hyperlink ref="E170" r:id="rId5" xr:uid="{79955797-CA20-4910-ACC4-49651D62BA88}"/>
+    <hyperlink ref="H265" r:id="rId6" xr:uid="{BAF1B10F-3EFB-45B0-B616-DF5F46BFFDB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -7784,7 +8637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7848,7 +8701,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D1E3E-7074-45E1-81B2-E599DAF29315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079385F-9C84-476C-9358-31D7D6CA4938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="555">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -4486,6 +4486,110 @@
   </si>
   <si>
     <t>对接口成员的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样定义了一些未实现的方法,不同是,也定义了一些实现了的方法.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是介于接口与类之间的一种特殊的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么使用抽象类？ 链接点这里</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有个提示作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基类中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有abstract修饰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子类必须使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> override </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重写基类的abstract方法</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4968,7 +5072,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6932,10 +7036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J299"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I300" sqref="I300"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K308" sqref="K308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8618,6 +8722,39 @@
         <v>547</v>
       </c>
     </row>
+    <row r="301" spans="2:8" ht="15">
+      <c r="B301" s="26" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" ht="15">
+      <c r="B302" s="26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" ht="15">
+      <c r="B303" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" ht="15">
+      <c r="E304" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H304" s="21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="15">
+      <c r="B306" s="28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="15">
+      <c r="B307" s="28" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8627,9 +8764,10 @@
     <hyperlink ref="F195" r:id="rId4" xr:uid="{6929704B-2C9F-41DB-BAB7-FD609916B54B}"/>
     <hyperlink ref="E170" r:id="rId5" xr:uid="{79955797-CA20-4910-ACC4-49651D62BA88}"/>
     <hyperlink ref="H265" r:id="rId6" xr:uid="{BAF1B10F-3EFB-45B0-B616-DF5F46BFFDB0}"/>
+    <hyperlink ref="E304" r:id="rId7" xr:uid="{62B8A57C-CBE1-428C-8ED5-FBA783A3F9B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079385F-9C84-476C-9358-31D7D6CA4938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5125690-FBE2-4329-B98D-0D8AE1D2C916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="556">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -4590,6 +4590,10 @@
       </rPr>
       <t>重写基类的abstract方法</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师写的框架,试着抄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5327,10 +5331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5538,6 +5542,14 @@
       </c>
       <c r="C17" t="s">
         <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7038,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:J307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K308" sqref="K308"/>
+    <sheetView topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5125690-FBE2-4329-B98D-0D8AE1D2C916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C8963-12E6-45DB-A8E3-6D3D256F0E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="4224" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="607">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -4596,12 +4596,596 @@
     <t>老师写的框架,试着抄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">如果没得抄，就看常用类的源代码,或者照着抄常用类的 成员 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合在遍历的过程中是不允许改变的</t>
+  </si>
+  <si>
+    <t>获取当前正在执行的程序集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取assembly程序集的所有类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>命名空间就是一个程序集内相关类型的一个分组（注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字：所以可以这样认为：程序集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>举例来讲，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> system.IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名空间包含了有关文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的类型；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> system.Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名空间定义了基本的数据库类型，等等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以，一个程序集（比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>mscorlib.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）可以包含任意个命名空间，每个命名空间又可以包含多种类型。</t>
+    </r>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>types =assembly.GetTypes()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly =Assembly.GetExecutingAssembly()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type type in types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师的app的,type主要用来获取类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回为当前 Type 的所有公共方法</t>
+  </si>
+  <si>
+    <t>MethodInfo[] methods = type.GetMethods()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMethods(BindingFlags)</t>
+  </si>
+  <si>
+    <t>链接点这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindingFlags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所搜type的范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用区分大小写的搜索，从此程序集中查找指定的类型，然后使用系统激活器创建它的实例。</t>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用反射调用方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用系统激活器创建指定type的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj = asm.CreateInstance(type.FullName);</t>
+  </si>
+  <si>
+    <t>var objarr = new object[1]</t>
+  </si>
+  <si>
+    <r>
+      <t>MethodInfo.Invoke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的第二个参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MSDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里是这样说的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的方法或构造函数的参数列表。这是一个对象数组，这些对象与要调用的方法或构造函数的参数具有相同的数量、顺序和类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而且异常也没有在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数上抛出，而是在类型转换那里抛出的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定的转换无效。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有参数，则此应为空引用（Visual Basic 中为 Nothing）。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMethodInfo. Invoke(obj, objarr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public object Invoke (object obj, object[] parameters);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的方法的实例（instance）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* C#的数据类型分为三种:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 值类型,引用类型,指针类型   (站直堆引用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 指针类型仅用于非安全代码中.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 引用类型变量的赋值语句是传递对象的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型变量分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单类型: Simple types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括整数类型和布尔类型. 整数类型继续细分int char flaoat decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构类型: Struct Types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚举类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Enumeration types</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>: Struct Types</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构类型和类一样,可以声明构造函数、数据成员、方法、属性等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构类型和类最根本的区别是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构类型是值类型；类是引用类型。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构类型可以继承接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4873,8 +5457,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4893,6 +5497,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4907,7 +5517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4982,6 +5592,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5076,7 +5688,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5331,10 +5943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5550,6 +6162,14 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="55.2">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -7048,10 +7668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8757,14 +9377,400 @@
         <v>552</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="15">
+    <row r="306" spans="2:4" ht="15">
       <c r="B306" s="28" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="15">
+    <row r="307" spans="2:4" ht="15">
       <c r="B307" s="28" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" ht="18">
+      <c r="B312" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" s="21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" ht="15">
+      <c r="C314" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" s="21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" ht="15">
+      <c r="C316" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="D317" s="26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="D318" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="D319" s="26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" ht="15">
+      <c r="D320" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="321" spans="2:12" ht="15">
+      <c r="D321" s="26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="322" spans="2:12">
+      <c r="B322" s="21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="323" spans="2:12">
+      <c r="B323" s="21" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="324" spans="2:12">
+      <c r="D324" s="21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="325" spans="2:12">
+      <c r="E325" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="I325" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="326" spans="2:12" ht="15">
+      <c r="F326" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="H326" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="J326" s="44" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="328" spans="2:12" ht="15">
+      <c r="B328" s="26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="329" spans="2:12">
+      <c r="B329" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="330" spans="2:12">
+      <c r="D330" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="331" spans="2:12">
+      <c r="B331" s="21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="333" spans="2:12" ht="15">
+      <c r="B333" s="26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="334" spans="2:12" ht="15">
+      <c r="B334" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="C334" s="26"/>
+      <c r="D334" s="26"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="26"/>
+      <c r="G334" s="26"/>
+      <c r="H334" s="26"/>
+      <c r="I334" s="26"/>
+      <c r="J334" s="26"/>
+      <c r="K334" s="26"/>
+    </row>
+    <row r="335" spans="2:12" ht="15">
+      <c r="B335" s="26"/>
+      <c r="C335" s="26"/>
+      <c r="D335" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="E335" s="26"/>
+      <c r="F335" s="26"/>
+      <c r="G335" s="26"/>
+      <c r="H335" s="26"/>
+      <c r="I335" s="26"/>
+      <c r="J335" s="26"/>
+      <c r="K335" s="26"/>
+      <c r="L335" s="44" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="336" spans="2:12" ht="15">
+      <c r="B336" s="26"/>
+      <c r="C336" s="26"/>
+      <c r="D336" s="26"/>
+      <c r="E336" s="26"/>
+      <c r="F336" s="26"/>
+      <c r="G336" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="H336" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="I336" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="J336" s="26"/>
+      <c r="K336" s="26"/>
+    </row>
+    <row r="337" spans="1:18" ht="15">
+      <c r="B337" s="26"/>
+      <c r="C337" s="26"/>
+      <c r="D337" s="26"/>
+      <c r="E337" s="26"/>
+      <c r="F337" s="26"/>
+      <c r="G337" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="H337" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I337" s="26"/>
+      <c r="J337" s="26"/>
+      <c r="K337" s="26"/>
+      <c r="L337" s="28"/>
+      <c r="M337" s="28"/>
+      <c r="N337" s="28"/>
+      <c r="O337" s="28"/>
+      <c r="P337" s="28"/>
+      <c r="Q337" s="28"/>
+      <c r="R337" s="28"/>
+    </row>
+    <row r="338" spans="1:18" ht="15">
+      <c r="B338" s="26"/>
+      <c r="C338" s="26"/>
+      <c r="D338" s="26"/>
+      <c r="E338" s="26"/>
+      <c r="F338" s="26"/>
+      <c r="G338" s="26"/>
+      <c r="H338" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="I338" s="26"/>
+      <c r="J338" s="26"/>
+      <c r="K338" s="26"/>
+      <c r="L338" s="28"/>
+      <c r="M338" s="28"/>
+      <c r="N338" s="28"/>
+      <c r="O338" s="28"/>
+      <c r="P338" s="28"/>
+      <c r="Q338" s="28"/>
+      <c r="R338" s="28"/>
+    </row>
+    <row r="339" spans="1:18" ht="15">
+      <c r="B339" s="26"/>
+      <c r="C339" s="26"/>
+      <c r="D339" s="26"/>
+      <c r="E339" s="26"/>
+      <c r="F339" s="26"/>
+      <c r="G339" s="26"/>
+      <c r="H339" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="I339" s="26"/>
+      <c r="J339" s="26"/>
+      <c r="K339" s="26"/>
+      <c r="L339" s="28"/>
+      <c r="M339" s="28"/>
+      <c r="N339" s="28"/>
+      <c r="O339" s="28"/>
+      <c r="P339" s="28"/>
+      <c r="Q339" s="28"/>
+      <c r="R339" s="28"/>
+    </row>
+    <row r="340" spans="1:18" ht="15">
+      <c r="B340" s="26"/>
+      <c r="C340" s="26"/>
+      <c r="D340" s="26"/>
+      <c r="E340" s="26"/>
+      <c r="F340" s="26"/>
+      <c r="G340" s="26"/>
+      <c r="H340" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="I340" s="26"/>
+      <c r="J340" s="26"/>
+      <c r="K340" s="26"/>
+      <c r="L340" s="28"/>
+      <c r="M340" s="28"/>
+      <c r="N340" s="28"/>
+      <c r="O340" s="28"/>
+      <c r="P340" s="28"/>
+      <c r="Q340" s="28"/>
+      <c r="R340" s="28"/>
+    </row>
+    <row r="341" spans="1:18">
+      <c r="H341" s="28"/>
+      <c r="I341" s="28"/>
+      <c r="J341" s="28"/>
+      <c r="K341" s="28"/>
+      <c r="L341" s="28"/>
+      <c r="M341" s="28"/>
+      <c r="N341" s="28"/>
+      <c r="O341" s="28"/>
+      <c r="P341" s="28"/>
+      <c r="Q341" s="28"/>
+      <c r="R341" s="28"/>
+    </row>
+    <row r="342" spans="1:18" ht="18">
+      <c r="A342" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="C342" s="29"/>
+      <c r="H342" s="28"/>
+      <c r="I342" s="28"/>
+      <c r="J342" s="28"/>
+      <c r="K342" s="28"/>
+      <c r="L342" s="28"/>
+      <c r="M342" s="28"/>
+      <c r="N342" s="28"/>
+      <c r="O342" s="28"/>
+      <c r="P342" s="28"/>
+      <c r="Q342" s="28"/>
+      <c r="R342" s="28"/>
+    </row>
+    <row r="343" spans="1:18" ht="15">
+      <c r="B343" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="C343" s="26"/>
+      <c r="D343" s="26"/>
+      <c r="E343" s="26"/>
+      <c r="F343" s="26"/>
+      <c r="G343" s="26"/>
+      <c r="H343" s="26"/>
+    </row>
+    <row r="344" spans="1:18" ht="15">
+      <c r="B344" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="C344" s="26"/>
+      <c r="D344" s="26"/>
+      <c r="E344" s="26"/>
+      <c r="F344" s="26"/>
+      <c r="G344" s="26"/>
+      <c r="H344" s="26"/>
+    </row>
+    <row r="345" spans="1:18" ht="15">
+      <c r="B345" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="C345" s="26"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="26"/>
+      <c r="G345" s="26"/>
+      <c r="H345" s="26"/>
+    </row>
+    <row r="346" spans="1:18" ht="15">
+      <c r="B346" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="C346" s="45"/>
+      <c r="D346" s="45"/>
+      <c r="E346" s="45"/>
+      <c r="F346" s="45"/>
+      <c r="G346" s="26"/>
+      <c r="H346" s="26"/>
+    </row>
+    <row r="347" spans="1:18" ht="15">
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
+      <c r="D347" s="26"/>
+      <c r="E347" s="26"/>
+      <c r="F347" s="26"/>
+      <c r="G347" s="26"/>
+      <c r="H347" s="26"/>
+    </row>
+    <row r="348" spans="1:18" ht="15">
+      <c r="A348" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="B348" s="26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" ht="15">
+      <c r="B349" s="26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" ht="15">
+      <c r="C350" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" ht="15">
+      <c r="B351" s="26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" ht="15">
+      <c r="B352" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15">
+      <c r="A353" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="B353" s="28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15">
+      <c r="B354" s="26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15">
+      <c r="B355" s="28" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15">
+      <c r="B356" s="26" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -8777,9 +9783,12 @@
     <hyperlink ref="E170" r:id="rId5" xr:uid="{79955797-CA20-4910-ACC4-49651D62BA88}"/>
     <hyperlink ref="H265" r:id="rId6" xr:uid="{BAF1B10F-3EFB-45B0-B616-DF5F46BFFDB0}"/>
     <hyperlink ref="E304" r:id="rId7" xr:uid="{62B8A57C-CBE1-428C-8ED5-FBA783A3F9B3}"/>
+    <hyperlink ref="I325" r:id="rId8" xr:uid="{91CEB752-E05B-4738-B0C8-4A4574EDDBFF}"/>
+    <hyperlink ref="J326" r:id="rId9" xr:uid="{BD19DC66-9BB1-4716-9D57-DCB9F25F1C24}"/>
+    <hyperlink ref="L335" r:id="rId10" xr:uid="{E33F1820-BB0E-462A-98D6-8F2B6EBC066F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C8963-12E6-45DB-A8E3-6D3D256F0E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11FB17-C5C0-408D-AE58-8ECB5BEE4D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="4224" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="659">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -5180,12 +5180,507 @@
     <t>结构类型可以继承接口。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型分类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口 Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托 Delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言引用类型变量无论如何定义,总是引用类型变量,不会变为值类型变量.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言引用类型对象一般使用运算符new建立,用引用类型变量引用该对象.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把string转换为字符数组</t>
+  </si>
+  <si>
+    <r>
+      <t>string s="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机科学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>类 Class :  预定义的类如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 字符串类, 数组类, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char[] chars= s.ToCharArray(0,s.Length);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把每个文件看成是顺序的字节流,用抽象类Stream代表一个流,可以从Stream类派生许多派生类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如: FileStream 负责字节的读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BinaryRead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和BinaryWrite 负责读写基恩数据类型  Binary(翻译是二进制)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TextReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和TextWriter 负责文本的读写</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类和FileInfo类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过File和FileInfo类来创建 复制和删除 移动和打开 文件.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类不能建立对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是静态类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FileInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要实例化对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于需要多读写,使用FileInfo类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的常用方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppendText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAttributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCreationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLastAccessTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLastWriteTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetAttributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetCreationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetLastAccessTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetLastWriteTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和DirectoryInfo类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过这两个类来创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动文件夹.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类是静态类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能建立对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取当前目录下的所有子目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+          string[] directorys =  Directory.GetDirectories(path);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//获得所有罗技盘符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>         string[] allDrivers = Directory.GetLogicalDrives();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5473,6 +5968,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF4F4F4F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7668,10 +8170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9387,7 +9889,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
+    <row r="310" spans="2:4" ht="15">
       <c r="B310" s="26" t="s">
         <v>557</v>
       </c>
@@ -9417,17 +9919,17 @@
         <v>559</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
+    <row r="317" spans="2:4" ht="15">
       <c r="D317" s="26" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
+    <row r="318" spans="2:4" ht="15">
       <c r="D318" s="26" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="319" spans="2:4">
+    <row r="319" spans="2:4" ht="15">
       <c r="D319" s="26" t="s">
         <v>562</v>
       </c>
@@ -9772,6 +10274,283 @@
       <c r="B356" s="26" t="s">
         <v>606</v>
       </c>
+    </row>
+    <row r="357" spans="1:2" ht="15">
+      <c r="A357" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="B357" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15">
+      <c r="A358" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="B358" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15">
+      <c r="A360" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="B360" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15">
+      <c r="B361" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15">
+      <c r="B362" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15">
+      <c r="B363" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15">
+      <c r="B364" s="21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15">
+      <c r="B365" s="21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15">
+      <c r="A367" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="B367" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="B369" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15">
+      <c r="B370" s="21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="B371" s="21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15">
+      <c r="A373" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="B373" s="21" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15">
+      <c r="B374" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15">
+      <c r="B375" s="21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15">
+      <c r="B376" s="21" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15">
+      <c r="A378" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="B378" s="21" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15">
+      <c r="B379" s="26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15">
+      <c r="B380" s="21" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15">
+      <c r="B381" s="21" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15">
+      <c r="B382" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15">
+      <c r="A383" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="B383" s="21" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="B384" s="21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="21" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="21" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="21" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="21" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="21" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="21" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="21" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" s="21" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="21" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="21" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15">
+      <c r="A402" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="B402" s="21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15">
+      <c r="B403" s="21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15">
+      <c r="B404" s="21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15">
+      <c r="B405" s="21" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15">
+      <c r="B407" s="21" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="21"/>
+      <c r="B408" s="21" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="21"/>
+      <c r="B409" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="21"/>
+      <c r="B410" s="21" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="21"/>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="21"/>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="21"/>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="21"/>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11FB17-C5C0-408D-AE58-8ECB5BEE4D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333C6DC-3F76-43DF-9A00-5A2F4007C4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="432" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="701">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -5675,12 +5675,772 @@
     <t>         string[] allDrivers = Directory.GetLogicalDrives();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的文档格式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素的嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如: &lt;?xml version="1.0" encoding ="GB2312" ?&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如: &lt;?xm-stylesheet type ="text/xsl" href="student1.xsl"  ?&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用student1.xsl样式表文件显示本xml文档.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式表也可以使用.css文件.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如: &lt;!-- 这是一个注释  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> currency="US$"&gt; 25000&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件对大小写敏感</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> * IllustratedCSharp2012</t>
+  </si>
+  <si>
+    <t> * Chapter17 Generics</t>
+  </si>
+  <si>
+    <t> */</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 什么是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泛型:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种泛型:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与普通的类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先声明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再实例化不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有在类中用到的类型都是特定的类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或是程序员定义的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或是语言或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>BCL(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基类库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们可以把类的行为提取或重构出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使之不进能用到它们编码的数据类型上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还能引用到其他类型上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类会更有用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泛型允许我们用类型占位符来写代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后在创建类的实例时指明真实的类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们需要泛型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泛型类是类的模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先从泛型类构建实际的类类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后创建这个构建后的类类型的实例</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在某些类型上使用占位符来声明一个类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为占位符提供真实类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到构造类型(constructed type)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建构造类型的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要让泛型更有用,我们需要提供额外的信息,让编译器知道参数可以接受哪些类型.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这些额外的信息叫做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约束constrain</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有符合约束的类型才能替代给定的参数类型,来产生构造类型.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5975,6 +6735,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -8170,10 +8937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:R415"/>
+  <dimension ref="A1:R458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D415" sqref="D415"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G460" sqref="G460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10491,7 +11258,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="15">
+    <row r="402" spans="1:3" ht="15">
       <c r="A402" s="36">
         <v>6.3</v>
       </c>
@@ -10499,58 +11266,256 @@
         <v>651</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15">
+    <row r="403" spans="1:3" ht="15">
       <c r="B403" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15">
+    <row r="404" spans="1:3" ht="15">
       <c r="B404" s="21" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15">
+    <row r="405" spans="1:3" ht="15">
       <c r="B405" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15">
+    <row r="407" spans="1:3" ht="15">
       <c r="B407" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:3">
       <c r="A408" s="21"/>
       <c r="B408" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:3">
       <c r="A409" s="21"/>
       <c r="B409" s="21" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:3">
       <c r="A410" s="21"/>
       <c r="B410" s="21" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:3">
       <c r="A411" s="21"/>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:3">
       <c r="A412" s="21"/>
     </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="21"/>
-    </row>
-    <row r="414" spans="1:2">
+    <row r="413" spans="1:3" ht="15">
+      <c r="A413" s="21">
+        <v>12.4</v>
+      </c>
+      <c r="B413" s="21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15">
       <c r="A414" s="21"/>
-    </row>
-    <row r="415" spans="1:2">
+      <c r="B414" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15">
       <c r="A415" s="21"/>
+      <c r="C415" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15">
+      <c r="C416" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="417" spans="2:11" ht="15">
+      <c r="B417" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="418" spans="2:11" ht="15">
+      <c r="C418" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="D418" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E418" s="26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="419" spans="2:11" ht="15">
+      <c r="E419" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="420" spans="2:11" ht="15">
+      <c r="E420" s="26"/>
+      <c r="F420" s="26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="421" spans="2:11" ht="15">
+      <c r="E421" s="26"/>
+      <c r="F421" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="K421" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="422" spans="2:11" ht="15">
+      <c r="B422" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="C422" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="E422" s="26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="424" spans="2:11" ht="15">
+      <c r="B424" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11" ht="15">
+      <c r="B426" s="26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="428" spans="2:11" ht="15">
+      <c r="B428" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="C428" s="21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="430" spans="2:11" ht="15">
+      <c r="B430" s="21" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="18">
+      <c r="A438" s="36">
+        <v>17</v>
+      </c>
+      <c r="B438" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="15">
+      <c r="B439" s="28" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="15">
+      <c r="B440" s="28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="15">
+      <c r="B441" s="28" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="15">
+      <c r="B442" s="28" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="15">
+      <c r="B443" s="21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="15">
+      <c r="C444" s="26" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="15">
+      <c r="C445" s="26" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="15">
+      <c r="C446" s="26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="15">
+      <c r="C447" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="G447" s="21" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="15">
+      <c r="C448" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="G448" s="21" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="12.6" customHeight="1">
+      <c r="B449" s="21" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15">
+      <c r="A450" s="36">
+        <v>17.3</v>
+      </c>
+      <c r="B450" s="26" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15">
+      <c r="B451" s="28" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15">
+      <c r="B452" s="28" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15">
+      <c r="B453" s="28" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15">
+      <c r="B454" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15">
+      <c r="B456" s="26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15">
+      <c r="B457" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15">
+      <c r="B458" s="26" t="s">
+        <v>700</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10565,9 +11530,10 @@
     <hyperlink ref="I325" r:id="rId8" xr:uid="{91CEB752-E05B-4738-B0C8-4A4574EDDBFF}"/>
     <hyperlink ref="J326" r:id="rId9" xr:uid="{BD19DC66-9BB1-4716-9D57-DCB9F25F1C24}"/>
     <hyperlink ref="L335" r:id="rId10" xr:uid="{E33F1820-BB0E-462A-98D6-8F2B6EBC066F}"/>
+    <hyperlink ref="K421" r:id="rId11" xr:uid="{A039A165-4656-4F5F-BA8C-B28D7F6F657C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333C6DC-3F76-43DF-9A00-5A2F4007C4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867329BB-C172-4B34-893E-00BF70EBBC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="432" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="805">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -6435,12 +6435,705 @@
     <t>只有符合约束的类型才能替代给定的参数类型,来产生构造类型.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>约束类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束类型和次序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有这个类型或从他继承的类才能用作类型实参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何引用类型,包括 类 数组 委托 接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有这个接口或实现这个接口的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何带有无参公共构造函数的类型都可以用做类型实参,叫做构造函数约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个主约束,必须放在第一位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以有任意多的接口名约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在构造函数约束,则必须放在最后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where s: Icomparable&lt;S&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class Sorted&lt;S&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class Sorted2&lt;S&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where s:Ienumerable,new()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托的声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoReturnNOPara()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoReturnWithPara(int x, int y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public delegate  MyDelegateEvent WithReturnWitPara(out int x, ref int y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托的实例化: 要求传递一个参数类型,返回值类型跟委托一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public void DoNothing{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int y =3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private MyDelegateEvent ParaReturn(out int x,ref int y){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托的调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoReturnNoPara method=new NoReturnNoPara(this.DoNothing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithReturnWithPara withPara=new WithReturnWithPara(this.ParaReturn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withPara.Invoke(out int x ,ref y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可以省掉.Invoke()  invoke英文是调用的意思</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncResult asyncResult =method.BeginInvoke(null,null) ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动一个县城完成计算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$符号的作用相当于对String.format()的简化</t>
+  </si>
+  <si>
+    <r>
+      <t>?? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空合并运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a??b ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回右边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>b;a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>;??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算顺序从右到左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> a??b??c =a??(b??c)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DateTime? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示可空的时间类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示可空的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List&lt;T&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义: List&lt;T&gt;类表示可以通过索引访问对象的强制类型列表,提供用于对列表进行搜索\ 排序\和作用的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型最常用的用途是泛型集合,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在创建列表类时,列表项的数据类型可能是int string 或其他类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果对列表项的处理方法相同,就没必要先指定数据类型,留待列表类实例化时再指定,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于把数据类型当成参数,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样可以最大限度的重用代码保护类型的安全以及提高性能.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的一般用法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  //public class List&lt;T&gt; : IList&lt;T&gt;, ICollection&lt;T&gt;, IEnumerable&lt;T&gt;, IEnumerable, IList, ICollection, IReadOnlyList&lt;T&gt;, IReadOnlyCollection&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>链接点这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg: string[] Arr = {"a","b","c"};</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt; mlist = new List&lt;string&gt;(Arr);</t>
+  </si>
+  <si>
+    <t>eg: mlist.Add("d");</t>
+  </si>
+  <si>
+    <t>(3)添加集合元素</t>
+  </si>
+  <si>
+    <t>eg: string[] Arr2 ={"f","g"."h"};</t>
+  </si>
+  <si>
+    <t>mlist.AddRange(Arr2);</t>
+  </si>
+  <si>
+    <t>(4)在index位置添加一个元素 Insert(int index,T item)</t>
+  </si>
+  <si>
+    <t>eg: mlist.Insert(1,"p");</t>
+  </si>
+  <si>
+    <t>(1)声明 List&lt;T&gt;mlist = new List&lt;T&gt;();</t>
+  </si>
+  <si>
+    <t>(2)添加一个元素 List.Add(T item)　</t>
+  </si>
+  <si>
+    <t>(5)遍历List中元素</t>
+  </si>
+  <si>
+    <t>　　foreach(T element in mlist) T的类型与mlist声明时一样</t>
+  </si>
+  <si>
+    <t>　　　　　{</t>
+  </si>
+  <si>
+    <t>　　　　　　 Console.WriteLine(element);</t>
+  </si>
+  <si>
+    <t>eg:</t>
+  </si>
+  <si>
+    <t>foreach(string s in mlist)</t>
+  </si>
+  <si>
+    <t>Console.WriteLine(s);</t>
+  </si>
+  <si>
+    <t>(6)删除元素</t>
+  </si>
+  <si>
+    <t>List.Remove(T item) 删除一个值</t>
+  </si>
+  <si>
+    <t>eg: mlist.Remove("a");</t>
+  </si>
+  <si>
+    <t>List.RemoveAt(int index);删除下标为index的元素</t>
+  </si>
+  <si>
+    <t>eg: mlist.RemoveAt(0);</t>
+  </si>
+  <si>
+    <t>List.RemoveRange(int index,int count);　下标index开始，删除count个元素</t>
+  </si>
+  <si>
+    <t>eg：mlist.RemoveRange(3,2);</t>
+  </si>
+  <si>
+    <t>(7)判断某个元素是否在该List中</t>
+  </si>
+  <si>
+    <t>List.Contains(T item)　返回true或false</t>
+  </si>
+  <si>
+    <t>if(mlist.Contains"("g"))</t>
+  </si>
+  <si>
+    <t>Console.WriteLine("g存在列表中");</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>mlist.Add("g");</t>
+  </si>
+  <si>
+    <t>(8)给List里面元素排序 List.Sort()　默认是元素每一个字母按升序</t>
+  </si>
+  <si>
+    <t>eg: mlist.Sort();</t>
+  </si>
+  <si>
+    <t>(9)给List里面元素顺序反转 List.Reverse() 可以与List.Sort()配合使用</t>
+  </si>
+  <si>
+    <t>(10)List清空 List.Clear()</t>
+  </si>
+  <si>
+    <t>eg: mlist.Clear();</t>
+  </si>
+  <si>
+    <t>(11)获得List中元素数目 List.Count()　返回int值</t>
+  </si>
+  <si>
+    <t>eg: mlist.count();</t>
+  </si>
+  <si>
+    <t>List进阶，强大方法</t>
+  </si>
+  <si>
+    <r>
+      <t>(1)List.FindAll方法：检索与指定谓词所定义的条件相匹配的所有元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>(2)List.Find方法</t>
+  </si>
+  <si>
+    <t>(3) List.FindLast方法</t>
+  </si>
+  <si>
+    <t>4) List.TrueForAll方法</t>
+  </si>
+  <si>
+    <t>(5) List.Take(n)</t>
+  </si>
+  <si>
+    <t>(6) List.Where方法</t>
+  </si>
+  <si>
+    <t>(7)List.RemoveAll方法</t>
+  </si>
+  <si>
+    <t>一般多播委托是不带返回值的.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6746,6 +7439,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF33B45"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6786,7 +7493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6863,6 +7570,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6957,7 +7667,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -8937,10 +9647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:R458"/>
+  <dimension ref="A1:R575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G460" sqref="G460"/>
+    <sheetView tabSelected="1" topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H502" sqref="H502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11469,12 +12179,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="12.6" customHeight="1">
+    <row r="449" spans="1:3" ht="12.6" customHeight="1">
       <c r="B449" s="21" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15">
+    <row r="450" spans="1:3" ht="15">
       <c r="A450" s="36">
         <v>17.3</v>
       </c>
@@ -11482,39 +12192,593 @@
         <v>689</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15">
+    <row r="451" spans="1:3" ht="15">
       <c r="B451" s="28" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15">
+    <row r="452" spans="1:3" ht="15">
       <c r="B452" s="28" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15">
+    <row r="453" spans="1:3" ht="15">
       <c r="B453" s="28" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15">
+    <row r="454" spans="1:3" ht="15">
       <c r="B454" s="26" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15">
+    <row r="456" spans="1:3" ht="15">
+      <c r="A456" s="36" t="s">
+        <v>702</v>
+      </c>
       <c r="B456" s="26" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15">
+    <row r="457" spans="1:3" ht="15">
       <c r="B457" s="28" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15">
+    <row r="458" spans="1:3" ht="15">
       <c r="B458" s="26" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15">
+      <c r="A460" s="36" t="s">
+        <v>703</v>
+      </c>
+      <c r="B460" s="26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15">
+      <c r="B462" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="C462" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15">
+      <c r="B463" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="C463" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15">
+      <c r="B464" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="C464" s="26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" ht="15">
+      <c r="B465" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="C465" s="26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" ht="15">
+      <c r="B466" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="C466" s="26" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" ht="15">
+      <c r="B467" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C467" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" ht="15">
+      <c r="B469" s="28" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" ht="15">
+      <c r="B470" s="26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" ht="15">
+      <c r="B471" s="26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" ht="15">
+      <c r="C472" s="26" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4">
+      <c r="C473" s="21" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4">
+      <c r="D474" s="21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4">
+      <c r="C476" s="21" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4">
+      <c r="D477" s="21" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="15">
+      <c r="B481" s="26" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="15">
+      <c r="A482" s="36">
+        <v>1</v>
+      </c>
+      <c r="B482" s="26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11">
+      <c r="B483" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="C483" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="E483" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="F483" s="21" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11">
+      <c r="B484" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="C484" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="E484" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="F484" s="21" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11">
+      <c r="B485" s="21" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" ht="15">
+      <c r="A487" s="36">
+        <v>2</v>
+      </c>
+      <c r="B487" s="26" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" ht="15">
+      <c r="B488" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="K488" s="21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" ht="15">
+      <c r="B489" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="K489" s="21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11">
+      <c r="B491" s="21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11">
+      <c r="B492" s="21" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11">
+      <c r="C493" s="21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" ht="15">
+      <c r="A495" s="36">
+        <v>3</v>
+      </c>
+      <c r="B495" s="26" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11">
+      <c r="C496" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="15">
+      <c r="C497" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="E497" s="21" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="C499" s="21" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="15">
+      <c r="E500" s="21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="36">
+        <v>4</v>
+      </c>
+      <c r="B501" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="B504" s="46" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="15">
+      <c r="B506" s="21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="15">
+      <c r="B507" s="21" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="15">
+      <c r="B508" s="21" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="18.600000000000001">
+      <c r="B510" s="22" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="15">
+      <c r="A511" s="36">
+        <v>1</v>
+      </c>
+      <c r="B511" s="26" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="15">
+      <c r="A512" s="36">
+        <v>2</v>
+      </c>
+      <c r="B512" s="26" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="15">
+      <c r="B513" s="26" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="15">
+      <c r="B514" s="26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="16.2">
+      <c r="B515" s="47" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="15">
+      <c r="B516" s="26" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="15">
+      <c r="A518" s="36">
+        <v>2</v>
+      </c>
+      <c r="B518" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="B519" s="21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" s="36">
+        <v>2.1</v>
+      </c>
+      <c r="B521" s="21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="B522" s="21" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="B523" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I523" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B524" s="21" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="B525" s="21" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="B526" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="B527" s="21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="B528" s="21" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="21" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="21" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="21" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="21" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="21" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="21" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="21" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="21" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="21" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="21" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="21" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" s="21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="561" spans="2:9">
+      <c r="B561" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="563" spans="2:9">
+      <c r="B563" s="21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="564" spans="2:9">
+      <c r="B564" s="21" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="565" spans="2:9">
+      <c r="B565" s="21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="566" spans="2:9">
+      <c r="B566" s="21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="568" spans="2:9">
+      <c r="B568" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="I568" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="569" spans="2:9">
+      <c r="B569" s="48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="570" spans="2:9">
+      <c r="B570" s="48" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="571" spans="2:9">
+      <c r="B571" s="48" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="572" spans="2:9">
+      <c r="B572" s="48" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="573" spans="2:9">
+      <c r="B573" s="48" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="574" spans="2:9">
+      <c r="B574" s="48" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="575" spans="2:9">
+      <c r="B575" s="48" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -11531,9 +12795,11 @@
     <hyperlink ref="J326" r:id="rId9" xr:uid="{BD19DC66-9BB1-4716-9D57-DCB9F25F1C24}"/>
     <hyperlink ref="L335" r:id="rId10" xr:uid="{E33F1820-BB0E-462A-98D6-8F2B6EBC066F}"/>
     <hyperlink ref="K421" r:id="rId11" xr:uid="{A039A165-4656-4F5F-BA8C-B28D7F6F657C}"/>
+    <hyperlink ref="I523" r:id="rId12" xr:uid="{1BAC33C4-354A-4A8C-B7B3-70FD57DF2B02}"/>
+    <hyperlink ref="I568" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1F7D7-0355-4FFA-8419-1C055D370590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BA847-4EE5-4CBE-BBC0-0D024CEB1216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="12" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1488" yWindow="0" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="841">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -7363,6 +7363,21 @@
   </si>
   <si>
     <t>创建楼板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建屋顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Diagnostics.Trace</t>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建族实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7907,7 +7922,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -8403,10 +8418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181:C182"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G191" sqref="F191:G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9559,15 +9574,34 @@
         <v>836</v>
       </c>
     </row>
+    <row r="184" spans="1:8" ht="20.399999999999999">
+      <c r="B184" s="38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="D188" t="s">
+        <v>839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{6261FA76-B032-41CA-A069-6D79FA838B23}"/>
     <hyperlink ref="D98" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
     <hyperlink ref="E163" r:id="rId3" xr:uid="{41D214AC-9138-4B79-BC6D-B94C3AB1461D}"/>
+    <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html" xr:uid="{719637DE-DC5B-4C59-9DAC-A444086903B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BA847-4EE5-4CBE-BBC0-0D024CEB1216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2ED01-A4E5-4A8C-9440-895E0AD6452D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="0" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13812" yWindow="5940" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="866">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -7378,6 +7378,118 @@
   </si>
   <si>
     <t>创建族实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举器和迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型枚举接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大多数情况使用泛型枚举接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEnumerable&lt;T&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEnumerator&lt;T&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以把手动生成的可枚举类型和枚举器替换为迭代器生成的可枚举型和枚举器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发音是link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供程序: 根据数据源类型实现LINQ查询的代码块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名类型可以和局部变量配合使用,不能用于类成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于匿名类型没有名字,我们必须使用var关键字作为变量类型;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能设置匿名类型对象的属性.编译器为匿名类型创建的属性是只读的.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员初始化语句是赋值形式;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员访问表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符形式.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法语法和查询语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法语法和查询语法可以组合书写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8420,7 +8532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G191" sqref="F191:G191"/>
     </sheetView>
   </sheetViews>
@@ -9936,10 +10048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA596"/>
+  <dimension ref="A1:XFA616"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H500" sqref="H500"/>
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D619" sqref="D619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21393,24 +21505,135 @@
         <v>798</v>
       </c>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="1:3">
       <c r="B593" s="45" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="1:3">
       <c r="B594" s="45" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="1:3">
       <c r="B595" s="45" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="1:3">
       <c r="B596" s="45" t="s">
         <v>802</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" ht="15">
+      <c r="A598" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="B598" s="26" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" ht="15">
+      <c r="A599" s="47" t="s">
+        <v>843</v>
+      </c>
+      <c r="B599" s="26" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" ht="15">
+      <c r="C600" s="26" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="C601" s="21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="C602" s="21" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" ht="15">
+      <c r="A603" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="B603" s="26" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" ht="15">
+      <c r="C604" s="26" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" ht="15">
+      <c r="A606" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="B606" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="C606" s="26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" ht="15">
+      <c r="A607" s="47" t="s">
+        <v>854</v>
+      </c>
+      <c r="B607" s="21" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" ht="15">
+      <c r="B608" s="26" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" ht="15">
+      <c r="C609" s="26" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" ht="15">
+      <c r="C610" s="26" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" ht="15">
+      <c r="C611" s="26" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" ht="15">
+      <c r="B612" s="26" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="15">
+      <c r="B613" s="26" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" ht="15">
+      <c r="B614" s="26" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" ht="15">
+      <c r="A615" s="47" t="s">
+        <v>863</v>
+      </c>
+      <c r="B615" s="26" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" ht="15">
+      <c r="B616" s="26" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2ED01-A4E5-4A8C-9440-895E0AD6452D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F286551-97DF-45DE-AC6B-C77F90D1ECA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13812" yWindow="5940" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="903">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -7490,6 +7490,340 @@
   </si>
   <si>
     <t>方法语法和查询语法可以组合书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询可以返回两种类型的结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以是一个枚举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可以是一个叫做标量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>scalar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的单一值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>也可以是一个叫做标量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>scalar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的单一值</t>
+    </r>
+  </si>
+  <si>
+    <t>19.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询表达式的结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受两个集合,然后创建一个新的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个元素,包涵两个原始集合中的原始成员.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询主体中的from…let…where片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句: 接受一个表达式的运算,并且把它赋值给一个需要在其他运算符中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的标识符.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在from…let…where中,可以有任意多个where子句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个项必须满足where子句才能避免在之后被过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>orderby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受一个表达式,并根据表达式按顺序返回结果项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteLine($"{s.LName},{s.FName},{s.Age},{s.Major}");</t>
+  </si>
+  <si>
+    <t>19.5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select…group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询中的匿名类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在select子句创建一个匿名类型,并且在之后只用WriteLine语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把select的对象根据一些标准进行分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询延续: into子句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准查询运算符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10048,10 +10382,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA616"/>
+  <dimension ref="A1:XFA640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D619" sqref="D619"/>
+    <sheetView tabSelected="1" topLeftCell="A621" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F643" sqref="F642:F643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21199,441 +21533,4696 @@
       <c r="XEW525" s="43"/>
       <c r="XFA525" s="43"/>
     </row>
-    <row r="527" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
-      <c r="B527" s="21" t="s">
-        <v>745</v>
-      </c>
+    <row r="526" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
+      <c r="A526" s="51"/>
+      <c r="B526" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="E526" s="43"/>
+      <c r="I526" s="43"/>
+      <c r="M526" s="43"/>
+      <c r="Q526" s="43"/>
+      <c r="U526" s="43"/>
+      <c r="Y526" s="43"/>
+      <c r="AC526" s="43"/>
+      <c r="AG526" s="43"/>
+      <c r="AK526" s="43"/>
+      <c r="AO526" s="43"/>
+      <c r="AS526" s="43"/>
+      <c r="AW526" s="43"/>
+      <c r="BA526" s="43"/>
+      <c r="BE526" s="43"/>
+      <c r="BI526" s="43"/>
+      <c r="BM526" s="43"/>
+      <c r="BQ526" s="43"/>
+      <c r="BU526" s="43"/>
+      <c r="BY526" s="43"/>
+      <c r="CC526" s="43"/>
+      <c r="CG526" s="43"/>
+      <c r="CK526" s="43"/>
+      <c r="CO526" s="43"/>
+      <c r="CS526" s="43"/>
+      <c r="CW526" s="43"/>
+      <c r="DA526" s="43"/>
+      <c r="DE526" s="43"/>
+      <c r="DI526" s="43"/>
+      <c r="DM526" s="43"/>
+      <c r="DQ526" s="43"/>
+      <c r="DU526" s="43"/>
+      <c r="DY526" s="43"/>
+      <c r="EC526" s="43"/>
+      <c r="EG526" s="43"/>
+      <c r="EK526" s="43"/>
+      <c r="EO526" s="43"/>
+      <c r="ES526" s="43"/>
+      <c r="EW526" s="43"/>
+      <c r="FA526" s="43"/>
+      <c r="FE526" s="43"/>
+      <c r="FI526" s="43"/>
+      <c r="FM526" s="43"/>
+      <c r="FQ526" s="43"/>
+      <c r="FU526" s="43"/>
+      <c r="FY526" s="43"/>
+      <c r="GC526" s="43"/>
+      <c r="GG526" s="43"/>
+      <c r="GK526" s="43"/>
+      <c r="GO526" s="43"/>
+      <c r="GS526" s="43"/>
+      <c r="GW526" s="43"/>
+      <c r="HA526" s="43"/>
+      <c r="HE526" s="43"/>
+      <c r="HI526" s="43"/>
+      <c r="HM526" s="43"/>
+      <c r="HQ526" s="43"/>
+      <c r="HU526" s="43"/>
+      <c r="HY526" s="43"/>
+      <c r="IC526" s="43"/>
+      <c r="IG526" s="43"/>
+      <c r="IK526" s="43"/>
+      <c r="IO526" s="43"/>
+      <c r="IS526" s="43"/>
+      <c r="IW526" s="43"/>
+      <c r="JA526" s="43"/>
+      <c r="JE526" s="43"/>
+      <c r="JI526" s="43"/>
+      <c r="JM526" s="43"/>
+      <c r="JQ526" s="43"/>
+      <c r="JU526" s="43"/>
+      <c r="JY526" s="43"/>
+      <c r="KC526" s="43"/>
+      <c r="KG526" s="43"/>
+      <c r="KK526" s="43"/>
+      <c r="KO526" s="43"/>
+      <c r="KS526" s="43"/>
+      <c r="KW526" s="43"/>
+      <c r="LA526" s="43"/>
+      <c r="LE526" s="43"/>
+      <c r="LI526" s="43"/>
+      <c r="LM526" s="43"/>
+      <c r="LQ526" s="43"/>
+      <c r="LU526" s="43"/>
+      <c r="LY526" s="43"/>
+      <c r="MC526" s="43"/>
+      <c r="MG526" s="43"/>
+      <c r="MK526" s="43"/>
+      <c r="MO526" s="43"/>
+      <c r="MS526" s="43"/>
+      <c r="MW526" s="43"/>
+      <c r="NA526" s="43"/>
+      <c r="NE526" s="43"/>
+      <c r="NI526" s="43"/>
+      <c r="NM526" s="43"/>
+      <c r="NQ526" s="43"/>
+      <c r="NU526" s="43"/>
+      <c r="NY526" s="43"/>
+      <c r="OC526" s="43"/>
+      <c r="OG526" s="43"/>
+      <c r="OK526" s="43"/>
+      <c r="OO526" s="43"/>
+      <c r="OS526" s="43"/>
+      <c r="OW526" s="43"/>
+      <c r="PA526" s="43"/>
+      <c r="PE526" s="43"/>
+      <c r="PI526" s="43"/>
+      <c r="PM526" s="43"/>
+      <c r="PQ526" s="43"/>
+      <c r="PU526" s="43"/>
+      <c r="PY526" s="43"/>
+      <c r="QC526" s="43"/>
+      <c r="QG526" s="43"/>
+      <c r="QK526" s="43"/>
+      <c r="QO526" s="43"/>
+      <c r="QS526" s="43"/>
+      <c r="QW526" s="43"/>
+      <c r="RA526" s="43"/>
+      <c r="RE526" s="43"/>
+      <c r="RI526" s="43"/>
+      <c r="RM526" s="43"/>
+      <c r="RQ526" s="43"/>
+      <c r="RU526" s="43"/>
+      <c r="RY526" s="43"/>
+      <c r="SC526" s="43"/>
+      <c r="SG526" s="43"/>
+      <c r="SK526" s="43"/>
+      <c r="SO526" s="43"/>
+      <c r="SS526" s="43"/>
+      <c r="SW526" s="43"/>
+      <c r="TA526" s="43"/>
+      <c r="TE526" s="43"/>
+      <c r="TI526" s="43"/>
+      <c r="TM526" s="43"/>
+      <c r="TQ526" s="43"/>
+      <c r="TU526" s="43"/>
+      <c r="TY526" s="43"/>
+      <c r="UC526" s="43"/>
+      <c r="UG526" s="43"/>
+      <c r="UK526" s="43"/>
+      <c r="UO526" s="43"/>
+      <c r="US526" s="43"/>
+      <c r="UW526" s="43"/>
+      <c r="VA526" s="43"/>
+      <c r="VE526" s="43"/>
+      <c r="VI526" s="43"/>
+      <c r="VM526" s="43"/>
+      <c r="VQ526" s="43"/>
+      <c r="VU526" s="43"/>
+      <c r="VY526" s="43"/>
+      <c r="WC526" s="43"/>
+      <c r="WG526" s="43"/>
+      <c r="WK526" s="43"/>
+      <c r="WO526" s="43"/>
+      <c r="WS526" s="43"/>
+      <c r="WW526" s="43"/>
+      <c r="XA526" s="43"/>
+      <c r="XE526" s="43"/>
+      <c r="XI526" s="43"/>
+      <c r="XM526" s="43"/>
+      <c r="XQ526" s="43"/>
+      <c r="XU526" s="43"/>
+      <c r="XY526" s="43"/>
+      <c r="YC526" s="43"/>
+      <c r="YG526" s="43"/>
+      <c r="YK526" s="43"/>
+      <c r="YO526" s="43"/>
+      <c r="YS526" s="43"/>
+      <c r="YW526" s="43"/>
+      <c r="ZA526" s="43"/>
+      <c r="ZE526" s="43"/>
+      <c r="ZI526" s="43"/>
+      <c r="ZM526" s="43"/>
+      <c r="ZQ526" s="43"/>
+      <c r="ZU526" s="43"/>
+      <c r="ZY526" s="43"/>
+      <c r="AAC526" s="43"/>
+      <c r="AAG526" s="43"/>
+      <c r="AAK526" s="43"/>
+      <c r="AAO526" s="43"/>
+      <c r="AAS526" s="43"/>
+      <c r="AAW526" s="43"/>
+      <c r="ABA526" s="43"/>
+      <c r="ABE526" s="43"/>
+      <c r="ABI526" s="43"/>
+      <c r="ABM526" s="43"/>
+      <c r="ABQ526" s="43"/>
+      <c r="ABU526" s="43"/>
+      <c r="ABY526" s="43"/>
+      <c r="ACC526" s="43"/>
+      <c r="ACG526" s="43"/>
+      <c r="ACK526" s="43"/>
+      <c r="ACO526" s="43"/>
+      <c r="ACS526" s="43"/>
+      <c r="ACW526" s="43"/>
+      <c r="ADA526" s="43"/>
+      <c r="ADE526" s="43"/>
+      <c r="ADI526" s="43"/>
+      <c r="ADM526" s="43"/>
+      <c r="ADQ526" s="43"/>
+      <c r="ADU526" s="43"/>
+      <c r="ADY526" s="43"/>
+      <c r="AEC526" s="43"/>
+      <c r="AEG526" s="43"/>
+      <c r="AEK526" s="43"/>
+      <c r="AEO526" s="43"/>
+      <c r="AES526" s="43"/>
+      <c r="AEW526" s="43"/>
+      <c r="AFA526" s="43"/>
+      <c r="AFE526" s="43"/>
+      <c r="AFI526" s="43"/>
+      <c r="AFM526" s="43"/>
+      <c r="AFQ526" s="43"/>
+      <c r="AFU526" s="43"/>
+      <c r="AFY526" s="43"/>
+      <c r="AGC526" s="43"/>
+      <c r="AGG526" s="43"/>
+      <c r="AGK526" s="43"/>
+      <c r="AGO526" s="43"/>
+      <c r="AGS526" s="43"/>
+      <c r="AGW526" s="43"/>
+      <c r="AHA526" s="43"/>
+      <c r="AHE526" s="43"/>
+      <c r="AHI526" s="43"/>
+      <c r="AHM526" s="43"/>
+      <c r="AHQ526" s="43"/>
+      <c r="AHU526" s="43"/>
+      <c r="AHY526" s="43"/>
+      <c r="AIC526" s="43"/>
+      <c r="AIG526" s="43"/>
+      <c r="AIK526" s="43"/>
+      <c r="AIO526" s="43"/>
+      <c r="AIS526" s="43"/>
+      <c r="AIW526" s="43"/>
+      <c r="AJA526" s="43"/>
+      <c r="AJE526" s="43"/>
+      <c r="AJI526" s="43"/>
+      <c r="AJM526" s="43"/>
+      <c r="AJQ526" s="43"/>
+      <c r="AJU526" s="43"/>
+      <c r="AJY526" s="43"/>
+      <c r="AKC526" s="43"/>
+      <c r="AKG526" s="43"/>
+      <c r="AKK526" s="43"/>
+      <c r="AKO526" s="43"/>
+      <c r="AKS526" s="43"/>
+      <c r="AKW526" s="43"/>
+      <c r="ALA526" s="43"/>
+      <c r="ALE526" s="43"/>
+      <c r="ALI526" s="43"/>
+      <c r="ALM526" s="43"/>
+      <c r="ALQ526" s="43"/>
+      <c r="ALU526" s="43"/>
+      <c r="ALY526" s="43"/>
+      <c r="AMC526" s="43"/>
+      <c r="AMG526" s="43"/>
+      <c r="AMK526" s="43"/>
+      <c r="AMO526" s="43"/>
+      <c r="AMS526" s="43"/>
+      <c r="AMW526" s="43"/>
+      <c r="ANA526" s="43"/>
+      <c r="ANE526" s="43"/>
+      <c r="ANI526" s="43"/>
+      <c r="ANM526" s="43"/>
+      <c r="ANQ526" s="43"/>
+      <c r="ANU526" s="43"/>
+      <c r="ANY526" s="43"/>
+      <c r="AOC526" s="43"/>
+      <c r="AOG526" s="43"/>
+      <c r="AOK526" s="43"/>
+      <c r="AOO526" s="43"/>
+      <c r="AOS526" s="43"/>
+      <c r="AOW526" s="43"/>
+      <c r="APA526" s="43"/>
+      <c r="APE526" s="43"/>
+      <c r="API526" s="43"/>
+      <c r="APM526" s="43"/>
+      <c r="APQ526" s="43"/>
+      <c r="APU526" s="43"/>
+      <c r="APY526" s="43"/>
+      <c r="AQC526" s="43"/>
+      <c r="AQG526" s="43"/>
+      <c r="AQK526" s="43"/>
+      <c r="AQO526" s="43"/>
+      <c r="AQS526" s="43"/>
+      <c r="AQW526" s="43"/>
+      <c r="ARA526" s="43"/>
+      <c r="ARE526" s="43"/>
+      <c r="ARI526" s="43"/>
+      <c r="ARM526" s="43"/>
+      <c r="ARQ526" s="43"/>
+      <c r="ARU526" s="43"/>
+      <c r="ARY526" s="43"/>
+      <c r="ASC526" s="43"/>
+      <c r="ASG526" s="43"/>
+      <c r="ASK526" s="43"/>
+      <c r="ASO526" s="43"/>
+      <c r="ASS526" s="43"/>
+      <c r="ASW526" s="43"/>
+      <c r="ATA526" s="43"/>
+      <c r="ATE526" s="43"/>
+      <c r="ATI526" s="43"/>
+      <c r="ATM526" s="43"/>
+      <c r="ATQ526" s="43"/>
+      <c r="ATU526" s="43"/>
+      <c r="ATY526" s="43"/>
+      <c r="AUC526" s="43"/>
+      <c r="AUG526" s="43"/>
+      <c r="AUK526" s="43"/>
+      <c r="AUO526" s="43"/>
+      <c r="AUS526" s="43"/>
+      <c r="AUW526" s="43"/>
+      <c r="AVA526" s="43"/>
+      <c r="AVE526" s="43"/>
+      <c r="AVI526" s="43"/>
+      <c r="AVM526" s="43"/>
+      <c r="AVQ526" s="43"/>
+      <c r="AVU526" s="43"/>
+      <c r="AVY526" s="43"/>
+      <c r="AWC526" s="43"/>
+      <c r="AWG526" s="43"/>
+      <c r="AWK526" s="43"/>
+      <c r="AWO526" s="43"/>
+      <c r="AWS526" s="43"/>
+      <c r="AWW526" s="43"/>
+      <c r="AXA526" s="43"/>
+      <c r="AXE526" s="43"/>
+      <c r="AXI526" s="43"/>
+      <c r="AXM526" s="43"/>
+      <c r="AXQ526" s="43"/>
+      <c r="AXU526" s="43"/>
+      <c r="AXY526" s="43"/>
+      <c r="AYC526" s="43"/>
+      <c r="AYG526" s="43"/>
+      <c r="AYK526" s="43"/>
+      <c r="AYO526" s="43"/>
+      <c r="AYS526" s="43"/>
+      <c r="AYW526" s="43"/>
+      <c r="AZA526" s="43"/>
+      <c r="AZE526" s="43"/>
+      <c r="AZI526" s="43"/>
+      <c r="AZM526" s="43"/>
+      <c r="AZQ526" s="43"/>
+      <c r="AZU526" s="43"/>
+      <c r="AZY526" s="43"/>
+      <c r="BAC526" s="43"/>
+      <c r="BAG526" s="43"/>
+      <c r="BAK526" s="43"/>
+      <c r="BAO526" s="43"/>
+      <c r="BAS526" s="43"/>
+      <c r="BAW526" s="43"/>
+      <c r="BBA526" s="43"/>
+      <c r="BBE526" s="43"/>
+      <c r="BBI526" s="43"/>
+      <c r="BBM526" s="43"/>
+      <c r="BBQ526" s="43"/>
+      <c r="BBU526" s="43"/>
+      <c r="BBY526" s="43"/>
+      <c r="BCC526" s="43"/>
+      <c r="BCG526" s="43"/>
+      <c r="BCK526" s="43"/>
+      <c r="BCO526" s="43"/>
+      <c r="BCS526" s="43"/>
+      <c r="BCW526" s="43"/>
+      <c r="BDA526" s="43"/>
+      <c r="BDE526" s="43"/>
+      <c r="BDI526" s="43"/>
+      <c r="BDM526" s="43"/>
+      <c r="BDQ526" s="43"/>
+      <c r="BDU526" s="43"/>
+      <c r="BDY526" s="43"/>
+      <c r="BEC526" s="43"/>
+      <c r="BEG526" s="43"/>
+      <c r="BEK526" s="43"/>
+      <c r="BEO526" s="43"/>
+      <c r="BES526" s="43"/>
+      <c r="BEW526" s="43"/>
+      <c r="BFA526" s="43"/>
+      <c r="BFE526" s="43"/>
+      <c r="BFI526" s="43"/>
+      <c r="BFM526" s="43"/>
+      <c r="BFQ526" s="43"/>
+      <c r="BFU526" s="43"/>
+      <c r="BFY526" s="43"/>
+      <c r="BGC526" s="43"/>
+      <c r="BGG526" s="43"/>
+      <c r="BGK526" s="43"/>
+      <c r="BGO526" s="43"/>
+      <c r="BGS526" s="43"/>
+      <c r="BGW526" s="43"/>
+      <c r="BHA526" s="43"/>
+      <c r="BHE526" s="43"/>
+      <c r="BHI526" s="43"/>
+      <c r="BHM526" s="43"/>
+      <c r="BHQ526" s="43"/>
+      <c r="BHU526" s="43"/>
+      <c r="BHY526" s="43"/>
+      <c r="BIC526" s="43"/>
+      <c r="BIG526" s="43"/>
+      <c r="BIK526" s="43"/>
+      <c r="BIO526" s="43"/>
+      <c r="BIS526" s="43"/>
+      <c r="BIW526" s="43"/>
+      <c r="BJA526" s="43"/>
+      <c r="BJE526" s="43"/>
+      <c r="BJI526" s="43"/>
+      <c r="BJM526" s="43"/>
+      <c r="BJQ526" s="43"/>
+      <c r="BJU526" s="43"/>
+      <c r="BJY526" s="43"/>
+      <c r="BKC526" s="43"/>
+      <c r="BKG526" s="43"/>
+      <c r="BKK526" s="43"/>
+      <c r="BKO526" s="43"/>
+      <c r="BKS526" s="43"/>
+      <c r="BKW526" s="43"/>
+      <c r="BLA526" s="43"/>
+      <c r="BLE526" s="43"/>
+      <c r="BLI526" s="43"/>
+      <c r="BLM526" s="43"/>
+      <c r="BLQ526" s="43"/>
+      <c r="BLU526" s="43"/>
+      <c r="BLY526" s="43"/>
+      <c r="BMC526" s="43"/>
+      <c r="BMG526" s="43"/>
+      <c r="BMK526" s="43"/>
+      <c r="BMO526" s="43"/>
+      <c r="BMS526" s="43"/>
+      <c r="BMW526" s="43"/>
+      <c r="BNA526" s="43"/>
+      <c r="BNE526" s="43"/>
+      <c r="BNI526" s="43"/>
+      <c r="BNM526" s="43"/>
+      <c r="BNQ526" s="43"/>
+      <c r="BNU526" s="43"/>
+      <c r="BNY526" s="43"/>
+      <c r="BOC526" s="43"/>
+      <c r="BOG526" s="43"/>
+      <c r="BOK526" s="43"/>
+      <c r="BOO526" s="43"/>
+      <c r="BOS526" s="43"/>
+      <c r="BOW526" s="43"/>
+      <c r="BPA526" s="43"/>
+      <c r="BPE526" s="43"/>
+      <c r="BPI526" s="43"/>
+      <c r="BPM526" s="43"/>
+      <c r="BPQ526" s="43"/>
+      <c r="BPU526" s="43"/>
+      <c r="BPY526" s="43"/>
+      <c r="BQC526" s="43"/>
+      <c r="BQG526" s="43"/>
+      <c r="BQK526" s="43"/>
+      <c r="BQO526" s="43"/>
+      <c r="BQS526" s="43"/>
+      <c r="BQW526" s="43"/>
+      <c r="BRA526" s="43"/>
+      <c r="BRE526" s="43"/>
+      <c r="BRI526" s="43"/>
+      <c r="BRM526" s="43"/>
+      <c r="BRQ526" s="43"/>
+      <c r="BRU526" s="43"/>
+      <c r="BRY526" s="43"/>
+      <c r="BSC526" s="43"/>
+      <c r="BSG526" s="43"/>
+      <c r="BSK526" s="43"/>
+      <c r="BSO526" s="43"/>
+      <c r="BSS526" s="43"/>
+      <c r="BSW526" s="43"/>
+      <c r="BTA526" s="43"/>
+      <c r="BTE526" s="43"/>
+      <c r="BTI526" s="43"/>
+      <c r="BTM526" s="43"/>
+      <c r="BTQ526" s="43"/>
+      <c r="BTU526" s="43"/>
+      <c r="BTY526" s="43"/>
+      <c r="BUC526" s="43"/>
+      <c r="BUG526" s="43"/>
+      <c r="BUK526" s="43"/>
+      <c r="BUO526" s="43"/>
+      <c r="BUS526" s="43"/>
+      <c r="BUW526" s="43"/>
+      <c r="BVA526" s="43"/>
+      <c r="BVE526" s="43"/>
+      <c r="BVI526" s="43"/>
+      <c r="BVM526" s="43"/>
+      <c r="BVQ526" s="43"/>
+      <c r="BVU526" s="43"/>
+      <c r="BVY526" s="43"/>
+      <c r="BWC526" s="43"/>
+      <c r="BWG526" s="43"/>
+      <c r="BWK526" s="43"/>
+      <c r="BWO526" s="43"/>
+      <c r="BWS526" s="43"/>
+      <c r="BWW526" s="43"/>
+      <c r="BXA526" s="43"/>
+      <c r="BXE526" s="43"/>
+      <c r="BXI526" s="43"/>
+      <c r="BXM526" s="43"/>
+      <c r="BXQ526" s="43"/>
+      <c r="BXU526" s="43"/>
+      <c r="BXY526" s="43"/>
+      <c r="BYC526" s="43"/>
+      <c r="BYG526" s="43"/>
+      <c r="BYK526" s="43"/>
+      <c r="BYO526" s="43"/>
+      <c r="BYS526" s="43"/>
+      <c r="BYW526" s="43"/>
+      <c r="BZA526" s="43"/>
+      <c r="BZE526" s="43"/>
+      <c r="BZI526" s="43"/>
+      <c r="BZM526" s="43"/>
+      <c r="BZQ526" s="43"/>
+      <c r="BZU526" s="43"/>
+      <c r="BZY526" s="43"/>
+      <c r="CAC526" s="43"/>
+      <c r="CAG526" s="43"/>
+      <c r="CAK526" s="43"/>
+      <c r="CAO526" s="43"/>
+      <c r="CAS526" s="43"/>
+      <c r="CAW526" s="43"/>
+      <c r="CBA526" s="43"/>
+      <c r="CBE526" s="43"/>
+      <c r="CBI526" s="43"/>
+      <c r="CBM526" s="43"/>
+      <c r="CBQ526" s="43"/>
+      <c r="CBU526" s="43"/>
+      <c r="CBY526" s="43"/>
+      <c r="CCC526" s="43"/>
+      <c r="CCG526" s="43"/>
+      <c r="CCK526" s="43"/>
+      <c r="CCO526" s="43"/>
+      <c r="CCS526" s="43"/>
+      <c r="CCW526" s="43"/>
+      <c r="CDA526" s="43"/>
+      <c r="CDE526" s="43"/>
+      <c r="CDI526" s="43"/>
+      <c r="CDM526" s="43"/>
+      <c r="CDQ526" s="43"/>
+      <c r="CDU526" s="43"/>
+      <c r="CDY526" s="43"/>
+      <c r="CEC526" s="43"/>
+      <c r="CEG526" s="43"/>
+      <c r="CEK526" s="43"/>
+      <c r="CEO526" s="43"/>
+      <c r="CES526" s="43"/>
+      <c r="CEW526" s="43"/>
+      <c r="CFA526" s="43"/>
+      <c r="CFE526" s="43"/>
+      <c r="CFI526" s="43"/>
+      <c r="CFM526" s="43"/>
+      <c r="CFQ526" s="43"/>
+      <c r="CFU526" s="43"/>
+      <c r="CFY526" s="43"/>
+      <c r="CGC526" s="43"/>
+      <c r="CGG526" s="43"/>
+      <c r="CGK526" s="43"/>
+      <c r="CGO526" s="43"/>
+      <c r="CGS526" s="43"/>
+      <c r="CGW526" s="43"/>
+      <c r="CHA526" s="43"/>
+      <c r="CHE526" s="43"/>
+      <c r="CHI526" s="43"/>
+      <c r="CHM526" s="43"/>
+      <c r="CHQ526" s="43"/>
+      <c r="CHU526" s="43"/>
+      <c r="CHY526" s="43"/>
+      <c r="CIC526" s="43"/>
+      <c r="CIG526" s="43"/>
+      <c r="CIK526" s="43"/>
+      <c r="CIO526" s="43"/>
+      <c r="CIS526" s="43"/>
+      <c r="CIW526" s="43"/>
+      <c r="CJA526" s="43"/>
+      <c r="CJE526" s="43"/>
+      <c r="CJI526" s="43"/>
+      <c r="CJM526" s="43"/>
+      <c r="CJQ526" s="43"/>
+      <c r="CJU526" s="43"/>
+      <c r="CJY526" s="43"/>
+      <c r="CKC526" s="43"/>
+      <c r="CKG526" s="43"/>
+      <c r="CKK526" s="43"/>
+      <c r="CKO526" s="43"/>
+      <c r="CKS526" s="43"/>
+      <c r="CKW526" s="43"/>
+      <c r="CLA526" s="43"/>
+      <c r="CLE526" s="43"/>
+      <c r="CLI526" s="43"/>
+      <c r="CLM526" s="43"/>
+      <c r="CLQ526" s="43"/>
+      <c r="CLU526" s="43"/>
+      <c r="CLY526" s="43"/>
+      <c r="CMC526" s="43"/>
+      <c r="CMG526" s="43"/>
+      <c r="CMK526" s="43"/>
+      <c r="CMO526" s="43"/>
+      <c r="CMS526" s="43"/>
+      <c r="CMW526" s="43"/>
+      <c r="CNA526" s="43"/>
+      <c r="CNE526" s="43"/>
+      <c r="CNI526" s="43"/>
+      <c r="CNM526" s="43"/>
+      <c r="CNQ526" s="43"/>
+      <c r="CNU526" s="43"/>
+      <c r="CNY526" s="43"/>
+      <c r="COC526" s="43"/>
+      <c r="COG526" s="43"/>
+      <c r="COK526" s="43"/>
+      <c r="COO526" s="43"/>
+      <c r="COS526" s="43"/>
+      <c r="COW526" s="43"/>
+      <c r="CPA526" s="43"/>
+      <c r="CPE526" s="43"/>
+      <c r="CPI526" s="43"/>
+      <c r="CPM526" s="43"/>
+      <c r="CPQ526" s="43"/>
+      <c r="CPU526" s="43"/>
+      <c r="CPY526" s="43"/>
+      <c r="CQC526" s="43"/>
+      <c r="CQG526" s="43"/>
+      <c r="CQK526" s="43"/>
+      <c r="CQO526" s="43"/>
+      <c r="CQS526" s="43"/>
+      <c r="CQW526" s="43"/>
+      <c r="CRA526" s="43"/>
+      <c r="CRE526" s="43"/>
+      <c r="CRI526" s="43"/>
+      <c r="CRM526" s="43"/>
+      <c r="CRQ526" s="43"/>
+      <c r="CRU526" s="43"/>
+      <c r="CRY526" s="43"/>
+      <c r="CSC526" s="43"/>
+      <c r="CSG526" s="43"/>
+      <c r="CSK526" s="43"/>
+      <c r="CSO526" s="43"/>
+      <c r="CSS526" s="43"/>
+      <c r="CSW526" s="43"/>
+      <c r="CTA526" s="43"/>
+      <c r="CTE526" s="43"/>
+      <c r="CTI526" s="43"/>
+      <c r="CTM526" s="43"/>
+      <c r="CTQ526" s="43"/>
+      <c r="CTU526" s="43"/>
+      <c r="CTY526" s="43"/>
+      <c r="CUC526" s="43"/>
+      <c r="CUG526" s="43"/>
+      <c r="CUK526" s="43"/>
+      <c r="CUO526" s="43"/>
+      <c r="CUS526" s="43"/>
+      <c r="CUW526" s="43"/>
+      <c r="CVA526" s="43"/>
+      <c r="CVE526" s="43"/>
+      <c r="CVI526" s="43"/>
+      <c r="CVM526" s="43"/>
+      <c r="CVQ526" s="43"/>
+      <c r="CVU526" s="43"/>
+      <c r="CVY526" s="43"/>
+      <c r="CWC526" s="43"/>
+      <c r="CWG526" s="43"/>
+      <c r="CWK526" s="43"/>
+      <c r="CWO526" s="43"/>
+      <c r="CWS526" s="43"/>
+      <c r="CWW526" s="43"/>
+      <c r="CXA526" s="43"/>
+      <c r="CXE526" s="43"/>
+      <c r="CXI526" s="43"/>
+      <c r="CXM526" s="43"/>
+      <c r="CXQ526" s="43"/>
+      <c r="CXU526" s="43"/>
+      <c r="CXY526" s="43"/>
+      <c r="CYC526" s="43"/>
+      <c r="CYG526" s="43"/>
+      <c r="CYK526" s="43"/>
+      <c r="CYO526" s="43"/>
+      <c r="CYS526" s="43"/>
+      <c r="CYW526" s="43"/>
+      <c r="CZA526" s="43"/>
+      <c r="CZE526" s="43"/>
+      <c r="CZI526" s="43"/>
+      <c r="CZM526" s="43"/>
+      <c r="CZQ526" s="43"/>
+      <c r="CZU526" s="43"/>
+      <c r="CZY526" s="43"/>
+      <c r="DAC526" s="43"/>
+      <c r="DAG526" s="43"/>
+      <c r="DAK526" s="43"/>
+      <c r="DAO526" s="43"/>
+      <c r="DAS526" s="43"/>
+      <c r="DAW526" s="43"/>
+      <c r="DBA526" s="43"/>
+      <c r="DBE526" s="43"/>
+      <c r="DBI526" s="43"/>
+      <c r="DBM526" s="43"/>
+      <c r="DBQ526" s="43"/>
+      <c r="DBU526" s="43"/>
+      <c r="DBY526" s="43"/>
+      <c r="DCC526" s="43"/>
+      <c r="DCG526" s="43"/>
+      <c r="DCK526" s="43"/>
+      <c r="DCO526" s="43"/>
+      <c r="DCS526" s="43"/>
+      <c r="DCW526" s="43"/>
+      <c r="DDA526" s="43"/>
+      <c r="DDE526" s="43"/>
+      <c r="DDI526" s="43"/>
+      <c r="DDM526" s="43"/>
+      <c r="DDQ526" s="43"/>
+      <c r="DDU526" s="43"/>
+      <c r="DDY526" s="43"/>
+      <c r="DEC526" s="43"/>
+      <c r="DEG526" s="43"/>
+      <c r="DEK526" s="43"/>
+      <c r="DEO526" s="43"/>
+      <c r="DES526" s="43"/>
+      <c r="DEW526" s="43"/>
+      <c r="DFA526" s="43"/>
+      <c r="DFE526" s="43"/>
+      <c r="DFI526" s="43"/>
+      <c r="DFM526" s="43"/>
+      <c r="DFQ526" s="43"/>
+      <c r="DFU526" s="43"/>
+      <c r="DFY526" s="43"/>
+      <c r="DGC526" s="43"/>
+      <c r="DGG526" s="43"/>
+      <c r="DGK526" s="43"/>
+      <c r="DGO526" s="43"/>
+      <c r="DGS526" s="43"/>
+      <c r="DGW526" s="43"/>
+      <c r="DHA526" s="43"/>
+      <c r="DHE526" s="43"/>
+      <c r="DHI526" s="43"/>
+      <c r="DHM526" s="43"/>
+      <c r="DHQ526" s="43"/>
+      <c r="DHU526" s="43"/>
+      <c r="DHY526" s="43"/>
+      <c r="DIC526" s="43"/>
+      <c r="DIG526" s="43"/>
+      <c r="DIK526" s="43"/>
+      <c r="DIO526" s="43"/>
+      <c r="DIS526" s="43"/>
+      <c r="DIW526" s="43"/>
+      <c r="DJA526" s="43"/>
+      <c r="DJE526" s="43"/>
+      <c r="DJI526" s="43"/>
+      <c r="DJM526" s="43"/>
+      <c r="DJQ526" s="43"/>
+      <c r="DJU526" s="43"/>
+      <c r="DJY526" s="43"/>
+      <c r="DKC526" s="43"/>
+      <c r="DKG526" s="43"/>
+      <c r="DKK526" s="43"/>
+      <c r="DKO526" s="43"/>
+      <c r="DKS526" s="43"/>
+      <c r="DKW526" s="43"/>
+      <c r="DLA526" s="43"/>
+      <c r="DLE526" s="43"/>
+      <c r="DLI526" s="43"/>
+      <c r="DLM526" s="43"/>
+      <c r="DLQ526" s="43"/>
+      <c r="DLU526" s="43"/>
+      <c r="DLY526" s="43"/>
+      <c r="DMC526" s="43"/>
+      <c r="DMG526" s="43"/>
+      <c r="DMK526" s="43"/>
+      <c r="DMO526" s="43"/>
+      <c r="DMS526" s="43"/>
+      <c r="DMW526" s="43"/>
+      <c r="DNA526" s="43"/>
+      <c r="DNE526" s="43"/>
+      <c r="DNI526" s="43"/>
+      <c r="DNM526" s="43"/>
+      <c r="DNQ526" s="43"/>
+      <c r="DNU526" s="43"/>
+      <c r="DNY526" s="43"/>
+      <c r="DOC526" s="43"/>
+      <c r="DOG526" s="43"/>
+      <c r="DOK526" s="43"/>
+      <c r="DOO526" s="43"/>
+      <c r="DOS526" s="43"/>
+      <c r="DOW526" s="43"/>
+      <c r="DPA526" s="43"/>
+      <c r="DPE526" s="43"/>
+      <c r="DPI526" s="43"/>
+      <c r="DPM526" s="43"/>
+      <c r="DPQ526" s="43"/>
+      <c r="DPU526" s="43"/>
+      <c r="DPY526" s="43"/>
+      <c r="DQC526" s="43"/>
+      <c r="DQG526" s="43"/>
+      <c r="DQK526" s="43"/>
+      <c r="DQO526" s="43"/>
+      <c r="DQS526" s="43"/>
+      <c r="DQW526" s="43"/>
+      <c r="DRA526" s="43"/>
+      <c r="DRE526" s="43"/>
+      <c r="DRI526" s="43"/>
+      <c r="DRM526" s="43"/>
+      <c r="DRQ526" s="43"/>
+      <c r="DRU526" s="43"/>
+      <c r="DRY526" s="43"/>
+      <c r="DSC526" s="43"/>
+      <c r="DSG526" s="43"/>
+      <c r="DSK526" s="43"/>
+      <c r="DSO526" s="43"/>
+      <c r="DSS526" s="43"/>
+      <c r="DSW526" s="43"/>
+      <c r="DTA526" s="43"/>
+      <c r="DTE526" s="43"/>
+      <c r="DTI526" s="43"/>
+      <c r="DTM526" s="43"/>
+      <c r="DTQ526" s="43"/>
+      <c r="DTU526" s="43"/>
+      <c r="DTY526" s="43"/>
+      <c r="DUC526" s="43"/>
+      <c r="DUG526" s="43"/>
+      <c r="DUK526" s="43"/>
+      <c r="DUO526" s="43"/>
+      <c r="DUS526" s="43"/>
+      <c r="DUW526" s="43"/>
+      <c r="DVA526" s="43"/>
+      <c r="DVE526" s="43"/>
+      <c r="DVI526" s="43"/>
+      <c r="DVM526" s="43"/>
+      <c r="DVQ526" s="43"/>
+      <c r="DVU526" s="43"/>
+      <c r="DVY526" s="43"/>
+      <c r="DWC526" s="43"/>
+      <c r="DWG526" s="43"/>
+      <c r="DWK526" s="43"/>
+      <c r="DWO526" s="43"/>
+      <c r="DWS526" s="43"/>
+      <c r="DWW526" s="43"/>
+      <c r="DXA526" s="43"/>
+      <c r="DXE526" s="43"/>
+      <c r="DXI526" s="43"/>
+      <c r="DXM526" s="43"/>
+      <c r="DXQ526" s="43"/>
+      <c r="DXU526" s="43"/>
+      <c r="DXY526" s="43"/>
+      <c r="DYC526" s="43"/>
+      <c r="DYG526" s="43"/>
+      <c r="DYK526" s="43"/>
+      <c r="DYO526" s="43"/>
+      <c r="DYS526" s="43"/>
+      <c r="DYW526" s="43"/>
+      <c r="DZA526" s="43"/>
+      <c r="DZE526" s="43"/>
+      <c r="DZI526" s="43"/>
+      <c r="DZM526" s="43"/>
+      <c r="DZQ526" s="43"/>
+      <c r="DZU526" s="43"/>
+      <c r="DZY526" s="43"/>
+      <c r="EAC526" s="43"/>
+      <c r="EAG526" s="43"/>
+      <c r="EAK526" s="43"/>
+      <c r="EAO526" s="43"/>
+      <c r="EAS526" s="43"/>
+      <c r="EAW526" s="43"/>
+      <c r="EBA526" s="43"/>
+      <c r="EBE526" s="43"/>
+      <c r="EBI526" s="43"/>
+      <c r="EBM526" s="43"/>
+      <c r="EBQ526" s="43"/>
+      <c r="EBU526" s="43"/>
+      <c r="EBY526" s="43"/>
+      <c r="ECC526" s="43"/>
+      <c r="ECG526" s="43"/>
+      <c r="ECK526" s="43"/>
+      <c r="ECO526" s="43"/>
+      <c r="ECS526" s="43"/>
+      <c r="ECW526" s="43"/>
+      <c r="EDA526" s="43"/>
+      <c r="EDE526" s="43"/>
+      <c r="EDI526" s="43"/>
+      <c r="EDM526" s="43"/>
+      <c r="EDQ526" s="43"/>
+      <c r="EDU526" s="43"/>
+      <c r="EDY526" s="43"/>
+      <c r="EEC526" s="43"/>
+      <c r="EEG526" s="43"/>
+      <c r="EEK526" s="43"/>
+      <c r="EEO526" s="43"/>
+      <c r="EES526" s="43"/>
+      <c r="EEW526" s="43"/>
+      <c r="EFA526" s="43"/>
+      <c r="EFE526" s="43"/>
+      <c r="EFI526" s="43"/>
+      <c r="EFM526" s="43"/>
+      <c r="EFQ526" s="43"/>
+      <c r="EFU526" s="43"/>
+      <c r="EFY526" s="43"/>
+      <c r="EGC526" s="43"/>
+      <c r="EGG526" s="43"/>
+      <c r="EGK526" s="43"/>
+      <c r="EGO526" s="43"/>
+      <c r="EGS526" s="43"/>
+      <c r="EGW526" s="43"/>
+      <c r="EHA526" s="43"/>
+      <c r="EHE526" s="43"/>
+      <c r="EHI526" s="43"/>
+      <c r="EHM526" s="43"/>
+      <c r="EHQ526" s="43"/>
+      <c r="EHU526" s="43"/>
+      <c r="EHY526" s="43"/>
+      <c r="EIC526" s="43"/>
+      <c r="EIG526" s="43"/>
+      <c r="EIK526" s="43"/>
+      <c r="EIO526" s="43"/>
+      <c r="EIS526" s="43"/>
+      <c r="EIW526" s="43"/>
+      <c r="EJA526" s="43"/>
+      <c r="EJE526" s="43"/>
+      <c r="EJI526" s="43"/>
+      <c r="EJM526" s="43"/>
+      <c r="EJQ526" s="43"/>
+      <c r="EJU526" s="43"/>
+      <c r="EJY526" s="43"/>
+      <c r="EKC526" s="43"/>
+      <c r="EKG526" s="43"/>
+      <c r="EKK526" s="43"/>
+      <c r="EKO526" s="43"/>
+      <c r="EKS526" s="43"/>
+      <c r="EKW526" s="43"/>
+      <c r="ELA526" s="43"/>
+      <c r="ELE526" s="43"/>
+      <c r="ELI526" s="43"/>
+      <c r="ELM526" s="43"/>
+      <c r="ELQ526" s="43"/>
+      <c r="ELU526" s="43"/>
+      <c r="ELY526" s="43"/>
+      <c r="EMC526" s="43"/>
+      <c r="EMG526" s="43"/>
+      <c r="EMK526" s="43"/>
+      <c r="EMO526" s="43"/>
+      <c r="EMS526" s="43"/>
+      <c r="EMW526" s="43"/>
+      <c r="ENA526" s="43"/>
+      <c r="ENE526" s="43"/>
+      <c r="ENI526" s="43"/>
+      <c r="ENM526" s="43"/>
+      <c r="ENQ526" s="43"/>
+      <c r="ENU526" s="43"/>
+      <c r="ENY526" s="43"/>
+      <c r="EOC526" s="43"/>
+      <c r="EOG526" s="43"/>
+      <c r="EOK526" s="43"/>
+      <c r="EOO526" s="43"/>
+      <c r="EOS526" s="43"/>
+      <c r="EOW526" s="43"/>
+      <c r="EPA526" s="43"/>
+      <c r="EPE526" s="43"/>
+      <c r="EPI526" s="43"/>
+      <c r="EPM526" s="43"/>
+      <c r="EPQ526" s="43"/>
+      <c r="EPU526" s="43"/>
+      <c r="EPY526" s="43"/>
+      <c r="EQC526" s="43"/>
+      <c r="EQG526" s="43"/>
+      <c r="EQK526" s="43"/>
+      <c r="EQO526" s="43"/>
+      <c r="EQS526" s="43"/>
+      <c r="EQW526" s="43"/>
+      <c r="ERA526" s="43"/>
+      <c r="ERE526" s="43"/>
+      <c r="ERI526" s="43"/>
+      <c r="ERM526" s="43"/>
+      <c r="ERQ526" s="43"/>
+      <c r="ERU526" s="43"/>
+      <c r="ERY526" s="43"/>
+      <c r="ESC526" s="43"/>
+      <c r="ESG526" s="43"/>
+      <c r="ESK526" s="43"/>
+      <c r="ESO526" s="43"/>
+      <c r="ESS526" s="43"/>
+      <c r="ESW526" s="43"/>
+      <c r="ETA526" s="43"/>
+      <c r="ETE526" s="43"/>
+      <c r="ETI526" s="43"/>
+      <c r="ETM526" s="43"/>
+      <c r="ETQ526" s="43"/>
+      <c r="ETU526" s="43"/>
+      <c r="ETY526" s="43"/>
+      <c r="EUC526" s="43"/>
+      <c r="EUG526" s="43"/>
+      <c r="EUK526" s="43"/>
+      <c r="EUO526" s="43"/>
+      <c r="EUS526" s="43"/>
+      <c r="EUW526" s="43"/>
+      <c r="EVA526" s="43"/>
+      <c r="EVE526" s="43"/>
+      <c r="EVI526" s="43"/>
+      <c r="EVM526" s="43"/>
+      <c r="EVQ526" s="43"/>
+      <c r="EVU526" s="43"/>
+      <c r="EVY526" s="43"/>
+      <c r="EWC526" s="43"/>
+      <c r="EWG526" s="43"/>
+      <c r="EWK526" s="43"/>
+      <c r="EWO526" s="43"/>
+      <c r="EWS526" s="43"/>
+      <c r="EWW526" s="43"/>
+      <c r="EXA526" s="43"/>
+      <c r="EXE526" s="43"/>
+      <c r="EXI526" s="43"/>
+      <c r="EXM526" s="43"/>
+      <c r="EXQ526" s="43"/>
+      <c r="EXU526" s="43"/>
+      <c r="EXY526" s="43"/>
+      <c r="EYC526" s="43"/>
+      <c r="EYG526" s="43"/>
+      <c r="EYK526" s="43"/>
+      <c r="EYO526" s="43"/>
+      <c r="EYS526" s="43"/>
+      <c r="EYW526" s="43"/>
+      <c r="EZA526" s="43"/>
+      <c r="EZE526" s="43"/>
+      <c r="EZI526" s="43"/>
+      <c r="EZM526" s="43"/>
+      <c r="EZQ526" s="43"/>
+      <c r="EZU526" s="43"/>
+      <c r="EZY526" s="43"/>
+      <c r="FAC526" s="43"/>
+      <c r="FAG526" s="43"/>
+      <c r="FAK526" s="43"/>
+      <c r="FAO526" s="43"/>
+      <c r="FAS526" s="43"/>
+      <c r="FAW526" s="43"/>
+      <c r="FBA526" s="43"/>
+      <c r="FBE526" s="43"/>
+      <c r="FBI526" s="43"/>
+      <c r="FBM526" s="43"/>
+      <c r="FBQ526" s="43"/>
+      <c r="FBU526" s="43"/>
+      <c r="FBY526" s="43"/>
+      <c r="FCC526" s="43"/>
+      <c r="FCG526" s="43"/>
+      <c r="FCK526" s="43"/>
+      <c r="FCO526" s="43"/>
+      <c r="FCS526" s="43"/>
+      <c r="FCW526" s="43"/>
+      <c r="FDA526" s="43"/>
+      <c r="FDE526" s="43"/>
+      <c r="FDI526" s="43"/>
+      <c r="FDM526" s="43"/>
+      <c r="FDQ526" s="43"/>
+      <c r="FDU526" s="43"/>
+      <c r="FDY526" s="43"/>
+      <c r="FEC526" s="43"/>
+      <c r="FEG526" s="43"/>
+      <c r="FEK526" s="43"/>
+      <c r="FEO526" s="43"/>
+      <c r="FES526" s="43"/>
+      <c r="FEW526" s="43"/>
+      <c r="FFA526" s="43"/>
+      <c r="FFE526" s="43"/>
+      <c r="FFI526" s="43"/>
+      <c r="FFM526" s="43"/>
+      <c r="FFQ526" s="43"/>
+      <c r="FFU526" s="43"/>
+      <c r="FFY526" s="43"/>
+      <c r="FGC526" s="43"/>
+      <c r="FGG526" s="43"/>
+      <c r="FGK526" s="43"/>
+      <c r="FGO526" s="43"/>
+      <c r="FGS526" s="43"/>
+      <c r="FGW526" s="43"/>
+      <c r="FHA526" s="43"/>
+      <c r="FHE526" s="43"/>
+      <c r="FHI526" s="43"/>
+      <c r="FHM526" s="43"/>
+      <c r="FHQ526" s="43"/>
+      <c r="FHU526" s="43"/>
+      <c r="FHY526" s="43"/>
+      <c r="FIC526" s="43"/>
+      <c r="FIG526" s="43"/>
+      <c r="FIK526" s="43"/>
+      <c r="FIO526" s="43"/>
+      <c r="FIS526" s="43"/>
+      <c r="FIW526" s="43"/>
+      <c r="FJA526" s="43"/>
+      <c r="FJE526" s="43"/>
+      <c r="FJI526" s="43"/>
+      <c r="FJM526" s="43"/>
+      <c r="FJQ526" s="43"/>
+      <c r="FJU526" s="43"/>
+      <c r="FJY526" s="43"/>
+      <c r="FKC526" s="43"/>
+      <c r="FKG526" s="43"/>
+      <c r="FKK526" s="43"/>
+      <c r="FKO526" s="43"/>
+      <c r="FKS526" s="43"/>
+      <c r="FKW526" s="43"/>
+      <c r="FLA526" s="43"/>
+      <c r="FLE526" s="43"/>
+      <c r="FLI526" s="43"/>
+      <c r="FLM526" s="43"/>
+      <c r="FLQ526" s="43"/>
+      <c r="FLU526" s="43"/>
+      <c r="FLY526" s="43"/>
+      <c r="FMC526" s="43"/>
+      <c r="FMG526" s="43"/>
+      <c r="FMK526" s="43"/>
+      <c r="FMO526" s="43"/>
+      <c r="FMS526" s="43"/>
+      <c r="FMW526" s="43"/>
+      <c r="FNA526" s="43"/>
+      <c r="FNE526" s="43"/>
+      <c r="FNI526" s="43"/>
+      <c r="FNM526" s="43"/>
+      <c r="FNQ526" s="43"/>
+      <c r="FNU526" s="43"/>
+      <c r="FNY526" s="43"/>
+      <c r="FOC526" s="43"/>
+      <c r="FOG526" s="43"/>
+      <c r="FOK526" s="43"/>
+      <c r="FOO526" s="43"/>
+      <c r="FOS526" s="43"/>
+      <c r="FOW526" s="43"/>
+      <c r="FPA526" s="43"/>
+      <c r="FPE526" s="43"/>
+      <c r="FPI526" s="43"/>
+      <c r="FPM526" s="43"/>
+      <c r="FPQ526" s="43"/>
+      <c r="FPU526" s="43"/>
+      <c r="FPY526" s="43"/>
+      <c r="FQC526" s="43"/>
+      <c r="FQG526" s="43"/>
+      <c r="FQK526" s="43"/>
+      <c r="FQO526" s="43"/>
+      <c r="FQS526" s="43"/>
+      <c r="FQW526" s="43"/>
+      <c r="FRA526" s="43"/>
+      <c r="FRE526" s="43"/>
+      <c r="FRI526" s="43"/>
+      <c r="FRM526" s="43"/>
+      <c r="FRQ526" s="43"/>
+      <c r="FRU526" s="43"/>
+      <c r="FRY526" s="43"/>
+      <c r="FSC526" s="43"/>
+      <c r="FSG526" s="43"/>
+      <c r="FSK526" s="43"/>
+      <c r="FSO526" s="43"/>
+      <c r="FSS526" s="43"/>
+      <c r="FSW526" s="43"/>
+      <c r="FTA526" s="43"/>
+      <c r="FTE526" s="43"/>
+      <c r="FTI526" s="43"/>
+      <c r="FTM526" s="43"/>
+      <c r="FTQ526" s="43"/>
+      <c r="FTU526" s="43"/>
+      <c r="FTY526" s="43"/>
+      <c r="FUC526" s="43"/>
+      <c r="FUG526" s="43"/>
+      <c r="FUK526" s="43"/>
+      <c r="FUO526" s="43"/>
+      <c r="FUS526" s="43"/>
+      <c r="FUW526" s="43"/>
+      <c r="FVA526" s="43"/>
+      <c r="FVE526" s="43"/>
+      <c r="FVI526" s="43"/>
+      <c r="FVM526" s="43"/>
+      <c r="FVQ526" s="43"/>
+      <c r="FVU526" s="43"/>
+      <c r="FVY526" s="43"/>
+      <c r="FWC526" s="43"/>
+      <c r="FWG526" s="43"/>
+      <c r="FWK526" s="43"/>
+      <c r="FWO526" s="43"/>
+      <c r="FWS526" s="43"/>
+      <c r="FWW526" s="43"/>
+      <c r="FXA526" s="43"/>
+      <c r="FXE526" s="43"/>
+      <c r="FXI526" s="43"/>
+      <c r="FXM526" s="43"/>
+      <c r="FXQ526" s="43"/>
+      <c r="FXU526" s="43"/>
+      <c r="FXY526" s="43"/>
+      <c r="FYC526" s="43"/>
+      <c r="FYG526" s="43"/>
+      <c r="FYK526" s="43"/>
+      <c r="FYO526" s="43"/>
+      <c r="FYS526" s="43"/>
+      <c r="FYW526" s="43"/>
+      <c r="FZA526" s="43"/>
+      <c r="FZE526" s="43"/>
+      <c r="FZI526" s="43"/>
+      <c r="FZM526" s="43"/>
+      <c r="FZQ526" s="43"/>
+      <c r="FZU526" s="43"/>
+      <c r="FZY526" s="43"/>
+      <c r="GAC526" s="43"/>
+      <c r="GAG526" s="43"/>
+      <c r="GAK526" s="43"/>
+      <c r="GAO526" s="43"/>
+      <c r="GAS526" s="43"/>
+      <c r="GAW526" s="43"/>
+      <c r="GBA526" s="43"/>
+      <c r="GBE526" s="43"/>
+      <c r="GBI526" s="43"/>
+      <c r="GBM526" s="43"/>
+      <c r="GBQ526" s="43"/>
+      <c r="GBU526" s="43"/>
+      <c r="GBY526" s="43"/>
+      <c r="GCC526" s="43"/>
+      <c r="GCG526" s="43"/>
+      <c r="GCK526" s="43"/>
+      <c r="GCO526" s="43"/>
+      <c r="GCS526" s="43"/>
+      <c r="GCW526" s="43"/>
+      <c r="GDA526" s="43"/>
+      <c r="GDE526" s="43"/>
+      <c r="GDI526" s="43"/>
+      <c r="GDM526" s="43"/>
+      <c r="GDQ526" s="43"/>
+      <c r="GDU526" s="43"/>
+      <c r="GDY526" s="43"/>
+      <c r="GEC526" s="43"/>
+      <c r="GEG526" s="43"/>
+      <c r="GEK526" s="43"/>
+      <c r="GEO526" s="43"/>
+      <c r="GES526" s="43"/>
+      <c r="GEW526" s="43"/>
+      <c r="GFA526" s="43"/>
+      <c r="GFE526" s="43"/>
+      <c r="GFI526" s="43"/>
+      <c r="GFM526" s="43"/>
+      <c r="GFQ526" s="43"/>
+      <c r="GFU526" s="43"/>
+      <c r="GFY526" s="43"/>
+      <c r="GGC526" s="43"/>
+      <c r="GGG526" s="43"/>
+      <c r="GGK526" s="43"/>
+      <c r="GGO526" s="43"/>
+      <c r="GGS526" s="43"/>
+      <c r="GGW526" s="43"/>
+      <c r="GHA526" s="43"/>
+      <c r="GHE526" s="43"/>
+      <c r="GHI526" s="43"/>
+      <c r="GHM526" s="43"/>
+      <c r="GHQ526" s="43"/>
+      <c r="GHU526" s="43"/>
+      <c r="GHY526" s="43"/>
+      <c r="GIC526" s="43"/>
+      <c r="GIG526" s="43"/>
+      <c r="GIK526" s="43"/>
+      <c r="GIO526" s="43"/>
+      <c r="GIS526" s="43"/>
+      <c r="GIW526" s="43"/>
+      <c r="GJA526" s="43"/>
+      <c r="GJE526" s="43"/>
+      <c r="GJI526" s="43"/>
+      <c r="GJM526" s="43"/>
+      <c r="GJQ526" s="43"/>
+      <c r="GJU526" s="43"/>
+      <c r="GJY526" s="43"/>
+      <c r="GKC526" s="43"/>
+      <c r="GKG526" s="43"/>
+      <c r="GKK526" s="43"/>
+      <c r="GKO526" s="43"/>
+      <c r="GKS526" s="43"/>
+      <c r="GKW526" s="43"/>
+      <c r="GLA526" s="43"/>
+      <c r="GLE526" s="43"/>
+      <c r="GLI526" s="43"/>
+      <c r="GLM526" s="43"/>
+      <c r="GLQ526" s="43"/>
+      <c r="GLU526" s="43"/>
+      <c r="GLY526" s="43"/>
+      <c r="GMC526" s="43"/>
+      <c r="GMG526" s="43"/>
+      <c r="GMK526" s="43"/>
+      <c r="GMO526" s="43"/>
+      <c r="GMS526" s="43"/>
+      <c r="GMW526" s="43"/>
+      <c r="GNA526" s="43"/>
+      <c r="GNE526" s="43"/>
+      <c r="GNI526" s="43"/>
+      <c r="GNM526" s="43"/>
+      <c r="GNQ526" s="43"/>
+      <c r="GNU526" s="43"/>
+      <c r="GNY526" s="43"/>
+      <c r="GOC526" s="43"/>
+      <c r="GOG526" s="43"/>
+      <c r="GOK526" s="43"/>
+      <c r="GOO526" s="43"/>
+      <c r="GOS526" s="43"/>
+      <c r="GOW526" s="43"/>
+      <c r="GPA526" s="43"/>
+      <c r="GPE526" s="43"/>
+      <c r="GPI526" s="43"/>
+      <c r="GPM526" s="43"/>
+      <c r="GPQ526" s="43"/>
+      <c r="GPU526" s="43"/>
+      <c r="GPY526" s="43"/>
+      <c r="GQC526" s="43"/>
+      <c r="GQG526" s="43"/>
+      <c r="GQK526" s="43"/>
+      <c r="GQO526" s="43"/>
+      <c r="GQS526" s="43"/>
+      <c r="GQW526" s="43"/>
+      <c r="GRA526" s="43"/>
+      <c r="GRE526" s="43"/>
+      <c r="GRI526" s="43"/>
+      <c r="GRM526" s="43"/>
+      <c r="GRQ526" s="43"/>
+      <c r="GRU526" s="43"/>
+      <c r="GRY526" s="43"/>
+      <c r="GSC526" s="43"/>
+      <c r="GSG526" s="43"/>
+      <c r="GSK526" s="43"/>
+      <c r="GSO526" s="43"/>
+      <c r="GSS526" s="43"/>
+      <c r="GSW526" s="43"/>
+      <c r="GTA526" s="43"/>
+      <c r="GTE526" s="43"/>
+      <c r="GTI526" s="43"/>
+      <c r="GTM526" s="43"/>
+      <c r="GTQ526" s="43"/>
+      <c r="GTU526" s="43"/>
+      <c r="GTY526" s="43"/>
+      <c r="GUC526" s="43"/>
+      <c r="GUG526" s="43"/>
+      <c r="GUK526" s="43"/>
+      <c r="GUO526" s="43"/>
+      <c r="GUS526" s="43"/>
+      <c r="GUW526" s="43"/>
+      <c r="GVA526" s="43"/>
+      <c r="GVE526" s="43"/>
+      <c r="GVI526" s="43"/>
+      <c r="GVM526" s="43"/>
+      <c r="GVQ526" s="43"/>
+      <c r="GVU526" s="43"/>
+      <c r="GVY526" s="43"/>
+      <c r="GWC526" s="43"/>
+      <c r="GWG526" s="43"/>
+      <c r="GWK526" s="43"/>
+      <c r="GWO526" s="43"/>
+      <c r="GWS526" s="43"/>
+      <c r="GWW526" s="43"/>
+      <c r="GXA526" s="43"/>
+      <c r="GXE526" s="43"/>
+      <c r="GXI526" s="43"/>
+      <c r="GXM526" s="43"/>
+      <c r="GXQ526" s="43"/>
+      <c r="GXU526" s="43"/>
+      <c r="GXY526" s="43"/>
+      <c r="GYC526" s="43"/>
+      <c r="GYG526" s="43"/>
+      <c r="GYK526" s="43"/>
+      <c r="GYO526" s="43"/>
+      <c r="GYS526" s="43"/>
+      <c r="GYW526" s="43"/>
+      <c r="GZA526" s="43"/>
+      <c r="GZE526" s="43"/>
+      <c r="GZI526" s="43"/>
+      <c r="GZM526" s="43"/>
+      <c r="GZQ526" s="43"/>
+      <c r="GZU526" s="43"/>
+      <c r="GZY526" s="43"/>
+      <c r="HAC526" s="43"/>
+      <c r="HAG526" s="43"/>
+      <c r="HAK526" s="43"/>
+      <c r="HAO526" s="43"/>
+      <c r="HAS526" s="43"/>
+      <c r="HAW526" s="43"/>
+      <c r="HBA526" s="43"/>
+      <c r="HBE526" s="43"/>
+      <c r="HBI526" s="43"/>
+      <c r="HBM526" s="43"/>
+      <c r="HBQ526" s="43"/>
+      <c r="HBU526" s="43"/>
+      <c r="HBY526" s="43"/>
+      <c r="HCC526" s="43"/>
+      <c r="HCG526" s="43"/>
+      <c r="HCK526" s="43"/>
+      <c r="HCO526" s="43"/>
+      <c r="HCS526" s="43"/>
+      <c r="HCW526" s="43"/>
+      <c r="HDA526" s="43"/>
+      <c r="HDE526" s="43"/>
+      <c r="HDI526" s="43"/>
+      <c r="HDM526" s="43"/>
+      <c r="HDQ526" s="43"/>
+      <c r="HDU526" s="43"/>
+      <c r="HDY526" s="43"/>
+      <c r="HEC526" s="43"/>
+      <c r="HEG526" s="43"/>
+      <c r="HEK526" s="43"/>
+      <c r="HEO526" s="43"/>
+      <c r="HES526" s="43"/>
+      <c r="HEW526" s="43"/>
+      <c r="HFA526" s="43"/>
+      <c r="HFE526" s="43"/>
+      <c r="HFI526" s="43"/>
+      <c r="HFM526" s="43"/>
+      <c r="HFQ526" s="43"/>
+      <c r="HFU526" s="43"/>
+      <c r="HFY526" s="43"/>
+      <c r="HGC526" s="43"/>
+      <c r="HGG526" s="43"/>
+      <c r="HGK526" s="43"/>
+      <c r="HGO526" s="43"/>
+      <c r="HGS526" s="43"/>
+      <c r="HGW526" s="43"/>
+      <c r="HHA526" s="43"/>
+      <c r="HHE526" s="43"/>
+      <c r="HHI526" s="43"/>
+      <c r="HHM526" s="43"/>
+      <c r="HHQ526" s="43"/>
+      <c r="HHU526" s="43"/>
+      <c r="HHY526" s="43"/>
+      <c r="HIC526" s="43"/>
+      <c r="HIG526" s="43"/>
+      <c r="HIK526" s="43"/>
+      <c r="HIO526" s="43"/>
+      <c r="HIS526" s="43"/>
+      <c r="HIW526" s="43"/>
+      <c r="HJA526" s="43"/>
+      <c r="HJE526" s="43"/>
+      <c r="HJI526" s="43"/>
+      <c r="HJM526" s="43"/>
+      <c r="HJQ526" s="43"/>
+      <c r="HJU526" s="43"/>
+      <c r="HJY526" s="43"/>
+      <c r="HKC526" s="43"/>
+      <c r="HKG526" s="43"/>
+      <c r="HKK526" s="43"/>
+      <c r="HKO526" s="43"/>
+      <c r="HKS526" s="43"/>
+      <c r="HKW526" s="43"/>
+      <c r="HLA526" s="43"/>
+      <c r="HLE526" s="43"/>
+      <c r="HLI526" s="43"/>
+      <c r="HLM526" s="43"/>
+      <c r="HLQ526" s="43"/>
+      <c r="HLU526" s="43"/>
+      <c r="HLY526" s="43"/>
+      <c r="HMC526" s="43"/>
+      <c r="HMG526" s="43"/>
+      <c r="HMK526" s="43"/>
+      <c r="HMO526" s="43"/>
+      <c r="HMS526" s="43"/>
+      <c r="HMW526" s="43"/>
+      <c r="HNA526" s="43"/>
+      <c r="HNE526" s="43"/>
+      <c r="HNI526" s="43"/>
+      <c r="HNM526" s="43"/>
+      <c r="HNQ526" s="43"/>
+      <c r="HNU526" s="43"/>
+      <c r="HNY526" s="43"/>
+      <c r="HOC526" s="43"/>
+      <c r="HOG526" s="43"/>
+      <c r="HOK526" s="43"/>
+      <c r="HOO526" s="43"/>
+      <c r="HOS526" s="43"/>
+      <c r="HOW526" s="43"/>
+      <c r="HPA526" s="43"/>
+      <c r="HPE526" s="43"/>
+      <c r="HPI526" s="43"/>
+      <c r="HPM526" s="43"/>
+      <c r="HPQ526" s="43"/>
+      <c r="HPU526" s="43"/>
+      <c r="HPY526" s="43"/>
+      <c r="HQC526" s="43"/>
+      <c r="HQG526" s="43"/>
+      <c r="HQK526" s="43"/>
+      <c r="HQO526" s="43"/>
+      <c r="HQS526" s="43"/>
+      <c r="HQW526" s="43"/>
+      <c r="HRA526" s="43"/>
+      <c r="HRE526" s="43"/>
+      <c r="HRI526" s="43"/>
+      <c r="HRM526" s="43"/>
+      <c r="HRQ526" s="43"/>
+      <c r="HRU526" s="43"/>
+      <c r="HRY526" s="43"/>
+      <c r="HSC526" s="43"/>
+      <c r="HSG526" s="43"/>
+      <c r="HSK526" s="43"/>
+      <c r="HSO526" s="43"/>
+      <c r="HSS526" s="43"/>
+      <c r="HSW526" s="43"/>
+      <c r="HTA526" s="43"/>
+      <c r="HTE526" s="43"/>
+      <c r="HTI526" s="43"/>
+      <c r="HTM526" s="43"/>
+      <c r="HTQ526" s="43"/>
+      <c r="HTU526" s="43"/>
+      <c r="HTY526" s="43"/>
+      <c r="HUC526" s="43"/>
+      <c r="HUG526" s="43"/>
+      <c r="HUK526" s="43"/>
+      <c r="HUO526" s="43"/>
+      <c r="HUS526" s="43"/>
+      <c r="HUW526" s="43"/>
+      <c r="HVA526" s="43"/>
+      <c r="HVE526" s="43"/>
+      <c r="HVI526" s="43"/>
+      <c r="HVM526" s="43"/>
+      <c r="HVQ526" s="43"/>
+      <c r="HVU526" s="43"/>
+      <c r="HVY526" s="43"/>
+      <c r="HWC526" s="43"/>
+      <c r="HWG526" s="43"/>
+      <c r="HWK526" s="43"/>
+      <c r="HWO526" s="43"/>
+      <c r="HWS526" s="43"/>
+      <c r="HWW526" s="43"/>
+      <c r="HXA526" s="43"/>
+      <c r="HXE526" s="43"/>
+      <c r="HXI526" s="43"/>
+      <c r="HXM526" s="43"/>
+      <c r="HXQ526" s="43"/>
+      <c r="HXU526" s="43"/>
+      <c r="HXY526" s="43"/>
+      <c r="HYC526" s="43"/>
+      <c r="HYG526" s="43"/>
+      <c r="HYK526" s="43"/>
+      <c r="HYO526" s="43"/>
+      <c r="HYS526" s="43"/>
+      <c r="HYW526" s="43"/>
+      <c r="HZA526" s="43"/>
+      <c r="HZE526" s="43"/>
+      <c r="HZI526" s="43"/>
+      <c r="HZM526" s="43"/>
+      <c r="HZQ526" s="43"/>
+      <c r="HZU526" s="43"/>
+      <c r="HZY526" s="43"/>
+      <c r="IAC526" s="43"/>
+      <c r="IAG526" s="43"/>
+      <c r="IAK526" s="43"/>
+      <c r="IAO526" s="43"/>
+      <c r="IAS526" s="43"/>
+      <c r="IAW526" s="43"/>
+      <c r="IBA526" s="43"/>
+      <c r="IBE526" s="43"/>
+      <c r="IBI526" s="43"/>
+      <c r="IBM526" s="43"/>
+      <c r="IBQ526" s="43"/>
+      <c r="IBU526" s="43"/>
+      <c r="IBY526" s="43"/>
+      <c r="ICC526" s="43"/>
+      <c r="ICG526" s="43"/>
+      <c r="ICK526" s="43"/>
+      <c r="ICO526" s="43"/>
+      <c r="ICS526" s="43"/>
+      <c r="ICW526" s="43"/>
+      <c r="IDA526" s="43"/>
+      <c r="IDE526" s="43"/>
+      <c r="IDI526" s="43"/>
+      <c r="IDM526" s="43"/>
+      <c r="IDQ526" s="43"/>
+      <c r="IDU526" s="43"/>
+      <c r="IDY526" s="43"/>
+      <c r="IEC526" s="43"/>
+      <c r="IEG526" s="43"/>
+      <c r="IEK526" s="43"/>
+      <c r="IEO526" s="43"/>
+      <c r="IES526" s="43"/>
+      <c r="IEW526" s="43"/>
+      <c r="IFA526" s="43"/>
+      <c r="IFE526" s="43"/>
+      <c r="IFI526" s="43"/>
+      <c r="IFM526" s="43"/>
+      <c r="IFQ526" s="43"/>
+      <c r="IFU526" s="43"/>
+      <c r="IFY526" s="43"/>
+      <c r="IGC526" s="43"/>
+      <c r="IGG526" s="43"/>
+      <c r="IGK526" s="43"/>
+      <c r="IGO526" s="43"/>
+      <c r="IGS526" s="43"/>
+      <c r="IGW526" s="43"/>
+      <c r="IHA526" s="43"/>
+      <c r="IHE526" s="43"/>
+      <c r="IHI526" s="43"/>
+      <c r="IHM526" s="43"/>
+      <c r="IHQ526" s="43"/>
+      <c r="IHU526" s="43"/>
+      <c r="IHY526" s="43"/>
+      <c r="IIC526" s="43"/>
+      <c r="IIG526" s="43"/>
+      <c r="IIK526" s="43"/>
+      <c r="IIO526" s="43"/>
+      <c r="IIS526" s="43"/>
+      <c r="IIW526" s="43"/>
+      <c r="IJA526" s="43"/>
+      <c r="IJE526" s="43"/>
+      <c r="IJI526" s="43"/>
+      <c r="IJM526" s="43"/>
+      <c r="IJQ526" s="43"/>
+      <c r="IJU526" s="43"/>
+      <c r="IJY526" s="43"/>
+      <c r="IKC526" s="43"/>
+      <c r="IKG526" s="43"/>
+      <c r="IKK526" s="43"/>
+      <c r="IKO526" s="43"/>
+      <c r="IKS526" s="43"/>
+      <c r="IKW526" s="43"/>
+      <c r="ILA526" s="43"/>
+      <c r="ILE526" s="43"/>
+      <c r="ILI526" s="43"/>
+      <c r="ILM526" s="43"/>
+      <c r="ILQ526" s="43"/>
+      <c r="ILU526" s="43"/>
+      <c r="ILY526" s="43"/>
+      <c r="IMC526" s="43"/>
+      <c r="IMG526" s="43"/>
+      <c r="IMK526" s="43"/>
+      <c r="IMO526" s="43"/>
+      <c r="IMS526" s="43"/>
+      <c r="IMW526" s="43"/>
+      <c r="INA526" s="43"/>
+      <c r="INE526" s="43"/>
+      <c r="INI526" s="43"/>
+      <c r="INM526" s="43"/>
+      <c r="INQ526" s="43"/>
+      <c r="INU526" s="43"/>
+      <c r="INY526" s="43"/>
+      <c r="IOC526" s="43"/>
+      <c r="IOG526" s="43"/>
+      <c r="IOK526" s="43"/>
+      <c r="IOO526" s="43"/>
+      <c r="IOS526" s="43"/>
+      <c r="IOW526" s="43"/>
+      <c r="IPA526" s="43"/>
+      <c r="IPE526" s="43"/>
+      <c r="IPI526" s="43"/>
+      <c r="IPM526" s="43"/>
+      <c r="IPQ526" s="43"/>
+      <c r="IPU526" s="43"/>
+      <c r="IPY526" s="43"/>
+      <c r="IQC526" s="43"/>
+      <c r="IQG526" s="43"/>
+      <c r="IQK526" s="43"/>
+      <c r="IQO526" s="43"/>
+      <c r="IQS526" s="43"/>
+      <c r="IQW526" s="43"/>
+      <c r="IRA526" s="43"/>
+      <c r="IRE526" s="43"/>
+      <c r="IRI526" s="43"/>
+      <c r="IRM526" s="43"/>
+      <c r="IRQ526" s="43"/>
+      <c r="IRU526" s="43"/>
+      <c r="IRY526" s="43"/>
+      <c r="ISC526" s="43"/>
+      <c r="ISG526" s="43"/>
+      <c r="ISK526" s="43"/>
+      <c r="ISO526" s="43"/>
+      <c r="ISS526" s="43"/>
+      <c r="ISW526" s="43"/>
+      <c r="ITA526" s="43"/>
+      <c r="ITE526" s="43"/>
+      <c r="ITI526" s="43"/>
+      <c r="ITM526" s="43"/>
+      <c r="ITQ526" s="43"/>
+      <c r="ITU526" s="43"/>
+      <c r="ITY526" s="43"/>
+      <c r="IUC526" s="43"/>
+      <c r="IUG526" s="43"/>
+      <c r="IUK526" s="43"/>
+      <c r="IUO526" s="43"/>
+      <c r="IUS526" s="43"/>
+      <c r="IUW526" s="43"/>
+      <c r="IVA526" s="43"/>
+      <c r="IVE526" s="43"/>
+      <c r="IVI526" s="43"/>
+      <c r="IVM526" s="43"/>
+      <c r="IVQ526" s="43"/>
+      <c r="IVU526" s="43"/>
+      <c r="IVY526" s="43"/>
+      <c r="IWC526" s="43"/>
+      <c r="IWG526" s="43"/>
+      <c r="IWK526" s="43"/>
+      <c r="IWO526" s="43"/>
+      <c r="IWS526" s="43"/>
+      <c r="IWW526" s="43"/>
+      <c r="IXA526" s="43"/>
+      <c r="IXE526" s="43"/>
+      <c r="IXI526" s="43"/>
+      <c r="IXM526" s="43"/>
+      <c r="IXQ526" s="43"/>
+      <c r="IXU526" s="43"/>
+      <c r="IXY526" s="43"/>
+      <c r="IYC526" s="43"/>
+      <c r="IYG526" s="43"/>
+      <c r="IYK526" s="43"/>
+      <c r="IYO526" s="43"/>
+      <c r="IYS526" s="43"/>
+      <c r="IYW526" s="43"/>
+      <c r="IZA526" s="43"/>
+      <c r="IZE526" s="43"/>
+      <c r="IZI526" s="43"/>
+      <c r="IZM526" s="43"/>
+      <c r="IZQ526" s="43"/>
+      <c r="IZU526" s="43"/>
+      <c r="IZY526" s="43"/>
+      <c r="JAC526" s="43"/>
+      <c r="JAG526" s="43"/>
+      <c r="JAK526" s="43"/>
+      <c r="JAO526" s="43"/>
+      <c r="JAS526" s="43"/>
+      <c r="JAW526" s="43"/>
+      <c r="JBA526" s="43"/>
+      <c r="JBE526" s="43"/>
+      <c r="JBI526" s="43"/>
+      <c r="JBM526" s="43"/>
+      <c r="JBQ526" s="43"/>
+      <c r="JBU526" s="43"/>
+      <c r="JBY526" s="43"/>
+      <c r="JCC526" s="43"/>
+      <c r="JCG526" s="43"/>
+      <c r="JCK526" s="43"/>
+      <c r="JCO526" s="43"/>
+      <c r="JCS526" s="43"/>
+      <c r="JCW526" s="43"/>
+      <c r="JDA526" s="43"/>
+      <c r="JDE526" s="43"/>
+      <c r="JDI526" s="43"/>
+      <c r="JDM526" s="43"/>
+      <c r="JDQ526" s="43"/>
+      <c r="JDU526" s="43"/>
+      <c r="JDY526" s="43"/>
+      <c r="JEC526" s="43"/>
+      <c r="JEG526" s="43"/>
+      <c r="JEK526" s="43"/>
+      <c r="JEO526" s="43"/>
+      <c r="JES526" s="43"/>
+      <c r="JEW526" s="43"/>
+      <c r="JFA526" s="43"/>
+      <c r="JFE526" s="43"/>
+      <c r="JFI526" s="43"/>
+      <c r="JFM526" s="43"/>
+      <c r="JFQ526" s="43"/>
+      <c r="JFU526" s="43"/>
+      <c r="JFY526" s="43"/>
+      <c r="JGC526" s="43"/>
+      <c r="JGG526" s="43"/>
+      <c r="JGK526" s="43"/>
+      <c r="JGO526" s="43"/>
+      <c r="JGS526" s="43"/>
+      <c r="JGW526" s="43"/>
+      <c r="JHA526" s="43"/>
+      <c r="JHE526" s="43"/>
+      <c r="JHI526" s="43"/>
+      <c r="JHM526" s="43"/>
+      <c r="JHQ526" s="43"/>
+      <c r="JHU526" s="43"/>
+      <c r="JHY526" s="43"/>
+      <c r="JIC526" s="43"/>
+      <c r="JIG526" s="43"/>
+      <c r="JIK526" s="43"/>
+      <c r="JIO526" s="43"/>
+      <c r="JIS526" s="43"/>
+      <c r="JIW526" s="43"/>
+      <c r="JJA526" s="43"/>
+      <c r="JJE526" s="43"/>
+      <c r="JJI526" s="43"/>
+      <c r="JJM526" s="43"/>
+      <c r="JJQ526" s="43"/>
+      <c r="JJU526" s="43"/>
+      <c r="JJY526" s="43"/>
+      <c r="JKC526" s="43"/>
+      <c r="JKG526" s="43"/>
+      <c r="JKK526" s="43"/>
+      <c r="JKO526" s="43"/>
+      <c r="JKS526" s="43"/>
+      <c r="JKW526" s="43"/>
+      <c r="JLA526" s="43"/>
+      <c r="JLE526" s="43"/>
+      <c r="JLI526" s="43"/>
+      <c r="JLM526" s="43"/>
+      <c r="JLQ526" s="43"/>
+      <c r="JLU526" s="43"/>
+      <c r="JLY526" s="43"/>
+      <c r="JMC526" s="43"/>
+      <c r="JMG526" s="43"/>
+      <c r="JMK526" s="43"/>
+      <c r="JMO526" s="43"/>
+      <c r="JMS526" s="43"/>
+      <c r="JMW526" s="43"/>
+      <c r="JNA526" s="43"/>
+      <c r="JNE526" s="43"/>
+      <c r="JNI526" s="43"/>
+      <c r="JNM526" s="43"/>
+      <c r="JNQ526" s="43"/>
+      <c r="JNU526" s="43"/>
+      <c r="JNY526" s="43"/>
+      <c r="JOC526" s="43"/>
+      <c r="JOG526" s="43"/>
+      <c r="JOK526" s="43"/>
+      <c r="JOO526" s="43"/>
+      <c r="JOS526" s="43"/>
+      <c r="JOW526" s="43"/>
+      <c r="JPA526" s="43"/>
+      <c r="JPE526" s="43"/>
+      <c r="JPI526" s="43"/>
+      <c r="JPM526" s="43"/>
+      <c r="JPQ526" s="43"/>
+      <c r="JPU526" s="43"/>
+      <c r="JPY526" s="43"/>
+      <c r="JQC526" s="43"/>
+      <c r="JQG526" s="43"/>
+      <c r="JQK526" s="43"/>
+      <c r="JQO526" s="43"/>
+      <c r="JQS526" s="43"/>
+      <c r="JQW526" s="43"/>
+      <c r="JRA526" s="43"/>
+      <c r="JRE526" s="43"/>
+      <c r="JRI526" s="43"/>
+      <c r="JRM526" s="43"/>
+      <c r="JRQ526" s="43"/>
+      <c r="JRU526" s="43"/>
+      <c r="JRY526" s="43"/>
+      <c r="JSC526" s="43"/>
+      <c r="JSG526" s="43"/>
+      <c r="JSK526" s="43"/>
+      <c r="JSO526" s="43"/>
+      <c r="JSS526" s="43"/>
+      <c r="JSW526" s="43"/>
+      <c r="JTA526" s="43"/>
+      <c r="JTE526" s="43"/>
+      <c r="JTI526" s="43"/>
+      <c r="JTM526" s="43"/>
+      <c r="JTQ526" s="43"/>
+      <c r="JTU526" s="43"/>
+      <c r="JTY526" s="43"/>
+      <c r="JUC526" s="43"/>
+      <c r="JUG526" s="43"/>
+      <c r="JUK526" s="43"/>
+      <c r="JUO526" s="43"/>
+      <c r="JUS526" s="43"/>
+      <c r="JUW526" s="43"/>
+      <c r="JVA526" s="43"/>
+      <c r="JVE526" s="43"/>
+      <c r="JVI526" s="43"/>
+      <c r="JVM526" s="43"/>
+      <c r="JVQ526" s="43"/>
+      <c r="JVU526" s="43"/>
+      <c r="JVY526" s="43"/>
+      <c r="JWC526" s="43"/>
+      <c r="JWG526" s="43"/>
+      <c r="JWK526" s="43"/>
+      <c r="JWO526" s="43"/>
+      <c r="JWS526" s="43"/>
+      <c r="JWW526" s="43"/>
+      <c r="JXA526" s="43"/>
+      <c r="JXE526" s="43"/>
+      <c r="JXI526" s="43"/>
+      <c r="JXM526" s="43"/>
+      <c r="JXQ526" s="43"/>
+      <c r="JXU526" s="43"/>
+      <c r="JXY526" s="43"/>
+      <c r="JYC526" s="43"/>
+      <c r="JYG526" s="43"/>
+      <c r="JYK526" s="43"/>
+      <c r="JYO526" s="43"/>
+      <c r="JYS526" s="43"/>
+      <c r="JYW526" s="43"/>
+      <c r="JZA526" s="43"/>
+      <c r="JZE526" s="43"/>
+      <c r="JZI526" s="43"/>
+      <c r="JZM526" s="43"/>
+      <c r="JZQ526" s="43"/>
+      <c r="JZU526" s="43"/>
+      <c r="JZY526" s="43"/>
+      <c r="KAC526" s="43"/>
+      <c r="KAG526" s="43"/>
+      <c r="KAK526" s="43"/>
+      <c r="KAO526" s="43"/>
+      <c r="KAS526" s="43"/>
+      <c r="KAW526" s="43"/>
+      <c r="KBA526" s="43"/>
+      <c r="KBE526" s="43"/>
+      <c r="KBI526" s="43"/>
+      <c r="KBM526" s="43"/>
+      <c r="KBQ526" s="43"/>
+      <c r="KBU526" s="43"/>
+      <c r="KBY526" s="43"/>
+      <c r="KCC526" s="43"/>
+      <c r="KCG526" s="43"/>
+      <c r="KCK526" s="43"/>
+      <c r="KCO526" s="43"/>
+      <c r="KCS526" s="43"/>
+      <c r="KCW526" s="43"/>
+      <c r="KDA526" s="43"/>
+      <c r="KDE526" s="43"/>
+      <c r="KDI526" s="43"/>
+      <c r="KDM526" s="43"/>
+      <c r="KDQ526" s="43"/>
+      <c r="KDU526" s="43"/>
+      <c r="KDY526" s="43"/>
+      <c r="KEC526" s="43"/>
+      <c r="KEG526" s="43"/>
+      <c r="KEK526" s="43"/>
+      <c r="KEO526" s="43"/>
+      <c r="KES526" s="43"/>
+      <c r="KEW526" s="43"/>
+      <c r="KFA526" s="43"/>
+      <c r="KFE526" s="43"/>
+      <c r="KFI526" s="43"/>
+      <c r="KFM526" s="43"/>
+      <c r="KFQ526" s="43"/>
+      <c r="KFU526" s="43"/>
+      <c r="KFY526" s="43"/>
+      <c r="KGC526" s="43"/>
+      <c r="KGG526" s="43"/>
+      <c r="KGK526" s="43"/>
+      <c r="KGO526" s="43"/>
+      <c r="KGS526" s="43"/>
+      <c r="KGW526" s="43"/>
+      <c r="KHA526" s="43"/>
+      <c r="KHE526" s="43"/>
+      <c r="KHI526" s="43"/>
+      <c r="KHM526" s="43"/>
+      <c r="KHQ526" s="43"/>
+      <c r="KHU526" s="43"/>
+      <c r="KHY526" s="43"/>
+      <c r="KIC526" s="43"/>
+      <c r="KIG526" s="43"/>
+      <c r="KIK526" s="43"/>
+      <c r="KIO526" s="43"/>
+      <c r="KIS526" s="43"/>
+      <c r="KIW526" s="43"/>
+      <c r="KJA526" s="43"/>
+      <c r="KJE526" s="43"/>
+      <c r="KJI526" s="43"/>
+      <c r="KJM526" s="43"/>
+      <c r="KJQ526" s="43"/>
+      <c r="KJU526" s="43"/>
+      <c r="KJY526" s="43"/>
+      <c r="KKC526" s="43"/>
+      <c r="KKG526" s="43"/>
+      <c r="KKK526" s="43"/>
+      <c r="KKO526" s="43"/>
+      <c r="KKS526" s="43"/>
+      <c r="KKW526" s="43"/>
+      <c r="KLA526" s="43"/>
+      <c r="KLE526" s="43"/>
+      <c r="KLI526" s="43"/>
+      <c r="KLM526" s="43"/>
+      <c r="KLQ526" s="43"/>
+      <c r="KLU526" s="43"/>
+      <c r="KLY526" s="43"/>
+      <c r="KMC526" s="43"/>
+      <c r="KMG526" s="43"/>
+      <c r="KMK526" s="43"/>
+      <c r="KMO526" s="43"/>
+      <c r="KMS526" s="43"/>
+      <c r="KMW526" s="43"/>
+      <c r="KNA526" s="43"/>
+      <c r="KNE526" s="43"/>
+      <c r="KNI526" s="43"/>
+      <c r="KNM526" s="43"/>
+      <c r="KNQ526" s="43"/>
+      <c r="KNU526" s="43"/>
+      <c r="KNY526" s="43"/>
+      <c r="KOC526" s="43"/>
+      <c r="KOG526" s="43"/>
+      <c r="KOK526" s="43"/>
+      <c r="KOO526" s="43"/>
+      <c r="KOS526" s="43"/>
+      <c r="KOW526" s="43"/>
+      <c r="KPA526" s="43"/>
+      <c r="KPE526" s="43"/>
+      <c r="KPI526" s="43"/>
+      <c r="KPM526" s="43"/>
+      <c r="KPQ526" s="43"/>
+      <c r="KPU526" s="43"/>
+      <c r="KPY526" s="43"/>
+      <c r="KQC526" s="43"/>
+      <c r="KQG526" s="43"/>
+      <c r="KQK526" s="43"/>
+      <c r="KQO526" s="43"/>
+      <c r="KQS526" s="43"/>
+      <c r="KQW526" s="43"/>
+      <c r="KRA526" s="43"/>
+      <c r="KRE526" s="43"/>
+      <c r="KRI526" s="43"/>
+      <c r="KRM526" s="43"/>
+      <c r="KRQ526" s="43"/>
+      <c r="KRU526" s="43"/>
+      <c r="KRY526" s="43"/>
+      <c r="KSC526" s="43"/>
+      <c r="KSG526" s="43"/>
+      <c r="KSK526" s="43"/>
+      <c r="KSO526" s="43"/>
+      <c r="KSS526" s="43"/>
+      <c r="KSW526" s="43"/>
+      <c r="KTA526" s="43"/>
+      <c r="KTE526" s="43"/>
+      <c r="KTI526" s="43"/>
+      <c r="KTM526" s="43"/>
+      <c r="KTQ526" s="43"/>
+      <c r="KTU526" s="43"/>
+      <c r="KTY526" s="43"/>
+      <c r="KUC526" s="43"/>
+      <c r="KUG526" s="43"/>
+      <c r="KUK526" s="43"/>
+      <c r="KUO526" s="43"/>
+      <c r="KUS526" s="43"/>
+      <c r="KUW526" s="43"/>
+      <c r="KVA526" s="43"/>
+      <c r="KVE526" s="43"/>
+      <c r="KVI526" s="43"/>
+      <c r="KVM526" s="43"/>
+      <c r="KVQ526" s="43"/>
+      <c r="KVU526" s="43"/>
+      <c r="KVY526" s="43"/>
+      <c r="KWC526" s="43"/>
+      <c r="KWG526" s="43"/>
+      <c r="KWK526" s="43"/>
+      <c r="KWO526" s="43"/>
+      <c r="KWS526" s="43"/>
+      <c r="KWW526" s="43"/>
+      <c r="KXA526" s="43"/>
+      <c r="KXE526" s="43"/>
+      <c r="KXI526" s="43"/>
+      <c r="KXM526" s="43"/>
+      <c r="KXQ526" s="43"/>
+      <c r="KXU526" s="43"/>
+      <c r="KXY526" s="43"/>
+      <c r="KYC526" s="43"/>
+      <c r="KYG526" s="43"/>
+      <c r="KYK526" s="43"/>
+      <c r="KYO526" s="43"/>
+      <c r="KYS526" s="43"/>
+      <c r="KYW526" s="43"/>
+      <c r="KZA526" s="43"/>
+      <c r="KZE526" s="43"/>
+      <c r="KZI526" s="43"/>
+      <c r="KZM526" s="43"/>
+      <c r="KZQ526" s="43"/>
+      <c r="KZU526" s="43"/>
+      <c r="KZY526" s="43"/>
+      <c r="LAC526" s="43"/>
+      <c r="LAG526" s="43"/>
+      <c r="LAK526" s="43"/>
+      <c r="LAO526" s="43"/>
+      <c r="LAS526" s="43"/>
+      <c r="LAW526" s="43"/>
+      <c r="LBA526" s="43"/>
+      <c r="LBE526" s="43"/>
+      <c r="LBI526" s="43"/>
+      <c r="LBM526" s="43"/>
+      <c r="LBQ526" s="43"/>
+      <c r="LBU526" s="43"/>
+      <c r="LBY526" s="43"/>
+      <c r="LCC526" s="43"/>
+      <c r="LCG526" s="43"/>
+      <c r="LCK526" s="43"/>
+      <c r="LCO526" s="43"/>
+      <c r="LCS526" s="43"/>
+      <c r="LCW526" s="43"/>
+      <c r="LDA526" s="43"/>
+      <c r="LDE526" s="43"/>
+      <c r="LDI526" s="43"/>
+      <c r="LDM526" s="43"/>
+      <c r="LDQ526" s="43"/>
+      <c r="LDU526" s="43"/>
+      <c r="LDY526" s="43"/>
+      <c r="LEC526" s="43"/>
+      <c r="LEG526" s="43"/>
+      <c r="LEK526" s="43"/>
+      <c r="LEO526" s="43"/>
+      <c r="LES526" s="43"/>
+      <c r="LEW526" s="43"/>
+      <c r="LFA526" s="43"/>
+      <c r="LFE526" s="43"/>
+      <c r="LFI526" s="43"/>
+      <c r="LFM526" s="43"/>
+      <c r="LFQ526" s="43"/>
+      <c r="LFU526" s="43"/>
+      <c r="LFY526" s="43"/>
+      <c r="LGC526" s="43"/>
+      <c r="LGG526" s="43"/>
+      <c r="LGK526" s="43"/>
+      <c r="LGO526" s="43"/>
+      <c r="LGS526" s="43"/>
+      <c r="LGW526" s="43"/>
+      <c r="LHA526" s="43"/>
+      <c r="LHE526" s="43"/>
+      <c r="LHI526" s="43"/>
+      <c r="LHM526" s="43"/>
+      <c r="LHQ526" s="43"/>
+      <c r="LHU526" s="43"/>
+      <c r="LHY526" s="43"/>
+      <c r="LIC526" s="43"/>
+      <c r="LIG526" s="43"/>
+      <c r="LIK526" s="43"/>
+      <c r="LIO526" s="43"/>
+      <c r="LIS526" s="43"/>
+      <c r="LIW526" s="43"/>
+      <c r="LJA526" s="43"/>
+      <c r="LJE526" s="43"/>
+      <c r="LJI526" s="43"/>
+      <c r="LJM526" s="43"/>
+      <c r="LJQ526" s="43"/>
+      <c r="LJU526" s="43"/>
+      <c r="LJY526" s="43"/>
+      <c r="LKC526" s="43"/>
+      <c r="LKG526" s="43"/>
+      <c r="LKK526" s="43"/>
+      <c r="LKO526" s="43"/>
+      <c r="LKS526" s="43"/>
+      <c r="LKW526" s="43"/>
+      <c r="LLA526" s="43"/>
+      <c r="LLE526" s="43"/>
+      <c r="LLI526" s="43"/>
+      <c r="LLM526" s="43"/>
+      <c r="LLQ526" s="43"/>
+      <c r="LLU526" s="43"/>
+      <c r="LLY526" s="43"/>
+      <c r="LMC526" s="43"/>
+      <c r="LMG526" s="43"/>
+      <c r="LMK526" s="43"/>
+      <c r="LMO526" s="43"/>
+      <c r="LMS526" s="43"/>
+      <c r="LMW526" s="43"/>
+      <c r="LNA526" s="43"/>
+      <c r="LNE526" s="43"/>
+      <c r="LNI526" s="43"/>
+      <c r="LNM526" s="43"/>
+      <c r="LNQ526" s="43"/>
+      <c r="LNU526" s="43"/>
+      <c r="LNY526" s="43"/>
+      <c r="LOC526" s="43"/>
+      <c r="LOG526" s="43"/>
+      <c r="LOK526" s="43"/>
+      <c r="LOO526" s="43"/>
+      <c r="LOS526" s="43"/>
+      <c r="LOW526" s="43"/>
+      <c r="LPA526" s="43"/>
+      <c r="LPE526" s="43"/>
+      <c r="LPI526" s="43"/>
+      <c r="LPM526" s="43"/>
+      <c r="LPQ526" s="43"/>
+      <c r="LPU526" s="43"/>
+      <c r="LPY526" s="43"/>
+      <c r="LQC526" s="43"/>
+      <c r="LQG526" s="43"/>
+      <c r="LQK526" s="43"/>
+      <c r="LQO526" s="43"/>
+      <c r="LQS526" s="43"/>
+      <c r="LQW526" s="43"/>
+      <c r="LRA526" s="43"/>
+      <c r="LRE526" s="43"/>
+      <c r="LRI526" s="43"/>
+      <c r="LRM526" s="43"/>
+      <c r="LRQ526" s="43"/>
+      <c r="LRU526" s="43"/>
+      <c r="LRY526" s="43"/>
+      <c r="LSC526" s="43"/>
+      <c r="LSG526" s="43"/>
+      <c r="LSK526" s="43"/>
+      <c r="LSO526" s="43"/>
+      <c r="LSS526" s="43"/>
+      <c r="LSW526" s="43"/>
+      <c r="LTA526" s="43"/>
+      <c r="LTE526" s="43"/>
+      <c r="LTI526" s="43"/>
+      <c r="LTM526" s="43"/>
+      <c r="LTQ526" s="43"/>
+      <c r="LTU526" s="43"/>
+      <c r="LTY526" s="43"/>
+      <c r="LUC526" s="43"/>
+      <c r="LUG526" s="43"/>
+      <c r="LUK526" s="43"/>
+      <c r="LUO526" s="43"/>
+      <c r="LUS526" s="43"/>
+      <c r="LUW526" s="43"/>
+      <c r="LVA526" s="43"/>
+      <c r="LVE526" s="43"/>
+      <c r="LVI526" s="43"/>
+      <c r="LVM526" s="43"/>
+      <c r="LVQ526" s="43"/>
+      <c r="LVU526" s="43"/>
+      <c r="LVY526" s="43"/>
+      <c r="LWC526" s="43"/>
+      <c r="LWG526" s="43"/>
+      <c r="LWK526" s="43"/>
+      <c r="LWO526" s="43"/>
+      <c r="LWS526" s="43"/>
+      <c r="LWW526" s="43"/>
+      <c r="LXA526" s="43"/>
+      <c r="LXE526" s="43"/>
+      <c r="LXI526" s="43"/>
+      <c r="LXM526" s="43"/>
+      <c r="LXQ526" s="43"/>
+      <c r="LXU526" s="43"/>
+      <c r="LXY526" s="43"/>
+      <c r="LYC526" s="43"/>
+      <c r="LYG526" s="43"/>
+      <c r="LYK526" s="43"/>
+      <c r="LYO526" s="43"/>
+      <c r="LYS526" s="43"/>
+      <c r="LYW526" s="43"/>
+      <c r="LZA526" s="43"/>
+      <c r="LZE526" s="43"/>
+      <c r="LZI526" s="43"/>
+      <c r="LZM526" s="43"/>
+      <c r="LZQ526" s="43"/>
+      <c r="LZU526" s="43"/>
+      <c r="LZY526" s="43"/>
+      <c r="MAC526" s="43"/>
+      <c r="MAG526" s="43"/>
+      <c r="MAK526" s="43"/>
+      <c r="MAO526" s="43"/>
+      <c r="MAS526" s="43"/>
+      <c r="MAW526" s="43"/>
+      <c r="MBA526" s="43"/>
+      <c r="MBE526" s="43"/>
+      <c r="MBI526" s="43"/>
+      <c r="MBM526" s="43"/>
+      <c r="MBQ526" s="43"/>
+      <c r="MBU526" s="43"/>
+      <c r="MBY526" s="43"/>
+      <c r="MCC526" s="43"/>
+      <c r="MCG526" s="43"/>
+      <c r="MCK526" s="43"/>
+      <c r="MCO526" s="43"/>
+      <c r="MCS526" s="43"/>
+      <c r="MCW526" s="43"/>
+      <c r="MDA526" s="43"/>
+      <c r="MDE526" s="43"/>
+      <c r="MDI526" s="43"/>
+      <c r="MDM526" s="43"/>
+      <c r="MDQ526" s="43"/>
+      <c r="MDU526" s="43"/>
+      <c r="MDY526" s="43"/>
+      <c r="MEC526" s="43"/>
+      <c r="MEG526" s="43"/>
+      <c r="MEK526" s="43"/>
+      <c r="MEO526" s="43"/>
+      <c r="MES526" s="43"/>
+      <c r="MEW526" s="43"/>
+      <c r="MFA526" s="43"/>
+      <c r="MFE526" s="43"/>
+      <c r="MFI526" s="43"/>
+      <c r="MFM526" s="43"/>
+      <c r="MFQ526" s="43"/>
+      <c r="MFU526" s="43"/>
+      <c r="MFY526" s="43"/>
+      <c r="MGC526" s="43"/>
+      <c r="MGG526" s="43"/>
+      <c r="MGK526" s="43"/>
+      <c r="MGO526" s="43"/>
+      <c r="MGS526" s="43"/>
+      <c r="MGW526" s="43"/>
+      <c r="MHA526" s="43"/>
+      <c r="MHE526" s="43"/>
+      <c r="MHI526" s="43"/>
+      <c r="MHM526" s="43"/>
+      <c r="MHQ526" s="43"/>
+      <c r="MHU526" s="43"/>
+      <c r="MHY526" s="43"/>
+      <c r="MIC526" s="43"/>
+      <c r="MIG526" s="43"/>
+      <c r="MIK526" s="43"/>
+      <c r="MIO526" s="43"/>
+      <c r="MIS526" s="43"/>
+      <c r="MIW526" s="43"/>
+      <c r="MJA526" s="43"/>
+      <c r="MJE526" s="43"/>
+      <c r="MJI526" s="43"/>
+      <c r="MJM526" s="43"/>
+      <c r="MJQ526" s="43"/>
+      <c r="MJU526" s="43"/>
+      <c r="MJY526" s="43"/>
+      <c r="MKC526" s="43"/>
+      <c r="MKG526" s="43"/>
+      <c r="MKK526" s="43"/>
+      <c r="MKO526" s="43"/>
+      <c r="MKS526" s="43"/>
+      <c r="MKW526" s="43"/>
+      <c r="MLA526" s="43"/>
+      <c r="MLE526" s="43"/>
+      <c r="MLI526" s="43"/>
+      <c r="MLM526" s="43"/>
+      <c r="MLQ526" s="43"/>
+      <c r="MLU526" s="43"/>
+      <c r="MLY526" s="43"/>
+      <c r="MMC526" s="43"/>
+      <c r="MMG526" s="43"/>
+      <c r="MMK526" s="43"/>
+      <c r="MMO526" s="43"/>
+      <c r="MMS526" s="43"/>
+      <c r="MMW526" s="43"/>
+      <c r="MNA526" s="43"/>
+      <c r="MNE526" s="43"/>
+      <c r="MNI526" s="43"/>
+      <c r="MNM526" s="43"/>
+      <c r="MNQ526" s="43"/>
+      <c r="MNU526" s="43"/>
+      <c r="MNY526" s="43"/>
+      <c r="MOC526" s="43"/>
+      <c r="MOG526" s="43"/>
+      <c r="MOK526" s="43"/>
+      <c r="MOO526" s="43"/>
+      <c r="MOS526" s="43"/>
+      <c r="MOW526" s="43"/>
+      <c r="MPA526" s="43"/>
+      <c r="MPE526" s="43"/>
+      <c r="MPI526" s="43"/>
+      <c r="MPM526" s="43"/>
+      <c r="MPQ526" s="43"/>
+      <c r="MPU526" s="43"/>
+      <c r="MPY526" s="43"/>
+      <c r="MQC526" s="43"/>
+      <c r="MQG526" s="43"/>
+      <c r="MQK526" s="43"/>
+      <c r="MQO526" s="43"/>
+      <c r="MQS526" s="43"/>
+      <c r="MQW526" s="43"/>
+      <c r="MRA526" s="43"/>
+      <c r="MRE526" s="43"/>
+      <c r="MRI526" s="43"/>
+      <c r="MRM526" s="43"/>
+      <c r="MRQ526" s="43"/>
+      <c r="MRU526" s="43"/>
+      <c r="MRY526" s="43"/>
+      <c r="MSC526" s="43"/>
+      <c r="MSG526" s="43"/>
+      <c r="MSK526" s="43"/>
+      <c r="MSO526" s="43"/>
+      <c r="MSS526" s="43"/>
+      <c r="MSW526" s="43"/>
+      <c r="MTA526" s="43"/>
+      <c r="MTE526" s="43"/>
+      <c r="MTI526" s="43"/>
+      <c r="MTM526" s="43"/>
+      <c r="MTQ526" s="43"/>
+      <c r="MTU526" s="43"/>
+      <c r="MTY526" s="43"/>
+      <c r="MUC526" s="43"/>
+      <c r="MUG526" s="43"/>
+      <c r="MUK526" s="43"/>
+      <c r="MUO526" s="43"/>
+      <c r="MUS526" s="43"/>
+      <c r="MUW526" s="43"/>
+      <c r="MVA526" s="43"/>
+      <c r="MVE526" s="43"/>
+      <c r="MVI526" s="43"/>
+      <c r="MVM526" s="43"/>
+      <c r="MVQ526" s="43"/>
+      <c r="MVU526" s="43"/>
+      <c r="MVY526" s="43"/>
+      <c r="MWC526" s="43"/>
+      <c r="MWG526" s="43"/>
+      <c r="MWK526" s="43"/>
+      <c r="MWO526" s="43"/>
+      <c r="MWS526" s="43"/>
+      <c r="MWW526" s="43"/>
+      <c r="MXA526" s="43"/>
+      <c r="MXE526" s="43"/>
+      <c r="MXI526" s="43"/>
+      <c r="MXM526" s="43"/>
+      <c r="MXQ526" s="43"/>
+      <c r="MXU526" s="43"/>
+      <c r="MXY526" s="43"/>
+      <c r="MYC526" s="43"/>
+      <c r="MYG526" s="43"/>
+      <c r="MYK526" s="43"/>
+      <c r="MYO526" s="43"/>
+      <c r="MYS526" s="43"/>
+      <c r="MYW526" s="43"/>
+      <c r="MZA526" s="43"/>
+      <c r="MZE526" s="43"/>
+      <c r="MZI526" s="43"/>
+      <c r="MZM526" s="43"/>
+      <c r="MZQ526" s="43"/>
+      <c r="MZU526" s="43"/>
+      <c r="MZY526" s="43"/>
+      <c r="NAC526" s="43"/>
+      <c r="NAG526" s="43"/>
+      <c r="NAK526" s="43"/>
+      <c r="NAO526" s="43"/>
+      <c r="NAS526" s="43"/>
+      <c r="NAW526" s="43"/>
+      <c r="NBA526" s="43"/>
+      <c r="NBE526" s="43"/>
+      <c r="NBI526" s="43"/>
+      <c r="NBM526" s="43"/>
+      <c r="NBQ526" s="43"/>
+      <c r="NBU526" s="43"/>
+      <c r="NBY526" s="43"/>
+      <c r="NCC526" s="43"/>
+      <c r="NCG526" s="43"/>
+      <c r="NCK526" s="43"/>
+      <c r="NCO526" s="43"/>
+      <c r="NCS526" s="43"/>
+      <c r="NCW526" s="43"/>
+      <c r="NDA526" s="43"/>
+      <c r="NDE526" s="43"/>
+      <c r="NDI526" s="43"/>
+      <c r="NDM526" s="43"/>
+      <c r="NDQ526" s="43"/>
+      <c r="NDU526" s="43"/>
+      <c r="NDY526" s="43"/>
+      <c r="NEC526" s="43"/>
+      <c r="NEG526" s="43"/>
+      <c r="NEK526" s="43"/>
+      <c r="NEO526" s="43"/>
+      <c r="NES526" s="43"/>
+      <c r="NEW526" s="43"/>
+      <c r="NFA526" s="43"/>
+      <c r="NFE526" s="43"/>
+      <c r="NFI526" s="43"/>
+      <c r="NFM526" s="43"/>
+      <c r="NFQ526" s="43"/>
+      <c r="NFU526" s="43"/>
+      <c r="NFY526" s="43"/>
+      <c r="NGC526" s="43"/>
+      <c r="NGG526" s="43"/>
+      <c r="NGK526" s="43"/>
+      <c r="NGO526" s="43"/>
+      <c r="NGS526" s="43"/>
+      <c r="NGW526" s="43"/>
+      <c r="NHA526" s="43"/>
+      <c r="NHE526" s="43"/>
+      <c r="NHI526" s="43"/>
+      <c r="NHM526" s="43"/>
+      <c r="NHQ526" s="43"/>
+      <c r="NHU526" s="43"/>
+      <c r="NHY526" s="43"/>
+      <c r="NIC526" s="43"/>
+      <c r="NIG526" s="43"/>
+      <c r="NIK526" s="43"/>
+      <c r="NIO526" s="43"/>
+      <c r="NIS526" s="43"/>
+      <c r="NIW526" s="43"/>
+      <c r="NJA526" s="43"/>
+      <c r="NJE526" s="43"/>
+      <c r="NJI526" s="43"/>
+      <c r="NJM526" s="43"/>
+      <c r="NJQ526" s="43"/>
+      <c r="NJU526" s="43"/>
+      <c r="NJY526" s="43"/>
+      <c r="NKC526" s="43"/>
+      <c r="NKG526" s="43"/>
+      <c r="NKK526" s="43"/>
+      <c r="NKO526" s="43"/>
+      <c r="NKS526" s="43"/>
+      <c r="NKW526" s="43"/>
+      <c r="NLA526" s="43"/>
+      <c r="NLE526" s="43"/>
+      <c r="NLI526" s="43"/>
+      <c r="NLM526" s="43"/>
+      <c r="NLQ526" s="43"/>
+      <c r="NLU526" s="43"/>
+      <c r="NLY526" s="43"/>
+      <c r="NMC526" s="43"/>
+      <c r="NMG526" s="43"/>
+      <c r="NMK526" s="43"/>
+      <c r="NMO526" s="43"/>
+      <c r="NMS526" s="43"/>
+      <c r="NMW526" s="43"/>
+      <c r="NNA526" s="43"/>
+      <c r="NNE526" s="43"/>
+      <c r="NNI526" s="43"/>
+      <c r="NNM526" s="43"/>
+      <c r="NNQ526" s="43"/>
+      <c r="NNU526" s="43"/>
+      <c r="NNY526" s="43"/>
+      <c r="NOC526" s="43"/>
+      <c r="NOG526" s="43"/>
+      <c r="NOK526" s="43"/>
+      <c r="NOO526" s="43"/>
+      <c r="NOS526" s="43"/>
+      <c r="NOW526" s="43"/>
+      <c r="NPA526" s="43"/>
+      <c r="NPE526" s="43"/>
+      <c r="NPI526" s="43"/>
+      <c r="NPM526" s="43"/>
+      <c r="NPQ526" s="43"/>
+      <c r="NPU526" s="43"/>
+      <c r="NPY526" s="43"/>
+      <c r="NQC526" s="43"/>
+      <c r="NQG526" s="43"/>
+      <c r="NQK526" s="43"/>
+      <c r="NQO526" s="43"/>
+      <c r="NQS526" s="43"/>
+      <c r="NQW526" s="43"/>
+      <c r="NRA526" s="43"/>
+      <c r="NRE526" s="43"/>
+      <c r="NRI526" s="43"/>
+      <c r="NRM526" s="43"/>
+      <c r="NRQ526" s="43"/>
+      <c r="NRU526" s="43"/>
+      <c r="NRY526" s="43"/>
+      <c r="NSC526" s="43"/>
+      <c r="NSG526" s="43"/>
+      <c r="NSK526" s="43"/>
+      <c r="NSO526" s="43"/>
+      <c r="NSS526" s="43"/>
+      <c r="NSW526" s="43"/>
+      <c r="NTA526" s="43"/>
+      <c r="NTE526" s="43"/>
+      <c r="NTI526" s="43"/>
+      <c r="NTM526" s="43"/>
+      <c r="NTQ526" s="43"/>
+      <c r="NTU526" s="43"/>
+      <c r="NTY526" s="43"/>
+      <c r="NUC526" s="43"/>
+      <c r="NUG526" s="43"/>
+      <c r="NUK526" s="43"/>
+      <c r="NUO526" s="43"/>
+      <c r="NUS526" s="43"/>
+      <c r="NUW526" s="43"/>
+      <c r="NVA526" s="43"/>
+      <c r="NVE526" s="43"/>
+      <c r="NVI526" s="43"/>
+      <c r="NVM526" s="43"/>
+      <c r="NVQ526" s="43"/>
+      <c r="NVU526" s="43"/>
+      <c r="NVY526" s="43"/>
+      <c r="NWC526" s="43"/>
+      <c r="NWG526" s="43"/>
+      <c r="NWK526" s="43"/>
+      <c r="NWO526" s="43"/>
+      <c r="NWS526" s="43"/>
+      <c r="NWW526" s="43"/>
+      <c r="NXA526" s="43"/>
+      <c r="NXE526" s="43"/>
+      <c r="NXI526" s="43"/>
+      <c r="NXM526" s="43"/>
+      <c r="NXQ526" s="43"/>
+      <c r="NXU526" s="43"/>
+      <c r="NXY526" s="43"/>
+      <c r="NYC526" s="43"/>
+      <c r="NYG526" s="43"/>
+      <c r="NYK526" s="43"/>
+      <c r="NYO526" s="43"/>
+      <c r="NYS526" s="43"/>
+      <c r="NYW526" s="43"/>
+      <c r="NZA526" s="43"/>
+      <c r="NZE526" s="43"/>
+      <c r="NZI526" s="43"/>
+      <c r="NZM526" s="43"/>
+      <c r="NZQ526" s="43"/>
+      <c r="NZU526" s="43"/>
+      <c r="NZY526" s="43"/>
+      <c r="OAC526" s="43"/>
+      <c r="OAG526" s="43"/>
+      <c r="OAK526" s="43"/>
+      <c r="OAO526" s="43"/>
+      <c r="OAS526" s="43"/>
+      <c r="OAW526" s="43"/>
+      <c r="OBA526" s="43"/>
+      <c r="OBE526" s="43"/>
+      <c r="OBI526" s="43"/>
+      <c r="OBM526" s="43"/>
+      <c r="OBQ526" s="43"/>
+      <c r="OBU526" s="43"/>
+      <c r="OBY526" s="43"/>
+      <c r="OCC526" s="43"/>
+      <c r="OCG526" s="43"/>
+      <c r="OCK526" s="43"/>
+      <c r="OCO526" s="43"/>
+      <c r="OCS526" s="43"/>
+      <c r="OCW526" s="43"/>
+      <c r="ODA526" s="43"/>
+      <c r="ODE526" s="43"/>
+      <c r="ODI526" s="43"/>
+      <c r="ODM526" s="43"/>
+      <c r="ODQ526" s="43"/>
+      <c r="ODU526" s="43"/>
+      <c r="ODY526" s="43"/>
+      <c r="OEC526" s="43"/>
+      <c r="OEG526" s="43"/>
+      <c r="OEK526" s="43"/>
+      <c r="OEO526" s="43"/>
+      <c r="OES526" s="43"/>
+      <c r="OEW526" s="43"/>
+      <c r="OFA526" s="43"/>
+      <c r="OFE526" s="43"/>
+      <c r="OFI526" s="43"/>
+      <c r="OFM526" s="43"/>
+      <c r="OFQ526" s="43"/>
+      <c r="OFU526" s="43"/>
+      <c r="OFY526" s="43"/>
+      <c r="OGC526" s="43"/>
+      <c r="OGG526" s="43"/>
+      <c r="OGK526" s="43"/>
+      <c r="OGO526" s="43"/>
+      <c r="OGS526" s="43"/>
+      <c r="OGW526" s="43"/>
+      <c r="OHA526" s="43"/>
+      <c r="OHE526" s="43"/>
+      <c r="OHI526" s="43"/>
+      <c r="OHM526" s="43"/>
+      <c r="OHQ526" s="43"/>
+      <c r="OHU526" s="43"/>
+      <c r="OHY526" s="43"/>
+      <c r="OIC526" s="43"/>
+      <c r="OIG526" s="43"/>
+      <c r="OIK526" s="43"/>
+      <c r="OIO526" s="43"/>
+      <c r="OIS526" s="43"/>
+      <c r="OIW526" s="43"/>
+      <c r="OJA526" s="43"/>
+      <c r="OJE526" s="43"/>
+      <c r="OJI526" s="43"/>
+      <c r="OJM526" s="43"/>
+      <c r="OJQ526" s="43"/>
+      <c r="OJU526" s="43"/>
+      <c r="OJY526" s="43"/>
+      <c r="OKC526" s="43"/>
+      <c r="OKG526" s="43"/>
+      <c r="OKK526" s="43"/>
+      <c r="OKO526" s="43"/>
+      <c r="OKS526" s="43"/>
+      <c r="OKW526" s="43"/>
+      <c r="OLA526" s="43"/>
+      <c r="OLE526" s="43"/>
+      <c r="OLI526" s="43"/>
+      <c r="OLM526" s="43"/>
+      <c r="OLQ526" s="43"/>
+      <c r="OLU526" s="43"/>
+      <c r="OLY526" s="43"/>
+      <c r="OMC526" s="43"/>
+      <c r="OMG526" s="43"/>
+      <c r="OMK526" s="43"/>
+      <c r="OMO526" s="43"/>
+      <c r="OMS526" s="43"/>
+      <c r="OMW526" s="43"/>
+      <c r="ONA526" s="43"/>
+      <c r="ONE526" s="43"/>
+      <c r="ONI526" s="43"/>
+      <c r="ONM526" s="43"/>
+      <c r="ONQ526" s="43"/>
+      <c r="ONU526" s="43"/>
+      <c r="ONY526" s="43"/>
+      <c r="OOC526" s="43"/>
+      <c r="OOG526" s="43"/>
+      <c r="OOK526" s="43"/>
+      <c r="OOO526" s="43"/>
+      <c r="OOS526" s="43"/>
+      <c r="OOW526" s="43"/>
+      <c r="OPA526" s="43"/>
+      <c r="OPE526" s="43"/>
+      <c r="OPI526" s="43"/>
+      <c r="OPM526" s="43"/>
+      <c r="OPQ526" s="43"/>
+      <c r="OPU526" s="43"/>
+      <c r="OPY526" s="43"/>
+      <c r="OQC526" s="43"/>
+      <c r="OQG526" s="43"/>
+      <c r="OQK526" s="43"/>
+      <c r="OQO526" s="43"/>
+      <c r="OQS526" s="43"/>
+      <c r="OQW526" s="43"/>
+      <c r="ORA526" s="43"/>
+      <c r="ORE526" s="43"/>
+      <c r="ORI526" s="43"/>
+      <c r="ORM526" s="43"/>
+      <c r="ORQ526" s="43"/>
+      <c r="ORU526" s="43"/>
+      <c r="ORY526" s="43"/>
+      <c r="OSC526" s="43"/>
+      <c r="OSG526" s="43"/>
+      <c r="OSK526" s="43"/>
+      <c r="OSO526" s="43"/>
+      <c r="OSS526" s="43"/>
+      <c r="OSW526" s="43"/>
+      <c r="OTA526" s="43"/>
+      <c r="OTE526" s="43"/>
+      <c r="OTI526" s="43"/>
+      <c r="OTM526" s="43"/>
+      <c r="OTQ526" s="43"/>
+      <c r="OTU526" s="43"/>
+      <c r="OTY526" s="43"/>
+      <c r="OUC526" s="43"/>
+      <c r="OUG526" s="43"/>
+      <c r="OUK526" s="43"/>
+      <c r="OUO526" s="43"/>
+      <c r="OUS526" s="43"/>
+      <c r="OUW526" s="43"/>
+      <c r="OVA526" s="43"/>
+      <c r="OVE526" s="43"/>
+      <c r="OVI526" s="43"/>
+      <c r="OVM526" s="43"/>
+      <c r="OVQ526" s="43"/>
+      <c r="OVU526" s="43"/>
+      <c r="OVY526" s="43"/>
+      <c r="OWC526" s="43"/>
+      <c r="OWG526" s="43"/>
+      <c r="OWK526" s="43"/>
+      <c r="OWO526" s="43"/>
+      <c r="OWS526" s="43"/>
+      <c r="OWW526" s="43"/>
+      <c r="OXA526" s="43"/>
+      <c r="OXE526" s="43"/>
+      <c r="OXI526" s="43"/>
+      <c r="OXM526" s="43"/>
+      <c r="OXQ526" s="43"/>
+      <c r="OXU526" s="43"/>
+      <c r="OXY526" s="43"/>
+      <c r="OYC526" s="43"/>
+      <c r="OYG526" s="43"/>
+      <c r="OYK526" s="43"/>
+      <c r="OYO526" s="43"/>
+      <c r="OYS526" s="43"/>
+      <c r="OYW526" s="43"/>
+      <c r="OZA526" s="43"/>
+      <c r="OZE526" s="43"/>
+      <c r="OZI526" s="43"/>
+      <c r="OZM526" s="43"/>
+      <c r="OZQ526" s="43"/>
+      <c r="OZU526" s="43"/>
+      <c r="OZY526" s="43"/>
+      <c r="PAC526" s="43"/>
+      <c r="PAG526" s="43"/>
+      <c r="PAK526" s="43"/>
+      <c r="PAO526" s="43"/>
+      <c r="PAS526" s="43"/>
+      <c r="PAW526" s="43"/>
+      <c r="PBA526" s="43"/>
+      <c r="PBE526" s="43"/>
+      <c r="PBI526" s="43"/>
+      <c r="PBM526" s="43"/>
+      <c r="PBQ526" s="43"/>
+      <c r="PBU526" s="43"/>
+      <c r="PBY526" s="43"/>
+      <c r="PCC526" s="43"/>
+      <c r="PCG526" s="43"/>
+      <c r="PCK526" s="43"/>
+      <c r="PCO526" s="43"/>
+      <c r="PCS526" s="43"/>
+      <c r="PCW526" s="43"/>
+      <c r="PDA526" s="43"/>
+      <c r="PDE526" s="43"/>
+      <c r="PDI526" s="43"/>
+      <c r="PDM526" s="43"/>
+      <c r="PDQ526" s="43"/>
+      <c r="PDU526" s="43"/>
+      <c r="PDY526" s="43"/>
+      <c r="PEC526" s="43"/>
+      <c r="PEG526" s="43"/>
+      <c r="PEK526" s="43"/>
+      <c r="PEO526" s="43"/>
+      <c r="PES526" s="43"/>
+      <c r="PEW526" s="43"/>
+      <c r="PFA526" s="43"/>
+      <c r="PFE526" s="43"/>
+      <c r="PFI526" s="43"/>
+      <c r="PFM526" s="43"/>
+      <c r="PFQ526" s="43"/>
+      <c r="PFU526" s="43"/>
+      <c r="PFY526" s="43"/>
+      <c r="PGC526" s="43"/>
+      <c r="PGG526" s="43"/>
+      <c r="PGK526" s="43"/>
+      <c r="PGO526" s="43"/>
+      <c r="PGS526" s="43"/>
+      <c r="PGW526" s="43"/>
+      <c r="PHA526" s="43"/>
+      <c r="PHE526" s="43"/>
+      <c r="PHI526" s="43"/>
+      <c r="PHM526" s="43"/>
+      <c r="PHQ526" s="43"/>
+      <c r="PHU526" s="43"/>
+      <c r="PHY526" s="43"/>
+      <c r="PIC526" s="43"/>
+      <c r="PIG526" s="43"/>
+      <c r="PIK526" s="43"/>
+      <c r="PIO526" s="43"/>
+      <c r="PIS526" s="43"/>
+      <c r="PIW526" s="43"/>
+      <c r="PJA526" s="43"/>
+      <c r="PJE526" s="43"/>
+      <c r="PJI526" s="43"/>
+      <c r="PJM526" s="43"/>
+      <c r="PJQ526" s="43"/>
+      <c r="PJU526" s="43"/>
+      <c r="PJY526" s="43"/>
+      <c r="PKC526" s="43"/>
+      <c r="PKG526" s="43"/>
+      <c r="PKK526" s="43"/>
+      <c r="PKO526" s="43"/>
+      <c r="PKS526" s="43"/>
+      <c r="PKW526" s="43"/>
+      <c r="PLA526" s="43"/>
+      <c r="PLE526" s="43"/>
+      <c r="PLI526" s="43"/>
+      <c r="PLM526" s="43"/>
+      <c r="PLQ526" s="43"/>
+      <c r="PLU526" s="43"/>
+      <c r="PLY526" s="43"/>
+      <c r="PMC526" s="43"/>
+      <c r="PMG526" s="43"/>
+      <c r="PMK526" s="43"/>
+      <c r="PMO526" s="43"/>
+      <c r="PMS526" s="43"/>
+      <c r="PMW526" s="43"/>
+      <c r="PNA526" s="43"/>
+      <c r="PNE526" s="43"/>
+      <c r="PNI526" s="43"/>
+      <c r="PNM526" s="43"/>
+      <c r="PNQ526" s="43"/>
+      <c r="PNU526" s="43"/>
+      <c r="PNY526" s="43"/>
+      <c r="POC526" s="43"/>
+      <c r="POG526" s="43"/>
+      <c r="POK526" s="43"/>
+      <c r="POO526" s="43"/>
+      <c r="POS526" s="43"/>
+      <c r="POW526" s="43"/>
+      <c r="PPA526" s="43"/>
+      <c r="PPE526" s="43"/>
+      <c r="PPI526" s="43"/>
+      <c r="PPM526" s="43"/>
+      <c r="PPQ526" s="43"/>
+      <c r="PPU526" s="43"/>
+      <c r="PPY526" s="43"/>
+      <c r="PQC526" s="43"/>
+      <c r="PQG526" s="43"/>
+      <c r="PQK526" s="43"/>
+      <c r="PQO526" s="43"/>
+      <c r="PQS526" s="43"/>
+      <c r="PQW526" s="43"/>
+      <c r="PRA526" s="43"/>
+      <c r="PRE526" s="43"/>
+      <c r="PRI526" s="43"/>
+      <c r="PRM526" s="43"/>
+      <c r="PRQ526" s="43"/>
+      <c r="PRU526" s="43"/>
+      <c r="PRY526" s="43"/>
+      <c r="PSC526" s="43"/>
+      <c r="PSG526" s="43"/>
+      <c r="PSK526" s="43"/>
+      <c r="PSO526" s="43"/>
+      <c r="PSS526" s="43"/>
+      <c r="PSW526" s="43"/>
+      <c r="PTA526" s="43"/>
+      <c r="PTE526" s="43"/>
+      <c r="PTI526" s="43"/>
+      <c r="PTM526" s="43"/>
+      <c r="PTQ526" s="43"/>
+      <c r="PTU526" s="43"/>
+      <c r="PTY526" s="43"/>
+      <c r="PUC526" s="43"/>
+      <c r="PUG526" s="43"/>
+      <c r="PUK526" s="43"/>
+      <c r="PUO526" s="43"/>
+      <c r="PUS526" s="43"/>
+      <c r="PUW526" s="43"/>
+      <c r="PVA526" s="43"/>
+      <c r="PVE526" s="43"/>
+      <c r="PVI526" s="43"/>
+      <c r="PVM526" s="43"/>
+      <c r="PVQ526" s="43"/>
+      <c r="PVU526" s="43"/>
+      <c r="PVY526" s="43"/>
+      <c r="PWC526" s="43"/>
+      <c r="PWG526" s="43"/>
+      <c r="PWK526" s="43"/>
+      <c r="PWO526" s="43"/>
+      <c r="PWS526" s="43"/>
+      <c r="PWW526" s="43"/>
+      <c r="PXA526" s="43"/>
+      <c r="PXE526" s="43"/>
+      <c r="PXI526" s="43"/>
+      <c r="PXM526" s="43"/>
+      <c r="PXQ526" s="43"/>
+      <c r="PXU526" s="43"/>
+      <c r="PXY526" s="43"/>
+      <c r="PYC526" s="43"/>
+      <c r="PYG526" s="43"/>
+      <c r="PYK526" s="43"/>
+      <c r="PYO526" s="43"/>
+      <c r="PYS526" s="43"/>
+      <c r="PYW526" s="43"/>
+      <c r="PZA526" s="43"/>
+      <c r="PZE526" s="43"/>
+      <c r="PZI526" s="43"/>
+      <c r="PZM526" s="43"/>
+      <c r="PZQ526" s="43"/>
+      <c r="PZU526" s="43"/>
+      <c r="PZY526" s="43"/>
+      <c r="QAC526" s="43"/>
+      <c r="QAG526" s="43"/>
+      <c r="QAK526" s="43"/>
+      <c r="QAO526" s="43"/>
+      <c r="QAS526" s="43"/>
+      <c r="QAW526" s="43"/>
+      <c r="QBA526" s="43"/>
+      <c r="QBE526" s="43"/>
+      <c r="QBI526" s="43"/>
+      <c r="QBM526" s="43"/>
+      <c r="QBQ526" s="43"/>
+      <c r="QBU526" s="43"/>
+      <c r="QBY526" s="43"/>
+      <c r="QCC526" s="43"/>
+      <c r="QCG526" s="43"/>
+      <c r="QCK526" s="43"/>
+      <c r="QCO526" s="43"/>
+      <c r="QCS526" s="43"/>
+      <c r="QCW526" s="43"/>
+      <c r="QDA526" s="43"/>
+      <c r="QDE526" s="43"/>
+      <c r="QDI526" s="43"/>
+      <c r="QDM526" s="43"/>
+      <c r="QDQ526" s="43"/>
+      <c r="QDU526" s="43"/>
+      <c r="QDY526" s="43"/>
+      <c r="QEC526" s="43"/>
+      <c r="QEG526" s="43"/>
+      <c r="QEK526" s="43"/>
+      <c r="QEO526" s="43"/>
+      <c r="QES526" s="43"/>
+      <c r="QEW526" s="43"/>
+      <c r="QFA526" s="43"/>
+      <c r="QFE526" s="43"/>
+      <c r="QFI526" s="43"/>
+      <c r="QFM526" s="43"/>
+      <c r="QFQ526" s="43"/>
+      <c r="QFU526" s="43"/>
+      <c r="QFY526" s="43"/>
+      <c r="QGC526" s="43"/>
+      <c r="QGG526" s="43"/>
+      <c r="QGK526" s="43"/>
+      <c r="QGO526" s="43"/>
+      <c r="QGS526" s="43"/>
+      <c r="QGW526" s="43"/>
+      <c r="QHA526" s="43"/>
+      <c r="QHE526" s="43"/>
+      <c r="QHI526" s="43"/>
+      <c r="QHM526" s="43"/>
+      <c r="QHQ526" s="43"/>
+      <c r="QHU526" s="43"/>
+      <c r="QHY526" s="43"/>
+      <c r="QIC526" s="43"/>
+      <c r="QIG526" s="43"/>
+      <c r="QIK526" s="43"/>
+      <c r="QIO526" s="43"/>
+      <c r="QIS526" s="43"/>
+      <c r="QIW526" s="43"/>
+      <c r="QJA526" s="43"/>
+      <c r="QJE526" s="43"/>
+      <c r="QJI526" s="43"/>
+      <c r="QJM526" s="43"/>
+      <c r="QJQ526" s="43"/>
+      <c r="QJU526" s="43"/>
+      <c r="QJY526" s="43"/>
+      <c r="QKC526" s="43"/>
+      <c r="QKG526" s="43"/>
+      <c r="QKK526" s="43"/>
+      <c r="QKO526" s="43"/>
+      <c r="QKS526" s="43"/>
+      <c r="QKW526" s="43"/>
+      <c r="QLA526" s="43"/>
+      <c r="QLE526" s="43"/>
+      <c r="QLI526" s="43"/>
+      <c r="QLM526" s="43"/>
+      <c r="QLQ526" s="43"/>
+      <c r="QLU526" s="43"/>
+      <c r="QLY526" s="43"/>
+      <c r="QMC526" s="43"/>
+      <c r="QMG526" s="43"/>
+      <c r="QMK526" s="43"/>
+      <c r="QMO526" s="43"/>
+      <c r="QMS526" s="43"/>
+      <c r="QMW526" s="43"/>
+      <c r="QNA526" s="43"/>
+      <c r="QNE526" s="43"/>
+      <c r="QNI526" s="43"/>
+      <c r="QNM526" s="43"/>
+      <c r="QNQ526" s="43"/>
+      <c r="QNU526" s="43"/>
+      <c r="QNY526" s="43"/>
+      <c r="QOC526" s="43"/>
+      <c r="QOG526" s="43"/>
+      <c r="QOK526" s="43"/>
+      <c r="QOO526" s="43"/>
+      <c r="QOS526" s="43"/>
+      <c r="QOW526" s="43"/>
+      <c r="QPA526" s="43"/>
+      <c r="QPE526" s="43"/>
+      <c r="QPI526" s="43"/>
+      <c r="QPM526" s="43"/>
+      <c r="QPQ526" s="43"/>
+      <c r="QPU526" s="43"/>
+      <c r="QPY526" s="43"/>
+      <c r="QQC526" s="43"/>
+      <c r="QQG526" s="43"/>
+      <c r="QQK526" s="43"/>
+      <c r="QQO526" s="43"/>
+      <c r="QQS526" s="43"/>
+      <c r="QQW526" s="43"/>
+      <c r="QRA526" s="43"/>
+      <c r="QRE526" s="43"/>
+      <c r="QRI526" s="43"/>
+      <c r="QRM526" s="43"/>
+      <c r="QRQ526" s="43"/>
+      <c r="QRU526" s="43"/>
+      <c r="QRY526" s="43"/>
+      <c r="QSC526" s="43"/>
+      <c r="QSG526" s="43"/>
+      <c r="QSK526" s="43"/>
+      <c r="QSO526" s="43"/>
+      <c r="QSS526" s="43"/>
+      <c r="QSW526" s="43"/>
+      <c r="QTA526" s="43"/>
+      <c r="QTE526" s="43"/>
+      <c r="QTI526" s="43"/>
+      <c r="QTM526" s="43"/>
+      <c r="QTQ526" s="43"/>
+      <c r="QTU526" s="43"/>
+      <c r="QTY526" s="43"/>
+      <c r="QUC526" s="43"/>
+      <c r="QUG526" s="43"/>
+      <c r="QUK526" s="43"/>
+      <c r="QUO526" s="43"/>
+      <c r="QUS526" s="43"/>
+      <c r="QUW526" s="43"/>
+      <c r="QVA526" s="43"/>
+      <c r="QVE526" s="43"/>
+      <c r="QVI526" s="43"/>
+      <c r="QVM526" s="43"/>
+      <c r="QVQ526" s="43"/>
+      <c r="QVU526" s="43"/>
+      <c r="QVY526" s="43"/>
+      <c r="QWC526" s="43"/>
+      <c r="QWG526" s="43"/>
+      <c r="QWK526" s="43"/>
+      <c r="QWO526" s="43"/>
+      <c r="QWS526" s="43"/>
+      <c r="QWW526" s="43"/>
+      <c r="QXA526" s="43"/>
+      <c r="QXE526" s="43"/>
+      <c r="QXI526" s="43"/>
+      <c r="QXM526" s="43"/>
+      <c r="QXQ526" s="43"/>
+      <c r="QXU526" s="43"/>
+      <c r="QXY526" s="43"/>
+      <c r="QYC526" s="43"/>
+      <c r="QYG526" s="43"/>
+      <c r="QYK526" s="43"/>
+      <c r="QYO526" s="43"/>
+      <c r="QYS526" s="43"/>
+      <c r="QYW526" s="43"/>
+      <c r="QZA526" s="43"/>
+      <c r="QZE526" s="43"/>
+      <c r="QZI526" s="43"/>
+      <c r="QZM526" s="43"/>
+      <c r="QZQ526" s="43"/>
+      <c r="QZU526" s="43"/>
+      <c r="QZY526" s="43"/>
+      <c r="RAC526" s="43"/>
+      <c r="RAG526" s="43"/>
+      <c r="RAK526" s="43"/>
+      <c r="RAO526" s="43"/>
+      <c r="RAS526" s="43"/>
+      <c r="RAW526" s="43"/>
+      <c r="RBA526" s="43"/>
+      <c r="RBE526" s="43"/>
+      <c r="RBI526" s="43"/>
+      <c r="RBM526" s="43"/>
+      <c r="RBQ526" s="43"/>
+      <c r="RBU526" s="43"/>
+      <c r="RBY526" s="43"/>
+      <c r="RCC526" s="43"/>
+      <c r="RCG526" s="43"/>
+      <c r="RCK526" s="43"/>
+      <c r="RCO526" s="43"/>
+      <c r="RCS526" s="43"/>
+      <c r="RCW526" s="43"/>
+      <c r="RDA526" s="43"/>
+      <c r="RDE526" s="43"/>
+      <c r="RDI526" s="43"/>
+      <c r="RDM526" s="43"/>
+      <c r="RDQ526" s="43"/>
+      <c r="RDU526" s="43"/>
+      <c r="RDY526" s="43"/>
+      <c r="REC526" s="43"/>
+      <c r="REG526" s="43"/>
+      <c r="REK526" s="43"/>
+      <c r="REO526" s="43"/>
+      <c r="RES526" s="43"/>
+      <c r="REW526" s="43"/>
+      <c r="RFA526" s="43"/>
+      <c r="RFE526" s="43"/>
+      <c r="RFI526" s="43"/>
+      <c r="RFM526" s="43"/>
+      <c r="RFQ526" s="43"/>
+      <c r="RFU526" s="43"/>
+      <c r="RFY526" s="43"/>
+      <c r="RGC526" s="43"/>
+      <c r="RGG526" s="43"/>
+      <c r="RGK526" s="43"/>
+      <c r="RGO526" s="43"/>
+      <c r="RGS526" s="43"/>
+      <c r="RGW526" s="43"/>
+      <c r="RHA526" s="43"/>
+      <c r="RHE526" s="43"/>
+      <c r="RHI526" s="43"/>
+      <c r="RHM526" s="43"/>
+      <c r="RHQ526" s="43"/>
+      <c r="RHU526" s="43"/>
+      <c r="RHY526" s="43"/>
+      <c r="RIC526" s="43"/>
+      <c r="RIG526" s="43"/>
+      <c r="RIK526" s="43"/>
+      <c r="RIO526" s="43"/>
+      <c r="RIS526" s="43"/>
+      <c r="RIW526" s="43"/>
+      <c r="RJA526" s="43"/>
+      <c r="RJE526" s="43"/>
+      <c r="RJI526" s="43"/>
+      <c r="RJM526" s="43"/>
+      <c r="RJQ526" s="43"/>
+      <c r="RJU526" s="43"/>
+      <c r="RJY526" s="43"/>
+      <c r="RKC526" s="43"/>
+      <c r="RKG526" s="43"/>
+      <c r="RKK526" s="43"/>
+      <c r="RKO526" s="43"/>
+      <c r="RKS526" s="43"/>
+      <c r="RKW526" s="43"/>
+      <c r="RLA526" s="43"/>
+      <c r="RLE526" s="43"/>
+      <c r="RLI526" s="43"/>
+      <c r="RLM526" s="43"/>
+      <c r="RLQ526" s="43"/>
+      <c r="RLU526" s="43"/>
+      <c r="RLY526" s="43"/>
+      <c r="RMC526" s="43"/>
+      <c r="RMG526" s="43"/>
+      <c r="RMK526" s="43"/>
+      <c r="RMO526" s="43"/>
+      <c r="RMS526" s="43"/>
+      <c r="RMW526" s="43"/>
+      <c r="RNA526" s="43"/>
+      <c r="RNE526" s="43"/>
+      <c r="RNI526" s="43"/>
+      <c r="RNM526" s="43"/>
+      <c r="RNQ526" s="43"/>
+      <c r="RNU526" s="43"/>
+      <c r="RNY526" s="43"/>
+      <c r="ROC526" s="43"/>
+      <c r="ROG526" s="43"/>
+      <c r="ROK526" s="43"/>
+      <c r="ROO526" s="43"/>
+      <c r="ROS526" s="43"/>
+      <c r="ROW526" s="43"/>
+      <c r="RPA526" s="43"/>
+      <c r="RPE526" s="43"/>
+      <c r="RPI526" s="43"/>
+      <c r="RPM526" s="43"/>
+      <c r="RPQ526" s="43"/>
+      <c r="RPU526" s="43"/>
+      <c r="RPY526" s="43"/>
+      <c r="RQC526" s="43"/>
+      <c r="RQG526" s="43"/>
+      <c r="RQK526" s="43"/>
+      <c r="RQO526" s="43"/>
+      <c r="RQS526" s="43"/>
+      <c r="RQW526" s="43"/>
+      <c r="RRA526" s="43"/>
+      <c r="RRE526" s="43"/>
+      <c r="RRI526" s="43"/>
+      <c r="RRM526" s="43"/>
+      <c r="RRQ526" s="43"/>
+      <c r="RRU526" s="43"/>
+      <c r="RRY526" s="43"/>
+      <c r="RSC526" s="43"/>
+      <c r="RSG526" s="43"/>
+      <c r="RSK526" s="43"/>
+      <c r="RSO526" s="43"/>
+      <c r="RSS526" s="43"/>
+      <c r="RSW526" s="43"/>
+      <c r="RTA526" s="43"/>
+      <c r="RTE526" s="43"/>
+      <c r="RTI526" s="43"/>
+      <c r="RTM526" s="43"/>
+      <c r="RTQ526" s="43"/>
+      <c r="RTU526" s="43"/>
+      <c r="RTY526" s="43"/>
+      <c r="RUC526" s="43"/>
+      <c r="RUG526" s="43"/>
+      <c r="RUK526" s="43"/>
+      <c r="RUO526" s="43"/>
+      <c r="RUS526" s="43"/>
+      <c r="RUW526" s="43"/>
+      <c r="RVA526" s="43"/>
+      <c r="RVE526" s="43"/>
+      <c r="RVI526" s="43"/>
+      <c r="RVM526" s="43"/>
+      <c r="RVQ526" s="43"/>
+      <c r="RVU526" s="43"/>
+      <c r="RVY526" s="43"/>
+      <c r="RWC526" s="43"/>
+      <c r="RWG526" s="43"/>
+      <c r="RWK526" s="43"/>
+      <c r="RWO526" s="43"/>
+      <c r="RWS526" s="43"/>
+      <c r="RWW526" s="43"/>
+      <c r="RXA526" s="43"/>
+      <c r="RXE526" s="43"/>
+      <c r="RXI526" s="43"/>
+      <c r="RXM526" s="43"/>
+      <c r="RXQ526" s="43"/>
+      <c r="RXU526" s="43"/>
+      <c r="RXY526" s="43"/>
+      <c r="RYC526" s="43"/>
+      <c r="RYG526" s="43"/>
+      <c r="RYK526" s="43"/>
+      <c r="RYO526" s="43"/>
+      <c r="RYS526" s="43"/>
+      <c r="RYW526" s="43"/>
+      <c r="RZA526" s="43"/>
+      <c r="RZE526" s="43"/>
+      <c r="RZI526" s="43"/>
+      <c r="RZM526" s="43"/>
+      <c r="RZQ526" s="43"/>
+      <c r="RZU526" s="43"/>
+      <c r="RZY526" s="43"/>
+      <c r="SAC526" s="43"/>
+      <c r="SAG526" s="43"/>
+      <c r="SAK526" s="43"/>
+      <c r="SAO526" s="43"/>
+      <c r="SAS526" s="43"/>
+      <c r="SAW526" s="43"/>
+      <c r="SBA526" s="43"/>
+      <c r="SBE526" s="43"/>
+      <c r="SBI526" s="43"/>
+      <c r="SBM526" s="43"/>
+      <c r="SBQ526" s="43"/>
+      <c r="SBU526" s="43"/>
+      <c r="SBY526" s="43"/>
+      <c r="SCC526" s="43"/>
+      <c r="SCG526" s="43"/>
+      <c r="SCK526" s="43"/>
+      <c r="SCO526" s="43"/>
+      <c r="SCS526" s="43"/>
+      <c r="SCW526" s="43"/>
+      <c r="SDA526" s="43"/>
+      <c r="SDE526" s="43"/>
+      <c r="SDI526" s="43"/>
+      <c r="SDM526" s="43"/>
+      <c r="SDQ526" s="43"/>
+      <c r="SDU526" s="43"/>
+      <c r="SDY526" s="43"/>
+      <c r="SEC526" s="43"/>
+      <c r="SEG526" s="43"/>
+      <c r="SEK526" s="43"/>
+      <c r="SEO526" s="43"/>
+      <c r="SES526" s="43"/>
+      <c r="SEW526" s="43"/>
+      <c r="SFA526" s="43"/>
+      <c r="SFE526" s="43"/>
+      <c r="SFI526" s="43"/>
+      <c r="SFM526" s="43"/>
+      <c r="SFQ526" s="43"/>
+      <c r="SFU526" s="43"/>
+      <c r="SFY526" s="43"/>
+      <c r="SGC526" s="43"/>
+      <c r="SGG526" s="43"/>
+      <c r="SGK526" s="43"/>
+      <c r="SGO526" s="43"/>
+      <c r="SGS526" s="43"/>
+      <c r="SGW526" s="43"/>
+      <c r="SHA526" s="43"/>
+      <c r="SHE526" s="43"/>
+      <c r="SHI526" s="43"/>
+      <c r="SHM526" s="43"/>
+      <c r="SHQ526" s="43"/>
+      <c r="SHU526" s="43"/>
+      <c r="SHY526" s="43"/>
+      <c r="SIC526" s="43"/>
+      <c r="SIG526" s="43"/>
+      <c r="SIK526" s="43"/>
+      <c r="SIO526" s="43"/>
+      <c r="SIS526" s="43"/>
+      <c r="SIW526" s="43"/>
+      <c r="SJA526" s="43"/>
+      <c r="SJE526" s="43"/>
+      <c r="SJI526" s="43"/>
+      <c r="SJM526" s="43"/>
+      <c r="SJQ526" s="43"/>
+      <c r="SJU526" s="43"/>
+      <c r="SJY526" s="43"/>
+      <c r="SKC526" s="43"/>
+      <c r="SKG526" s="43"/>
+      <c r="SKK526" s="43"/>
+      <c r="SKO526" s="43"/>
+      <c r="SKS526" s="43"/>
+      <c r="SKW526" s="43"/>
+      <c r="SLA526" s="43"/>
+      <c r="SLE526" s="43"/>
+      <c r="SLI526" s="43"/>
+      <c r="SLM526" s="43"/>
+      <c r="SLQ526" s="43"/>
+      <c r="SLU526" s="43"/>
+      <c r="SLY526" s="43"/>
+      <c r="SMC526" s="43"/>
+      <c r="SMG526" s="43"/>
+      <c r="SMK526" s="43"/>
+      <c r="SMO526" s="43"/>
+      <c r="SMS526" s="43"/>
+      <c r="SMW526" s="43"/>
+      <c r="SNA526" s="43"/>
+      <c r="SNE526" s="43"/>
+      <c r="SNI526" s="43"/>
+      <c r="SNM526" s="43"/>
+      <c r="SNQ526" s="43"/>
+      <c r="SNU526" s="43"/>
+      <c r="SNY526" s="43"/>
+      <c r="SOC526" s="43"/>
+      <c r="SOG526" s="43"/>
+      <c r="SOK526" s="43"/>
+      <c r="SOO526" s="43"/>
+      <c r="SOS526" s="43"/>
+      <c r="SOW526" s="43"/>
+      <c r="SPA526" s="43"/>
+      <c r="SPE526" s="43"/>
+      <c r="SPI526" s="43"/>
+      <c r="SPM526" s="43"/>
+      <c r="SPQ526" s="43"/>
+      <c r="SPU526" s="43"/>
+      <c r="SPY526" s="43"/>
+      <c r="SQC526" s="43"/>
+      <c r="SQG526" s="43"/>
+      <c r="SQK526" s="43"/>
+      <c r="SQO526" s="43"/>
+      <c r="SQS526" s="43"/>
+      <c r="SQW526" s="43"/>
+      <c r="SRA526" s="43"/>
+      <c r="SRE526" s="43"/>
+      <c r="SRI526" s="43"/>
+      <c r="SRM526" s="43"/>
+      <c r="SRQ526" s="43"/>
+      <c r="SRU526" s="43"/>
+      <c r="SRY526" s="43"/>
+      <c r="SSC526" s="43"/>
+      <c r="SSG526" s="43"/>
+      <c r="SSK526" s="43"/>
+      <c r="SSO526" s="43"/>
+      <c r="SSS526" s="43"/>
+      <c r="SSW526" s="43"/>
+      <c r="STA526" s="43"/>
+      <c r="STE526" s="43"/>
+      <c r="STI526" s="43"/>
+      <c r="STM526" s="43"/>
+      <c r="STQ526" s="43"/>
+      <c r="STU526" s="43"/>
+      <c r="STY526" s="43"/>
+      <c r="SUC526" s="43"/>
+      <c r="SUG526" s="43"/>
+      <c r="SUK526" s="43"/>
+      <c r="SUO526" s="43"/>
+      <c r="SUS526" s="43"/>
+      <c r="SUW526" s="43"/>
+      <c r="SVA526" s="43"/>
+      <c r="SVE526" s="43"/>
+      <c r="SVI526" s="43"/>
+      <c r="SVM526" s="43"/>
+      <c r="SVQ526" s="43"/>
+      <c r="SVU526" s="43"/>
+      <c r="SVY526" s="43"/>
+      <c r="SWC526" s="43"/>
+      <c r="SWG526" s="43"/>
+      <c r="SWK526" s="43"/>
+      <c r="SWO526" s="43"/>
+      <c r="SWS526" s="43"/>
+      <c r="SWW526" s="43"/>
+      <c r="SXA526" s="43"/>
+      <c r="SXE526" s="43"/>
+      <c r="SXI526" s="43"/>
+      <c r="SXM526" s="43"/>
+      <c r="SXQ526" s="43"/>
+      <c r="SXU526" s="43"/>
+      <c r="SXY526" s="43"/>
+      <c r="SYC526" s="43"/>
+      <c r="SYG526" s="43"/>
+      <c r="SYK526" s="43"/>
+      <c r="SYO526" s="43"/>
+      <c r="SYS526" s="43"/>
+      <c r="SYW526" s="43"/>
+      <c r="SZA526" s="43"/>
+      <c r="SZE526" s="43"/>
+      <c r="SZI526" s="43"/>
+      <c r="SZM526" s="43"/>
+      <c r="SZQ526" s="43"/>
+      <c r="SZU526" s="43"/>
+      <c r="SZY526" s="43"/>
+      <c r="TAC526" s="43"/>
+      <c r="TAG526" s="43"/>
+      <c r="TAK526" s="43"/>
+      <c r="TAO526" s="43"/>
+      <c r="TAS526" s="43"/>
+      <c r="TAW526" s="43"/>
+      <c r="TBA526" s="43"/>
+      <c r="TBE526" s="43"/>
+      <c r="TBI526" s="43"/>
+      <c r="TBM526" s="43"/>
+      <c r="TBQ526" s="43"/>
+      <c r="TBU526" s="43"/>
+      <c r="TBY526" s="43"/>
+      <c r="TCC526" s="43"/>
+      <c r="TCG526" s="43"/>
+      <c r="TCK526" s="43"/>
+      <c r="TCO526" s="43"/>
+      <c r="TCS526" s="43"/>
+      <c r="TCW526" s="43"/>
+      <c r="TDA526" s="43"/>
+      <c r="TDE526" s="43"/>
+      <c r="TDI526" s="43"/>
+      <c r="TDM526" s="43"/>
+      <c r="TDQ526" s="43"/>
+      <c r="TDU526" s="43"/>
+      <c r="TDY526" s="43"/>
+      <c r="TEC526" s="43"/>
+      <c r="TEG526" s="43"/>
+      <c r="TEK526" s="43"/>
+      <c r="TEO526" s="43"/>
+      <c r="TES526" s="43"/>
+      <c r="TEW526" s="43"/>
+      <c r="TFA526" s="43"/>
+      <c r="TFE526" s="43"/>
+      <c r="TFI526" s="43"/>
+      <c r="TFM526" s="43"/>
+      <c r="TFQ526" s="43"/>
+      <c r="TFU526" s="43"/>
+      <c r="TFY526" s="43"/>
+      <c r="TGC526" s="43"/>
+      <c r="TGG526" s="43"/>
+      <c r="TGK526" s="43"/>
+      <c r="TGO526" s="43"/>
+      <c r="TGS526" s="43"/>
+      <c r="TGW526" s="43"/>
+      <c r="THA526" s="43"/>
+      <c r="THE526" s="43"/>
+      <c r="THI526" s="43"/>
+      <c r="THM526" s="43"/>
+      <c r="THQ526" s="43"/>
+      <c r="THU526" s="43"/>
+      <c r="THY526" s="43"/>
+      <c r="TIC526" s="43"/>
+      <c r="TIG526" s="43"/>
+      <c r="TIK526" s="43"/>
+      <c r="TIO526" s="43"/>
+      <c r="TIS526" s="43"/>
+      <c r="TIW526" s="43"/>
+      <c r="TJA526" s="43"/>
+      <c r="TJE526" s="43"/>
+      <c r="TJI526" s="43"/>
+      <c r="TJM526" s="43"/>
+      <c r="TJQ526" s="43"/>
+      <c r="TJU526" s="43"/>
+      <c r="TJY526" s="43"/>
+      <c r="TKC526" s="43"/>
+      <c r="TKG526" s="43"/>
+      <c r="TKK526" s="43"/>
+      <c r="TKO526" s="43"/>
+      <c r="TKS526" s="43"/>
+      <c r="TKW526" s="43"/>
+      <c r="TLA526" s="43"/>
+      <c r="TLE526" s="43"/>
+      <c r="TLI526" s="43"/>
+      <c r="TLM526" s="43"/>
+      <c r="TLQ526" s="43"/>
+      <c r="TLU526" s="43"/>
+      <c r="TLY526" s="43"/>
+      <c r="TMC526" s="43"/>
+      <c r="TMG526" s="43"/>
+      <c r="TMK526" s="43"/>
+      <c r="TMO526" s="43"/>
+      <c r="TMS526" s="43"/>
+      <c r="TMW526" s="43"/>
+      <c r="TNA526" s="43"/>
+      <c r="TNE526" s="43"/>
+      <c r="TNI526" s="43"/>
+      <c r="TNM526" s="43"/>
+      <c r="TNQ526" s="43"/>
+      <c r="TNU526" s="43"/>
+      <c r="TNY526" s="43"/>
+      <c r="TOC526" s="43"/>
+      <c r="TOG526" s="43"/>
+      <c r="TOK526" s="43"/>
+      <c r="TOO526" s="43"/>
+      <c r="TOS526" s="43"/>
+      <c r="TOW526" s="43"/>
+      <c r="TPA526" s="43"/>
+      <c r="TPE526" s="43"/>
+      <c r="TPI526" s="43"/>
+      <c r="TPM526" s="43"/>
+      <c r="TPQ526" s="43"/>
+      <c r="TPU526" s="43"/>
+      <c r="TPY526" s="43"/>
+      <c r="TQC526" s="43"/>
+      <c r="TQG526" s="43"/>
+      <c r="TQK526" s="43"/>
+      <c r="TQO526" s="43"/>
+      <c r="TQS526" s="43"/>
+      <c r="TQW526" s="43"/>
+      <c r="TRA526" s="43"/>
+      <c r="TRE526" s="43"/>
+      <c r="TRI526" s="43"/>
+      <c r="TRM526" s="43"/>
+      <c r="TRQ526" s="43"/>
+      <c r="TRU526" s="43"/>
+      <c r="TRY526" s="43"/>
+      <c r="TSC526" s="43"/>
+      <c r="TSG526" s="43"/>
+      <c r="TSK526" s="43"/>
+      <c r="TSO526" s="43"/>
+      <c r="TSS526" s="43"/>
+      <c r="TSW526" s="43"/>
+      <c r="TTA526" s="43"/>
+      <c r="TTE526" s="43"/>
+      <c r="TTI526" s="43"/>
+      <c r="TTM526" s="43"/>
+      <c r="TTQ526" s="43"/>
+      <c r="TTU526" s="43"/>
+      <c r="TTY526" s="43"/>
+      <c r="TUC526" s="43"/>
+      <c r="TUG526" s="43"/>
+      <c r="TUK526" s="43"/>
+      <c r="TUO526" s="43"/>
+      <c r="TUS526" s="43"/>
+      <c r="TUW526" s="43"/>
+      <c r="TVA526" s="43"/>
+      <c r="TVE526" s="43"/>
+      <c r="TVI526" s="43"/>
+      <c r="TVM526" s="43"/>
+      <c r="TVQ526" s="43"/>
+      <c r="TVU526" s="43"/>
+      <c r="TVY526" s="43"/>
+      <c r="TWC526" s="43"/>
+      <c r="TWG526" s="43"/>
+      <c r="TWK526" s="43"/>
+      <c r="TWO526" s="43"/>
+      <c r="TWS526" s="43"/>
+      <c r="TWW526" s="43"/>
+      <c r="TXA526" s="43"/>
+      <c r="TXE526" s="43"/>
+      <c r="TXI526" s="43"/>
+      <c r="TXM526" s="43"/>
+      <c r="TXQ526" s="43"/>
+      <c r="TXU526" s="43"/>
+      <c r="TXY526" s="43"/>
+      <c r="TYC526" s="43"/>
+      <c r="TYG526" s="43"/>
+      <c r="TYK526" s="43"/>
+      <c r="TYO526" s="43"/>
+      <c r="TYS526" s="43"/>
+      <c r="TYW526" s="43"/>
+      <c r="TZA526" s="43"/>
+      <c r="TZE526" s="43"/>
+      <c r="TZI526" s="43"/>
+      <c r="TZM526" s="43"/>
+      <c r="TZQ526" s="43"/>
+      <c r="TZU526" s="43"/>
+      <c r="TZY526" s="43"/>
+      <c r="UAC526" s="43"/>
+      <c r="UAG526" s="43"/>
+      <c r="UAK526" s="43"/>
+      <c r="UAO526" s="43"/>
+      <c r="UAS526" s="43"/>
+      <c r="UAW526" s="43"/>
+      <c r="UBA526" s="43"/>
+      <c r="UBE526" s="43"/>
+      <c r="UBI526" s="43"/>
+      <c r="UBM526" s="43"/>
+      <c r="UBQ526" s="43"/>
+      <c r="UBU526" s="43"/>
+      <c r="UBY526" s="43"/>
+      <c r="UCC526" s="43"/>
+      <c r="UCG526" s="43"/>
+      <c r="UCK526" s="43"/>
+      <c r="UCO526" s="43"/>
+      <c r="UCS526" s="43"/>
+      <c r="UCW526" s="43"/>
+      <c r="UDA526" s="43"/>
+      <c r="UDE526" s="43"/>
+      <c r="UDI526" s="43"/>
+      <c r="UDM526" s="43"/>
+      <c r="UDQ526" s="43"/>
+      <c r="UDU526" s="43"/>
+      <c r="UDY526" s="43"/>
+      <c r="UEC526" s="43"/>
+      <c r="UEG526" s="43"/>
+      <c r="UEK526" s="43"/>
+      <c r="UEO526" s="43"/>
+      <c r="UES526" s="43"/>
+      <c r="UEW526" s="43"/>
+      <c r="UFA526" s="43"/>
+      <c r="UFE526" s="43"/>
+      <c r="UFI526" s="43"/>
+      <c r="UFM526" s="43"/>
+      <c r="UFQ526" s="43"/>
+      <c r="UFU526" s="43"/>
+      <c r="UFY526" s="43"/>
+      <c r="UGC526" s="43"/>
+      <c r="UGG526" s="43"/>
+      <c r="UGK526" s="43"/>
+      <c r="UGO526" s="43"/>
+      <c r="UGS526" s="43"/>
+      <c r="UGW526" s="43"/>
+      <c r="UHA526" s="43"/>
+      <c r="UHE526" s="43"/>
+      <c r="UHI526" s="43"/>
+      <c r="UHM526" s="43"/>
+      <c r="UHQ526" s="43"/>
+      <c r="UHU526" s="43"/>
+      <c r="UHY526" s="43"/>
+      <c r="UIC526" s="43"/>
+      <c r="UIG526" s="43"/>
+      <c r="UIK526" s="43"/>
+      <c r="UIO526" s="43"/>
+      <c r="UIS526" s="43"/>
+      <c r="UIW526" s="43"/>
+      <c r="UJA526" s="43"/>
+      <c r="UJE526" s="43"/>
+      <c r="UJI526" s="43"/>
+      <c r="UJM526" s="43"/>
+      <c r="UJQ526" s="43"/>
+      <c r="UJU526" s="43"/>
+      <c r="UJY526" s="43"/>
+      <c r="UKC526" s="43"/>
+      <c r="UKG526" s="43"/>
+      <c r="UKK526" s="43"/>
+      <c r="UKO526" s="43"/>
+      <c r="UKS526" s="43"/>
+      <c r="UKW526" s="43"/>
+      <c r="ULA526" s="43"/>
+      <c r="ULE526" s="43"/>
+      <c r="ULI526" s="43"/>
+      <c r="ULM526" s="43"/>
+      <c r="ULQ526" s="43"/>
+      <c r="ULU526" s="43"/>
+      <c r="ULY526" s="43"/>
+      <c r="UMC526" s="43"/>
+      <c r="UMG526" s="43"/>
+      <c r="UMK526" s="43"/>
+      <c r="UMO526" s="43"/>
+      <c r="UMS526" s="43"/>
+      <c r="UMW526" s="43"/>
+      <c r="UNA526" s="43"/>
+      <c r="UNE526" s="43"/>
+      <c r="UNI526" s="43"/>
+      <c r="UNM526" s="43"/>
+      <c r="UNQ526" s="43"/>
+      <c r="UNU526" s="43"/>
+      <c r="UNY526" s="43"/>
+      <c r="UOC526" s="43"/>
+      <c r="UOG526" s="43"/>
+      <c r="UOK526" s="43"/>
+      <c r="UOO526" s="43"/>
+      <c r="UOS526" s="43"/>
+      <c r="UOW526" s="43"/>
+      <c r="UPA526" s="43"/>
+      <c r="UPE526" s="43"/>
+      <c r="UPI526" s="43"/>
+      <c r="UPM526" s="43"/>
+      <c r="UPQ526" s="43"/>
+      <c r="UPU526" s="43"/>
+      <c r="UPY526" s="43"/>
+      <c r="UQC526" s="43"/>
+      <c r="UQG526" s="43"/>
+      <c r="UQK526" s="43"/>
+      <c r="UQO526" s="43"/>
+      <c r="UQS526" s="43"/>
+      <c r="UQW526" s="43"/>
+      <c r="URA526" s="43"/>
+      <c r="URE526" s="43"/>
+      <c r="URI526" s="43"/>
+      <c r="URM526" s="43"/>
+      <c r="URQ526" s="43"/>
+      <c r="URU526" s="43"/>
+      <c r="URY526" s="43"/>
+      <c r="USC526" s="43"/>
+      <c r="USG526" s="43"/>
+      <c r="USK526" s="43"/>
+      <c r="USO526" s="43"/>
+      <c r="USS526" s="43"/>
+      <c r="USW526" s="43"/>
+      <c r="UTA526" s="43"/>
+      <c r="UTE526" s="43"/>
+      <c r="UTI526" s="43"/>
+      <c r="UTM526" s="43"/>
+      <c r="UTQ526" s="43"/>
+      <c r="UTU526" s="43"/>
+      <c r="UTY526" s="43"/>
+      <c r="UUC526" s="43"/>
+      <c r="UUG526" s="43"/>
+      <c r="UUK526" s="43"/>
+      <c r="UUO526" s="43"/>
+      <c r="UUS526" s="43"/>
+      <c r="UUW526" s="43"/>
+      <c r="UVA526" s="43"/>
+      <c r="UVE526" s="43"/>
+      <c r="UVI526" s="43"/>
+      <c r="UVM526" s="43"/>
+      <c r="UVQ526" s="43"/>
+      <c r="UVU526" s="43"/>
+      <c r="UVY526" s="43"/>
+      <c r="UWC526" s="43"/>
+      <c r="UWG526" s="43"/>
+      <c r="UWK526" s="43"/>
+      <c r="UWO526" s="43"/>
+      <c r="UWS526" s="43"/>
+      <c r="UWW526" s="43"/>
+      <c r="UXA526" s="43"/>
+      <c r="UXE526" s="43"/>
+      <c r="UXI526" s="43"/>
+      <c r="UXM526" s="43"/>
+      <c r="UXQ526" s="43"/>
+      <c r="UXU526" s="43"/>
+      <c r="UXY526" s="43"/>
+      <c r="UYC526" s="43"/>
+      <c r="UYG526" s="43"/>
+      <c r="UYK526" s="43"/>
+      <c r="UYO526" s="43"/>
+      <c r="UYS526" s="43"/>
+      <c r="UYW526" s="43"/>
+      <c r="UZA526" s="43"/>
+      <c r="UZE526" s="43"/>
+      <c r="UZI526" s="43"/>
+      <c r="UZM526" s="43"/>
+      <c r="UZQ526" s="43"/>
+      <c r="UZU526" s="43"/>
+      <c r="UZY526" s="43"/>
+      <c r="VAC526" s="43"/>
+      <c r="VAG526" s="43"/>
+      <c r="VAK526" s="43"/>
+      <c r="VAO526" s="43"/>
+      <c r="VAS526" s="43"/>
+      <c r="VAW526" s="43"/>
+      <c r="VBA526" s="43"/>
+      <c r="VBE526" s="43"/>
+      <c r="VBI526" s="43"/>
+      <c r="VBM526" s="43"/>
+      <c r="VBQ526" s="43"/>
+      <c r="VBU526" s="43"/>
+      <c r="VBY526" s="43"/>
+      <c r="VCC526" s="43"/>
+      <c r="VCG526" s="43"/>
+      <c r="VCK526" s="43"/>
+      <c r="VCO526" s="43"/>
+      <c r="VCS526" s="43"/>
+      <c r="VCW526" s="43"/>
+      <c r="VDA526" s="43"/>
+      <c r="VDE526" s="43"/>
+      <c r="VDI526" s="43"/>
+      <c r="VDM526" s="43"/>
+      <c r="VDQ526" s="43"/>
+      <c r="VDU526" s="43"/>
+      <c r="VDY526" s="43"/>
+      <c r="VEC526" s="43"/>
+      <c r="VEG526" s="43"/>
+      <c r="VEK526" s="43"/>
+      <c r="VEO526" s="43"/>
+      <c r="VES526" s="43"/>
+      <c r="VEW526" s="43"/>
+      <c r="VFA526" s="43"/>
+      <c r="VFE526" s="43"/>
+      <c r="VFI526" s="43"/>
+      <c r="VFM526" s="43"/>
+      <c r="VFQ526" s="43"/>
+      <c r="VFU526" s="43"/>
+      <c r="VFY526" s="43"/>
+      <c r="VGC526" s="43"/>
+      <c r="VGG526" s="43"/>
+      <c r="VGK526" s="43"/>
+      <c r="VGO526" s="43"/>
+      <c r="VGS526" s="43"/>
+      <c r="VGW526" s="43"/>
+      <c r="VHA526" s="43"/>
+      <c r="VHE526" s="43"/>
+      <c r="VHI526" s="43"/>
+      <c r="VHM526" s="43"/>
+      <c r="VHQ526" s="43"/>
+      <c r="VHU526" s="43"/>
+      <c r="VHY526" s="43"/>
+      <c r="VIC526" s="43"/>
+      <c r="VIG526" s="43"/>
+      <c r="VIK526" s="43"/>
+      <c r="VIO526" s="43"/>
+      <c r="VIS526" s="43"/>
+      <c r="VIW526" s="43"/>
+      <c r="VJA526" s="43"/>
+      <c r="VJE526" s="43"/>
+      <c r="VJI526" s="43"/>
+      <c r="VJM526" s="43"/>
+      <c r="VJQ526" s="43"/>
+      <c r="VJU526" s="43"/>
+      <c r="VJY526" s="43"/>
+      <c r="VKC526" s="43"/>
+      <c r="VKG526" s="43"/>
+      <c r="VKK526" s="43"/>
+      <c r="VKO526" s="43"/>
+      <c r="VKS526" s="43"/>
+      <c r="VKW526" s="43"/>
+      <c r="VLA526" s="43"/>
+      <c r="VLE526" s="43"/>
+      <c r="VLI526" s="43"/>
+      <c r="VLM526" s="43"/>
+      <c r="VLQ526" s="43"/>
+      <c r="VLU526" s="43"/>
+      <c r="VLY526" s="43"/>
+      <c r="VMC526" s="43"/>
+      <c r="VMG526" s="43"/>
+      <c r="VMK526" s="43"/>
+      <c r="VMO526" s="43"/>
+      <c r="VMS526" s="43"/>
+      <c r="VMW526" s="43"/>
+      <c r="VNA526" s="43"/>
+      <c r="VNE526" s="43"/>
+      <c r="VNI526" s="43"/>
+      <c r="VNM526" s="43"/>
+      <c r="VNQ526" s="43"/>
+      <c r="VNU526" s="43"/>
+      <c r="VNY526" s="43"/>
+      <c r="VOC526" s="43"/>
+      <c r="VOG526" s="43"/>
+      <c r="VOK526" s="43"/>
+      <c r="VOO526" s="43"/>
+      <c r="VOS526" s="43"/>
+      <c r="VOW526" s="43"/>
+      <c r="VPA526" s="43"/>
+      <c r="VPE526" s="43"/>
+      <c r="VPI526" s="43"/>
+      <c r="VPM526" s="43"/>
+      <c r="VPQ526" s="43"/>
+      <c r="VPU526" s="43"/>
+      <c r="VPY526" s="43"/>
+      <c r="VQC526" s="43"/>
+      <c r="VQG526" s="43"/>
+      <c r="VQK526" s="43"/>
+      <c r="VQO526" s="43"/>
+      <c r="VQS526" s="43"/>
+      <c r="VQW526" s="43"/>
+      <c r="VRA526" s="43"/>
+      <c r="VRE526" s="43"/>
+      <c r="VRI526" s="43"/>
+      <c r="VRM526" s="43"/>
+      <c r="VRQ526" s="43"/>
+      <c r="VRU526" s="43"/>
+      <c r="VRY526" s="43"/>
+      <c r="VSC526" s="43"/>
+      <c r="VSG526" s="43"/>
+      <c r="VSK526" s="43"/>
+      <c r="VSO526" s="43"/>
+      <c r="VSS526" s="43"/>
+      <c r="VSW526" s="43"/>
+      <c r="VTA526" s="43"/>
+      <c r="VTE526" s="43"/>
+      <c r="VTI526" s="43"/>
+      <c r="VTM526" s="43"/>
+      <c r="VTQ526" s="43"/>
+      <c r="VTU526" s="43"/>
+      <c r="VTY526" s="43"/>
+      <c r="VUC526" s="43"/>
+      <c r="VUG526" s="43"/>
+      <c r="VUK526" s="43"/>
+      <c r="VUO526" s="43"/>
+      <c r="VUS526" s="43"/>
+      <c r="VUW526" s="43"/>
+      <c r="VVA526" s="43"/>
+      <c r="VVE526" s="43"/>
+      <c r="VVI526" s="43"/>
+      <c r="VVM526" s="43"/>
+      <c r="VVQ526" s="43"/>
+      <c r="VVU526" s="43"/>
+      <c r="VVY526" s="43"/>
+      <c r="VWC526" s="43"/>
+      <c r="VWG526" s="43"/>
+      <c r="VWK526" s="43"/>
+      <c r="VWO526" s="43"/>
+      <c r="VWS526" s="43"/>
+      <c r="VWW526" s="43"/>
+      <c r="VXA526" s="43"/>
+      <c r="VXE526" s="43"/>
+      <c r="VXI526" s="43"/>
+      <c r="VXM526" s="43"/>
+      <c r="VXQ526" s="43"/>
+      <c r="VXU526" s="43"/>
+      <c r="VXY526" s="43"/>
+      <c r="VYC526" s="43"/>
+      <c r="VYG526" s="43"/>
+      <c r="VYK526" s="43"/>
+      <c r="VYO526" s="43"/>
+      <c r="VYS526" s="43"/>
+      <c r="VYW526" s="43"/>
+      <c r="VZA526" s="43"/>
+      <c r="VZE526" s="43"/>
+      <c r="VZI526" s="43"/>
+      <c r="VZM526" s="43"/>
+      <c r="VZQ526" s="43"/>
+      <c r="VZU526" s="43"/>
+      <c r="VZY526" s="43"/>
+      <c r="WAC526" s="43"/>
+      <c r="WAG526" s="43"/>
+      <c r="WAK526" s="43"/>
+      <c r="WAO526" s="43"/>
+      <c r="WAS526" s="43"/>
+      <c r="WAW526" s="43"/>
+      <c r="WBA526" s="43"/>
+      <c r="WBE526" s="43"/>
+      <c r="WBI526" s="43"/>
+      <c r="WBM526" s="43"/>
+      <c r="WBQ526" s="43"/>
+      <c r="WBU526" s="43"/>
+      <c r="WBY526" s="43"/>
+      <c r="WCC526" s="43"/>
+      <c r="WCG526" s="43"/>
+      <c r="WCK526" s="43"/>
+      <c r="WCO526" s="43"/>
+      <c r="WCS526" s="43"/>
+      <c r="WCW526" s="43"/>
+      <c r="WDA526" s="43"/>
+      <c r="WDE526" s="43"/>
+      <c r="WDI526" s="43"/>
+      <c r="WDM526" s="43"/>
+      <c r="WDQ526" s="43"/>
+      <c r="WDU526" s="43"/>
+      <c r="WDY526" s="43"/>
+      <c r="WEC526" s="43"/>
+      <c r="WEG526" s="43"/>
+      <c r="WEK526" s="43"/>
+      <c r="WEO526" s="43"/>
+      <c r="WES526" s="43"/>
+      <c r="WEW526" s="43"/>
+      <c r="WFA526" s="43"/>
+      <c r="WFE526" s="43"/>
+      <c r="WFI526" s="43"/>
+      <c r="WFM526" s="43"/>
+      <c r="WFQ526" s="43"/>
+      <c r="WFU526" s="43"/>
+      <c r="WFY526" s="43"/>
+      <c r="WGC526" s="43"/>
+      <c r="WGG526" s="43"/>
+      <c r="WGK526" s="43"/>
+      <c r="WGO526" s="43"/>
+      <c r="WGS526" s="43"/>
+      <c r="WGW526" s="43"/>
+      <c r="WHA526" s="43"/>
+      <c r="WHE526" s="43"/>
+      <c r="WHI526" s="43"/>
+      <c r="WHM526" s="43"/>
+      <c r="WHQ526" s="43"/>
+      <c r="WHU526" s="43"/>
+      <c r="WHY526" s="43"/>
+      <c r="WIC526" s="43"/>
+      <c r="WIG526" s="43"/>
+      <c r="WIK526" s="43"/>
+      <c r="WIO526" s="43"/>
+      <c r="WIS526" s="43"/>
+      <c r="WIW526" s="43"/>
+      <c r="WJA526" s="43"/>
+      <c r="WJE526" s="43"/>
+      <c r="WJI526" s="43"/>
+      <c r="WJM526" s="43"/>
+      <c r="WJQ526" s="43"/>
+      <c r="WJU526" s="43"/>
+      <c r="WJY526" s="43"/>
+      <c r="WKC526" s="43"/>
+      <c r="WKG526" s="43"/>
+      <c r="WKK526" s="43"/>
+      <c r="WKO526" s="43"/>
+      <c r="WKS526" s="43"/>
+      <c r="WKW526" s="43"/>
+      <c r="WLA526" s="43"/>
+      <c r="WLE526" s="43"/>
+      <c r="WLI526" s="43"/>
+      <c r="WLM526" s="43"/>
+      <c r="WLQ526" s="43"/>
+      <c r="WLU526" s="43"/>
+      <c r="WLY526" s="43"/>
+      <c r="WMC526" s="43"/>
+      <c r="WMG526" s="43"/>
+      <c r="WMK526" s="43"/>
+      <c r="WMO526" s="43"/>
+      <c r="WMS526" s="43"/>
+      <c r="WMW526" s="43"/>
+      <c r="WNA526" s="43"/>
+      <c r="WNE526" s="43"/>
+      <c r="WNI526" s="43"/>
+      <c r="WNM526" s="43"/>
+      <c r="WNQ526" s="43"/>
+      <c r="WNU526" s="43"/>
+      <c r="WNY526" s="43"/>
+      <c r="WOC526" s="43"/>
+      <c r="WOG526" s="43"/>
+      <c r="WOK526" s="43"/>
+      <c r="WOO526" s="43"/>
+      <c r="WOS526" s="43"/>
+      <c r="WOW526" s="43"/>
+      <c r="WPA526" s="43"/>
+      <c r="WPE526" s="43"/>
+      <c r="WPI526" s="43"/>
+      <c r="WPM526" s="43"/>
+      <c r="WPQ526" s="43"/>
+      <c r="WPU526" s="43"/>
+      <c r="WPY526" s="43"/>
+      <c r="WQC526" s="43"/>
+      <c r="WQG526" s="43"/>
+      <c r="WQK526" s="43"/>
+      <c r="WQO526" s="43"/>
+      <c r="WQS526" s="43"/>
+      <c r="WQW526" s="43"/>
+      <c r="WRA526" s="43"/>
+      <c r="WRE526" s="43"/>
+      <c r="WRI526" s="43"/>
+      <c r="WRM526" s="43"/>
+      <c r="WRQ526" s="43"/>
+      <c r="WRU526" s="43"/>
+      <c r="WRY526" s="43"/>
+      <c r="WSC526" s="43"/>
+      <c r="WSG526" s="43"/>
+      <c r="WSK526" s="43"/>
+      <c r="WSO526" s="43"/>
+      <c r="WSS526" s="43"/>
+      <c r="WSW526" s="43"/>
+      <c r="WTA526" s="43"/>
+      <c r="WTE526" s="43"/>
+      <c r="WTI526" s="43"/>
+      <c r="WTM526" s="43"/>
+      <c r="WTQ526" s="43"/>
+      <c r="WTU526" s="43"/>
+      <c r="WTY526" s="43"/>
+      <c r="WUC526" s="43"/>
+      <c r="WUG526" s="43"/>
+      <c r="WUK526" s="43"/>
+      <c r="WUO526" s="43"/>
+      <c r="WUS526" s="43"/>
+      <c r="WUW526" s="43"/>
+      <c r="WVA526" s="43"/>
+      <c r="WVE526" s="43"/>
+      <c r="WVI526" s="43"/>
+      <c r="WVM526" s="43"/>
+      <c r="WVQ526" s="43"/>
+      <c r="WVU526" s="43"/>
+      <c r="WVY526" s="43"/>
+      <c r="WWC526" s="43"/>
+      <c r="WWG526" s="43"/>
+      <c r="WWK526" s="43"/>
+      <c r="WWO526" s="43"/>
+      <c r="WWS526" s="43"/>
+      <c r="WWW526" s="43"/>
+      <c r="WXA526" s="43"/>
+      <c r="WXE526" s="43"/>
+      <c r="WXI526" s="43"/>
+      <c r="WXM526" s="43"/>
+      <c r="WXQ526" s="43"/>
+      <c r="WXU526" s="43"/>
+      <c r="WXY526" s="43"/>
+      <c r="WYC526" s="43"/>
+      <c r="WYG526" s="43"/>
+      <c r="WYK526" s="43"/>
+      <c r="WYO526" s="43"/>
+      <c r="WYS526" s="43"/>
+      <c r="WYW526" s="43"/>
+      <c r="WZA526" s="43"/>
+      <c r="WZE526" s="43"/>
+      <c r="WZI526" s="43"/>
+      <c r="WZM526" s="43"/>
+      <c r="WZQ526" s="43"/>
+      <c r="WZU526" s="43"/>
+      <c r="WZY526" s="43"/>
+      <c r="XAC526" s="43"/>
+      <c r="XAG526" s="43"/>
+      <c r="XAK526" s="43"/>
+      <c r="XAO526" s="43"/>
+      <c r="XAS526" s="43"/>
+      <c r="XAW526" s="43"/>
+      <c r="XBA526" s="43"/>
+      <c r="XBE526" s="43"/>
+      <c r="XBI526" s="43"/>
+      <c r="XBM526" s="43"/>
+      <c r="XBQ526" s="43"/>
+      <c r="XBU526" s="43"/>
+      <c r="XBY526" s="43"/>
+      <c r="XCC526" s="43"/>
+      <c r="XCG526" s="43"/>
+      <c r="XCK526" s="43"/>
+      <c r="XCO526" s="43"/>
+      <c r="XCS526" s="43"/>
+      <c r="XCW526" s="43"/>
+      <c r="XDA526" s="43"/>
+      <c r="XDE526" s="43"/>
+      <c r="XDI526" s="43"/>
+      <c r="XDM526" s="43"/>
+      <c r="XDQ526" s="43"/>
+      <c r="XDU526" s="43"/>
+      <c r="XDY526" s="43"/>
+      <c r="XEC526" s="43"/>
+      <c r="XEG526" s="43"/>
+      <c r="XEK526" s="43"/>
+      <c r="XEO526" s="43"/>
+      <c r="XES526" s="43"/>
+      <c r="XEW526" s="43"/>
+      <c r="XFA526" s="43"/>
     </row>
     <row r="528" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="B528" s="21" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="15">
+      <c r="B529" s="21" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="15">
-      <c r="B529" s="21" t="s">
+    <row r="530" spans="1:2" ht="15">
+      <c r="B530" s="21" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="18.600000000000001">
-      <c r="B531" s="22" t="s">
+    <row r="532" spans="1:2" ht="18.600000000000001">
+      <c r="B532" s="22" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="15">
-      <c r="A532" s="47">
+    <row r="533" spans="1:2" ht="15">
+      <c r="A533" s="47">
         <v>1</v>
       </c>
-      <c r="B532" s="26" t="s">
+      <c r="B533" s="26" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="15">
-      <c r="A533" s="47">
+    <row r="534" spans="1:2" ht="15">
+      <c r="A534" s="47">
         <v>2</v>
       </c>
-      <c r="B533" s="26" t="s">
+      <c r="B534" s="26" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="15">
-      <c r="B534" s="26" t="s">
+    <row r="535" spans="1:2" ht="15">
+      <c r="B535" s="26" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="15">
-      <c r="B535" s="26" t="s">
+    <row r="536" spans="1:2" ht="15">
+      <c r="B536" s="26" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="16.2">
-      <c r="B536" s="44" t="s">
+    <row r="537" spans="1:2" ht="16.2">
+      <c r="B537" s="44" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15">
-      <c r="B537" s="26" t="s">
+    <row r="538" spans="1:2" ht="15">
+      <c r="B538" s="26" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="15">
-      <c r="A539" s="47">
+    <row r="540" spans="1:2" ht="15">
+      <c r="A540" s="47">
         <v>2</v>
       </c>
-      <c r="B539" s="21" t="s">
+      <c r="B540" s="21" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
-      <c r="B540" s="21" t="s">
+    <row r="541" spans="1:2">
+      <c r="B541" s="21" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
-      <c r="A542" s="47">
+    <row r="543" spans="1:2">
+      <c r="A543" s="47">
         <v>2.1</v>
       </c>
-      <c r="B542" s="21" t="s">
+      <c r="B543" s="21" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
-      <c r="B543" s="21" t="s">
+    <row r="544" spans="1:2">
+      <c r="B544" s="21" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
-      <c r="B544" s="21" t="s">
+    <row r="545" spans="1:9">
+      <c r="B545" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="I544" s="8" t="s">
+      <c r="I545" s="8" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="47">
+    <row r="546" spans="1:9">
+      <c r="A546" s="47">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B545" s="21" t="s">
+      <c r="B546" s="21" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
-      <c r="B546" s="21" t="s">
+    <row r="547" spans="1:9">
+      <c r="B547" s="21" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
-      <c r="B547" s="21" t="s">
+    <row r="548" spans="1:9">
+      <c r="B548" s="21" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
-      <c r="B548" s="21" t="s">
+    <row r="549" spans="1:9">
+      <c r="B549" s="21" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
-      <c r="B549" s="21" t="s">
+    <row r="550" spans="1:9">
+      <c r="B550" s="21" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
-      <c r="B550" s="21" t="s">
+    <row r="551" spans="1:9">
+      <c r="B551" s="21" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
-      <c r="B551" s="21" t="s">
+    <row r="552" spans="1:9">
+      <c r="B552" s="21" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
-      <c r="B552" s="21" t="s">
+    <row r="553" spans="1:9">
+      <c r="B553" s="21" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
-      <c r="B553" s="21" t="s">
+    <row r="554" spans="1:9">
+      <c r="B554" s="21" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
-      <c r="B554" s="21" t="s">
+    <row r="555" spans="1:9">
+      <c r="B555" s="21" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
-      <c r="B555" s="21" t="s">
+    <row r="556" spans="1:9">
+      <c r="B556" s="21" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
-      <c r="B556" s="21" t="s">
+    <row r="557" spans="1:9">
+      <c r="B557" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
-      <c r="B557" s="21" t="s">
+    <row r="558" spans="1:9">
+      <c r="B558" s="21" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
-      <c r="B558" s="21" t="s">
+    <row r="559" spans="1:9">
+      <c r="B559" s="21" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
-      <c r="B559" s="21" t="s">
+    <row r="560" spans="1:9">
+      <c r="B560" s="21" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="B560" s="21" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" s="21" t="s">
-        <v>238</v>
+        <v>774</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" s="21" t="s">
-        <v>775</v>
+        <v>238</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="21" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="568" spans="2:2">
-      <c r="B568" s="21" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="21" t="s">
         <v>781</v>
-      </c>
-    </row>
-    <row r="571" spans="2:2">
-      <c r="B571" s="21" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" s="21" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" s="21" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="577" spans="2:9">
       <c r="B577" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="578" spans="2:9">
+      <c r="B578" s="21" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="579" spans="2:9">
-      <c r="B579" s="21" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="580" spans="2:9">
       <c r="B580" s="21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="581" spans="2:9">
+      <c r="B581" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="582" spans="2:9">
-      <c r="B582" s="21" t="s">
+    <row r="583" spans="2:9">
+      <c r="B583" s="21" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="584" spans="2:9">
-      <c r="B584" s="21" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="585" spans="2:9">
       <c r="B585" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="586" spans="2:9">
       <c r="B586" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="587" spans="2:9">
       <c r="B587" s="21" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="588" spans="2:9">
+      <c r="B588" s="21" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="589" spans="2:9">
-      <c r="B589" s="6" t="s">
+    <row r="590" spans="2:9">
+      <c r="B590" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="I589" s="8" t="s">
+      <c r="I590" s="8" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="590" spans="2:9">
-      <c r="B590" s="45" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="591" spans="2:9">
       <c r="B591" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="592" spans="2:9">
       <c r="B592" s="45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="B593" s="45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="B594" s="45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="B595" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="B596" s="45" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="B597" s="45" t="s">
         <v>802</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" ht="15">
-      <c r="A598" s="47" t="s">
-        <v>841</v>
-      </c>
-      <c r="B598" s="26" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15">
       <c r="A599" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="B599" s="26" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" ht="15">
+      <c r="A600" s="47" t="s">
         <v>843</v>
       </c>
-      <c r="B599" s="26" t="s">
+      <c r="B600" s="26" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="15">
-      <c r="C600" s="26" t="s">
+    <row r="601" spans="1:3" ht="15">
+      <c r="C601" s="26" t="s">
         <v>845</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3">
-      <c r="C601" s="21" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="C602" s="21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="C603" s="21" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="15">
-      <c r="A603" s="47" t="s">
+    <row r="604" spans="1:3" ht="15">
+      <c r="A604" s="47" t="s">
         <v>848</v>
       </c>
-      <c r="B603" s="26" t="s">
+      <c r="B604" s="26" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="15">
-      <c r="C604" s="26" t="s">
+    <row r="605" spans="1:3" ht="15">
+      <c r="C605" s="26" t="s">
         <v>850</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" ht="15">
-      <c r="A606" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="B606" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="C606" s="26" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15">
       <c r="A607" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="B607" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="C607" s="26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" ht="15">
+      <c r="A608" s="47" t="s">
         <v>854</v>
       </c>
-      <c r="B607" s="21" t="s">
+      <c r="B608" s="21" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="15">
-      <c r="B608" s="26" t="s">
+    <row r="609" spans="1:4" ht="15">
+      <c r="B609" s="26" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="15">
-      <c r="C609" s="26" t="s">
+    <row r="610" spans="1:4" ht="15">
+      <c r="C610" s="26" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="15">
-      <c r="C610" s="26" t="s">
+    <row r="611" spans="1:4" ht="15">
+      <c r="C611" s="26" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="15">
-      <c r="C611" s="26" t="s">
+    <row r="612" spans="1:4" ht="15">
+      <c r="C612" s="26" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="15">
-      <c r="B612" s="26" t="s">
+    <row r="613" spans="1:4" ht="15">
+      <c r="B613" s="26" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="15">
-      <c r="B613" s="26" t="s">
+    <row r="614" spans="1:4" ht="15">
+      <c r="B614" s="26" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="15">
-      <c r="B614" s="26" t="s">
+    <row r="615" spans="1:4" ht="15">
+      <c r="B615" s="26" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="15">
-      <c r="A615" s="47" t="s">
+    <row r="616" spans="1:4" ht="15">
+      <c r="A616" s="47" t="s">
         <v>863</v>
       </c>
-      <c r="B615" s="26" t="s">
+      <c r="B616" s="26" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="15">
-      <c r="B616" s="26" t="s">
+    <row r="617" spans="1:4" ht="15">
+      <c r="B617" s="26" t="s">
         <v>865</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="15">
+      <c r="A618" s="47" t="s">
+        <v>866</v>
+      </c>
+      <c r="B618" s="26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="15">
+      <c r="B619" s="21" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="15">
+      <c r="B620" s="21" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="15">
+      <c r="B621" s="26" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="15">
+      <c r="A622" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B622" s="26" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="15">
+      <c r="A623" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="B623" s="21" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="15">
+      <c r="A624" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="B624" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="C624" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="D624" s="26" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="15">
+      <c r="D625" s="26" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="15">
+      <c r="A626" s="47" t="s">
+        <v>880</v>
+      </c>
+      <c r="B626" s="26" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="15">
+      <c r="B627" s="21" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="15">
+      <c r="B628" s="26" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="15">
+      <c r="B629" s="21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="15">
+      <c r="B630" s="26" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="15">
+      <c r="B631" s="26" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="15">
+      <c r="A632" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="B632" s="21" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="15">
+      <c r="B633" s="26" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="15">
+      <c r="A634" s="47" t="s">
+        <v>891</v>
+      </c>
+      <c r="B634" s="21" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="15">
+      <c r="A635" s="47" t="s">
+        <v>893</v>
+      </c>
+      <c r="B635" s="26" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="15">
+      <c r="C636" s="26" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="15">
+      <c r="A637" s="47" t="s">
+        <v>896</v>
+      </c>
+      <c r="B637" s="21" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="15">
+      <c r="B638" s="26" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="15">
+      <c r="A639" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="B639" s="26" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="15">
+      <c r="A640" s="47" t="s">
+        <v>901</v>
+      </c>
+      <c r="B640" s="26" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -21650,8 +26239,8 @@
     <hyperlink ref="J326" r:id="rId9" xr:uid="{BD19DC66-9BB1-4716-9D57-DCB9F25F1C24}"/>
     <hyperlink ref="L335" r:id="rId10" xr:uid="{E33F1820-BB0E-462A-98D6-8F2B6EBC066F}"/>
     <hyperlink ref="K421" r:id="rId11" xr:uid="{A039A165-4656-4F5F-BA8C-B28D7F6F657C}"/>
-    <hyperlink ref="I544" r:id="rId12" xr:uid="{1BAC33C4-354A-4A8C-B7B3-70FD57DF2B02}"/>
-    <hyperlink ref="I589" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
+    <hyperlink ref="I545" r:id="rId12" xr:uid="{1BAC33C4-354A-4A8C-B7B3-70FD57DF2B02}"/>
+    <hyperlink ref="I590" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId14"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F286551-97DF-45DE-AC6B-C77F90D1ECA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AAA41-40A5-4E0A-AF4C-1E764EC8F01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="正则表达式" sheetId="2" r:id="rId3"/>
     <sheet name="C#基础笔记" sheetId="8" r:id="rId4"/>
     <sheet name="09书上未实现的代码记录" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1000">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -7824,6 +7825,461 @@
   </si>
   <si>
     <t>标准查询运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要特性如下:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被查询的集合对象叫做序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准查询运算符使用方法语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些运算符返回Ienumerable(或其他序列),而其他的一些运算符标量.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回标量的运算符立即执行,并返回一个值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多操作都以一个谓词作为参数. 谓词是一个方法,以对象为参数,根据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象是否满足返回true或false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列是实现了Ienumerable&lt;&gt;接口的类,包括List&lt;&gt;, Dictionary&lt;&gt; ,Stack&lt;&gt; ,Array等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准查询运算符可帮助我们以非常强大的方式来查询和操作这些类型的对象.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个标准查询运算符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据给定的谓词对序列进行过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定要包含一个对象或对象的一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelctMany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种查询类型,返回集合的集合.该方法将这些结果合并为一个单独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受一个输入参数count,返回序列中的前count个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口一个输入参数count,调过序列中前count个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeWhile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受一个谓词,开始迭代该序列, 只要谓词对当前项的计算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为true,就选择该项.当谓词返回第一个false时,该项和其余项被</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkipWhile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对两个序列进行内联接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以产生层次结果的联接,第一个序列中的各个元素与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个序列中的元素集合相关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接两个序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBy/ThenBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据一个或多个键对序列汇中的元素排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除序列的重复项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsEnumerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToLookup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAtOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个bool值,指明序列中是否包含指定的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回序列中元素的个数int,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回序列中元素的个数long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续对序列中的各个元素应用指定的函数.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询表达式和标准查询运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将委托作为参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将泛型委托作为参数需要了解的重要事项有:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型委托用于给运算符提供用户自定义的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预定义的委托类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINQ定了两套泛型委托类型与标准运算符一起使用,即Func委托和Action委托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个成员</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用委托参数的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用lamda表示参数的示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以用匿名函数代替lamda表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINQ to XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>markup language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈建科的ydb文件可以使用 SQLite 打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Browser for SQLite</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建 保存 加载和显示XML文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用XML数的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8867,7 +9323,7 @@
   <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G191" sqref="F191:G191"/>
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10056,7 +10512,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10382,10 +10838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA640"/>
+  <dimension ref="A1:XFA715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F643" sqref="F642:F643"/>
+    <sheetView tabSelected="1" topLeftCell="A701" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D716" sqref="D716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26225,6 +26681,433 @@
         <v>902</v>
       </c>
     </row>
+    <row r="641" spans="2:4" ht="15">
+      <c r="B641" s="26" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" ht="15">
+      <c r="B642" s="26" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="643" spans="2:4" ht="15">
+      <c r="B643" s="26" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="644" spans="2:4" ht="15">
+      <c r="B644" s="26" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="645" spans="2:4" ht="15">
+      <c r="C645" s="26" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="646" spans="2:4" ht="15">
+      <c r="B646" s="26" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="647" spans="2:4" ht="15">
+      <c r="C647" s="26" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="648" spans="2:4" ht="15">
+      <c r="B648" s="26" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="649" spans="2:4" ht="15">
+      <c r="B649" s="26" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="651" spans="2:4" ht="15">
+      <c r="B651" s="28" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="653" spans="2:4" ht="15">
+      <c r="B653" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="C653" s="26" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="654" spans="2:4" ht="15">
+      <c r="B654" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="C654" s="26" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="655" spans="2:4" ht="15">
+      <c r="B655" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="D655" s="26" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="656" spans="2:4" ht="15">
+      <c r="D656" s="26" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="657" spans="2:5" ht="15">
+      <c r="B657" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="C657" s="26" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="658" spans="2:5" ht="15">
+      <c r="B658" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="C658" s="26" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="659" spans="2:5" ht="15">
+      <c r="B659" s="21" t="s">
+        <v>924</v>
+      </c>
+      <c r="D659" s="26" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="660" spans="2:5" ht="15">
+      <c r="D660" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="661" spans="2:5" ht="15">
+      <c r="D661" s="26" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="662" spans="2:5">
+      <c r="B662" s="21" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="663" spans="2:5" ht="15">
+      <c r="B663" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="C663" s="26" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="664" spans="2:5" ht="15">
+      <c r="B664" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="D664" s="26" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="665" spans="2:5" ht="15">
+      <c r="D665" s="26" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="666" spans="2:5" ht="15">
+      <c r="B666" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="C666" s="26" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="667" spans="2:5" ht="15">
+      <c r="B667" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="E667" s="26" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="668" spans="2:5" ht="15">
+      <c r="B668" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="D668" s="26" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="669" spans="2:5">
+      <c r="B669" s="21" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="670" spans="2:5">
+      <c r="B670" s="21" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="671" spans="2:5">
+      <c r="B671" s="21" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="672" spans="2:5">
+      <c r="B672" s="21" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" s="21" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2">
+      <c r="B674" s="21" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" s="21" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" s="21" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="21" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2">
+      <c r="B678" s="21" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" s="21" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2">
+      <c r="B680" s="21" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" s="21" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2">
+      <c r="B682" s="21" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2">
+      <c r="B683" s="21" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2">
+      <c r="B684" s="21" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" s="21" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2">
+      <c r="B686" s="21" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2">
+      <c r="B687" s="21" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2">
+      <c r="B688" s="21" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="B689" s="21" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="B690" s="21" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="B691" s="21" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="B692" s="21" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="15">
+      <c r="B693" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="D693" s="26" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="15">
+      <c r="B694" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="D694" s="26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="15">
+      <c r="B695" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="D695" s="26" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="B696" s="21" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="B697" s="21" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="B698" s="21" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="B699" s="21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="15">
+      <c r="B700" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="D700" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="15">
+      <c r="A702" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="B702" s="26" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="15">
+      <c r="A703" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="B703" s="26" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="15">
+      <c r="B704" s="26" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" ht="15">
+      <c r="C705" s="26" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="15">
+      <c r="A706" s="47" t="s">
+        <v>982</v>
+      </c>
+      <c r="B706" s="21" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="15">
+      <c r="B707" s="26" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="15">
+      <c r="C708" s="28" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" ht="15">
+      <c r="A709" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="B709" s="26" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="15">
+      <c r="A710" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="B710" s="26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="15">
+      <c r="C711" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="B712" s="21" t="s">
+        <v>992</v>
+      </c>
+      <c r="D712" s="21" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="15">
+      <c r="A713" s="47" t="s">
+        <v>996</v>
+      </c>
+      <c r="B713" s="26" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="15">
+      <c r="A715" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="B715" s="26" t="s">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -26323,4 +27206,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{8D11B604-9F3B-480C-9DF1-DE2757677B29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AAA41-40A5-4E0A-AF4C-1E764EC8F01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C36F7C-A38D-4B43-9A6A-2D35D8A5CE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1015">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8280,6 +8280,105 @@
   </si>
   <si>
     <t>使用XML数的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的特性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点的其他类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xcomment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xdeclaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Xcomment("This is comment")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Xdeclaration("1.0","utf-8",standalone ="yes")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XProcessingInstruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#中Console.WriteLine("{0,10:f3}", z);这句话是什么意思</t>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是输出第一个参数，即z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10是z所占的宽度（字符个数）为10个，右对齐，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3表示按浮点数个数进行输出，小数点后面保留3位小数，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是要输出的数据。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9082,7 +9181,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10838,10 +10937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA715"/>
+  <dimension ref="A1:XFA728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A701" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D716" sqref="D716"/>
+    <sheetView tabSelected="1" topLeftCell="A711" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E730" sqref="E730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27037,12 +27136,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="15">
+    <row r="705" spans="1:5" ht="15">
       <c r="C705" s="26" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="15">
+    <row r="706" spans="1:5" ht="15">
       <c r="A706" s="47" t="s">
         <v>982</v>
       </c>
@@ -27050,17 +27149,17 @@
         <v>983</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="15">
+    <row r="707" spans="1:5" ht="15">
       <c r="B707" s="26" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="15">
+    <row r="708" spans="1:5" ht="15">
       <c r="C708" s="28" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="15">
+    <row r="709" spans="1:5" ht="15">
       <c r="A709" s="47" t="s">
         <v>986</v>
       </c>
@@ -27068,7 +27167,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="15">
+    <row r="710" spans="1:5" ht="15">
       <c r="A710" s="47" t="s">
         <v>988</v>
       </c>
@@ -27076,12 +27175,12 @@
         <v>989</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="15">
+    <row r="711" spans="1:5" ht="15">
       <c r="C711" s="26" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:5">
       <c r="A712" s="47" t="s">
         <v>991</v>
       </c>
@@ -27092,7 +27191,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="15">
+    <row r="713" spans="1:5" ht="15">
       <c r="A713" s="47" t="s">
         <v>996</v>
       </c>
@@ -27100,12 +27199,79 @@
         <v>997</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="15">
+    <row r="715" spans="1:5" ht="15">
       <c r="A715" s="47" t="s">
         <v>998</v>
       </c>
       <c r="B715" s="26" t="s">
         <v>999</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="15">
+      <c r="A716" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B716" s="28" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" ht="15">
+      <c r="A717" s="47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B717" s="26" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="C718" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E718" s="21" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="C719" s="21" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="E720" s="21" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="C721" s="21" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B724" s="21" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" ht="15">
+      <c r="E725" s="26" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" ht="15">
+      <c r="E726" s="26" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" ht="15">
+      <c r="E727" s="26" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" ht="15">
+      <c r="E728" s="21" t="s">
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -27237,5 +27403,6 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{8D11B604-9F3B-480C-9DF1-DE2757677B29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C36F7C-A38D-4B43-9A6A-2D35D8A5CE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E80481-C53F-4831-8481-01618E89A210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="1018">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8381,12 +8381,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>WhereElementIsNotElementType method</t>
+  </si>
+  <si>
+    <t>Only elements that are not element types will pass the collector. If you have an active iterator to this collector it will be stopped by this call.</t>
+  </si>
+  <si>
+    <r>
+      <t>只有非元素类型的元素才会通过收集器。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4A90E2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>如果这个收集器有一个活动的迭代器，它将被这个调用停止。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8705,6 +8725,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4A90E2"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9419,10 +9445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10591,6 +10617,21 @@
       </c>
       <c r="D188" t="s">
         <v>839</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="D194" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="D195" s="27" t="s">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -10939,7 +10980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:XFA728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A711" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E730" sqref="E730"/>
     </sheetView>
   </sheetViews>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E80481-C53F-4831-8481-01618E89A210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028263CD-4643-46EE-83E5-DC9086E165B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1025">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8401,12 +8401,43 @@
       <t>如果这个收集器有一个活动的迭代器，它将被这个调用停止。</t>
     </r>
   </si>
+  <si>
+    <t>设计一个程序 用Object 作为基类，Animal 继承object   Person 继承 Animal ，  Ape   Cow   ;Sheep …… 都继承自Animal，最后实现的结果是 animal.sing() 可以出现符合各种动物的结果;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Revit api里面 Element的类的成员 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">linq 使用。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建一个IList&lt;type&gt;  类型的集合 用linq扩展方法 筛选指定特征的元素。
+筛选条件分别调用 lambda表达式，匿名委托，自定义委托，预定义委托Fun&lt;type,bool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">设计一个程序 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Revit api 里面FilteredElementCollector 成员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项
+完成节点:2020年1月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8732,6 +8763,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -8772,7 +8812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8855,6 +8895,9 @@
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8949,7 +8992,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9204,17 +9247,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
@@ -9409,7 +9452,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -9417,7 +9460,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:6">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -9425,12 +9468,70 @@
         <v>555</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="55.2">
+    <row r="19" spans="1:6" ht="55.2">
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="31.2">
+      <c r="A20" s="13">
+        <v>43849</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="55.2">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="55.2">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.6">
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -9447,7 +9548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028263CD-4643-46EE-83E5-DC9086E165B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F3F637-7E63-4A6B-8C2D-BF47C2E77BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8992,7 +8992,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9250,7 +9250,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9444,7 +9444,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27.6">
+    <row r="16" spans="1:6">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="55.2">
+    <row r="19" spans="1:6" ht="41.4">
       <c r="B19" s="1">
         <v>18</v>
       </c>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F3F637-7E63-4A6B-8C2D-BF47C2E77BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C356F0-E94F-4557-A2B9-6EBC945B2D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1043">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8430,6 +8430,148 @@
   <si>
     <t>销项
 完成节点:2020年1月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托是一类函数的 抽象概括</t>
+  </si>
+  <si>
+    <t>或者说委托就是这一类函数的类型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比如说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">    bool   getvalue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> string  a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  ,  bool  getSpecialValue(string b)  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以作为一类委托的实例</t>
+  </si>
+  <si>
+    <t>静态字段 静态属性 创建时间，生命周期，存放位置 （堆 栈？），使用特点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态构造函数 创建时间 生命周期 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性的快速书写方式/lambda 表达方法。 属性的get 方法的lambda表达方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态属性 用法 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法参数数量不确定的情况下，定义参数的方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用参数 用途（递归中收集目标对象）， 输出参数的用途。输出参数的 简单定义。</t>
+  </si>
+  <si>
+    <t>链接在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态只读字段用法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a 创建时间:
+静态字段在装载程序集的时候就分配内存空间
+b 生命周期:
+直到应用程程序的生命周期期结束。
+c 存放; 
+在堆中的类里, 与实例成员分开存放.
+d 使用特点:
+静态字段的值为一个类的所有实体所共享(只有一个,一改全改)；
+静态属性不能通过单个对象访问，但可以使点符号，通过整个类调用：
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 创建时间
+在创建第一个实例或引用任何静态成员之前,将自动调用静态构造函数.
+b 生命周期:
+直到应用程程序的生命周期期结束。
+c 
+一个类只能有一个静态构造函数.最多只运行一次.不能继承.
+用于初始化静态数据.
+静态构造函数,不能有参数.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能被静态构造函数初始化,不能被外部修改.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对静态字段进行封装,保证静态字段的合法性.
+使用 类名.静态属性名 进行访问.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法参数定义使用 params关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、引用参数（ref）在可以作为引用参数在函数成员调用中传递之前，必须已明确赋值，而输出参数（out）在可以作为输出参数在函数成员调用中传递之前不一定要明确赋值，在该函数成员正常返回前都必须已明确赋值。
+2、在函数内部，引用参数（ref）被视为初始已赋值，输出参数（out）被视为初始未赋值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8812,7 +8954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8896,6 +9038,9 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9247,10 +9392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9258,8 +9403,8 @@
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -9534,13 +9679,109 @@
         <v>1023</v>
       </c>
     </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" ht="15.6">
+      <c r="A26" s="13">
+        <v>43850</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:6" ht="151.80000000000001">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="110.4">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27.6">
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27.6">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27.6">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="82.8">
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" location="accesstoken=Q1QtY64Z6tHM9nq6gd+h" xr:uid="{4392B21F-FD64-4024-921D-12DF662914CA}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{8E962E60-FFE0-4770-9105-30BE610DF842}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11079,10 +11320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA728"/>
+  <dimension ref="A1:XFA737"/>
   <sheetViews>
-    <sheetView topLeftCell="A711" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E730" sqref="E730"/>
+    <sheetView topLeftCell="A721" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D740" sqref="D740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27416,6 +27657,26 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="734" spans="1:5">
+      <c r="B734" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="C735" s="26" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="15">
+      <c r="C736" s="28" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="737" spans="3:3">
+      <c r="C737" s="26" t="s">
+        <v>1028</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -27442,8 +27703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C356F0-E94F-4557-A2B9-6EBC945B2D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677CF384-2922-4039-83EF-FFE4D3E6AB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="1049">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8572,6 +8572,67 @@
   <si>
     <t>1、引用参数（ref）在可以作为引用参数在函数成员调用中传递之前，必须已明确赋值，而输出参数（out）在可以作为输出参数在函数成员调用中传递之前不一定要明确赋值，在该函数成员正常返回前都必须已明确赋值。
 2、在函数内部，引用参数（ref）被视为初始已赋值，输出参数（out）被视为初始未赋值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口可以作为返回值类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表返回值都是这个接口的实现类的对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明,返回值是实现这一接口的某一类型的实例.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IList&lt;string&gt; list = new List&lt;string&gt;() {"Amey", "Emmitt"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表list是 实现Ilist&lt;string&gt;这一接口的 某个类型(List&lt;string&gt;)的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D05LinstAndIList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort() 的是实现代码看不懂.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9394,7 +9455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -9429,7 +9490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="27.6">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -9446,7 +9507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.4">
+    <row r="3" spans="1:6" ht="138">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -9540,7 +9601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="41.4">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -9641,7 +9702,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="55.2">
+    <row r="21" spans="1:6" ht="124.2">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -9652,7 +9713,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="55.2">
+    <row r="22" spans="1:6" ht="138">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -9790,7 +9851,7 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11320,10 +11381,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA737"/>
+  <dimension ref="A1:XFA744"/>
   <sheetViews>
-    <sheetView topLeftCell="A721" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D740" sqref="D740"/>
+    <sheetView topLeftCell="A731" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D749" sqref="D749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27662,7 +27723,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" ht="15">
       <c r="C735" s="26" t="s">
         <v>1026</v>
       </c>
@@ -27672,9 +27733,29 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="737" spans="3:3">
+    <row r="737" spans="2:4" ht="15">
       <c r="C737" s="26" t="s">
         <v>1028</v>
+      </c>
+    </row>
+    <row r="741" spans="2:4" ht="15">
+      <c r="B741" s="28" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4" ht="15">
+      <c r="C742" s="26" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="743" spans="2:4">
+      <c r="C743" s="21" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="744" spans="2:4" ht="15">
+      <c r="D744" s="26" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -27701,10 +27782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -27768,6 +27849,17 @@
       </c>
       <c r="B7" s="36" t="s">
         <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A9" s="36">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677CF384-2922-4039-83EF-FFE4D3E6AB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6F54A2-FD3A-4748-A18F-1A0703D66CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1055">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8635,12 +8635,32 @@
     <t>Sort() 的是实现代码看不懂.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>唐僧老师 21:37:21</t>
+  </si>
+  <si>
+    <t>通常方式都是接口引用实例</t>
+  </si>
+  <si>
+    <t>父类引用子类</t>
+  </si>
+  <si>
+    <t>就是多态，可把相对具体的对象赋给相对抽象的引用。</t>
+  </si>
+  <si>
+    <t>引用类型与值类型的区别看这里,很生动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接点这</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8975,6 +8995,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9015,7 +9051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9104,6 +9140,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11381,10 +11419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA744"/>
+  <dimension ref="A1:XFA751"/>
   <sheetViews>
-    <sheetView topLeftCell="A731" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D749" sqref="D749"/>
+    <sheetView tabSelected="1" topLeftCell="A731" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H753" sqref="H753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27733,29 +27771,58 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="737" spans="2:4" ht="15">
+    <row r="737" spans="2:9" ht="15">
       <c r="C737" s="26" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="741" spans="2:4" ht="15">
+    <row r="741" spans="2:9" ht="15">
       <c r="B741" s="28" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="742" spans="2:4" ht="15">
+    <row r="742" spans="2:9" ht="15">
       <c r="C742" s="26" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="743" spans="2:4">
+    <row r="743" spans="2:9">
       <c r="C743" s="21" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="744" spans="2:4" ht="15">
+    <row r="744" spans="2:9" ht="15">
       <c r="D744" s="26" t="s">
         <v>1046</v>
+      </c>
+    </row>
+    <row r="747" spans="2:9">
+      <c r="B747" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="748" spans="2:9">
+      <c r="B748" s="54" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="749" spans="2:9">
+      <c r="B749" s="54" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="750" spans="2:9">
+      <c r="B750"/>
+      <c r="C750" s="55" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="751" spans="2:9" ht="15">
+      <c r="D751" s="26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I751" s="8" t="s">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -27774,9 +27841,10 @@
     <hyperlink ref="K421" r:id="rId11" xr:uid="{A039A165-4656-4F5F-BA8C-B28D7F6F657C}"/>
     <hyperlink ref="I545" r:id="rId12" xr:uid="{1BAC33C4-354A-4A8C-B7B3-70FD57DF2B02}"/>
     <hyperlink ref="I590" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
+    <hyperlink ref="I751" r:id="rId14" xr:uid="{767CE1DF-DDE0-45B5-9A09-13273AB155D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -27784,7 +27852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6F54A2-FD3A-4748-A18F-1A0703D66CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E045E-2ACC-4D73-A4E6-4824407E170B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1098">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -8655,12 +8655,693 @@
     <t>链接点这</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>XYZ Class</t>
+  </si>
+  <si>
+    <t>Usually this means a point or a vector in 3-dimensional space, depending on the actual use.</t>
+  </si>
+  <si>
+    <t>Using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动释放所新建的对象；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动释放，避免缓存，内存溢出</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">try catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到在此定义域内自动释放所新建的对象，以简化代码；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> gElem = elem.get_Geometry(opt);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                gIter.Reset();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                while (gIter.MoveNext())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    solids.AddRange(GetSolids(gIter.Current));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t>找点题做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                IEnumerator&lt;GeometryObject&gt; gIter = gElem.GetEnumerator();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ienumerate&lt;T&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开枚举数,该枚举数支持在指定类型的集合上进行简单迭代.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IEnumerable&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> T&gt; : IEnumerable</t>
+    </r>
+  </si>
+  <si>
+    <t>类型参数: Out T 要枚举的对象的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此类型参数是协变. 即可以使用指定的类型或派生程度更高的类型.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ienumerate&lt;T&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型公开一下成员:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetEnumerator:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回一个循环范围集合的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚举器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初，枚举数位于集合中的第一个元素之前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在此位置上，Current是不确定的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此，您必须调用MoveNext方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使枚举器前进到之前读取值的集合的第一个元素Current。</t>
+  </si>
+  <si>
+    <r>
+      <t>Current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回同一个对象，直到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>MoveNext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为再次调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MoveNext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>Current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到下一个元素。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>MoveNext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越过集合，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该枚举数的末尾将被定位在集合中的最后一个元素之后和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>MoveNext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当枚举数位于此位置上，对后续调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>MoveNext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也会返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果最后一次调用到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>MoveNext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>Current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是不确定的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您不能设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>Current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再次为集合的第一个元素必须改为创建新的枚举器实例。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个枚举器没有对集合的独占访问，因此，只要集合保持不变，枚举器保持有效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果进行了更改到集合中，如添加、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改，或删除元素），则枚举器将失效，并可能会收到意外的结果时。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此外，对集合进行枚举不是线程安全过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若要保证线程安全，您应枚举期间锁定集合，或实现同步对集合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集合中的默认实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>System.Collections.Generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名空间时不同步。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (_position &lt; _colors.Length - 1) </t>
+  </si>
+  <si>
+    <t>注意position的位置应该是小于数组的长度减2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则会超限.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9011,6 +9692,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9051,7 +9754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9142,6 +9845,17 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9886,10 +10600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="K199" sqref="K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11075,6 +11789,16 @@
         <v>1017</v>
       </c>
     </row>
+    <row r="197" spans="2:4">
+      <c r="B197" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" t="s">
+        <v>1056</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11093,7 +11817,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11419,10 +12143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA751"/>
+  <dimension ref="A1:XFA788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H753" sqref="H753"/>
+    <sheetView tabSelected="1" topLeftCell="A781" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D794" sqref="D794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27801,13 +28525,13 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="748" spans="2:9">
-      <c r="B748" s="54" t="s">
+    <row r="748" spans="2:9" ht="15.6">
+      <c r="B748" s="59" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="749" spans="2:9">
-      <c r="B749" s="54" t="s">
+    <row r="749" spans="2:9" ht="15.6">
+      <c r="B749" s="59" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -27823,6 +28547,169 @@
       </c>
       <c r="I751" s="8" t="s">
         <v>1054</v>
+      </c>
+    </row>
+    <row r="753" spans="2:5">
+      <c r="B753" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C753" s="56" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="754" spans="2:5">
+      <c r="B754" s="58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C754" s="26" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="755" spans="2:5" ht="15">
+      <c r="B755" s="57" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C755" s="26" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="757" spans="2:5" ht="15">
+      <c r="B757" s="54" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="758" spans="2:5" ht="15">
+      <c r="B758" s="26" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="759" spans="2:5">
+      <c r="B759" s="60" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="760" spans="2:5" ht="15">
+      <c r="C760" s="26" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="761" spans="2:5" ht="15">
+      <c r="D761" s="26" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="762" spans="2:5" ht="15">
+      <c r="B762" s="21" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="763" spans="2:5" ht="15">
+      <c r="B763" s="26" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="764" spans="2:5" ht="16.2">
+      <c r="C764" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E764" s="26"/>
+    </row>
+    <row r="765" spans="2:5" ht="15">
+      <c r="B765" s="26" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="766" spans="2:5" ht="15">
+      <c r="B766" s="26" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="767" spans="2:5" ht="15">
+      <c r="B767" s="26" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="768" spans="2:5" ht="15">
+      <c r="B768" s="26" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" ht="15">
+      <c r="B769" s="26"/>
+    </row>
+    <row r="770" spans="2:2" ht="15">
+      <c r="B770" s="21" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2">
+      <c r="B771" s="21" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" ht="15">
+      <c r="B773" s="28" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" ht="15">
+      <c r="B774" s="26" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" ht="15">
+      <c r="B775" s="28" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" ht="15">
+      <c r="B776" s="28" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" ht="15">
+      <c r="B777" s="28" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" ht="15">
+      <c r="B779" s="26" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" ht="15">
+      <c r="B780" s="28" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" ht="15">
+      <c r="B781" s="26" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" ht="15">
+      <c r="B782" s="26" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" ht="15">
+      <c r="B784" s="28" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2">
+      <c r="B786" s="24" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" ht="15">
+      <c r="B787" s="26" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" ht="15">
+      <c r="B788" s="26" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -27850,10 +28737,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -27928,6 +28815,47 @@
       </c>
       <c r="C9" s="36" t="s">
         <v>1048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.6" customHeight="1">
+      <c r="A11" s="36">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.6" customHeight="1">
+      <c r="B13" s="36" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27.6" customHeight="1">
+      <c r="B14" s="36" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.6" customHeight="1">
+      <c r="B15" s="36" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.6" customHeight="1">
+      <c r="B16" s="36" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="27.6" customHeight="1">
+      <c r="B17" s="36" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="27.6" customHeight="1">
+      <c r="B18" s="36" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E045E-2ACC-4D73-A4E6-4824407E170B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A857D-790C-4472-A0C2-0428B9F7F896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1097">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1027,10 +1027,6 @@
       </rPr>
       <t>过滤</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementIsElmentTypeFilter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10253,7 +10249,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -10328,7 +10324,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6">
@@ -10339,7 +10335,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10364,10 +10360,10 @@
         <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10375,7 +10371,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10383,7 +10379,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10391,7 +10387,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10399,7 +10395,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10407,7 +10403,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10415,7 +10411,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10423,7 +10419,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="41.4">
@@ -10431,7 +10427,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="31.2">
@@ -10451,7 +10447,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="124.2">
@@ -10459,10 +10455,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="138">
@@ -10470,10 +10466,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10481,7 +10477,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="27.6">
@@ -10489,7 +10485,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="15.6">
@@ -10515,13 +10511,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="110.4">
@@ -10529,10 +10525,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10540,10 +10536,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27.6">
@@ -10551,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27.6">
@@ -10559,10 +10555,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27.6">
@@ -10570,10 +10566,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="82.8">
@@ -10581,10 +10577,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -10602,8 +10598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K199" sqref="K199"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10836,7 +10832,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10849,7 +10845,7 @@
         <v>1.2</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10862,7 +10858,7 @@
         <v>1.3</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10903,7 +10899,7 @@
     <row r="37" spans="1:13" ht="17.399999999999999">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -10915,22 +10911,22 @@
     </row>
     <row r="38" spans="1:13">
       <c r="B38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="B39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="B40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="33" customFormat="1">
       <c r="B41" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -10939,7 +10935,7 @@
     </row>
     <row r="42" spans="1:13" s="33" customFormat="1">
       <c r="B42" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -10948,7 +10944,7 @@
     </row>
     <row r="43" spans="1:13" s="33" customFormat="1">
       <c r="B43" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -11356,103 +11352,103 @@
     </row>
     <row r="94" spans="1:6">
       <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" t="s">
         <v>191</v>
-      </c>
-      <c r="D94" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="D95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="C98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="C99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="E100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F100" t="s">
+        <v>211</v>
+      </c>
+      <c r="G100" t="s">
         <v>212</v>
-      </c>
-      <c r="G100" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="E101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="E102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="E103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="C104" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="C105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="C106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="B109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="33" customFormat="1">
@@ -11472,7 +11468,7 @@
     </row>
     <row r="117" spans="1:13" ht="21">
       <c r="B117" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="20.399999999999999">
@@ -11480,140 +11476,140 @@
     </row>
     <row r="119" spans="1:13" ht="14.4">
       <c r="B119" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="B120" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="B121" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="B122" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="B123" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="B124" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="B125" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="B126" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="B127" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="B128" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="B145" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F145" t="s">
         <v>354</v>
-      </c>
-      <c r="F145" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:13" s="33" customFormat="1">
@@ -11633,7 +11629,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="B150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -11641,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -11649,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -11657,12 +11653,12 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="B158" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="160" spans="1:13" s="33" customFormat="1">
@@ -11682,36 +11678,36 @@
     </row>
     <row r="161" spans="1:8" ht="20.399999999999999">
       <c r="B161" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:8">
       <c r="B165" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -11723,7 +11719,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -11738,7 +11734,7 @@
     </row>
     <row r="174" spans="1:8" ht="20.399999999999999">
       <c r="B174" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -11753,50 +11749,50 @@
     </row>
     <row r="180" spans="1:8" ht="20.399999999999999">
       <c r="B180" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="20.399999999999999">
       <c r="B184" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="B187" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="D188" t="s">
         <v>838</v>
-      </c>
-      <c r="D188" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="D194" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="D195" s="27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -12145,7 +12141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:XFA788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A781" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A781" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D794" sqref="D794"/>
     </sheetView>
   </sheetViews>
@@ -12169,38 +12165,38 @@
     </row>
     <row r="2" spans="1:10" ht="18">
       <c r="B2" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -12211,20 +12207,20 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12232,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12240,7 +12236,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12248,113 +12244,113 @@
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="D23" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="D24" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="D25" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="D26" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="E27" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="E28" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="F30" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="E31" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="D32" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="D33" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -12362,107 +12358,107 @@
         <v>1</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="C42" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="D45" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="E46" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="E47" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="F48" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="E49" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="E50" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="E51" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="F52" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="F53" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="F54" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="F55" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="E56" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="D57" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15">
@@ -12470,70 +12466,70 @@
         <v>2</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="B65" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="B66" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="C67" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="C68" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="C69" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="C70" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="D71" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="C72" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15">
@@ -12541,12 +12537,12 @@
         <v>3</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15">
       <c r="B74" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="32" customFormat="1">
@@ -12563,78 +12559,78 @@
     </row>
     <row r="78" spans="1:10" ht="18">
       <c r="B78" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="B79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15">
       <c r="B80" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15">
       <c r="C81" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15">
       <c r="C82" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15">
       <c r="C83" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15">
       <c r="C84" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15">
       <c r="C85" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15">
       <c r="C86" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15">
       <c r="C87" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15">
       <c r="C88" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15">
       <c r="C89" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15">
       <c r="C90" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15">
       <c r="C91" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="32" customFormat="1">
@@ -12651,15 +12647,15 @@
     </row>
     <row r="94" spans="1:10" ht="15">
       <c r="C94" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15">
       <c r="B95" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="26" t="s">
         <v>319</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="32" customFormat="1">
@@ -12676,22 +12672,22 @@
     </row>
     <row r="98" spans="1:10" ht="18">
       <c r="B98" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15">
       <c r="C99" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15">
       <c r="C100" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="C101" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="32" customFormat="1">
@@ -12708,27 +12704,27 @@
     </row>
     <row r="104" spans="1:10" ht="18">
       <c r="B104" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15">
       <c r="B105" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15">
       <c r="B106" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15">
       <c r="B107" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15">
       <c r="B109" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="32" customFormat="1">
@@ -12745,43 +12741,43 @@
     </row>
     <row r="112" spans="1:10" ht="18">
       <c r="B112" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="15">
       <c r="B113" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="15">
       <c r="B114" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D115" s="27" t="s">
         <v>333</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="D116" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="15">
       <c r="B118" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E118" s="28" t="s">
         <v>337</v>
-      </c>
-      <c r="E118" s="28" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="119" spans="2:5">
@@ -12789,37 +12785,37 @@
     </row>
     <row r="120" spans="2:5" ht="15">
       <c r="B120" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E120" s="28"/>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E121" s="28"/>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E122" s="28"/>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E123" s="28"/>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E124" s="28"/>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E125" s="28"/>
     </row>
@@ -12828,16 +12824,16 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E127" s="28"/>
     </row>
     <row r="128" spans="2:5" ht="15">
       <c r="B128" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="32" customFormat="1">
@@ -12854,57 +12850,57 @@
     </row>
     <row r="131" spans="1:10" ht="18">
       <c r="B131" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15">
       <c r="B132" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15">
       <c r="B133" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15">
       <c r="B134" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15">
       <c r="B135" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15">
       <c r="B136" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15">
       <c r="B137" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15">
       <c r="B138" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15">
       <c r="B139" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15">
       <c r="B140" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15">
       <c r="B141" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="32" customFormat="1">
@@ -12921,22 +12917,22 @@
     </row>
     <row r="144" spans="1:10" ht="18">
       <c r="B144" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15">
       <c r="B146" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15">
       <c r="B147" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15">
       <c r="B148" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="32" customFormat="1">
@@ -12953,7 +12949,7 @@
     </row>
     <row r="151" spans="1:10" ht="18">
       <c r="B151" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="18">
@@ -12961,12 +12957,12 @@
     </row>
     <row r="153" spans="1:10" ht="15">
       <c r="B153" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15">
       <c r="B155" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15">
@@ -12974,136 +12970,136 @@
         <v>3.7</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="B157" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15">
       <c r="B158" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15">
       <c r="B159" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15">
       <c r="B160" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15">
       <c r="B161" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="D161" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15">
       <c r="D162" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15">
       <c r="D163" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15">
       <c r="D164" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15">
       <c r="A165" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15">
       <c r="B166" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C166" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="F166" s="26" t="s">
         <v>390</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15">
       <c r="B167" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C167" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="F167" s="26" t="s">
         <v>392</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15">
       <c r="B168" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C168" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F168" s="26" t="s">
         <v>394</v>
-      </c>
-      <c r="F168" s="26" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15">
       <c r="B169" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C169" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F169" s="26" t="s">
         <v>396</v>
-      </c>
-      <c r="F169" s="26" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15">
       <c r="B170" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C170" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="C170" s="26" t="s">
+      <c r="E170" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="F170" s="26"/>
     </row>
     <row r="172" spans="1:6" ht="15">
       <c r="A172" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B172" s="26" t="s">
         <v>398</v>
-      </c>
-      <c r="B172" s="26" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15">
       <c r="B173" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -13111,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15">
@@ -13119,7 +13115,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -13127,7 +13123,7 @@
         <v>3</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -13135,7 +13131,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -13143,7 +13139,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -13151,7 +13147,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15">
@@ -13159,7 +13155,7 @@
         <v>7</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -13167,7 +13163,7 @@
         <v>8</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -13175,7 +13171,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15">
@@ -13183,7 +13179,7 @@
         <v>10</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15">
@@ -13191,7 +13187,7 @@
         <v>11</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -13199,7 +13195,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -13207,7 +13203,7 @@
         <v>13</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:10" s="32" customFormat="1">
@@ -13224,15 +13220,15 @@
     </row>
     <row r="190" spans="1:10" ht="18">
       <c r="B190" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="D190" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="B191" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193" spans="1:10" s="32" customFormat="1">
@@ -13249,37 +13245,37 @@
     </row>
     <row r="194" spans="1:10" ht="18">
       <c r="B194" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="F195" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="B196" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="B197" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="B198" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15">
       <c r="B201" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="B202" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15">
@@ -13287,20 +13283,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="B206" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15">
       <c r="B207" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C207" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="C207" s="26" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15">
@@ -13308,74 +13304,74 @@
         <v>4.2</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="B209" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15">
       <c r="B210" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D210" s="26" t="s">
         <v>444</v>
-      </c>
-      <c r="D210" s="26" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="B211" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="B212" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15">
       <c r="B213" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15">
       <c r="B214" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15">
       <c r="B215" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="B216" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="B217" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="B218" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="B219" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15">
@@ -13383,27 +13379,27 @@
         <v>4.3</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="B221" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="B222" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="B223" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="B224" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15">
@@ -13411,17 +13407,17 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="B226" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="B227" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="15">
@@ -13429,22 +13425,22 @@
         <v>5</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15">
       <c r="B230" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15">
       <c r="B231" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="15">
       <c r="B232" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -13461,12 +13457,12 @@
     </row>
     <row r="235" spans="1:10" ht="18">
       <c r="B235" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15">
       <c r="B236" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="15">
@@ -13474,25 +13470,25 @@
         <v>1</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="15">
       <c r="A238" s="48"/>
       <c r="B238" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15">
       <c r="B239" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C239" s="26"/>
     </row>
     <row r="240" spans="1:10" ht="15">
       <c r="B240" s="26"/>
       <c r="C240" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15">
@@ -13500,25 +13496,25 @@
         <v>2</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C241" s="26"/>
       <c r="D241" s="26"/>
     </row>
     <row r="242" spans="1:4" ht="15">
       <c r="B242" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15">
       <c r="B243" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15">
       <c r="B244" s="26"/>
       <c r="C244" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15">
@@ -13526,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15">
@@ -13534,64 +13530,64 @@
         <v>4</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15">
       <c r="B248" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15">
       <c r="C249" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D249" s="39" t="s">
         <v>496</v>
-      </c>
-      <c r="D249" s="39" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15">
       <c r="B250" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15">
       <c r="B251" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="18">
       <c r="A254" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B254" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15">
       <c r="A256" s="47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="15">
       <c r="A257" s="47" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="15">
       <c r="C258" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="15">
       <c r="D259" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="15">
@@ -13599,75 +13595,75 @@
         <v>6.2</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="15">
       <c r="B261" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="15">
       <c r="B263" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="15">
       <c r="C264" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="15">
       <c r="C265" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="H265" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="H265" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="15">
       <c r="D266" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="15">
       <c r="C267" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="D268" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="D269" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="D270" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="15">
       <c r="B272" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15">
       <c r="D273" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15">
       <c r="D274" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15">
       <c r="D275" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15">
@@ -13675,37 +13671,37 @@
         <v>6.3</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15">
       <c r="B278" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15">
       <c r="B279" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15">
       <c r="C280" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15">
       <c r="B281" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15">
       <c r="C282" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15">
       <c r="C283" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15">
@@ -13713,7 +13709,7 @@
     </row>
     <row r="285" spans="1:6" ht="13.8" customHeight="1">
       <c r="C285" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="13.8" customHeight="1">
@@ -13721,22 +13717,22 @@
     </row>
     <row r="287" spans="1:6" ht="18">
       <c r="A287" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="B287" s="29" t="s">
         <v>531</v>
-      </c>
-      <c r="B287" s="29" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15">
       <c r="B288" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E288" s="26"/>
       <c r="F288" s="26"/>
     </row>
     <row r="289" spans="2:8" ht="15">
       <c r="B289" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C289" s="26"/>
       <c r="D289" s="26"/>
@@ -13745,7 +13741,7 @@
     </row>
     <row r="290" spans="2:8" ht="15">
       <c r="B290" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C290" s="26"/>
       <c r="D290" s="26"/>
@@ -13754,7 +13750,7 @@
     </row>
     <row r="291" spans="2:8" ht="15">
       <c r="B291" s="26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C291" s="26"/>
       <c r="D291" s="26"/>
@@ -13763,7 +13759,7 @@
     </row>
     <row r="292" spans="2:8" ht="15">
       <c r="B292" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C292" s="26"/>
       <c r="D292" s="26"/>
@@ -13783,202 +13779,202 @@
     </row>
     <row r="294" spans="2:8" ht="15">
       <c r="B294" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="295" spans="2:8" ht="15">
       <c r="B295" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D295" s="26" t="s">
         <v>539</v>
-      </c>
-      <c r="D295" s="26" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="296" spans="2:8" ht="15">
       <c r="B296" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="E296" s="26" t="s">
         <v>541</v>
-      </c>
-      <c r="D296" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="E296" s="26" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="297" spans="2:8" ht="15">
       <c r="B297" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D297" s="26" t="s">
         <v>543</v>
-      </c>
-      <c r="D297" s="26" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="298" spans="2:8" ht="15">
       <c r="B298" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="299" spans="2:8" ht="15">
       <c r="B299" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D299" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="D299" s="26" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="301" spans="2:8" ht="15">
       <c r="B301" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="302" spans="2:8" ht="15">
       <c r="B302" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" spans="2:8" ht="15">
       <c r="B303" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="304" spans="2:8" ht="15">
       <c r="E304" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H304" s="21" t="s">
         <v>551</v>
-      </c>
-      <c r="H304" s="21" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="306" spans="2:4" ht="15">
       <c r="B306" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="307" spans="2:4" ht="15">
       <c r="B307" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="2:4" ht="15">
       <c r="B310" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="312" spans="2:4" ht="18">
       <c r="B312" s="29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="313" spans="2:4">
       <c r="B313" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="314" spans="2:4" ht="15">
       <c r="C314" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="315" spans="2:4">
       <c r="B315" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="316" spans="2:4" ht="15">
       <c r="C316" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="317" spans="2:4" ht="15">
       <c r="D317" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="318" spans="2:4" ht="15">
       <c r="D318" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="319" spans="2:4" ht="15">
       <c r="D319" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="320" spans="2:4" ht="15">
       <c r="D320" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="321" spans="2:12" ht="15">
       <c r="D321" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="322" spans="2:12">
       <c r="B322" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="323" spans="2:12">
       <c r="B323" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="324" spans="2:12">
       <c r="D324" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="325" spans="2:12">
       <c r="E325" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="I325" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="I325" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="326" spans="2:12" ht="15">
       <c r="F326" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="H326" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="H326" s="26" t="s">
-        <v>574</v>
-      </c>
       <c r="J326" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="2:12" ht="15">
       <c r="B328" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="329" spans="2:12">
       <c r="B329" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="330" spans="2:12">
       <c r="D330" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="331" spans="2:12">
       <c r="B331" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="2:12" ht="15">
       <c r="B333" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="334" spans="2:12" ht="15">
       <c r="B334" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C334" s="26"/>
       <c r="D334" s="26"/>
@@ -13994,7 +13990,7 @@
       <c r="B335" s="26"/>
       <c r="C335" s="26"/>
       <c r="D335" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E335" s="26"/>
       <c r="F335" s="26"/>
@@ -14004,7 +14000,7 @@
       <c r="J335" s="26"/>
       <c r="K335" s="26"/>
       <c r="L335" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="2:12" ht="15">
@@ -14014,13 +14010,13 @@
       <c r="E336" s="26"/>
       <c r="F336" s="26"/>
       <c r="G336" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H336" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I336" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J336" s="26"/>
       <c r="K336" s="26"/>
@@ -14032,10 +14028,10 @@
       <c r="E337" s="26"/>
       <c r="F337" s="26"/>
       <c r="G337" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H337" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I337" s="26"/>
       <c r="J337" s="26"/>
@@ -14056,7 +14052,7 @@
       <c r="F338" s="26"/>
       <c r="G338" s="26"/>
       <c r="H338" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I338" s="26"/>
       <c r="J338" s="26"/>
@@ -14077,7 +14073,7 @@
       <c r="F339" s="26"/>
       <c r="G339" s="26"/>
       <c r="H339" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I339" s="26"/>
       <c r="J339" s="26"/>
@@ -14098,7 +14094,7 @@
       <c r="F340" s="26"/>
       <c r="G340" s="26"/>
       <c r="H340" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I340" s="26"/>
       <c r="J340" s="26"/>
@@ -14126,10 +14122,10 @@
     </row>
     <row r="342" spans="1:18" ht="18">
       <c r="A342" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="B342" s="29" t="s">
         <v>593</v>
-      </c>
-      <c r="B342" s="29" t="s">
-        <v>594</v>
       </c>
       <c r="C342" s="29"/>
       <c r="H342" s="28"/>
@@ -14146,7 +14142,7 @@
     </row>
     <row r="343" spans="1:18" ht="15">
       <c r="B343" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C343" s="26"/>
       <c r="D343" s="26"/>
@@ -14157,7 +14153,7 @@
     </row>
     <row r="344" spans="1:18" ht="15">
       <c r="B344" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C344" s="26"/>
       <c r="D344" s="26"/>
@@ -14168,7 +14164,7 @@
     </row>
     <row r="345" spans="1:18" ht="15">
       <c r="B345" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C345" s="26"/>
       <c r="D345" s="26"/>
@@ -14179,7 +14175,7 @@
     </row>
     <row r="346" spans="1:18" ht="15">
       <c r="B346" s="42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C346" s="42"/>
       <c r="D346" s="42"/>
@@ -14199,148 +14195,148 @@
     </row>
     <row r="348" spans="1:18" ht="15">
       <c r="A348" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="B348" s="26" t="s">
         <v>596</v>
-      </c>
-      <c r="B348" s="26" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="349" spans="1:18" ht="15">
       <c r="B349" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="350" spans="1:18" ht="15">
       <c r="C350" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="351" spans="1:18" ht="15">
       <c r="B351" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="352" spans="1:18" ht="15">
       <c r="B352" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15">
       <c r="A353" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="B353" s="28" t="s">
         <v>602</v>
-      </c>
-      <c r="B353" s="28" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15">
       <c r="B354" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15">
       <c r="B355" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15">
       <c r="B356" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15">
       <c r="A357" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="B357" s="26" t="s">
         <v>607</v>
-      </c>
-      <c r="B357" s="26" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15">
       <c r="A358" s="47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15">
       <c r="A360" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="B360" s="26" t="s">
         <v>610</v>
-      </c>
-      <c r="B360" s="26" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15">
       <c r="B361" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15">
       <c r="B362" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15">
       <c r="B363" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15">
       <c r="B364" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15">
       <c r="B365" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15">
       <c r="A367" s="47" t="s">
+        <v>615</v>
+      </c>
+      <c r="B367" s="26" t="s">
         <v>616</v>
-      </c>
-      <c r="B367" s="26" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="B369" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15">
       <c r="B370" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="B371" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15">
       <c r="A373" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B373" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="B373" s="21" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15">
       <c r="B374" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15">
       <c r="B375" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15">
       <c r="B376" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15">
@@ -14348,120 +14344,120 @@
         <v>6.2</v>
       </c>
       <c r="B378" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15">
       <c r="B379" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15">
       <c r="B380" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15">
       <c r="B381" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15">
       <c r="B382" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15">
       <c r="A383" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="B383" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="B383" s="21" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="B384" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="386" spans="2:2">
       <c r="B386" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="388" spans="2:2">
       <c r="B388" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="389" spans="2:2">
       <c r="B389" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="390" spans="2:2">
       <c r="B390" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="392" spans="2:2">
       <c r="B392" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="394" spans="2:2">
       <c r="B394" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="396" spans="2:2">
       <c r="B396" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="397" spans="2:2">
       <c r="B397" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="398" spans="2:2">
       <c r="B398" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="399" spans="2:2">
       <c r="B399" s="21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="400" spans="2:2">
       <c r="B400" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="15">
@@ -14469,45 +14465,45 @@
         <v>6.3</v>
       </c>
       <c r="B402" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="15">
       <c r="B403" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="15">
       <c r="B404" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="15">
       <c r="B405" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="15">
       <c r="B407" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="50"/>
       <c r="B408" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="15">
       <c r="A409" s="50"/>
       <c r="B409" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="50"/>
       <c r="B410" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -14521,94 +14517,94 @@
         <v>12.4</v>
       </c>
       <c r="B413" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="15">
       <c r="A414" s="50"/>
       <c r="B414" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="15">
       <c r="A415" s="50"/>
       <c r="C415" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="15">
       <c r="C416" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="417" spans="2:11" ht="15">
       <c r="B417" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="418" spans="2:11" ht="15">
       <c r="C418" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="D418" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="D418" s="21" t="s">
+      <c r="E418" s="26" t="s">
         <v>668</v>
-      </c>
-      <c r="E418" s="26" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="419" spans="2:11" ht="15">
       <c r="E419" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="420" spans="2:11" ht="15">
       <c r="E420" s="26"/>
       <c r="F420" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="421" spans="2:11" ht="15">
       <c r="E421" s="26"/>
       <c r="F421" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="K421" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="K421" s="8" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="422" spans="2:11" ht="15">
       <c r="B422" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C422" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="E422" s="26" t="s">
         <v>674</v>
-      </c>
-      <c r="E422" s="26" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="424" spans="2:11" ht="15">
       <c r="B424" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="426" spans="2:11" ht="15">
       <c r="B426" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="428" spans="2:11" ht="15">
       <c r="B428" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C428" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="430" spans="2:11" ht="15">
       <c r="B430" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="18">
@@ -14616,68 +14612,68 @@
         <v>17</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="439" spans="1:7" ht="15">
       <c r="B439" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="440" spans="1:7" ht="15">
       <c r="B440" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="15">
       <c r="B441" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="15">
       <c r="B442" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="15">
       <c r="B443" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="15">
       <c r="C444" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="15">
       <c r="C445" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="15">
       <c r="C446" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="447" spans="1:7" ht="15">
       <c r="C447" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G447" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="448" spans="1:7" ht="15">
       <c r="C448" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G448" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="12.6" customHeight="1">
       <c r="B449" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="15">
@@ -14685,141 +14681,141 @@
         <v>17.3</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="15">
       <c r="B451" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="15">
       <c r="B452" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="15">
       <c r="B453" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="15">
       <c r="B454" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="15">
       <c r="A456" s="47" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="15">
       <c r="B457" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="15">
       <c r="B458" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="15">
       <c r="A460" s="47" t="s">
+        <v>701</v>
+      </c>
+      <c r="B460" s="26" t="s">
         <v>702</v>
-      </c>
-      <c r="B460" s="26" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="15">
       <c r="B462" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C462" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="15">
       <c r="B463" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C463" s="26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="15">
       <c r="B464" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C464" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15">
       <c r="B465" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C465" s="26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="15">
       <c r="B466" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C466" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="15">
       <c r="B467" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C467" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="15">
       <c r="B469" s="28" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="15">
       <c r="B470" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="15">
       <c r="B471" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="15">
       <c r="C472" s="26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="C473" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="D474" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="C476" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="D477" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15">
@@ -14827,44 +14823,44 @@
         <v>17.8</v>
       </c>
       <c r="B478" s="26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="15">
       <c r="B479" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="15">
       <c r="B480" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15">
       <c r="C481" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15">
       <c r="C482" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="15">
       <c r="B483" s="26" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="15">
       <c r="B484" s="26"/>
       <c r="C484" s="26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="15">
       <c r="B485" s="26"/>
       <c r="C485" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="15">
@@ -14872,15 +14868,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="B486" s="26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="15">
       <c r="A487" s="47" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B487" s="26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="15">
@@ -14888,84 +14884,84 @@
         <v>17.11</v>
       </c>
       <c r="B488" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="15">
       <c r="B489" s="26"/>
       <c r="C489" s="26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="15">
       <c r="D490" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="15">
       <c r="D491" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="15">
       <c r="D492" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="15">
       <c r="A493" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="B493" s="26" t="s">
         <v>823</v>
-      </c>
-      <c r="B493" s="26" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="15">
       <c r="B494" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="15">
       <c r="B495" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="15">
       <c r="B496" s="26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="497" spans="1:11" ht="15">
       <c r="A497" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="B497" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="C497" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="B497" s="26" t="s">
-        <v>829</v>
-      </c>
-      <c r="C497" s="21" t="s">
-        <v>832</v>
-      </c>
       <c r="E497" s="21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="498" spans="1:11" ht="15">
       <c r="A498" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B498" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C498" s="21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E498" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="500" spans="1:11" ht="15">
       <c r="B500" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="501" spans="1:11" ht="15">
@@ -14973,40 +14969,40 @@
         <v>1</v>
       </c>
       <c r="B501" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="502" spans="1:11">
       <c r="B502" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C502" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="C502" s="21" t="s">
+      <c r="E502" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="E502" s="21" t="s">
+      <c r="F502" s="21" t="s">
         <v>727</v>
-      </c>
-      <c r="F502" s="21" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="503" spans="1:11">
       <c r="B503" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C503" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="C503" s="21" t="s">
+      <c r="E503" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="E503" s="21" t="s">
-        <v>727</v>
-      </c>
       <c r="F503" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="504" spans="1:11">
       <c r="B504" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="506" spans="1:11" ht="15">
@@ -15014,38 +15010,38 @@
         <v>2</v>
       </c>
       <c r="B506" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="507" spans="1:11" ht="15">
       <c r="B507" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K507" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="508" spans="1:11" ht="15">
       <c r="B508" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="K508" s="21" t="s">
         <v>734</v>
-      </c>
-      <c r="K508" s="21" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="510" spans="1:11">
       <c r="B510" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="511" spans="1:11">
       <c r="B511" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="512" spans="1:11">
       <c r="C512" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="514" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
@@ -15053,30 +15049,30 @@
         <v>3</v>
       </c>
       <c r="B514" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="515" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="C515" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="516" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="C516" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="E516" s="21" t="s">
         <v>740</v>
-      </c>
-      <c r="E516" s="21" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="518" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="C518" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="519" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="E519" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="520" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
@@ -15084,18 +15080,18 @@
         <v>4</v>
       </c>
       <c r="B520" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="523" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="B523" s="43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="524" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A524" s="51"/>
       <c r="B524" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E524" s="43"/>
       <c r="I524" s="43"/>
@@ -19196,7 +19192,7 @@
     <row r="525" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A525" s="51"/>
       <c r="B525" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E525" s="43"/>
       <c r="I525" s="43"/>
@@ -23297,7 +23293,7 @@
     <row r="526" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A526" s="51"/>
       <c r="B526" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E526" s="43"/>
       <c r="I526" s="43"/>
@@ -27397,22 +27393,22 @@
     </row>
     <row r="528" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="B528" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15">
       <c r="B529" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15">
       <c r="B530" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="18.600000000000001">
       <c r="B532" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15">
@@ -27420,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="B533" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15">
@@ -27428,27 +27424,27 @@
         <v>2</v>
       </c>
       <c r="B534" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15">
       <c r="B535" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15">
       <c r="B536" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="16.2">
       <c r="B537" s="44" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15">
       <c r="B538" s="26" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15">
@@ -27456,12 +27452,12 @@
         <v>2</v>
       </c>
       <c r="B540" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="B541" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -27469,20 +27465,20 @@
         <v>2.1</v>
       </c>
       <c r="B543" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="B544" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="545" spans="1:9">
       <c r="B545" s="21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I545" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -27490,1148 +27486,1148 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B546" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="547" spans="1:9">
       <c r="B547" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="548" spans="1:9">
       <c r="B548" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="549" spans="1:9">
       <c r="B549" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="550" spans="1:9">
       <c r="B550" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="551" spans="1:9">
       <c r="B551" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="552" spans="1:9">
       <c r="B552" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="553" spans="1:9">
       <c r="B553" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="554" spans="1:9">
       <c r="B554" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="555" spans="1:9">
       <c r="B555" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="556" spans="1:9">
       <c r="B556" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="557" spans="1:9">
       <c r="B557" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="558" spans="1:9">
       <c r="B558" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="559" spans="1:9">
       <c r="B559" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="560" spans="1:9">
       <c r="B560" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="577" spans="2:9">
       <c r="B577" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="578" spans="2:9">
       <c r="B578" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="580" spans="2:9">
       <c r="B580" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="581" spans="2:9">
       <c r="B581" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="583" spans="2:9">
       <c r="B583" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="585" spans="2:9">
       <c r="B585" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="586" spans="2:9">
       <c r="B586" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="587" spans="2:9">
       <c r="B587" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="588" spans="2:9">
       <c r="B588" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="590" spans="2:9">
       <c r="B590" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I590" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="591" spans="2:9">
       <c r="B591" s="45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="592" spans="2:9">
       <c r="B592" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="B593" s="45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="B594" s="45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="B595" s="45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="B596" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="B597" s="45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15">
       <c r="A599" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="B599" s="26" t="s">
         <v>841</v>
-      </c>
-      <c r="B599" s="26" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="15">
       <c r="A600" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="B600" s="26" t="s">
         <v>843</v>
-      </c>
-      <c r="B600" s="26" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="15">
       <c r="C601" s="26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="C602" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="C603" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="15">
       <c r="A604" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="B604" s="26" t="s">
         <v>848</v>
-      </c>
-      <c r="B604" s="26" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="15">
       <c r="C605" s="26" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15">
       <c r="A607" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="B607" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="B607" s="21" t="s">
+      <c r="C607" s="26" t="s">
         <v>852</v>
-      </c>
-      <c r="C607" s="26" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="15">
       <c r="A608" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="B608" s="21" t="s">
         <v>854</v>
-      </c>
-      <c r="B608" s="21" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="15">
       <c r="B609" s="26" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="15">
       <c r="C610" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="15">
       <c r="C611" s="26" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="15">
       <c r="C612" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="15">
       <c r="B613" s="26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="15">
       <c r="B614" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="15">
       <c r="B615" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="15">
       <c r="A616" s="47" t="s">
+        <v>862</v>
+      </c>
+      <c r="B616" s="26" t="s">
         <v>863</v>
-      </c>
-      <c r="B616" s="26" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="15">
       <c r="B617" s="26" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="15">
       <c r="A618" s="47" t="s">
+        <v>865</v>
+      </c>
+      <c r="B618" s="26" t="s">
         <v>866</v>
-      </c>
-      <c r="B618" s="26" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15">
       <c r="B619" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="15">
       <c r="B620" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="15">
       <c r="B621" s="26" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="15">
       <c r="A622" s="47" t="s">
+        <v>870</v>
+      </c>
+      <c r="B622" s="26" t="s">
         <v>871</v>
-      </c>
-      <c r="B622" s="26" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="15">
       <c r="A623" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="B623" s="21" t="s">
         <v>873</v>
-      </c>
-      <c r="B623" s="21" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="15">
       <c r="A624" s="47" t="s">
+        <v>874</v>
+      </c>
+      <c r="B624" s="21" t="s">
         <v>875</v>
       </c>
-      <c r="B624" s="21" t="s">
+      <c r="C624" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="C624" s="21" t="s">
+      <c r="D624" s="26" t="s">
         <v>877</v>
-      </c>
-      <c r="D624" s="26" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="15">
       <c r="D625" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="15">
       <c r="A626" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="B626" s="26" t="s">
         <v>880</v>
-      </c>
-      <c r="B626" s="26" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="15">
       <c r="B627" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="15">
       <c r="B628" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="15">
       <c r="B629" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="15">
       <c r="B630" s="26" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="15">
       <c r="B631" s="26" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="15">
       <c r="A632" s="47" t="s">
+        <v>886</v>
+      </c>
+      <c r="B632" s="21" t="s">
         <v>887</v>
-      </c>
-      <c r="B632" s="21" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="15">
       <c r="B633" s="26" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="15">
       <c r="A634" s="47" t="s">
+        <v>890</v>
+      </c>
+      <c r="B634" s="21" t="s">
         <v>891</v>
-      </c>
-      <c r="B634" s="21" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="15">
       <c r="A635" s="47" t="s">
+        <v>892</v>
+      </c>
+      <c r="B635" s="26" t="s">
         <v>893</v>
-      </c>
-      <c r="B635" s="26" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="15">
       <c r="C636" s="26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="15">
       <c r="A637" s="47" t="s">
+        <v>895</v>
+      </c>
+      <c r="B637" s="21" t="s">
         <v>896</v>
-      </c>
-      <c r="B637" s="21" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="15">
       <c r="B638" s="26" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="15">
       <c r="A639" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="B639" s="26" t="s">
         <v>899</v>
-      </c>
-      <c r="B639" s="26" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="15">
       <c r="A640" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="B640" s="26" t="s">
         <v>901</v>
-      </c>
-      <c r="B640" s="26" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="641" spans="2:4" ht="15">
       <c r="B641" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="642" spans="2:4" ht="15">
       <c r="B642" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="643" spans="2:4" ht="15">
       <c r="B643" s="26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="644" spans="2:4" ht="15">
       <c r="B644" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="645" spans="2:4" ht="15">
       <c r="C645" s="26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="646" spans="2:4" ht="15">
       <c r="B646" s="26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="647" spans="2:4" ht="15">
       <c r="C647" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="648" spans="2:4" ht="15">
       <c r="B648" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="649" spans="2:4" ht="15">
       <c r="B649" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="651" spans="2:4" ht="15">
       <c r="B651" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="653" spans="2:4" ht="15">
       <c r="B653" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="C653" s="26" t="s">
         <v>913</v>
-      </c>
-      <c r="C653" s="26" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="654" spans="2:4" ht="15">
       <c r="B654" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="C654" s="26" t="s">
         <v>915</v>
-      </c>
-      <c r="C654" s="26" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="655" spans="2:4" ht="15">
       <c r="B655" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="D655" s="26" t="s">
         <v>917</v>
-      </c>
-      <c r="D655" s="26" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="656" spans="2:4" ht="15">
       <c r="D656" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="657" spans="2:5" ht="15">
       <c r="B657" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="C657" s="26" t="s">
         <v>920</v>
-      </c>
-      <c r="C657" s="26" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="658" spans="2:5" ht="15">
       <c r="B658" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="C658" s="26" t="s">
         <v>922</v>
-      </c>
-      <c r="C658" s="26" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="659" spans="2:5" ht="15">
       <c r="B659" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="D659" s="26" t="s">
         <v>924</v>
-      </c>
-      <c r="D659" s="26" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="660" spans="2:5" ht="15">
       <c r="D660" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="661" spans="2:5" ht="15">
       <c r="D661" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="662" spans="2:5">
       <c r="B662" s="21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="663" spans="2:5" ht="15">
       <c r="B663" s="21" t="s">
+        <v>928</v>
+      </c>
+      <c r="C663" s="26" t="s">
         <v>929</v>
-      </c>
-      <c r="C663" s="26" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="664" spans="2:5" ht="15">
       <c r="B664" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="D664" s="26" t="s">
         <v>931</v>
-      </c>
-      <c r="D664" s="26" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="665" spans="2:5" ht="15">
       <c r="D665" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="666" spans="2:5" ht="15">
       <c r="B666" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="C666" s="26" t="s">
         <v>934</v>
-      </c>
-      <c r="C666" s="26" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="667" spans="2:5" ht="15">
       <c r="B667" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="E667" s="26" t="s">
         <v>936</v>
-      </c>
-      <c r="E667" s="26" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="668" spans="2:5" ht="15">
       <c r="B668" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="D668" s="26" t="s">
         <v>938</v>
-      </c>
-      <c r="D668" s="26" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="669" spans="2:5">
       <c r="B669" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="670" spans="2:5">
       <c r="B670" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="671" spans="2:5">
       <c r="B671" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="672" spans="2:5">
       <c r="B672" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="673" spans="2:2">
       <c r="B673" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="674" spans="2:2">
       <c r="B674" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="675" spans="2:2">
       <c r="B675" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="676" spans="2:2">
       <c r="B676" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="677" spans="2:2">
       <c r="B677" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="678" spans="2:2">
       <c r="B678" s="21" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="679" spans="2:2">
       <c r="B679" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="680" spans="2:2">
       <c r="B680" s="21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="681" spans="2:2">
       <c r="B681" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="682" spans="2:2">
       <c r="B682" s="21" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="683" spans="2:2">
       <c r="B683" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="684" spans="2:2">
       <c r="B684" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="685" spans="2:2">
       <c r="B685" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="686" spans="2:2">
       <c r="B686" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="687" spans="2:2">
       <c r="B687" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="688" spans="2:2">
       <c r="B688" s="21" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="689" spans="1:4">
       <c r="B689" s="21" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="690" spans="1:4">
       <c r="B690" s="21" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="691" spans="1:4">
       <c r="B691" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="692" spans="1:4">
       <c r="B692" s="21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="693" spans="1:4" ht="15">
       <c r="B693" s="21" t="s">
+        <v>963</v>
+      </c>
+      <c r="D693" s="26" t="s">
         <v>964</v>
-      </c>
-      <c r="D693" s="26" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="694" spans="1:4" ht="15">
       <c r="B694" s="21" t="s">
+        <v>965</v>
+      </c>
+      <c r="D694" s="26" t="s">
         <v>966</v>
-      </c>
-      <c r="D694" s="26" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="15">
       <c r="B695" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="D695" s="26" t="s">
         <v>968</v>
-      </c>
-      <c r="D695" s="26" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="696" spans="1:4">
       <c r="B696" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="697" spans="1:4">
       <c r="B697" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="698" spans="1:4">
       <c r="B698" s="21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="699" spans="1:4">
       <c r="B699" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="15">
       <c r="B700" s="21" t="s">
+        <v>973</v>
+      </c>
+      <c r="D700" s="26" t="s">
         <v>974</v>
-      </c>
-      <c r="D700" s="26" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="15">
       <c r="A702" s="47" t="s">
+        <v>975</v>
+      </c>
+      <c r="B702" s="26" t="s">
         <v>976</v>
-      </c>
-      <c r="B702" s="26" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="15">
       <c r="A703" s="47" t="s">
+        <v>977</v>
+      </c>
+      <c r="B703" s="26" t="s">
         <v>978</v>
-      </c>
-      <c r="B703" s="26" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="15">
       <c r="B704" s="26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="15">
       <c r="C705" s="26" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="15">
       <c r="A706" s="47" t="s">
+        <v>981</v>
+      </c>
+      <c r="B706" s="21" t="s">
         <v>982</v>
-      </c>
-      <c r="B706" s="21" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="15">
       <c r="B707" s="26" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="708" spans="1:5" ht="15">
       <c r="C708" s="28" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="15">
       <c r="A709" s="47" t="s">
+        <v>985</v>
+      </c>
+      <c r="B709" s="26" t="s">
         <v>986</v>
-      </c>
-      <c r="B709" s="26" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="15">
       <c r="A710" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="B710" s="26" t="s">
         <v>988</v>
-      </c>
-      <c r="B710" s="26" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="711" spans="1:5" ht="15">
       <c r="C711" s="26" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="712" spans="1:5">
       <c r="A712" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="B712" s="21" t="s">
         <v>991</v>
       </c>
-      <c r="B712" s="21" t="s">
+      <c r="D712" s="21" t="s">
         <v>992</v>
-      </c>
-      <c r="D712" s="21" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="15">
       <c r="A713" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="B713" s="26" t="s">
         <v>996</v>
-      </c>
-      <c r="B713" s="26" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="15">
       <c r="A715" s="47" t="s">
+        <v>997</v>
+      </c>
+      <c r="B715" s="26" t="s">
         <v>998</v>
-      </c>
-      <c r="B715" s="26" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="15">
       <c r="A716" s="47" t="s">
+        <v>999</v>
+      </c>
+      <c r="B716" s="28" t="s">
         <v>1000</v>
-      </c>
-      <c r="B716" s="28" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15">
       <c r="A717" s="47" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B717" s="26" t="s">
         <v>1002</v>
-      </c>
-      <c r="B717" s="26" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="718" spans="1:5">
       <c r="C718" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E718" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="719" spans="1:5">
       <c r="C719" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="720" spans="1:5">
       <c r="E720" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="721" spans="1:5">
       <c r="C721" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="47" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B724" s="21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="15">
       <c r="E725" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="15">
       <c r="E726" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="15">
       <c r="E727" s="26" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="15">
       <c r="E728" s="21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="734" spans="1:5">
       <c r="B734" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="15">
       <c r="C735" s="26" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="736" spans="1:5" ht="15">
       <c r="C736" s="28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="737" spans="2:9" ht="15">
       <c r="C737" s="26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="741" spans="2:9" ht="15">
       <c r="B741" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="742" spans="2:9" ht="15">
       <c r="C742" s="26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="743" spans="2:9">
       <c r="C743" s="21" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="744" spans="2:9" ht="15">
       <c r="D744" s="26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="747" spans="2:9">
       <c r="B747" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="748" spans="2:9" ht="15.6">
       <c r="B748" s="59" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="749" spans="2:9" ht="15.6">
       <c r="B749" s="59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="750" spans="2:9">
       <c r="B750"/>
       <c r="C750" s="55" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="751" spans="2:9" ht="15">
       <c r="D751" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I751" s="8" t="s">
         <v>1053</v>
-      </c>
-      <c r="I751" s="8" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="753" spans="2:5">
       <c r="B753" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C753" s="56" t="s">
         <v>1057</v>
       </c>
-      <c r="C753" s="56" t="s">
+    </row>
+    <row r="754" spans="2:5" ht="15">
+      <c r="B754" s="58" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="754" spans="2:5">
-      <c r="B754" s="58" t="s">
+      <c r="C754" s="26" t="s">
         <v>1059</v>
-      </c>
-      <c r="C754" s="26" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="755" spans="2:5" ht="15">
       <c r="B755" s="57" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C755" s="26" t="s">
         <v>1061</v>
-      </c>
-      <c r="C755" s="26" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="757" spans="2:5" ht="15">
       <c r="B757" s="54" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="758" spans="2:5" ht="15">
       <c r="B758" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="759" spans="2:5">
       <c r="B759" s="60" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="760" spans="2:5" ht="15">
       <c r="C760" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="761" spans="2:5" ht="15">
       <c r="D761" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="762" spans="2:5" ht="15">
       <c r="B762" s="21" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="763" spans="2:5" ht="15">
       <c r="B763" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="764" spans="2:5" ht="16.2">
       <c r="C764" s="21" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E764" s="26"/>
     </row>
     <row r="765" spans="2:5" ht="15">
       <c r="B765" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="766" spans="2:5" ht="15">
       <c r="B766" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="767" spans="2:5" ht="15">
       <c r="B767" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="768" spans="2:5" ht="15">
       <c r="B768" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="769" spans="2:2" ht="15">
@@ -28639,77 +28635,77 @@
     </row>
     <row r="770" spans="2:2" ht="15">
       <c r="B770" s="21" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" ht="15">
+      <c r="B771" s="21" t="s">
         <v>1083</v>
-      </c>
-    </row>
-    <row r="771" spans="2:2">
-      <c r="B771" s="21" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="773" spans="2:2" ht="15">
       <c r="B773" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="774" spans="2:2" ht="15">
       <c r="B774" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="775" spans="2:2" ht="15">
       <c r="B775" s="28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="776" spans="2:2" ht="15">
       <c r="B776" s="28" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="777" spans="2:2" ht="15">
       <c r="B777" s="28" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="779" spans="2:2" ht="15">
       <c r="B779" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="780" spans="2:2" ht="15">
       <c r="B780" s="28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="781" spans="2:2" ht="15">
       <c r="B781" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="782" spans="2:2" ht="15">
       <c r="B782" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="784" spans="2:2" ht="15">
       <c r="B784" s="28" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="786" spans="2:2">
       <c r="B786" s="24" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="787" spans="2:2" ht="15">
       <c r="B787" s="26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="788" spans="2:2" ht="15">
       <c r="B788" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -28756,13 +28752,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>470</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6" customHeight="1">
@@ -28770,13 +28766,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>473</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6" customHeight="1">
@@ -28784,10 +28780,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>475</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" customHeight="1">
@@ -28795,7 +28791,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" customHeight="1">
@@ -28803,7 +28799,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.6" customHeight="1">
@@ -28811,10 +28807,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>1047</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6" customHeight="1">
@@ -28822,40 +28818,40 @@
         <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.6" customHeight="1">
       <c r="B13" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27.6" customHeight="1">
       <c r="B14" s="36" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.6" customHeight="1">
       <c r="B15" s="36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.6" customHeight="1">
       <c r="B16" s="36" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="27.6" customHeight="1">
       <c r="B17" s="36" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27.6" customHeight="1">
       <c r="B18" s="36" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -28877,15 +28873,15 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A857D-790C-4472-A0C2-0428B9F7F896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD747E-5554-44A2-8661-819C9C14A59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1107">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9332,12 +9332,90 @@
     <t>否则会超限.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> attribute</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即以一个中括号包含进来的一些特殊的注解属性，来修饰类，方法，字段，属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这些属性可以是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自带的，也可以是用户自定义出来的。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">如: [Transaction(TransactionMode.Manual)] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接在这</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd_CreateCurveByPoints</t>
+  </si>
+  <si>
+    <t>创建正弦曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://v.youku.com/v_show/id_XMjUxOTc0MTUyMA==.html?spm=a2hbt.13141534.app.5~5!2~5!2~5~5~5!2~5~5!2~5!2~5!2~5~5!16~A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">过年到初七先不写代码，先总结一下，自己这段时间有什么收获还有那些短板，尤其是学习方法的短板
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1练习不够,基础知识掌握不牢固.学习过程中能完成练习,实际运用却有问题. 根据以前考试的经验,应该是练习少了理解不深入的缘故.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9710,6 +9788,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9750,7 +9835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9851,6 +9936,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10201,10 +10290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10583,6 +10672,17 @@
         <v>1041</v>
       </c>
     </row>
+    <row r="34" spans="2:5" ht="55.2">
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10598,8 +10698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12139,10 +12239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA788"/>
+  <dimension ref="A1:XFA795"/>
   <sheetViews>
     <sheetView topLeftCell="A781" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D794" sqref="D794"/>
+      <selection activeCell="H798" sqref="H798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28693,19 +28793,44 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:5">
       <c r="B786" s="24" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="787" spans="2:2" ht="15">
+    <row r="787" spans="2:5" ht="15">
       <c r="B787" s="26" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="788" spans="2:2" ht="15">
+    <row r="788" spans="2:5" ht="15">
       <c r="B788" s="26" t="s">
         <v>1096</v>
+      </c>
+    </row>
+    <row r="791" spans="2:5" ht="15">
+      <c r="B791" s="28" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="792" spans="2:5" ht="15">
+      <c r="C792" s="61" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="793" spans="2:5" ht="15">
+      <c r="C793" s="26" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="794" spans="2:5" ht="15">
+      <c r="C794" s="26" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="795" spans="2:5">
+      <c r="E795" s="8" t="s">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -28725,18 +28850,19 @@
     <hyperlink ref="I545" r:id="rId12" xr:uid="{1BAC33C4-354A-4A8C-B7B3-70FD57DF2B02}"/>
     <hyperlink ref="I590" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
     <hyperlink ref="I751" r:id="rId14" xr:uid="{767CE1DF-DDE0-45B5-9A09-13273AB155D2}"/>
+    <hyperlink ref="E795" r:id="rId15" xr:uid="{76DF85EC-CF83-4F2F-A89B-B65FE6CD8B76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -28844,20 +28970,47 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="27.6" customHeight="1">
+    <row r="17" spans="1:2" ht="27.6" customHeight="1">
       <c r="B17" s="36" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="27.6" customHeight="1">
+    <row r="18" spans="1:2" ht="27.6" customHeight="1">
       <c r="B18" s="36" t="s">
         <v>1067</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="27.6" customHeight="1">
+      <c r="A20" s="36">
+        <v>7</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27.6" customHeight="1">
+      <c r="B21" s="36" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27.6" customHeight="1">
+      <c r="B22" s="62" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27.6" customHeight="1">
+      <c r="B23" s="62" t="s">
+        <v>1104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{7721C235-A01C-4034-A319-0F3AF5D51834}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{23874299-DB37-4D07-83D1-22A7156C9408}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD747E-5554-44A2-8661-819C9C14A59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B84BB58-667D-44E9-8830-8C6D53C35561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1128">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9410,12 +9410,172 @@
     <t>1练习不够,基础知识掌握不牢固.学习过程中能完成练习,实际运用却有问题. 根据以前考试的经验,应该是练习少了理解不深入的缘故.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>EPPlus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的代码不写在using里,也可以运行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epplus013001.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中using的3种用法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用在命名空间里,可以在程序中直接用命令空间中的类型.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为命名空间或类型创建别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using system;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包括详细命名空间信息的具体的类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好处是:当一个cs引用两个不同的命名空间,而这两个命名空间有相同的名字的类型的时候,需要使用命名空间.类型的方式引用.使用别名可以更加简洁.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为语句:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于定义一个范围,在此范围的末尾将释放对象.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using实质</t>
+  </si>
+  <si>
+    <t>    在程序编译阶段，编译器会自动将using语句生成为try-finally语句，并在finally块中调用对象的Dispose方法，来清理资源。所以，using语句等效于try-finally语句</t>
+  </si>
+  <si>
+    <t>使用规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>revit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的事物也继承了Idisposable接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class Transaction : IDisposable</t>
+  </si>
+  <si>
+    <t>链接在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的日期格式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9795,6 +9955,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9835,7 +10001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9941,6 +10107,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10035,7 +10202,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10292,7 +10459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -10698,7 +10865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
@@ -12239,10 +12406,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA795"/>
+  <dimension ref="A1:XFA818"/>
   <sheetViews>
-    <sheetView topLeftCell="A781" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H798" sqref="H798"/>
+    <sheetView tabSelected="1" topLeftCell="A803" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E822" sqref="E822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28833,6 +29000,116 @@
         <v>1101</v>
       </c>
     </row>
+    <row r="797" spans="2:5" ht="15">
+      <c r="B797" s="21" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="798" spans="2:5" ht="15">
+      <c r="C798" s="26" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="799" spans="2:5">
+      <c r="C799" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="800" spans="2:5">
+      <c r="B800" s="21" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="801" spans="2:5" ht="15">
+      <c r="C801" s="21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E801" s="8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="802" spans="2:5" ht="15">
+      <c r="C802" s="21">
+        <v>1</v>
+      </c>
+      <c r="D802" s="26" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="803" spans="2:5" ht="15">
+      <c r="D803" s="26" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="804" spans="2:5" ht="15">
+      <c r="C804" s="21">
+        <v>2</v>
+      </c>
+      <c r="D804" s="26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="805" spans="2:5" ht="15">
+      <c r="D805" s="21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="806" spans="2:5" ht="15">
+      <c r="D806" s="26" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="807" spans="2:5" ht="15">
+      <c r="C807" s="21">
+        <v>3</v>
+      </c>
+      <c r="D807" s="26" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="808" spans="2:5" ht="15">
+      <c r="E808" s="26" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="809" spans="2:5" ht="15">
+      <c r="C809" s="26" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D809" s="63" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="810" spans="2:5">
+      <c r="D810" s="63" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="811" spans="2:5" ht="15">
+      <c r="C811" s="26" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="812" spans="2:5" ht="15">
+      <c r="B812" s="21" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="813" spans="2:5">
+      <c r="C813" s="21" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="817" spans="2:3" ht="15">
+      <c r="B817" s="21" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="818" spans="2:3">
+      <c r="C818" s="8" t="s">
+        <v>1126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -28851,9 +29128,11 @@
     <hyperlink ref="I590" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
     <hyperlink ref="I751" r:id="rId14" xr:uid="{767CE1DF-DDE0-45B5-9A09-13273AB155D2}"/>
     <hyperlink ref="E795" r:id="rId15" xr:uid="{76DF85EC-CF83-4F2F-A89B-B65FE6CD8B76}"/>
+    <hyperlink ref="E801" r:id="rId16" xr:uid="{514AF97D-6B1E-47B8-BCCA-79589CDDC92B}"/>
+    <hyperlink ref="C818" r:id="rId17" xr:uid="{EA196E6F-0AA8-41A8-A3A3-F29DD4798341}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B84BB58-667D-44E9-8830-8C6D53C35561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6002A1BE-2CE3-4A9B-BEEF-CF04B08EA24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1176">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9570,12 +9570,214 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>03课 创建表:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库与excel对比: 很相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表的两种方式:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见字符类型:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串数据类型, 所有的文字都是字符,都可以使用字符串数据类型来存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如邮政编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理性能高 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用存储多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用存储少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理性能低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄, 身高, 厚度, 速度, 利率, 人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的定量的数值,都可以用数值数据类型来存储.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期和时间数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名日期, 国庆节, 下班时间 ,秒表计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期+时间型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片, 多媒体图像, 文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般不这么做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DROP TABLE table_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Create table teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_id varchar(50),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04课 创建表:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default '',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可变,相当于唯一标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议所有字段,不能设置为NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL特殊在哪?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="55">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9961,6 +10163,18 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666600"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9988,7 +10202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -9996,12 +10210,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10108,6 +10337,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10459,8 +10691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12408,7 +12640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:XFA818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A803" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A803" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E822" sqref="E822"/>
     </sheetView>
   </sheetViews>
@@ -29295,25 +29527,250 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
         <v>994</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17.399999999999999">
+      <c r="B6" s="10" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="D15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="D16" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="D18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="E20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="D23" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="D24" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="D26" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="D27" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="D30" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="D32" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="D33" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="D34" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="D37" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="D38" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="14.4" thickBot="1"/>
+    <row r="40" spans="2:4" ht="14.4" thickBot="1">
+      <c r="C40" s="64" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="17.399999999999999">
+      <c r="B47" s="10" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="D49" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="D51" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="D52" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="D54" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>1174</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6002A1BE-2CE3-4A9B-BEEF-CF04B08EA24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7152F-D058-475E-B898-E2B0C525FD25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1204">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9770,6 +9770,108 @@
   </si>
   <si>
     <t>NULL特殊在哪?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05课操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rename table oldName to newName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 插入整行字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新表：RENAME TABLE旧表名TO新表名；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新字段名：ALTER TABLE表名CHANGE旧字段名新字段名字段类型；</t>
+  </si>
+  <si>
+    <t>更新字段类型、NULL值、默认值：ALTER TABLE表名MODIFY字段名新字段类型；</t>
+  </si>
+  <si>
+    <t>删除字段默认值：ALTER TABLE表名ALTER COLUMN 字段名DROP DEFAULT；</t>
+  </si>
+  <si>
+    <t>设置主键：ALTER TABLE表名ADD PRIMARY KEY（主键字段列表）；</t>
+  </si>
+  <si>
+    <t>删除主键：ALTER TABLE表名 DROP PRIMARY KEY；</t>
+  </si>
+  <si>
+    <t>新增字段：ALTER TABLE表名ADD COLUMN新字段名字段类型及其他属性；</t>
+  </si>
+  <si>
+    <t>删除字段：ALTER TABLE表名DROP COLUMN字段名；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除表：DROPTABLE表名；</t>
+  </si>
+  <si>
+    <t>INSERT into teacher VALUES ('02','王五','男');</t>
+  </si>
+  <si>
+    <t>值的顺序与表中的字段顺序必须一致, 不安全.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into teacher(teacher_id,teacher_name,gender) VALUES ('03','赵六','男');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE teacher SET teacher_name='田七' WHERE teacher_id =04;</t>
+  </si>
+  <si>
+    <t>INSERT into teacher(teacher_id,teacher_name,gender) VALUES ('04','天气',NULL);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT into teacher(teacher_id,teacher_name) VALUES('05','张三');</t>
+  </si>
+  <si>
+    <t>要求省略的字段可以为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次插入多条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议一条sql语句插入的条数在1000条以下;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还受限于数据库支持的单挑sql语句的长度.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借助其他表数据插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部存储测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd_ExternalStorageDataTest.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFrameworkServices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11095,10 +11197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12292,6 +12394,11 @@
     <row r="198" spans="2:4">
       <c r="B198" t="s">
         <v>1055</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" ht="20.399999999999999">
+      <c r="B202" s="38" t="s">
+        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -29370,10 +29477,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -29514,6 +29621,19 @@
         <v>1104</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="27.6" customHeight="1">
+      <c r="A25" s="36">
+        <v>8</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27.6" customHeight="1">
+      <c r="B26" s="36" t="s">
+        <v>1202</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -29527,10 +29647,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
-  <dimension ref="B1:G58"/>
+  <dimension ref="B1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29727,37 +29847,37 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="2:5">
       <c r="D49" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="2:5">
       <c r="C50" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="2:5">
       <c r="D51" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="2:5">
       <c r="D52" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="2:5">
       <c r="C53" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="2:5">
       <c r="D54" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="2:5">
       <c r="C56" t="s">
         <v>1175</v>
       </c>
@@ -29768,9 +29888,130 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="2:5">
       <c r="C58" t="s">
         <v>1174</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="17.399999999999999">
+      <c r="B60" s="10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="C62" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="C64" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="C65" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="C66" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="C67" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="C68" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="C69" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="C70" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="C71" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="C72" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="17.399999999999999">
+      <c r="B74" s="10" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="C76" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="C77" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="C78" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="D79" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="C80" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="C82" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="E83" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="E84" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="C87" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="17.399999999999999">
+      <c r="B90" s="10" t="s">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7152F-D058-475E-B898-E2B0C525FD25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA24E82-32F6-4C1B-813D-91C7BE6F5ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="正则表达式" sheetId="2" r:id="rId3"/>
     <sheet name="C#基础笔记" sheetId="8" r:id="rId4"/>
     <sheet name="09书上未实现的代码记录" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="mysql" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1213">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9872,6 +9872,42 @@
   </si>
   <si>
     <t>UIFrameworkServices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询部分列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序返回结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制返回结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由一个或多个确定的元素构成的整体叫做集合. 确定性 互异性 无序性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 字段列表 from 表名;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果集 具有 确定性,无序性 ,不具有互异性.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from student;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11199,7 +11235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
@@ -29647,10 +29683,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
-  <dimension ref="B1:J90"/>
+  <dimension ref="B1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30012,6 +30048,53 @@
     <row r="90" spans="2:5" ht="17.399999999999999">
       <c r="B90" s="10" t="s">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="17.399999999999999">
+      <c r="B91" s="10"/>
+      <c r="C91" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="17.399999999999999">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="C93" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="D95" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="D96" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="D101" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA24E82-32F6-4C1B-813D-91C7BE6F5ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC8DD0E-DAA4-4FD3-82AB-C7D907C2844F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1217">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9909,6 +9909,21 @@
   <si>
     <t>select * from student;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法调整字段显示的顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐使用列出字段的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order by [ASC/DESC]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT class_id,student_id,student_name,gender FROM student ORDER BY 4 asc;</t>
   </si>
 </sst>
 </file>
@@ -29686,7 +29701,7 @@
   <dimension ref="B1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30077,19 +30092,37 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:7">
       <c r="C100" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:7">
       <c r="D101" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="106" spans="3:4">
+      <c r="G101" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="G102" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
       <c r="C106" t="s">
         <v>1206</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="D107" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="D109" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="113" spans="3:3">

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC8DD0E-DAA4-4FD3-82AB-C7D907C2844F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9825EB13-20F9-4D0A-9746-ECECD7AD7E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1237">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9924,6 +9924,188 @@
   </si>
   <si>
     <t>SELECT class_id,student_id,student_name,gender FROM student ORDER BY 4 asc;</t>
+  </si>
+  <si>
+    <t>Enum:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习专题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习专题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习专题3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习专题4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名空间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习专题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类作为为属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习专题6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习专题7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习专题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>revit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档的样板区和实例区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>epplus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的操作不能放在transaction里.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10383,7 +10565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10492,6 +10674,9 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12796,15 +12981,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA818"/>
+  <dimension ref="A1:XFA846"/>
   <sheetViews>
-    <sheetView topLeftCell="A803" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E822" sqref="E822"/>
+    <sheetView tabSelected="1" topLeftCell="A815" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F829" sqref="F829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="47"/>
+    <col min="1" max="1" width="10" style="47" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
@@ -29490,14 +29675,96 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="817" spans="2:3" ht="15">
+    <row r="817" spans="1:4" ht="15">
       <c r="B817" s="21" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="818" spans="2:3">
+    <row r="818" spans="1:4">
       <c r="C818" s="8" t="s">
         <v>1126</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="15">
+      <c r="A822" s="28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B822" s="21" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D822" s="8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="15">
+      <c r="A825" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B825" s="21" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="15">
+      <c r="A828" s="26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B828" s="21" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="15">
+      <c r="B829" s="21" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="15">
+      <c r="A831" s="26" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B831" s="21" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="B832" s="21" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="15">
+      <c r="A835" s="65" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B835" s="26" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="15">
+      <c r="A837" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B837" s="26" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="15">
+      <c r="A840" s="49" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B840" s="21" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="15">
+      <c r="A842" s="65" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B842" s="21" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" ht="15">
+      <c r="B846" s="21" t="s">
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -29520,9 +29787,10 @@
     <hyperlink ref="E795" r:id="rId15" xr:uid="{76DF85EC-CF83-4F2F-A89B-B65FE6CD8B76}"/>
     <hyperlink ref="E801" r:id="rId16" xr:uid="{514AF97D-6B1E-47B8-BCCA-79589CDDC92B}"/>
     <hyperlink ref="C818" r:id="rId17" xr:uid="{EA196E6F-0AA8-41A8-A3A3-F29DD4798341}"/>
+    <hyperlink ref="D822" r:id="rId18" xr:uid="{602EED3B-A7E8-46D6-90E0-A94E0FFCEFB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -29700,8 +29968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
   <dimension ref="B1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9825EB13-20F9-4D0A-9746-ECECD7AD7E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A081EA-A92E-4886-B188-F9B217FEDD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10772,7 +10772,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -12983,8 +12983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:XFA846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A815" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F829" sqref="F829"/>
+    <sheetView tabSelected="1" topLeftCell="A820" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G826" sqref="G826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A081EA-A92E-4886-B188-F9B217FEDD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE57B195-4CB1-442D-BC7B-BB46168E0AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11808" yWindow="456" windowWidth="11232" windowHeight="11904" tabRatio="796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1274">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -10105,6 +10105,195 @@
   </si>
   <si>
     <t>参考链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习专题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>Cast</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把两个不相干的类型互转当然会失败。像这种情况应该是parse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是在可转换类型之间进行转换。比如父类型转子类型，数字类型之间互相转。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期和时间函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 使用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 汇总统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.ctrl+/ 注释sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ctrl+q 打开查询窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.ctrl+shift +/ 解除注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.ctrl+r 运行查询窗口的sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.ctrl+shift+r 只运行选中的sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navicat快捷方式:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM student</t>
+  </si>
+  <si>
+    <t>不等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(teacher_id) FROM student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果字段为Null,不计入Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT AVG(score) from student</t>
+  </si>
+  <si>
+    <t>from student</t>
+  </si>
+  <si>
+    <t>GROUP BY class_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT class_id,AVG(score) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按班级查询平均分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT LEFT(stock_code,2),sum(price*volume)</t>
+  </si>
+  <si>
+    <t>from t_stock_trans_dtl</t>
+  </si>
+  <si>
+    <t>where opt_typ ='买入'</t>
+  </si>
+  <si>
+    <t>GROUP BY LEFT(stock_code,2)</t>
+  </si>
+  <si>
+    <t>SELECT LEFT(stock_code,2),opt_typ,sum(price*volume)</t>
+  </si>
+  <si>
+    <t>GROUP BY LEFT(stock_code,2),opt_typ;</t>
+  </si>
+  <si>
+    <t>两种分组方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group BY 可以跟表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12981,10 +13170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA846"/>
+  <dimension ref="A1:XFA851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A820" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G826" sqref="G826"/>
+    <sheetView topLeftCell="A831" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G845" sqref="G845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29704,66 +29893,102 @@
         <v>1220</v>
       </c>
     </row>
+    <row r="826" spans="1:4" ht="15">
+      <c r="A826" s="26"/>
+    </row>
+    <row r="827" spans="1:4" ht="15">
+      <c r="A827" s="47" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B827" s="21" t="s">
+        <v>1240</v>
+      </c>
+    </row>
     <row r="828" spans="1:4" ht="15">
-      <c r="A828" s="26" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B828" s="21" t="s">
-        <v>1222</v>
+      <c r="D828" s="21" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="15">
-      <c r="B829" s="21" t="s">
-        <v>1226</v>
-      </c>
+      <c r="D829" s="26" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="15">
+      <c r="D830" s="26"/>
     </row>
     <row r="831" spans="1:4" ht="15">
       <c r="A831" s="26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B831" s="21" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="15">
+      <c r="B832" s="21" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="15">
+      <c r="A835" s="26" t="s">
         <v>1223</v>
       </c>
-      <c r="B831" s="21" t="s">
+      <c r="B835" s="21" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
-      <c r="B832" s="21" t="s">
+    <row r="836" spans="1:2">
+      <c r="B836" s="21" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="835" spans="1:2" ht="15">
-      <c r="A835" s="65" t="s">
+    <row r="839" spans="1:2" ht="15">
+      <c r="A839" s="65" t="s">
         <v>1227</v>
       </c>
-      <c r="B835" s="26" t="s">
+      <c r="B839" s="26" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="837" spans="1:2" ht="15">
-      <c r="A837" s="49" t="s">
+    <row r="840" spans="1:2" ht="15">
+      <c r="A840" s="65"/>
+      <c r="B840" s="26"/>
+    </row>
+    <row r="842" spans="1:2" ht="15">
+      <c r="A842" s="49" t="s">
         <v>1230</v>
       </c>
-      <c r="B837" s="26" t="s">
+      <c r="B842" s="26" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="840" spans="1:2" ht="15">
-      <c r="A840" s="49" t="s">
+    <row r="845" spans="1:2" ht="15">
+      <c r="A845" s="49" t="s">
         <v>1231</v>
       </c>
-      <c r="B840" s="21" t="s">
+      <c r="B845" s="21" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="15">
-      <c r="A842" s="65" t="s">
+    <row r="847" spans="1:2" ht="15">
+      <c r="A847" s="65" t="s">
         <v>1233</v>
       </c>
-      <c r="B842" s="21" t="s">
+      <c r="B847" s="21" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="846" spans="1:2" ht="15">
-      <c r="B846" s="21" t="s">
+    <row r="849" spans="1:2" ht="15">
+      <c r="A849" s="65" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B849" s="26" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" ht="15">
+      <c r="B851" s="21" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -29966,10 +30191,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
-  <dimension ref="B1:J113"/>
+  <dimension ref="B1:J155"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30393,9 +30618,157 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="2:3">
       <c r="C113" t="s">
         <v>1207</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="17.399999999999999">
+      <c r="B120" s="10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="C122" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="C124" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="C126" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="C128" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="C130" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="17.399999999999999">
+      <c r="B133" s="10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="I134" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="C135" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="C137" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="I138" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="C139" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="C141" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="C142" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="C143" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="C144" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" t="s">
+        <v>1272</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE57B195-4CB1-442D-BC7B-BB46168E0AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625BDAC-2E36-4266-97B2-B7FA00EF8773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1328">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -10296,12 +10296,284 @@
     <t>group BY 可以跟表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SELECT teacher_id,COUNT(*)</t>
+  </si>
+  <si>
+    <t>FROM student</t>
+  </si>
+  <si>
+    <t>GROUP BY teacher_id</t>
+  </si>
+  <si>
+    <t>HAVING COUNT(*)&gt;15</t>
+  </si>
+  <si>
+    <t>Having对分组进行过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT class_id,COUNT(*),AVG(score)</t>
+  </si>
+  <si>
+    <t>WHERE score &gt;80</t>
+  </si>
+  <si>
+    <t>HAVING AVG(score) &gt;70</t>
+  </si>
+  <si>
+    <t>where 过滤行,在group by之前执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having 过滤分组,在group by 后执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER BY AVG(score) DESC</t>
+  </si>
+  <si>
+    <t>排序: 倒序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果每次查询都想得到确定的排序结果,一定要用order by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select 子句顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 方便的子查询和exsits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同事查出学生编号,学生姓名,老师编号,老师姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子查询: 嵌套在其他查询中的查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT </t>
+  </si>
+  <si>
+    <t>student_id,student_name,teacher_id,</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>SELECT teacher_name</t>
+  </si>
+  <si>
+    <t>FROM teacher</t>
+  </si>
+  <si>
+    <t>WHERE teacher.teacher_id =student.teacher_id</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>使用表明消除字段歧义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM student;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM teacher t</t>
+  </si>
+  <si>
+    <t>WHERE t.teacher_id =s.teacher_id</t>
+  </si>
+  <si>
+    <t>FROM student s;</t>
+  </si>
+  <si>
+    <t>ORDER BY teacher_id</t>
+  </si>
+  <si>
+    <t>给表取别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求子查询不能出现多条记录,否则会报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查姓牛的老师教了哪些学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>student_id,</t>
+  </si>
+  <si>
+    <t>student_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher_id </t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student </t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">teacher_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( SELECT teacher_id FROM teacher WHERE teacher_name LIKE '牛%' );</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对需要处理的字段进行去重</t>
+  </si>
+  <si>
+    <r>
+      <t>select  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 字段名 from 表名</t>
+    </r>
+  </si>
+  <si>
+    <t>(SELECT teacher_name</t>
+  </si>
+  <si>
+    <t>SELECT 2</t>
+  </si>
+  <si>
+    <t>WHERE student.teacher_id =teacher.teacher_id</t>
+  </si>
+  <si>
+    <t>AND teacher.teacher_name like '牛%'</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exists 与 in  不同,exists 无视 select字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子查询: 实际中不建议大量使用,因为比较难理解.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行效率也低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建议使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>链接表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,效率更高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10699,6 +10971,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -10754,7 +11045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10867,6 +11158,8 @@
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -30191,10 +30484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
-  <dimension ref="B1:J155"/>
+  <dimension ref="B1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30769,6 +31062,388 @@
     <row r="155" spans="3:3">
       <c r="C155" t="s">
         <v>1272</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="C161" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="C163" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="C164" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="C165" s="9" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="C166" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="C167" s="9" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168">
+        <v>14.1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169">
+        <v>14.2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="C171" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="C172" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="C173" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="C174" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175">
+        <v>14.3</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="D176" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="D177" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="C179" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="17.399999999999999">
+      <c r="B181" s="10" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="C183" s="67" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="C184" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="D185" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="E186" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="D187" s="9" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="D188" s="66" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="D189" s="66" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="D190" s="66" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="D191" s="66" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="D192" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5">
+      <c r="E193" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5">
+      <c r="C194">
+        <v>15.1</v>
+      </c>
+      <c r="E194" s="67" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5">
+      <c r="D195" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5">
+      <c r="E196" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5">
+      <c r="D197" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5">
+      <c r="D198" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5">
+      <c r="D199" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5">
+      <c r="D200" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5">
+      <c r="D201" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5">
+      <c r="D202" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5">
+      <c r="D203" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5">
+      <c r="E204" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5">
+      <c r="D206" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5">
+      <c r="D207" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5">
+      <c r="E208" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="209" spans="3:10">
+      <c r="E209" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="E210" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="D211" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10">
+      <c r="E212" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10">
+      <c r="D213" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10">
+      <c r="C214">
+        <v>15.2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10">
+      <c r="D217" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="218" spans="3:10">
+      <c r="D218" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10">
+      <c r="E219" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10">
+      <c r="D220" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="221" spans="3:10">
+      <c r="D221" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10">
+      <c r="D222" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="223" spans="3:10">
+      <c r="D223" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="224" spans="3:10">
+      <c r="D224" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5">
+      <c r="C225">
+        <v>15.3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5">
+      <c r="D226" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5">
+      <c r="D227" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5">
+      <c r="D228" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5">
+      <c r="D229" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5">
+      <c r="D230" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5">
+      <c r="E231" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5">
+      <c r="C234">
+        <v>15.4</v>
+      </c>
+      <c r="D234" s="67" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5">
+      <c r="E235" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5">
+      <c r="E236" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5">
+      <c r="E237" t="s">
+        <v>1327</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625BDAC-2E36-4266-97B2-B7FA00EF8773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01FBC8D-AC58-45F0-8EA6-03C1EBC9C223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1331">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -10566,6 +10566,18 @@
       </rPr>
       <t>,效率更高</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例CreateFillPattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combox的数据与List的绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -30314,10 +30326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -30425,17 +30437,17 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" customHeight="1">
+    <row r="17" spans="1:3" ht="27.6" customHeight="1">
       <c r="B17" s="36" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" customHeight="1">
+    <row r="18" spans="1:3" ht="27.6" customHeight="1">
       <c r="B18" s="36" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27.6" customHeight="1">
+    <row r="20" spans="1:3" ht="27.6" customHeight="1">
       <c r="A20" s="36">
         <v>7</v>
       </c>
@@ -30443,22 +30455,22 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27.6" customHeight="1">
+    <row r="21" spans="1:3" ht="27.6" customHeight="1">
       <c r="B21" s="36" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27.6" customHeight="1">
+    <row r="22" spans="1:3" ht="27.6" customHeight="1">
       <c r="B22" s="62" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27.6" customHeight="1">
+    <row r="23" spans="1:3" ht="27.6" customHeight="1">
       <c r="B23" s="62" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27.6" customHeight="1">
+    <row r="25" spans="1:3" ht="27.6" customHeight="1">
       <c r="A25" s="36">
         <v>8</v>
       </c>
@@ -30466,9 +30478,27 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27.6" customHeight="1">
+    <row r="26" spans="1:3" ht="27.6" customHeight="1">
       <c r="B26" s="36" t="s">
         <v>1202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27.6" customHeight="1">
+      <c r="A28" s="36">
+        <v>8</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27.6" customHeight="1">
+      <c r="C29" s="36" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27.6" customHeight="1">
+      <c r="C30" s="36" t="s">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -30486,8 +30516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
   <dimension ref="B1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01FBC8D-AC58-45F0-8EA6-03C1EBC9C223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A074AF-810F-4921-AB4B-4247B3AA786C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30329,7 +30329,7 @@
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A074AF-810F-4921-AB4B-4247B3AA786C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE276F-34F5-49AF-B8F4-144390C75955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1334">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -10088,22 +10088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>epplus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的操作不能放在transaction里.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10578,6 +10562,34 @@
   </si>
   <si>
     <t>MVVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>epplus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的操作不能放在transaction里 ?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个在revit的element的组织上就有使用.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FamilySymbol类有个属性,叫Family( 也是个类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如FamilyInstance 类 有个属性 叫 FamilySymbol(是个类)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11524,7 +11536,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13475,10 +13487,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA851"/>
+  <dimension ref="A1:XFA856"/>
   <sheetViews>
-    <sheetView topLeftCell="A831" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G845" sqref="G845"/>
+    <sheetView tabSelected="1" topLeftCell="A826" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F838" sqref="F838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30187,7 +30199,7 @@
         <v>1217</v>
       </c>
       <c r="D822" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="15">
@@ -30203,98 +30215,122 @@
     </row>
     <row r="827" spans="1:4" ht="15">
       <c r="A827" s="47" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B827" s="21" t="s">
         <v>1239</v>
-      </c>
-      <c r="B827" s="21" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="828" spans="1:4" ht="15">
       <c r="D828" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="15">
       <c r="D829" s="26" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="830" spans="1:4" ht="15">
       <c r="D830" s="26"/>
     </row>
     <row r="831" spans="1:4" ht="15">
-      <c r="A831" s="26" t="s">
+      <c r="A831" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B831" s="26" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="15">
+      <c r="D832" s="26" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="15">
+      <c r="D833" s="26" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="15">
+      <c r="D834" s="26" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="15">
+      <c r="D835" s="26"/>
+    </row>
+    <row r="836" spans="1:4" ht="15">
+      <c r="A836" s="26" t="s">
         <v>1221</v>
       </c>
-      <c r="B831" s="21" t="s">
+      <c r="B836" s="21" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="15">
-      <c r="B832" s="21" t="s">
+    <row r="837" spans="1:4" ht="15">
+      <c r="B837" s="21" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="835" spans="1:2" ht="15">
-      <c r="A835" s="26" t="s">
+    <row r="840" spans="1:4" ht="15">
+      <c r="A840" s="26" t="s">
         <v>1223</v>
       </c>
-      <c r="B835" s="21" t="s">
+      <c r="B840" s="21" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="836" spans="1:2">
-      <c r="B836" s="21" t="s">
+    <row r="841" spans="1:4">
+      <c r="B841" s="21" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="15">
-      <c r="A839" s="65" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B839" s="26" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" ht="15">
-      <c r="A840" s="65"/>
-      <c r="B840" s="26"/>
-    </row>
-    <row r="842" spans="1:2" ht="15">
-      <c r="A842" s="49" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B842" s="26" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" ht="15">
-      <c r="A845" s="49" t="s">
+    <row r="843" spans="1:4" ht="15">
+      <c r="A843" s="65" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B843" s="21" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="15">
+      <c r="A845" s="65"/>
+      <c r="B845" s="26"/>
+    </row>
+    <row r="846" spans="1:4" ht="15">
+      <c r="A846" s="49" t="s">
         <v>1231</v>
       </c>
-      <c r="B845" s="21" t="s">
+      <c r="B846" s="21" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="847" spans="1:2" ht="15">
-      <c r="A847" s="65" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B847" s="21" t="s">
-        <v>1234</v>
-      </c>
+    <row r="847" spans="1:4" ht="16.2" customHeight="1">
+      <c r="A847" s="49"/>
+    </row>
+    <row r="848" spans="1:4" ht="16.2" customHeight="1">
+      <c r="A848" s="49"/>
     </row>
     <row r="849" spans="1:2" ht="15">
       <c r="A849" s="65" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B849" s="26" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="15">
+      <c r="A853" s="65" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B853" s="26" t="s">
         <v>1237</v>
       </c>
-      <c r="B849" s="26" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" ht="15">
-      <c r="B851" s="21" t="s">
-        <v>1235</v>
+    </row>
+    <row r="856" spans="1:2" ht="15">
+      <c r="A856" s="21" t="s">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -30328,8 +30364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -30488,17 +30524,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.6" customHeight="1">
       <c r="C29" s="36" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.6" customHeight="1">
       <c r="C30" s="36" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -30948,200 +30984,200 @@
     </row>
     <row r="120" spans="2:3" ht="17.399999999999999">
       <c r="B120" s="10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="130" spans="2:9">
       <c r="C130" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="17.399999999999999">
       <c r="B133" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="134" spans="2:9">
       <c r="I134" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="C135" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I135" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C136" t="s">
         <v>1257</v>
       </c>
-      <c r="C136" t="s">
-        <v>1258</v>
-      </c>
       <c r="I136" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="C137" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D137" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I137" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="I138" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="C139" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I139" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="C141" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="C142" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="143" spans="2:9">
       <c r="C143" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="C144" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="C161" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="C163" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="C164" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="C165" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="C166" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="C167" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -31149,7 +31185,7 @@
         <v>14.1</v>
       </c>
       <c r="D168" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -31157,27 +31193,27 @@
         <v>14.2</v>
       </c>
       <c r="D169" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="C171" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="C172" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="C173" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="C174" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="175" spans="2:4">
@@ -31185,82 +31221,82 @@
         <v>14.3</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="D176" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="D177" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="C179" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="17.399999999999999">
       <c r="B181" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="C183" s="67" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="C184" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="D185" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="E186" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="D187" s="9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="D188" s="66" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="189" spans="2:5">
       <c r="D189" s="66" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="D190" s="66" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="191" spans="2:5">
       <c r="D191" s="66" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="D192" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="193" spans="3:5">
       <c r="E193" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="194" spans="3:5">
@@ -31268,97 +31304,97 @@
         <v>15.1</v>
       </c>
       <c r="E194" s="67" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="E196" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="D197" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="D199" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="200" spans="3:5">
       <c r="D200" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="201" spans="3:5">
       <c r="D201" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="202" spans="3:5">
       <c r="D202" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="203" spans="3:5">
       <c r="D203" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="204" spans="3:5">
       <c r="E204" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="206" spans="3:5">
       <c r="D206" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="207" spans="3:5">
       <c r="D207" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="208" spans="3:5">
       <c r="E208" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="209" spans="3:10">
       <c r="E209" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="210" spans="3:10">
       <c r="E210" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="211" spans="3:10">
       <c r="D211" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="212" spans="3:10">
       <c r="E212" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="213" spans="3:10">
       <c r="D213" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="214" spans="3:10">
@@ -31366,53 +31402,53 @@
         <v>15.2</v>
       </c>
       <c r="E214" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="217" spans="3:10">
       <c r="D217" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="218" spans="3:10">
       <c r="D218" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J218" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="219" spans="3:10">
       <c r="E219" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J219" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="220" spans="3:10">
       <c r="D220" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="221" spans="3:10">
       <c r="D221" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="222" spans="3:10">
       <c r="D222" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="223" spans="3:10">
       <c r="D223" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="224" spans="3:10">
       <c r="D224" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="225" spans="3:5">
@@ -31420,37 +31456,37 @@
         <v>15.3</v>
       </c>
       <c r="D225" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="226" spans="3:5">
       <c r="D226" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="227" spans="3:5">
       <c r="D227" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="228" spans="3:5">
       <c r="D228" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="229" spans="3:5">
       <c r="D229" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="230" spans="3:5">
       <c r="D230" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="231" spans="3:5">
       <c r="E231" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="234" spans="3:5">
@@ -31458,22 +31494,22 @@
         <v>15.4</v>
       </c>
       <c r="D234" s="67" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="235" spans="3:5">
       <c r="E235" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="236" spans="3:5">
       <c r="E236" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="237" spans="3:5">
       <c r="E237" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE276F-34F5-49AF-B8F4-144390C75955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E27B2-297E-4308-AD09-78611492E83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13487,10 +13487,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA856"/>
+  <dimension ref="A1:XFA857"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A826" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F838" sqref="F838"/>
+      <selection activeCell="D835" sqref="D835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30261,75 +30261,78 @@
       <c r="D835" s="26"/>
     </row>
     <row r="836" spans="1:4" ht="15">
-      <c r="A836" s="26" t="s">
+      <c r="D836" s="26"/>
+    </row>
+    <row r="837" spans="1:4" ht="15">
+      <c r="A837" s="26" t="s">
         <v>1221</v>
       </c>
-      <c r="B836" s="21" t="s">
+      <c r="B837" s="21" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="15">
-      <c r="B837" s="21" t="s">
+    <row r="838" spans="1:4" ht="15">
+      <c r="B838" s="21" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="15">
-      <c r="A840" s="26" t="s">
+    <row r="841" spans="1:4" ht="15">
+      <c r="A841" s="26" t="s">
         <v>1223</v>
       </c>
-      <c r="B840" s="21" t="s">
+      <c r="B841" s="21" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
-      <c r="B841" s="21" t="s">
+    <row r="842" spans="1:4">
+      <c r="B842" s="21" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="15">
-      <c r="A843" s="65" t="s">
+    <row r="844" spans="1:4" ht="15">
+      <c r="A844" s="65" t="s">
         <v>1233</v>
       </c>
-      <c r="B843" s="21" t="s">
+      <c r="B844" s="21" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="15">
-      <c r="A845" s="65"/>
-      <c r="B845" s="26"/>
-    </row>
     <row r="846" spans="1:4" ht="15">
-      <c r="A846" s="49" t="s">
+      <c r="A846" s="65"/>
+      <c r="B846" s="26"/>
+    </row>
+    <row r="847" spans="1:4" ht="15">
+      <c r="A847" s="49" t="s">
         <v>1231</v>
       </c>
-      <c r="B846" s="21" t="s">
+      <c r="B847" s="21" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="847" spans="1:4" ht="16.2" customHeight="1">
-      <c r="A847" s="49"/>
     </row>
     <row r="848" spans="1:4" ht="16.2" customHeight="1">
       <c r="A848" s="49"/>
     </row>
-    <row r="849" spans="1:2" ht="15">
-      <c r="A849" s="65" t="s">
+    <row r="849" spans="1:2" ht="16.2" customHeight="1">
+      <c r="A849" s="49"/>
+    </row>
+    <row r="850" spans="1:2" ht="15">
+      <c r="A850" s="65" t="s">
         <v>1227</v>
       </c>
-      <c r="B849" s="26" t="s">
+      <c r="B850" s="26" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="853" spans="1:2" ht="15">
-      <c r="A853" s="65" t="s">
+    <row r="854" spans="1:2" ht="15">
+      <c r="A854" s="65" t="s">
         <v>1236</v>
       </c>
-      <c r="B853" s="26" t="s">
+      <c r="B854" s="26" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="15">
-      <c r="A856" s="21" t="s">
+    <row r="857" spans="1:2" ht="15">
+      <c r="A857" s="21" t="s">
         <v>1330</v>
       </c>
     </row>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E27B2-297E-4308-AD09-78611492E83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="09书上未实现的代码记录" sheetId="9" r:id="rId5"/>
     <sheet name="mysql" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1336">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -10592,11 +10591,31 @@
     <t>比如FamilyInstance 类 有个属性 叫 FamilySymbol(是个类)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询时有方法语法和查询语法。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询语法与SQL很相似，微软推荐查询语法，但是有些运算符必须用方法语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="60">
     <font>
       <sz val="11"/>
@@ -11532,7 +11551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -11929,8 +11948,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="accesstoken=Q1QtY64Z6tHM9nq6gd+h" xr:uid="{4392B21F-FD64-4024-921D-12DF662914CA}"/>
-    <hyperlink ref="F27" r:id="rId2" xr:uid="{8E962E60-FFE0-4770-9105-30BE610DF842}"/>
+    <hyperlink ref="F5" r:id="rId1" location="accesstoken=Q1QtY64Z6tHM9nq6gd+h"/>
+    <hyperlink ref="F27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
@@ -11938,7 +11957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
@@ -13146,10 +13165,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{6261FA76-B032-41CA-A069-6D79FA838B23}"/>
-    <hyperlink ref="D98" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
-    <hyperlink ref="E163" r:id="rId3" xr:uid="{41D214AC-9138-4B79-BC6D-B94C3AB1461D}"/>
-    <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html" xr:uid="{719637DE-DC5B-4C59-9DAC-A444086903B3}"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="D98" r:id="rId2"/>
+    <hyperlink ref="E163" r:id="rId3"/>
+    <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId5"/>
@@ -13157,7 +13176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19A328-C3A2-44A6-ADFF-C9F20C374AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
@@ -13478,7 +13497,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{E67F3334-AB95-4307-BA6B-2EDD58DCCD63}"/>
+    <hyperlink ref="B25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
@@ -13486,11 +13505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:XFA857"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFA858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A826" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D835" sqref="D835"/>
+    <sheetView tabSelected="1" topLeftCell="A835" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J851" sqref="J851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30276,87 +30295,100 @@
         <v>1226</v>
       </c>
     </row>
+    <row r="840" spans="1:4" ht="15">
+      <c r="B840" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C840" s="21" t="s">
+        <v>1334</v>
+      </c>
+    </row>
     <row r="841" spans="1:4" ht="15">
-      <c r="A841" s="26" t="s">
+      <c r="D841" s="26" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="15">
+      <c r="A842" s="26" t="s">
         <v>1223</v>
       </c>
-      <c r="B841" s="21" t="s">
+      <c r="B842" s="21" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
-      <c r="B842" s="21" t="s">
+    <row r="843" spans="1:4">
+      <c r="B843" s="21" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="15">
-      <c r="A844" s="65" t="s">
+    <row r="845" spans="1:4" ht="15">
+      <c r="A845" s="65" t="s">
         <v>1233</v>
       </c>
-      <c r="B844" s="21" t="s">
+      <c r="B845" s="21" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="15">
-      <c r="A846" s="65"/>
-      <c r="B846" s="26"/>
-    </row>
     <row r="847" spans="1:4" ht="15">
-      <c r="A847" s="49" t="s">
+      <c r="A847" s="65"/>
+      <c r="B847" s="26"/>
+    </row>
+    <row r="848" spans="1:4" ht="15">
+      <c r="A848" s="49" t="s">
         <v>1231</v>
       </c>
-      <c r="B847" s="21" t="s">
+      <c r="B848" s="21" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="848" spans="1:4" ht="16.2" customHeight="1">
-      <c r="A848" s="49"/>
     </row>
     <row r="849" spans="1:2" ht="16.2" customHeight="1">
       <c r="A849" s="49"/>
     </row>
-    <row r="850" spans="1:2" ht="15">
-      <c r="A850" s="65" t="s">
+    <row r="850" spans="1:2" ht="16.2" customHeight="1">
+      <c r="A850" s="49"/>
+    </row>
+    <row r="851" spans="1:2" ht="15">
+      <c r="A851" s="65" t="s">
         <v>1227</v>
       </c>
-      <c r="B850" s="26" t="s">
+      <c r="B851" s="26" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="854" spans="1:2" ht="15">
-      <c r="A854" s="65" t="s">
+    <row r="855" spans="1:2" ht="15">
+      <c r="A855" s="65" t="s">
         <v>1236</v>
       </c>
-      <c r="B854" s="26" t="s">
+      <c r="B855" s="26" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="857" spans="1:2" ht="15">
-      <c r="A857" s="21" t="s">
+    <row r="858" spans="1:2" ht="15">
+      <c r="A858" s="21" t="s">
         <v>1330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{340CCFD2-0E14-48E2-88D3-1D550CA65E69}"/>
-    <hyperlink ref="D79" r:id="rId2" xr:uid="{661EC16D-F618-4203-B0A9-E3AB380FE4C4}"/>
-    <hyperlink ref="D190" r:id="rId3" xr:uid="{97FA210E-CD5E-4CDA-9B07-EC8855E301B0}"/>
-    <hyperlink ref="F195" r:id="rId4" xr:uid="{6929704B-2C9F-41DB-BAB7-FD609916B54B}"/>
-    <hyperlink ref="E170" r:id="rId5" xr:uid="{79955797-CA20-4910-ACC4-49651D62BA88}"/>
-    <hyperlink ref="H265" r:id="rId6" xr:uid="{BAF1B10F-3EFB-45B0-B616-DF5F46BFFDB0}"/>
-    <hyperlink ref="E304" r:id="rId7" xr:uid="{62B8A57C-CBE1-428C-8ED5-FBA783A3F9B3}"/>
-    <hyperlink ref="I325" r:id="rId8" xr:uid="{91CEB752-E05B-4738-B0C8-4A4574EDDBFF}"/>
-    <hyperlink ref="J326" r:id="rId9" xr:uid="{BD19DC66-9BB1-4716-9D57-DCB9F25F1C24}"/>
-    <hyperlink ref="L335" r:id="rId10" xr:uid="{E33F1820-BB0E-462A-98D6-8F2B6EBC066F}"/>
-    <hyperlink ref="K421" r:id="rId11" xr:uid="{A039A165-4656-4F5F-BA8C-B28D7F6F657C}"/>
-    <hyperlink ref="I545" r:id="rId12" xr:uid="{1BAC33C4-354A-4A8C-B7B3-70FD57DF2B02}"/>
-    <hyperlink ref="I590" r:id="rId13" xr:uid="{B6F16807-CD8E-4715-AF98-53C1A85533C1}"/>
-    <hyperlink ref="I751" r:id="rId14" xr:uid="{767CE1DF-DDE0-45B5-9A09-13273AB155D2}"/>
-    <hyperlink ref="E795" r:id="rId15" xr:uid="{76DF85EC-CF83-4F2F-A89B-B65FE6CD8B76}"/>
-    <hyperlink ref="E801" r:id="rId16" xr:uid="{514AF97D-6B1E-47B8-BCCA-79589CDDC92B}"/>
-    <hyperlink ref="C818" r:id="rId17" xr:uid="{EA196E6F-0AA8-41A8-A3A3-F29DD4798341}"/>
-    <hyperlink ref="D822" r:id="rId18" xr:uid="{602EED3B-A7E8-46D6-90E0-A94E0FFCEFB0}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D79" r:id="rId2"/>
+    <hyperlink ref="D190" r:id="rId3"/>
+    <hyperlink ref="F195" r:id="rId4"/>
+    <hyperlink ref="E170" r:id="rId5"/>
+    <hyperlink ref="H265" r:id="rId6"/>
+    <hyperlink ref="E304" r:id="rId7"/>
+    <hyperlink ref="I325" r:id="rId8"/>
+    <hyperlink ref="J326" r:id="rId9"/>
+    <hyperlink ref="L335" r:id="rId10"/>
+    <hyperlink ref="K421" r:id="rId11"/>
+    <hyperlink ref="I545" r:id="rId12"/>
+    <hyperlink ref="I590" r:id="rId13"/>
+    <hyperlink ref="I751" r:id="rId14"/>
+    <hyperlink ref="E795" r:id="rId15"/>
+    <hyperlink ref="E801" r:id="rId16"/>
+    <hyperlink ref="C818" r:id="rId17"/>
+    <hyperlink ref="D822" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId19"/>
@@ -30364,7 +30396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647C312-2986-42B2-996D-D32B368050B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -30543,8 +30575,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{7721C235-A01C-4034-A319-0F3AF5D51834}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{23874299-DB37-4D07-83D1-22A7156C9408}"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
@@ -30552,7 +30584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D69F4-4675-4276-B27D-571613BDA7B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J237"/>
   <sheetViews>
     <sheetView topLeftCell="A216" workbookViewId="0">
@@ -31518,7 +31550,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{8D11B604-9F3B-480C-9DF1-DE2757677B29}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -20,22 +20,17 @@
     <sheet name="mysql" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1420">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -9979,18 +9974,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习专题4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>LINQ</t>
     </r>
@@ -10609,6 +10592,405 @@
   </si>
   <si>
     <t>查询语法与SQL很相似，微软推荐查询语法，但是有些运算符必须用方法语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图解》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>From</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建的时候不执行，创建的是一段可以执行查询功能的代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询的顺序不保证，仅保证集合的子项都被访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from let where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询中的匿名类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group子句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>into语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6.1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准查询运算符的签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准查询运算符</t>
+  </si>
+  <si>
+    <t>很多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectMany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeWhile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipWhile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBy/ThenBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsEnumerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将序列作为数组返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将序列作为List&lt;T&gt;返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将序列作为Dictionary&lt;Tkey,Telement&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToLookup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将徐磊作为LookUp&lt;Tkey,Elelemtn&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleOrDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAtDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展方法直接调用和扩展语法调用时完全相等的，除了语法不通， 如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var count1 =Enumerate.Count(intArray）； //方法语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var count1 =inArray.Count()； //扩展语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询表达式和查询运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将委托作为参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINQ预定义的委托类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10616,7 +10998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="60">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11033,6 +11415,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11088,7 +11485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11203,6 +11600,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13506,10 +13908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA858"/>
+  <dimension ref="A1:XFA943"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J851" sqref="J851"/>
+    <sheetView tabSelected="1" topLeftCell="A906" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I923" sqref="I923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30218,7 +30620,7 @@
         <v>1217</v>
       </c>
       <c r="D822" s="8" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="15">
@@ -30234,20 +30636,20 @@
     </row>
     <row r="827" spans="1:4" ht="15">
       <c r="A827" s="47" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B827" s="21" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="828" spans="1:4" ht="15">
       <c r="D828" s="21" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="15">
       <c r="D829" s="26" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="830" spans="1:4" ht="15">
@@ -30255,25 +30657,25 @@
     </row>
     <row r="831" spans="1:4" ht="15">
       <c r="A831" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B831" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="15">
       <c r="D832" s="26" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="833" spans="1:4" ht="15">
       <c r="D833" s="26" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="834" spans="1:4" ht="15">
       <c r="D834" s="26" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="835" spans="1:4" ht="15">
@@ -30289,10 +30691,13 @@
       <c r="B837" s="21" t="s">
         <v>1222</v>
       </c>
+      <c r="D837" s="21" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="838" spans="1:4" ht="15">
       <c r="B838" s="21" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="840" spans="1:4" ht="15">
@@ -30300,72 +30705,750 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C840" s="21" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="841" spans="1:4" ht="15">
       <c r="D841" s="26" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="15">
+      <c r="D842" s="26"/>
+    </row>
+    <row r="843" spans="1:4" ht="15">
+      <c r="B843" s="21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C843" s="21" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="842" spans="1:4" ht="15">
-      <c r="A842" s="26" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B842" s="21" t="s">
+      <c r="D843" s="26"/>
+    </row>
+    <row r="844" spans="1:4" ht="15">
+      <c r="D844" s="26" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="15">
+      <c r="D845" s="26" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="15">
+      <c r="D846" s="26"/>
+    </row>
+    <row r="847" spans="1:4" ht="15">
+      <c r="B847" s="21" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C847" s="21" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D847" s="26"/>
+    </row>
+    <row r="848" spans="1:4" ht="15">
+      <c r="D848" s="26" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="849" spans="2:5" ht="15">
+      <c r="D849" s="26"/>
+    </row>
+    <row r="850" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B850" s="21" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C850" s="26" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D850" s="26" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="851" spans="2:5" ht="14.4" customHeight="1">
+      <c r="C851" s="26"/>
+      <c r="D851" s="26"/>
+    </row>
+    <row r="852" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B852" s="21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C852" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D852" s="26"/>
+    </row>
+    <row r="853" spans="2:5" ht="14.4" customHeight="1">
+      <c r="C853" s="26"/>
+      <c r="D853" s="26"/>
+    </row>
+    <row r="854" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B854" s="21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C854" s="26" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D854" s="26"/>
+    </row>
+    <row r="855" spans="2:5" ht="14.4" customHeight="1">
+      <c r="C855" s="26"/>
+      <c r="D855" s="26"/>
+    </row>
+    <row r="856" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B856" s="21" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C856" s="26" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D856" s="26"/>
+    </row>
+    <row r="857" spans="2:5" ht="14.4" customHeight="1">
+      <c r="C857" s="26"/>
+      <c r="D857" s="26"/>
+    </row>
+    <row r="858" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B858" s="21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C858" s="26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D858" s="26"/>
+    </row>
+    <row r="859" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B859" s="21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C859" s="26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D859" s="26"/>
+    </row>
+    <row r="860" spans="2:5" ht="14.4" customHeight="1">
+      <c r="C860" s="26"/>
+      <c r="D860" s="26"/>
+    </row>
+    <row r="861" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B861" s="21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C861" s="26" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D861" s="26"/>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" customHeight="1">
+      <c r="C862" s="26"/>
+      <c r="D862" s="26"/>
+    </row>
+    <row r="863" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B863" s="68">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C863" s="26" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D863" s="26"/>
+      <c r="E863" s="26" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="864" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B864" s="68"/>
+    </row>
+    <row r="865" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B865" s="68"/>
+      <c r="C865" s="26" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D865" s="26"/>
+    </row>
+    <row r="866" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B866" s="68"/>
+      <c r="C866" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D866" s="26"/>
+    </row>
+    <row r="867" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B867" s="68"/>
+      <c r="C867" s="21" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D867" s="26"/>
+    </row>
+    <row r="868" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B868" s="68"/>
+      <c r="C868" s="21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D868" s="26"/>
+    </row>
+    <row r="869" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B869" s="68"/>
+      <c r="C869" s="21" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D869" s="26"/>
+    </row>
+    <row r="870" spans="2:4" ht="14.4" customHeight="1">
+      <c r="C870" s="21" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D870" s="26"/>
+    </row>
+    <row r="871" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B871" s="68"/>
+      <c r="C871" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D871" s="26"/>
+    </row>
+    <row r="872" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B872" s="68"/>
+      <c r="C872" s="26" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D872" s="26"/>
+    </row>
+    <row r="873" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B873" s="68"/>
+      <c r="C873" s="26" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D873" s="26"/>
+    </row>
+    <row r="874" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B874" s="68"/>
+      <c r="C874" s="26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D874" s="26"/>
+    </row>
+    <row r="875" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B875" s="68"/>
+      <c r="C875" s="26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D875" s="26"/>
+    </row>
+    <row r="876" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B876" s="68"/>
+      <c r="C876" s="26" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D876" s="26"/>
+    </row>
+    <row r="877" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B877" s="68"/>
+      <c r="C877" s="26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D877" s="26"/>
+    </row>
+    <row r="878" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B878" s="68"/>
+      <c r="C878" s="26" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D878" s="26"/>
+    </row>
+    <row r="879" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B879" s="68"/>
+      <c r="C879" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D879" s="26"/>
+    </row>
+    <row r="880" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B880" s="68"/>
+      <c r="C880" s="26" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D880" s="26"/>
+    </row>
+    <row r="881" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B881" s="68"/>
+      <c r="C881" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D881" s="26"/>
+    </row>
+    <row r="882" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B882" s="68"/>
+      <c r="C882" s="26" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D882" s="26"/>
+    </row>
+    <row r="883" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B883" s="68"/>
+      <c r="C883" s="26" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D883" s="26" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M883" s="21" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="884" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B884" s="68"/>
+      <c r="C884" s="26" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D884" s="26" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="885" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B885" s="68"/>
+      <c r="C885" s="26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D885" s="26"/>
+      <c r="E885" s="26" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="886" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B886" s="68"/>
+      <c r="C886" s="26" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D886" s="26" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="887" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B887" s="68"/>
+      <c r="C887" s="26" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D887" s="26"/>
+    </row>
+    <row r="888" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B888" s="68"/>
+      <c r="C888" s="26" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D888" s="26"/>
+    </row>
+    <row r="889" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B889" s="68"/>
+      <c r="C889" s="26" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D889" s="26"/>
+    </row>
+    <row r="890" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B890" s="68"/>
+      <c r="C890" s="26" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D890" s="26"/>
+    </row>
+    <row r="891" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B891" s="68"/>
+      <c r="C891" s="26" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D891" s="26"/>
+    </row>
+    <row r="892" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B892" s="68"/>
+      <c r="C892" s="26" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D892" s="26"/>
+    </row>
+    <row r="893" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B893" s="68"/>
+      <c r="C893" s="26" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D893" s="26"/>
+    </row>
+    <row r="894" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B894" s="68"/>
+      <c r="C894" s="26" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D894" s="26"/>
+    </row>
+    <row r="895" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B895" s="68"/>
+      <c r="C895" s="26" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D895" s="26"/>
+    </row>
+    <row r="896" spans="2:13" ht="14.4" customHeight="1">
+      <c r="B896" s="68"/>
+      <c r="C896" s="26" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D896" s="26"/>
+    </row>
+    <row r="897" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B897" s="68"/>
+      <c r="C897" s="26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D897" s="26"/>
+    </row>
+    <row r="898" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B898" s="68"/>
+      <c r="C898" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D898" s="26"/>
+    </row>
+    <row r="899" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B899" s="68"/>
+      <c r="C899" s="26" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D899" s="26"/>
+    </row>
+    <row r="900" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B900" s="68"/>
+      <c r="C900" s="26" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D900" s="26"/>
+    </row>
+    <row r="901" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B901" s="68"/>
+      <c r="C901" s="26" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D901" s="26"/>
+    </row>
+    <row r="902" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B902" s="68"/>
+      <c r="C902" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D902" s="26"/>
+    </row>
+    <row r="903" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B903" s="68"/>
+      <c r="C903" s="26" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D903" s="26"/>
+    </row>
+    <row r="904" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B904" s="68"/>
+      <c r="C904" s="26" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D904" s="26"/>
+    </row>
+    <row r="905" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B905" s="68"/>
+      <c r="C905" s="26" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D905" s="26"/>
+    </row>
+    <row r="906" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B906" s="68"/>
+      <c r="C906" s="26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D906" s="26"/>
+    </row>
+    <row r="907" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B907" s="68"/>
+      <c r="C907" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D907" s="26"/>
+    </row>
+    <row r="908" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B908" s="68"/>
+      <c r="C908" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D908" s="26"/>
+    </row>
+    <row r="909" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B909" s="68"/>
+      <c r="C909" s="26" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D909" s="26"/>
+    </row>
+    <row r="910" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B910" s="68"/>
+      <c r="C910" s="26" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D910" s="26"/>
+    </row>
+    <row r="911" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B911" s="68"/>
+      <c r="C911" s="26"/>
+      <c r="D911" s="26"/>
+    </row>
+    <row r="912" spans="2:4" ht="14.4" customHeight="1">
+      <c r="C912" s="26"/>
+      <c r="D912" s="26"/>
+    </row>
+    <row r="913" spans="1:12" ht="14.4" customHeight="1">
+      <c r="B913" s="21" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C913" s="69" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D913" s="69"/>
+      <c r="E913" s="70"/>
+      <c r="F913" s="70"/>
+      <c r="G913" s="70"/>
+      <c r="H913" s="70"/>
+    </row>
+    <row r="914" spans="1:12" ht="14.4" customHeight="1">
+      <c r="C914" s="69"/>
+      <c r="D914" s="69" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E914" s="70"/>
+      <c r="F914" s="70"/>
+      <c r="G914" s="70"/>
+      <c r="H914" s="70"/>
+    </row>
+    <row r="915" spans="1:12" ht="14.4" customHeight="1">
+      <c r="C915" s="69"/>
+      <c r="D915" s="69" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E915" s="70"/>
+      <c r="F915" s="70"/>
+      <c r="G915" s="70"/>
+      <c r="H915" s="70"/>
+    </row>
+    <row r="916" spans="1:12" ht="15">
+      <c r="C916" s="70"/>
+      <c r="D916" s="69" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E916" s="70"/>
+      <c r="F916" s="70"/>
+      <c r="G916" s="70"/>
+      <c r="H916" s="70"/>
+    </row>
+    <row r="917" spans="1:12" ht="15">
+      <c r="C917" s="70"/>
+      <c r="D917" s="69"/>
+      <c r="E917" s="70"/>
+      <c r="F917" s="70"/>
+      <c r="G917" s="70"/>
+      <c r="H917" s="70"/>
+    </row>
+    <row r="918" spans="1:12" ht="15">
+      <c r="A918" s="26"/>
+      <c r="B918" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C918" s="26" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D918" s="26"/>
+      <c r="E918" s="26"/>
+      <c r="F918" s="26"/>
+      <c r="G918" s="26"/>
+      <c r="H918" s="26"/>
+      <c r="I918" s="26"/>
+      <c r="J918" s="26"/>
+      <c r="K918" s="26"/>
+      <c r="L918" s="26"/>
+    </row>
+    <row r="919" spans="1:12" ht="15">
+      <c r="A919" s="26"/>
+      <c r="B919" s="26"/>
+      <c r="C919" s="26"/>
+      <c r="D919" s="26"/>
+      <c r="E919" s="26"/>
+      <c r="F919" s="26"/>
+      <c r="G919" s="26"/>
+      <c r="H919" s="26"/>
+      <c r="I919" s="26"/>
+      <c r="J919" s="26"/>
+      <c r="K919" s="26"/>
+      <c r="L919" s="26"/>
+    </row>
+    <row r="920" spans="1:12" ht="15">
+      <c r="A920" s="26"/>
+      <c r="B920" s="26" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C920" s="26" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D920" s="26"/>
+      <c r="E920" s="26"/>
+      <c r="F920" s="26"/>
+      <c r="G920" s="26"/>
+      <c r="H920" s="26"/>
+      <c r="I920" s="26"/>
+      <c r="J920" s="26"/>
+      <c r="K920" s="26"/>
+      <c r="L920" s="26"/>
+    </row>
+    <row r="921" spans="1:12" ht="15">
+      <c r="A921" s="26"/>
+      <c r="B921" s="26"/>
+      <c r="C921" s="26"/>
+      <c r="D921" s="26"/>
+      <c r="E921" s="26"/>
+      <c r="F921" s="26"/>
+      <c r="G921" s="26"/>
+      <c r="H921" s="26"/>
+      <c r="I921" s="26"/>
+      <c r="J921" s="26"/>
+      <c r="K921" s="26"/>
+      <c r="L921" s="26"/>
+    </row>
+    <row r="922" spans="1:12" ht="15">
+      <c r="A922" s="26"/>
+      <c r="B922" s="26" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C922" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D922" s="26"/>
+      <c r="E922" s="26"/>
+      <c r="F922" s="26"/>
+      <c r="G922" s="26"/>
+      <c r="H922" s="26"/>
+      <c r="I922" s="26"/>
+      <c r="J922" s="26"/>
+      <c r="K922" s="26"/>
+      <c r="L922" s="26"/>
+    </row>
+    <row r="923" spans="1:12" ht="15">
+      <c r="A923" s="26"/>
+      <c r="B923" s="26"/>
+      <c r="C923" s="26"/>
+      <c r="D923" s="26"/>
+      <c r="E923" s="26"/>
+      <c r="F923" s="26"/>
+      <c r="G923" s="26"/>
+      <c r="H923" s="26"/>
+      <c r="I923" s="26"/>
+      <c r="J923" s="26"/>
+      <c r="K923" s="26"/>
+      <c r="L923" s="26"/>
+    </row>
+    <row r="924" spans="1:12" ht="15">
+      <c r="A924" s="26"/>
+      <c r="B924" s="26"/>
+      <c r="C924" s="26"/>
+      <c r="D924" s="26"/>
+      <c r="E924" s="26"/>
+      <c r="F924" s="26"/>
+      <c r="G924" s="26"/>
+      <c r="H924" s="26"/>
+      <c r="I924" s="26"/>
+      <c r="J924" s="26"/>
+      <c r="K924" s="26"/>
+      <c r="L924" s="26"/>
+    </row>
+    <row r="925" spans="1:12" ht="15">
+      <c r="A925" s="26"/>
+      <c r="B925" s="26"/>
+      <c r="C925" s="26"/>
+      <c r="D925" s="26"/>
+      <c r="E925" s="26"/>
+      <c r="F925" s="26"/>
+      <c r="G925" s="26"/>
+      <c r="H925" s="26"/>
+      <c r="I925" s="26"/>
+      <c r="J925" s="26"/>
+      <c r="K925" s="26"/>
+      <c r="L925" s="26"/>
+    </row>
+    <row r="926" spans="1:12" ht="15">
+      <c r="A926" s="26"/>
+      <c r="B926" s="26"/>
+      <c r="C926" s="26"/>
+      <c r="D926" s="26"/>
+      <c r="E926" s="26"/>
+      <c r="F926" s="26"/>
+      <c r="G926" s="26"/>
+      <c r="H926" s="26"/>
+      <c r="I926" s="26"/>
+      <c r="J926" s="26"/>
+      <c r="K926" s="26"/>
+      <c r="L926" s="26"/>
+    </row>
+    <row r="927" spans="1:12" ht="15">
+      <c r="A927" s="26"/>
+      <c r="B927" s="26"/>
+      <c r="C927" s="26"/>
+      <c r="D927" s="26"/>
+      <c r="E927" s="26"/>
+      <c r="F927" s="26"/>
+      <c r="G927" s="26"/>
+      <c r="H927" s="26"/>
+      <c r="I927" s="26"/>
+      <c r="J927" s="26"/>
+      <c r="K927" s="26"/>
+      <c r="L927" s="26"/>
+    </row>
+    <row r="930" spans="1:2" ht="15">
+      <c r="A930" s="65" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B930" s="21" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" ht="15">
+      <c r="A932" s="65"/>
+      <c r="B932" s="26"/>
+    </row>
+    <row r="933" spans="1:2" ht="15">
+      <c r="A933" s="49" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B933" s="21" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" ht="16.2" customHeight="1">
+      <c r="A934" s="49"/>
+    </row>
+    <row r="935" spans="1:2" ht="16.2" customHeight="1">
+      <c r="A935" s="49"/>
+    </row>
+    <row r="936" spans="1:2" ht="15">
+      <c r="A936" s="65" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="843" spans="1:4">
-      <c r="B843" s="21" t="s">
+      <c r="B936" s="26" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="15">
-      <c r="A845" s="65" t="s">
+    <row r="940" spans="1:2" ht="15">
+      <c r="A940" s="65" t="s">
         <v>1233</v>
       </c>
-      <c r="B845" s="21" t="s">
+      <c r="B940" s="26" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="15">
-      <c r="A847" s="65"/>
-      <c r="B847" s="26"/>
-    </row>
-    <row r="848" spans="1:4" ht="15">
-      <c r="A848" s="49" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B848" s="21" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" ht="16.2" customHeight="1">
-      <c r="A849" s="49"/>
-    </row>
-    <row r="850" spans="1:2" ht="16.2" customHeight="1">
-      <c r="A850" s="49"/>
-    </row>
-    <row r="851" spans="1:2" ht="15">
-      <c r="A851" s="65" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B851" s="26" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" ht="15">
-      <c r="A855" s="65" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B855" s="26" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="15">
-      <c r="A858" s="21" t="s">
-        <v>1330</v>
+    <row r="943" spans="1:2" ht="15">
+      <c r="A943" s="21" t="s">
+        <v>1327</v>
       </c>
     </row>
   </sheetData>
@@ -30559,17 +31642,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.6" customHeight="1">
       <c r="C29" s="36" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.6" customHeight="1">
       <c r="C30" s="36" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -31019,200 +32102,200 @@
     </row>
     <row r="120" spans="2:3" ht="17.399999999999999">
       <c r="B120" s="10" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="130" spans="2:9">
       <c r="C130" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="17.399999999999999">
       <c r="B133" s="10" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="134" spans="2:9">
       <c r="I134" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="C135" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I135" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C136" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I136" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="C137" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D137" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I137" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="I138" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="C139" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I139" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="C141" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="C142" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="143" spans="2:9">
       <c r="C143" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="C144" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="C161" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="C163" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="C164" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="C165" s="9" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="C166" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="C167" s="9" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -31220,7 +32303,7 @@
         <v>14.1</v>
       </c>
       <c r="D168" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -31228,27 +32311,27 @@
         <v>14.2</v>
       </c>
       <c r="D169" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="C171" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="C172" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="C173" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="C174" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="175" spans="2:4">
@@ -31256,82 +32339,82 @@
         <v>14.3</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="D176" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="D177" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="C179" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="17.399999999999999">
       <c r="B181" s="10" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="C183" s="67" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="C184" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="D185" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="E186" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="D187" s="9" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="D188" s="66" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="189" spans="2:5">
       <c r="D189" s="66" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="D190" s="66" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="191" spans="2:5">
       <c r="D191" s="66" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="D192" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="193" spans="3:5">
       <c r="E193" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="194" spans="3:5">
@@ -31339,97 +32422,97 @@
         <v>15.1</v>
       </c>
       <c r="E194" s="67" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="E196" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="D197" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="D199" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="200" spans="3:5">
       <c r="D200" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="201" spans="3:5">
       <c r="D201" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="202" spans="3:5">
       <c r="D202" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="203" spans="3:5">
       <c r="D203" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="204" spans="3:5">
       <c r="E204" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="206" spans="3:5">
       <c r="D206" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="207" spans="3:5">
       <c r="D207" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="208" spans="3:5">
       <c r="E208" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="209" spans="3:10">
       <c r="E209" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="210" spans="3:10">
       <c r="E210" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="211" spans="3:10">
       <c r="D211" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="212" spans="3:10">
       <c r="E212" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="213" spans="3:10">
       <c r="D213" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="214" spans="3:10">
@@ -31437,53 +32520,53 @@
         <v>15.2</v>
       </c>
       <c r="E214" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="217" spans="3:10">
       <c r="D217" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="218" spans="3:10">
       <c r="D218" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="J218" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="219" spans="3:10">
       <c r="E219" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="J219" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="220" spans="3:10">
       <c r="D220" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="221" spans="3:10">
       <c r="D221" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="222" spans="3:10">
       <c r="D222" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="223" spans="3:10">
       <c r="D223" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="224" spans="3:10">
       <c r="D224" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="225" spans="3:5">
@@ -31491,37 +32574,37 @@
         <v>15.3</v>
       </c>
       <c r="D225" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="226" spans="3:5">
       <c r="D226" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="227" spans="3:5">
       <c r="D227" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="228" spans="3:5">
       <c r="D228" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="229" spans="3:5">
       <c r="D229" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="230" spans="3:5">
       <c r="D230" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="231" spans="3:5">
       <c r="E231" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="234" spans="3:5">
@@ -31529,22 +32612,22 @@
         <v>15.4</v>
       </c>
       <c r="D234" s="67" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="235" spans="3:5">
       <c r="E235" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="236" spans="3:5">
       <c r="E236" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="237" spans="3:5">
       <c r="E237" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2B3F9-EE02-45A0-90FF-D9E01D0EF702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="796" activeTab="3"/>
+    <workbookView xWindow="-8064" yWindow="972" windowWidth="16512" windowHeight="9420" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,6 @@
     <sheet name="mysql" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1424">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -10993,11 +10993,27 @@
     <t>LINQ预定义的委托类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>19.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.6.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Lamda表达式的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="62">
     <font>
       <sz val="11"/>
@@ -11699,7 +11715,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11953,7 +11969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12350,8 +12366,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="accesstoken=Q1QtY64Z6tHM9nq6gd+h"/>
-    <hyperlink ref="F27" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId1" location="accesstoken=Q1QtY64Z6tHM9nq6gd+h" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
@@ -12359,7 +12375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
@@ -13567,10 +13583,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="D98" r:id="rId2"/>
-    <hyperlink ref="E163" r:id="rId3"/>
-    <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D98" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E163" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId5"/>
@@ -13578,10 +13594,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -13899,7 +13915,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
@@ -13907,11 +13923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA943"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:XFA940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A906" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I923" sqref="I923"/>
+    <sheetView topLeftCell="A912" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F926" sqref="F926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31336,8 +31352,12 @@
     </row>
     <row r="923" spans="1:12" ht="15">
       <c r="A923" s="26"/>
-      <c r="B923" s="26"/>
-      <c r="C923" s="26"/>
+      <c r="B923" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C923" s="26" t="s">
+        <v>1421</v>
+      </c>
       <c r="D923" s="26"/>
       <c r="E923" s="26"/>
       <c r="F923" s="26"/>
@@ -31350,8 +31370,12 @@
     </row>
     <row r="924" spans="1:12" ht="15">
       <c r="A924" s="26"/>
-      <c r="B924" s="26"/>
-      <c r="C924" s="26"/>
+      <c r="B924" s="26" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C924" s="26" t="s">
+        <v>1423</v>
+      </c>
       <c r="D924" s="26"/>
       <c r="E924" s="26"/>
       <c r="F924" s="26"/>
@@ -31362,116 +31386,74 @@
       <c r="K924" s="26"/>
       <c r="L924" s="26"/>
     </row>
-    <row r="925" spans="1:12" ht="15">
-      <c r="A925" s="26"/>
-      <c r="B925" s="26"/>
-      <c r="C925" s="26"/>
-      <c r="D925" s="26"/>
-      <c r="E925" s="26"/>
-      <c r="F925" s="26"/>
-      <c r="G925" s="26"/>
-      <c r="H925" s="26"/>
-      <c r="I925" s="26"/>
-      <c r="J925" s="26"/>
-      <c r="K925" s="26"/>
-      <c r="L925" s="26"/>
-    </row>
-    <row r="926" spans="1:12" ht="15">
-      <c r="A926" s="26"/>
-      <c r="B926" s="26"/>
-      <c r="C926" s="26"/>
-      <c r="D926" s="26"/>
-      <c r="E926" s="26"/>
-      <c r="F926" s="26"/>
-      <c r="G926" s="26"/>
-      <c r="H926" s="26"/>
-      <c r="I926" s="26"/>
-      <c r="J926" s="26"/>
-      <c r="K926" s="26"/>
-      <c r="L926" s="26"/>
-    </row>
     <row r="927" spans="1:12" ht="15">
-      <c r="A927" s="26"/>
-      <c r="B927" s="26"/>
-      <c r="C927" s="26"/>
-      <c r="D927" s="26"/>
-      <c r="E927" s="26"/>
-      <c r="F927" s="26"/>
-      <c r="G927" s="26"/>
-      <c r="H927" s="26"/>
-      <c r="I927" s="26"/>
-      <c r="J927" s="26"/>
-      <c r="K927" s="26"/>
-      <c r="L927" s="26"/>
+      <c r="A927" s="65" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B927" s="21" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" ht="15">
+      <c r="A929" s="65"/>
+      <c r="B929" s="26"/>
     </row>
     <row r="930" spans="1:2" ht="15">
-      <c r="A930" s="65" t="s">
-        <v>1230</v>
+      <c r="A930" s="49" t="s">
+        <v>1228</v>
       </c>
       <c r="B930" s="21" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" ht="15">
-      <c r="A932" s="65"/>
-      <c r="B932" s="26"/>
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" ht="16.2" customHeight="1">
+      <c r="A931" s="49"/>
+    </row>
+    <row r="932" spans="1:2" ht="16.2" customHeight="1">
+      <c r="A932" s="49"/>
     </row>
     <row r="933" spans="1:2" ht="15">
-      <c r="A933" s="49" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B933" s="21" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2" ht="16.2" customHeight="1">
-      <c r="A934" s="49"/>
-    </row>
-    <row r="935" spans="1:2" ht="16.2" customHeight="1">
-      <c r="A935" s="49"/>
-    </row>
-    <row r="936" spans="1:2" ht="15">
-      <c r="A936" s="65" t="s">
+      <c r="A933" s="65" t="s">
         <v>1224</v>
       </c>
-      <c r="B936" s="26" t="s">
+      <c r="B933" s="26" t="s">
         <v>1225</v>
       </c>
     </row>
+    <row r="937" spans="1:2" ht="15">
+      <c r="A937" s="65" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B937" s="26" t="s">
+        <v>1234</v>
+      </c>
+    </row>
     <row r="940" spans="1:2" ht="15">
-      <c r="A940" s="65" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B940" s="26" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" ht="15">
-      <c r="A943" s="21" t="s">
+      <c r="A940" s="21" t="s">
         <v>1327</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D79" r:id="rId2"/>
-    <hyperlink ref="D190" r:id="rId3"/>
-    <hyperlink ref="F195" r:id="rId4"/>
-    <hyperlink ref="E170" r:id="rId5"/>
-    <hyperlink ref="H265" r:id="rId6"/>
-    <hyperlink ref="E304" r:id="rId7"/>
-    <hyperlink ref="I325" r:id="rId8"/>
-    <hyperlink ref="J326" r:id="rId9"/>
-    <hyperlink ref="L335" r:id="rId10"/>
-    <hyperlink ref="K421" r:id="rId11"/>
-    <hyperlink ref="I545" r:id="rId12"/>
-    <hyperlink ref="I590" r:id="rId13"/>
-    <hyperlink ref="I751" r:id="rId14"/>
-    <hyperlink ref="E795" r:id="rId15"/>
-    <hyperlink ref="E801" r:id="rId16"/>
-    <hyperlink ref="C818" r:id="rId17"/>
-    <hyperlink ref="D822" r:id="rId18"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D79" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D190" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F195" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E170" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H265" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E304" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="I325" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="J326" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="L335" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="K421" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="I545" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="I590" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="I751" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="E795" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="E801" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C818" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="D822" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId19"/>
@@ -31479,7 +31461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -31658,8 +31640,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
@@ -31667,7 +31649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J237"/>
   <sheetViews>
     <sheetView topLeftCell="A216" workbookViewId="0">
@@ -32633,7 +32615,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2B3F9-EE02-45A0-90FF-D9E01D0EF702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E5F70-4D74-4C2F-9EFF-B2EBF3DC4EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8064" yWindow="972" windowWidth="16512" windowHeight="9420" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1425">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -11007,6 +11007,10 @@
   </si>
   <si>
     <t>使用Lamda表达式的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd_CutFloorWithLine&lt;tangsengjiewa&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13597,7 +13601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -31462,10 +31466,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:D30"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -31635,6 +31639,14 @@
     <row r="30" spans="1:3" ht="27.6" customHeight="1">
       <c r="C30" s="36" t="s">
         <v>1326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27.6" customHeight="1">
+      <c r="A32" s="36">
+        <v>9</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>1424</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E5F70-4D74-4C2F-9EFF-B2EBF3DC4EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA76CFB-08C3-4D57-BF76-516BA6BC6279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1451">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -6664,202 +6664,6 @@
   </si>
   <si>
     <t>$符号的作用相当于对String.format()的简化</t>
-  </si>
-  <si>
-    <r>
-      <t>?? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空合并运算符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>, a??b ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回右边的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>b;a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>;??</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运算顺序从右到左</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t> a??b??c =a??(b??c)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11013,12 +10817,1415 @@
     <t>Cmd_CutFloorWithLine&lt;tangsengjiewa&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>?? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空合并运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a??b ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回右边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>b;a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>;??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算顺序从右到左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> a??b??c =a??(b??c)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Ref Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>In:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程不会改写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>In</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>out:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入的值不会被过程所读取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但过程可以写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程会读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也会写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式的是默认的传递方式，即向函数内部传送值，这里不作讲解</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文地址:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常我们向方法中传递的是值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法获得的是这些值的一个拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后使用这些拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当方法运行完毕后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这些拷贝将被丢弃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而原来的值不将受到影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此外我们还有其他向方法传递参数的形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ref)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(out).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们需要改变原来变量中的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们可以向方法传递变量的引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而不是变量的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>引用是一个变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他可以访问原来变量的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改引用将修改原来变量的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>变量的值存储在内存中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以创建一个引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他指向变量在内存中的位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当引用被修改时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改的是内存中的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因此变量的值可以将被修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当我们调用一个含有引用参数的方法时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法中的参数将指向被传递给方法的相应变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们会明白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么当修改参数变量的修改也将导致原来变量的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过指定返回类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以从方法返回一个值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也许还没遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是我们应该有这么个方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需要返回多个值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虽然我们可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专门提供了一个属性类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键字为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>out.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍完后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们将说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的区别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过使用out关键字,我们改变了三个变量的值,也就是说out是从方法中传出值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref和out的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们发现,ref和out似乎可以实现相同的功能.因为都可以改变传递到方法中的变量的值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是,二者本质本质的区别就是,ref是传入值,out是传出值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在含有out关键字的方法中,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>变量必须由方法参数中不含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>out(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的变量赋值或者由全局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即方法可以使用的该方法外部变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的宗旨是保证每一个传出变量都必须被赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11450,6 +12657,19 @@
       <name val="Source Code Pro"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11505,7 +12725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11625,6 +12845,7 @@
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11719,7 +12940,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -12220,7 +13441,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="124.2">
@@ -12228,10 +13449,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="138">
@@ -12239,10 +13460,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -12250,7 +13471,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="27.6">
@@ -12258,7 +13479,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="15.6">
@@ -12284,13 +13505,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="110.4">
@@ -12298,10 +13519,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12309,10 +13530,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27.6">
@@ -12320,7 +13541,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27.6">
@@ -12328,10 +13549,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27.6">
@@ -12339,10 +13560,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="82.8">
@@ -12350,10 +13571,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="55.2">
@@ -12361,10 +13582,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -13533,55 +14754,55 @@
     </row>
     <row r="180" spans="1:8" ht="20.399999999999999">
       <c r="B180" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="20.399999999999999">
       <c r="B184" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="B187" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="D188" t="s">
         <v>837</v>
-      </c>
-      <c r="D188" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="D194" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="D195" s="27" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="202" spans="2:4" ht="20.399999999999999">
       <c r="B202" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -13928,10 +15149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFA940"/>
+  <dimension ref="A1:XFA972"/>
   <sheetViews>
-    <sheetView topLeftCell="A912" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F926" sqref="F926"/>
+    <sheetView tabSelected="1" topLeftCell="A955" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K974" sqref="K974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16286,7 +17507,7 @@
     <row r="409" spans="1:3" ht="15">
       <c r="A409" s="50"/>
       <c r="B409" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -16612,44 +17833,44 @@
         <v>17.8</v>
       </c>
       <c r="B478" s="26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="15">
       <c r="B479" s="26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="15">
       <c r="B480" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15">
       <c r="C481" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15">
       <c r="C482" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="15">
       <c r="B483" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="15">
       <c r="B484" s="26"/>
       <c r="C484" s="26" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="15">
       <c r="B485" s="26"/>
       <c r="C485" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="15">
@@ -16657,15 +17878,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="B486" s="26" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="15">
       <c r="A487" s="47" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B487" s="26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="15">
@@ -16673,79 +17894,79 @@
         <v>17.11</v>
       </c>
       <c r="B488" s="26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="15">
       <c r="B489" s="26"/>
       <c r="C489" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="15">
       <c r="D490" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="15">
       <c r="D491" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="15">
       <c r="D492" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="15">
       <c r="A493" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="B493" s="26" t="s">
         <v>822</v>
-      </c>
-      <c r="B493" s="26" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="15">
       <c r="B494" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="15">
       <c r="B495" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="15">
       <c r="B496" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="497" spans="1:11" ht="15">
       <c r="A497" s="47" t="s">
+        <v>829</v>
+      </c>
+      <c r="B497" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="C497" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="B497" s="26" t="s">
-        <v>828</v>
-      </c>
-      <c r="C497" s="21" t="s">
-        <v>831</v>
-      </c>
       <c r="E497" s="21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="498" spans="1:11" ht="15">
       <c r="A498" s="47" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B498" s="26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C498" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E498" s="21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="500" spans="1:11" ht="15">
@@ -16869,7 +18090,7 @@
         <v>4</v>
       </c>
       <c r="B520" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="523" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
@@ -16880,7 +18101,7 @@
     <row r="524" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A524" s="51"/>
       <c r="B524" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E524" s="43"/>
       <c r="I524" s="43"/>
@@ -20981,7 +22202,7 @@
     <row r="525" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A525" s="51"/>
       <c r="B525" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E525" s="43"/>
       <c r="I525" s="43"/>
@@ -25082,7 +26303,7 @@
     <row r="526" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A526" s="51"/>
       <c r="B526" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E526" s="43"/>
       <c r="I526" s="43"/>
@@ -29182,22 +30403,22 @@
     </row>
     <row r="528" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="B528" s="21" t="s">
-        <v>744</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15">
       <c r="B529" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15">
       <c r="B530" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="18.600000000000001">
       <c r="B532" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15">
@@ -29205,7 +30426,7 @@
         <v>1</v>
       </c>
       <c r="B533" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15">
@@ -29213,27 +30434,27 @@
         <v>2</v>
       </c>
       <c r="B534" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15">
       <c r="B535" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15">
       <c r="B536" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="16.2">
       <c r="B537" s="44" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15">
       <c r="B538" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15">
@@ -29241,12 +30462,12 @@
         <v>2</v>
       </c>
       <c r="B540" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="B541" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -29254,20 +30475,20 @@
         <v>2.1</v>
       </c>
       <c r="B543" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="B544" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="545" spans="1:9">
       <c r="B545" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I545" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -29275,57 +30496,57 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B546" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="547" spans="1:9">
       <c r="B547" s="21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="548" spans="1:9">
       <c r="B548" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="549" spans="1:9">
       <c r="B549" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="550" spans="1:9">
       <c r="B550" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="551" spans="1:9">
       <c r="B551" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="552" spans="1:9">
       <c r="B552" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="553" spans="1:9">
       <c r="B553" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="554" spans="1:9">
       <c r="B554" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="555" spans="1:9">
       <c r="B555" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="556" spans="1:9">
       <c r="B556" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -29335,12 +30556,12 @@
     </row>
     <row r="558" spans="1:9">
       <c r="B558" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="559" spans="1:9">
       <c r="B559" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -29350,7 +30571,7 @@
     </row>
     <row r="561" spans="2:2">
       <c r="B561" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="562" spans="2:2">
@@ -29360,1063 +30581,1063 @@
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="577" spans="2:9">
       <c r="B577" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="578" spans="2:9">
       <c r="B578" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="580" spans="2:9">
       <c r="B580" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="581" spans="2:9">
       <c r="B581" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="583" spans="2:9">
       <c r="B583" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="585" spans="2:9">
       <c r="B585" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="586" spans="2:9">
       <c r="B586" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="587" spans="2:9">
       <c r="B587" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="588" spans="2:9">
       <c r="B588" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="590" spans="2:9">
       <c r="B590" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I590" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="591" spans="2:9">
       <c r="B591" s="45" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="592" spans="2:9">
       <c r="B592" s="45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="B593" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="B594" s="45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="B595" s="45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="B596" s="45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="B597" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15">
       <c r="A599" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="B599" s="26" t="s">
         <v>840</v>
-      </c>
-      <c r="B599" s="26" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="15">
       <c r="A600" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="B600" s="26" t="s">
         <v>842</v>
-      </c>
-      <c r="B600" s="26" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="15">
       <c r="C601" s="26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="C602" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="C603" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="15">
       <c r="A604" s="47" t="s">
+        <v>846</v>
+      </c>
+      <c r="B604" s="26" t="s">
         <v>847</v>
-      </c>
-      <c r="B604" s="26" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="15">
       <c r="C605" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15">
       <c r="A607" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="B607" s="21" t="s">
         <v>850</v>
       </c>
-      <c r="B607" s="21" t="s">
+      <c r="C607" s="26" t="s">
         <v>851</v>
-      </c>
-      <c r="C607" s="26" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="15">
       <c r="A608" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="B608" s="21" t="s">
         <v>853</v>
-      </c>
-      <c r="B608" s="21" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="15">
       <c r="B609" s="26" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="15">
       <c r="C610" s="26" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="15">
       <c r="C611" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="15">
       <c r="C612" s="26" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="15">
       <c r="B613" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="15">
       <c r="B614" s="26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="15">
       <c r="B615" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="15">
       <c r="A616" s="47" t="s">
+        <v>861</v>
+      </c>
+      <c r="B616" s="26" t="s">
         <v>862</v>
-      </c>
-      <c r="B616" s="26" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="15">
       <c r="B617" s="26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="15">
       <c r="A618" s="47" t="s">
+        <v>864</v>
+      </c>
+      <c r="B618" s="26" t="s">
         <v>865</v>
-      </c>
-      <c r="B618" s="26" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15">
       <c r="B619" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="15">
       <c r="B620" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="15">
       <c r="B621" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="15">
       <c r="A622" s="47" t="s">
+        <v>869</v>
+      </c>
+      <c r="B622" s="26" t="s">
         <v>870</v>
-      </c>
-      <c r="B622" s="26" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="15">
       <c r="A623" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B623" s="21" t="s">
         <v>872</v>
-      </c>
-      <c r="B623" s="21" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="15">
       <c r="A624" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="B624" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="B624" s="21" t="s">
+      <c r="C624" s="21" t="s">
         <v>875</v>
       </c>
-      <c r="C624" s="21" t="s">
+      <c r="D624" s="26" t="s">
         <v>876</v>
-      </c>
-      <c r="D624" s="26" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="15">
       <c r="D625" s="26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="15">
       <c r="A626" s="47" t="s">
+        <v>878</v>
+      </c>
+      <c r="B626" s="26" t="s">
         <v>879</v>
-      </c>
-      <c r="B626" s="26" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="15">
       <c r="B627" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="15">
       <c r="B628" s="26" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="15">
       <c r="B629" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="15">
       <c r="B630" s="26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="15">
       <c r="B631" s="26" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="15">
       <c r="A632" s="47" t="s">
+        <v>885</v>
+      </c>
+      <c r="B632" s="21" t="s">
         <v>886</v>
-      </c>
-      <c r="B632" s="21" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="15">
       <c r="B633" s="26" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="15">
       <c r="A634" s="47" t="s">
+        <v>889</v>
+      </c>
+      <c r="B634" s="21" t="s">
         <v>890</v>
-      </c>
-      <c r="B634" s="21" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="15">
       <c r="A635" s="47" t="s">
+        <v>891</v>
+      </c>
+      <c r="B635" s="26" t="s">
         <v>892</v>
-      </c>
-      <c r="B635" s="26" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="15">
       <c r="C636" s="26" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="15">
       <c r="A637" s="47" t="s">
+        <v>894</v>
+      </c>
+      <c r="B637" s="21" t="s">
         <v>895</v>
-      </c>
-      <c r="B637" s="21" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="15">
       <c r="B638" s="26" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="15">
       <c r="A639" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="B639" s="26" t="s">
         <v>898</v>
-      </c>
-      <c r="B639" s="26" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="15">
       <c r="A640" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="B640" s="26" t="s">
         <v>900</v>
-      </c>
-      <c r="B640" s="26" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="641" spans="2:4" ht="15">
       <c r="B641" s="26" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="642" spans="2:4" ht="15">
       <c r="B642" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="643" spans="2:4" ht="15">
       <c r="B643" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="644" spans="2:4" ht="15">
       <c r="B644" s="26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="645" spans="2:4" ht="15">
       <c r="C645" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="646" spans="2:4" ht="15">
       <c r="B646" s="26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="647" spans="2:4" ht="15">
       <c r="C647" s="26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="648" spans="2:4" ht="15">
       <c r="B648" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="649" spans="2:4" ht="15">
       <c r="B649" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="651" spans="2:4" ht="15">
       <c r="B651" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="653" spans="2:4" ht="15">
       <c r="B653" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="C653" s="26" t="s">
         <v>912</v>
-      </c>
-      <c r="C653" s="26" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="654" spans="2:4" ht="15">
       <c r="B654" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="C654" s="26" t="s">
         <v>914</v>
-      </c>
-      <c r="C654" s="26" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="655" spans="2:4" ht="15">
       <c r="B655" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="D655" s="26" t="s">
         <v>916</v>
-      </c>
-      <c r="D655" s="26" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="656" spans="2:4" ht="15">
       <c r="D656" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="657" spans="2:5" ht="15">
       <c r="B657" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="C657" s="26" t="s">
         <v>919</v>
-      </c>
-      <c r="C657" s="26" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="658" spans="2:5" ht="15">
       <c r="B658" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="C658" s="26" t="s">
         <v>921</v>
-      </c>
-      <c r="C658" s="26" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="659" spans="2:5" ht="15">
       <c r="B659" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="D659" s="26" t="s">
         <v>923</v>
-      </c>
-      <c r="D659" s="26" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="660" spans="2:5" ht="15">
       <c r="D660" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="661" spans="2:5" ht="15">
       <c r="D661" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="662" spans="2:5">
       <c r="B662" s="21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="663" spans="2:5" ht="15">
       <c r="B663" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="C663" s="26" t="s">
         <v>928</v>
-      </c>
-      <c r="C663" s="26" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="664" spans="2:5" ht="15">
       <c r="B664" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D664" s="26" t="s">
         <v>930</v>
-      </c>
-      <c r="D664" s="26" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="665" spans="2:5" ht="15">
       <c r="D665" s="26" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="666" spans="2:5" ht="15">
       <c r="B666" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="C666" s="26" t="s">
         <v>933</v>
-      </c>
-      <c r="C666" s="26" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="667" spans="2:5" ht="15">
       <c r="B667" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="E667" s="26" t="s">
         <v>935</v>
-      </c>
-      <c r="E667" s="26" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="668" spans="2:5" ht="15">
       <c r="B668" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="D668" s="26" t="s">
         <v>937</v>
-      </c>
-      <c r="D668" s="26" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="669" spans="2:5">
       <c r="B669" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="670" spans="2:5">
       <c r="B670" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="671" spans="2:5">
       <c r="B671" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="672" spans="2:5">
       <c r="B672" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="673" spans="2:2">
       <c r="B673" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="674" spans="2:2">
       <c r="B674" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="675" spans="2:2">
       <c r="B675" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="676" spans="2:2">
       <c r="B676" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="677" spans="2:2">
       <c r="B677" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="678" spans="2:2">
       <c r="B678" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="679" spans="2:2">
       <c r="B679" s="21" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="680" spans="2:2">
       <c r="B680" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="681" spans="2:2">
       <c r="B681" s="21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="682" spans="2:2">
       <c r="B682" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="683" spans="2:2">
       <c r="B683" s="21" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="684" spans="2:2">
       <c r="B684" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="685" spans="2:2">
       <c r="B685" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="686" spans="2:2">
       <c r="B686" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="687" spans="2:2">
       <c r="B687" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="688" spans="2:2">
       <c r="B688" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="689" spans="1:4">
       <c r="B689" s="21" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="690" spans="1:4">
       <c r="B690" s="21" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="691" spans="1:4">
       <c r="B691" s="21" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="692" spans="1:4">
       <c r="B692" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="693" spans="1:4" ht="15">
       <c r="B693" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="D693" s="26" t="s">
         <v>963</v>
-      </c>
-      <c r="D693" s="26" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="694" spans="1:4" ht="15">
       <c r="B694" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="D694" s="26" t="s">
         <v>965</v>
-      </c>
-      <c r="D694" s="26" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="15">
       <c r="B695" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="D695" s="26" t="s">
         <v>967</v>
-      </c>
-      <c r="D695" s="26" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="696" spans="1:4">
       <c r="B696" s="21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="697" spans="1:4">
       <c r="B697" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="698" spans="1:4">
       <c r="B698" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="699" spans="1:4">
       <c r="B699" s="21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="15">
       <c r="B700" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="D700" s="26" t="s">
         <v>973</v>
-      </c>
-      <c r="D700" s="26" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="15">
       <c r="A702" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="B702" s="26" t="s">
         <v>975</v>
-      </c>
-      <c r="B702" s="26" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="15">
       <c r="A703" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="B703" s="26" t="s">
         <v>977</v>
-      </c>
-      <c r="B703" s="26" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="15">
       <c r="B704" s="26" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="15">
       <c r="C705" s="26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="15">
       <c r="A706" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="B706" s="21" t="s">
         <v>981</v>
-      </c>
-      <c r="B706" s="21" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="15">
       <c r="B707" s="26" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="708" spans="1:5" ht="15">
       <c r="C708" s="28" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="15">
       <c r="A709" s="47" t="s">
+        <v>984</v>
+      </c>
+      <c r="B709" s="26" t="s">
         <v>985</v>
-      </c>
-      <c r="B709" s="26" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="15">
       <c r="A710" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="B710" s="26" t="s">
         <v>987</v>
-      </c>
-      <c r="B710" s="26" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="711" spans="1:5" ht="15">
       <c r="C711" s="26" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="712" spans="1:5">
       <c r="A712" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="B712" s="21" t="s">
         <v>990</v>
       </c>
-      <c r="B712" s="21" t="s">
+      <c r="D712" s="21" t="s">
         <v>991</v>
-      </c>
-      <c r="D712" s="21" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="15">
       <c r="A713" s="47" t="s">
+        <v>994</v>
+      </c>
+      <c r="B713" s="26" t="s">
         <v>995</v>
-      </c>
-      <c r="B713" s="26" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="15">
       <c r="A715" s="47" t="s">
+        <v>996</v>
+      </c>
+      <c r="B715" s="26" t="s">
         <v>997</v>
-      </c>
-      <c r="B715" s="26" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="15">
       <c r="A716" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="B716" s="28" t="s">
         <v>999</v>
-      </c>
-      <c r="B716" s="28" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15">
       <c r="A717" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B717" s="26" t="s">
         <v>1001</v>
-      </c>
-      <c r="B717" s="26" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="718" spans="1:5">
       <c r="C718" s="21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E718" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="719" spans="1:5">
       <c r="C719" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="720" spans="1:5">
       <c r="E720" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="721" spans="1:5">
       <c r="C721" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="47" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B724" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="15">
       <c r="E725" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="15">
       <c r="E726" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="15">
       <c r="E727" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="15">
       <c r="E728" s="21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="734" spans="1:5">
       <c r="B734" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="15">
       <c r="C735" s="26" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="736" spans="1:5" ht="15">
       <c r="C736" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="737" spans="2:9" ht="15">
       <c r="C737" s="26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="741" spans="2:9" ht="15">
       <c r="B741" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="742" spans="2:9" ht="15">
       <c r="C742" s="26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="743" spans="2:9">
       <c r="C743" s="21" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="744" spans="2:9" ht="15">
       <c r="D744" s="26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="747" spans="2:9">
       <c r="B747" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="748" spans="2:9" ht="15.6">
       <c r="B748" s="59" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="749" spans="2:9" ht="15.6">
       <c r="B749" s="59" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="750" spans="2:9">
       <c r="B750"/>
       <c r="C750" s="55" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="751" spans="2:9" ht="15">
       <c r="D751" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I751" s="8" t="s">
         <v>1052</v>
-      </c>
-      <c r="I751" s="8" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="753" spans="2:5">
       <c r="B753" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C753" s="56" t="s">
         <v>1056</v>
-      </c>
-      <c r="C753" s="56" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="754" spans="2:5" ht="15">
       <c r="B754" s="58" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C754" s="26" t="s">
         <v>1058</v>
-      </c>
-      <c r="C754" s="26" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="755" spans="2:5" ht="15">
       <c r="B755" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C755" s="26" t="s">
         <v>1060</v>
-      </c>
-      <c r="C755" s="26" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="757" spans="2:5" ht="15">
       <c r="B757" s="54" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="758" spans="2:5" ht="15">
       <c r="B758" s="26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="759" spans="2:5">
       <c r="B759" s="60" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="760" spans="2:5" ht="15">
       <c r="C760" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="761" spans="2:5" ht="15">
       <c r="D761" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="762" spans="2:5" ht="15">
       <c r="B762" s="21" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="763" spans="2:5" ht="15">
       <c r="B763" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="764" spans="2:5" ht="16.2">
       <c r="C764" s="21" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E764" s="26"/>
     </row>
     <row r="765" spans="2:5" ht="15">
       <c r="B765" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="766" spans="2:5" ht="15">
       <c r="B766" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="767" spans="2:5" ht="15">
       <c r="B767" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="768" spans="2:5" ht="15">
       <c r="B768" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="769" spans="2:2" ht="15">
@@ -30424,130 +31645,130 @@
     </row>
     <row r="770" spans="2:2" ht="15">
       <c r="B770" s="21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="771" spans="2:2" ht="15">
       <c r="B771" s="21" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="773" spans="2:2" ht="15">
       <c r="B773" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="774" spans="2:2" ht="15">
       <c r="B774" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="775" spans="2:2" ht="15">
       <c r="B775" s="28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="776" spans="2:2" ht="15">
       <c r="B776" s="28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="777" spans="2:2" ht="15">
       <c r="B777" s="28" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="779" spans="2:2" ht="15">
       <c r="B779" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="780" spans="2:2" ht="15">
       <c r="B780" s="28" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="781" spans="2:2" ht="15">
       <c r="B781" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="782" spans="2:2" ht="15">
       <c r="B782" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="784" spans="2:2" ht="15">
       <c r="B784" s="28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="786" spans="2:5">
       <c r="B786" s="24" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="787" spans="2:5" ht="15">
       <c r="B787" s="26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="788" spans="2:5" ht="15">
       <c r="B788" s="26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="791" spans="2:5" ht="15">
       <c r="B791" s="28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="792" spans="2:5" ht="15">
       <c r="C792" s="61" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="793" spans="2:5" ht="15">
       <c r="C793" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="794" spans="2:5" ht="15">
       <c r="C794" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="795" spans="2:5">
       <c r="E795" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="797" spans="2:5" ht="15">
       <c r="B797" s="21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="798" spans="2:5" ht="15">
       <c r="C798" s="26" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="799" spans="2:5">
       <c r="C799" s="21" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="800" spans="2:5">
       <c r="B800" s="21" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="801" spans="2:5" ht="15">
       <c r="C801" s="21" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E801" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="802" spans="2:5" ht="15">
@@ -30555,12 +31776,12 @@
         <v>1</v>
       </c>
       <c r="D802" s="26" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="803" spans="2:5" ht="15">
       <c r="D803" s="26" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="804" spans="2:5" ht="15">
@@ -30568,17 +31789,17 @@
         <v>2</v>
       </c>
       <c r="D804" s="26" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="805" spans="2:5" ht="15">
       <c r="D805" s="21" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="806" spans="2:5" ht="15">
       <c r="D806" s="26" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="807" spans="2:5" ht="15">
@@ -30586,69 +31807,69 @@
         <v>3</v>
       </c>
       <c r="D807" s="26" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="808" spans="2:5" ht="15">
       <c r="E808" s="26" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="809" spans="2:5" ht="15">
       <c r="C809" s="26" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D809" s="63" t="s">
         <v>1120</v>
-      </c>
-      <c r="D809" s="63" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="810" spans="2:5">
       <c r="D810" s="63" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="811" spans="2:5" ht="15">
       <c r="C811" s="26" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="812" spans="2:5" ht="15">
       <c r="B812" s="21" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="813" spans="2:5">
       <c r="C813" s="21" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="817" spans="1:4" ht="15">
       <c r="B817" s="21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="818" spans="1:4">
       <c r="C818" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="822" spans="1:4" ht="15">
       <c r="A822" s="28" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B822" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D822" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="15">
       <c r="A825" s="26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B825" s="21" t="s">
         <v>1219</v>
-      </c>
-      <c r="B825" s="21" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="826" spans="1:4" ht="15">
@@ -30656,20 +31877,20 @@
     </row>
     <row r="827" spans="1:4" ht="15">
       <c r="A827" s="47" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B827" s="21" t="s">
         <v>1235</v>
-      </c>
-      <c r="B827" s="21" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="828" spans="1:4" ht="15">
       <c r="D828" s="21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="15">
       <c r="D829" s="26" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="830" spans="1:4" ht="15">
@@ -30677,25 +31898,25 @@
     </row>
     <row r="831" spans="1:4" ht="15">
       <c r="A831" s="49" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B831" s="26" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="15">
       <c r="D832" s="26" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="833" spans="1:4" ht="15">
       <c r="D833" s="26" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="834" spans="1:4" ht="15">
       <c r="D834" s="26" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="835" spans="1:4" ht="15">
@@ -30706,18 +31927,18 @@
     </row>
     <row r="837" spans="1:4" ht="15">
       <c r="A837" s="26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B837" s="21" t="s">
         <v>1221</v>
       </c>
-      <c r="B837" s="21" t="s">
-        <v>1222</v>
-      </c>
       <c r="D837" s="21" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="838" spans="1:4" ht="15">
       <c r="B838" s="21" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="840" spans="1:4" ht="15">
@@ -30725,12 +31946,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C840" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="841" spans="1:4" ht="15">
       <c r="D841" s="26" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="842" spans="1:4" ht="15">
@@ -30738,21 +31959,21 @@
     </row>
     <row r="843" spans="1:4" ht="15">
       <c r="B843" s="21" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C843" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D843" s="26"/>
     </row>
     <row r="844" spans="1:4" ht="15">
       <c r="D844" s="26" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="845" spans="1:4" ht="15">
       <c r="D845" s="26" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="846" spans="1:4" ht="15">
@@ -30760,16 +31981,16 @@
     </row>
     <row r="847" spans="1:4" ht="15">
       <c r="B847" s="21" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C847" s="21" t="s">
         <v>1338</v>
-      </c>
-      <c r="C847" s="21" t="s">
-        <v>1339</v>
       </c>
       <c r="D847" s="26"/>
     </row>
     <row r="848" spans="1:4" ht="15">
       <c r="D848" s="26" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="849" spans="2:5" ht="15">
@@ -30777,13 +31998,13 @@
     </row>
     <row r="850" spans="2:5" ht="14.4" customHeight="1">
       <c r="B850" s="21" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C850" s="26" t="s">
         <v>1341</v>
       </c>
-      <c r="C850" s="26" t="s">
-        <v>1342</v>
-      </c>
       <c r="D850" s="26" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="851" spans="2:5" ht="14.4" customHeight="1">
@@ -30792,10 +32013,10 @@
     </row>
     <row r="852" spans="2:5" ht="14.4" customHeight="1">
       <c r="B852" s="21" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C852" s="26" t="s">
         <v>1343</v>
-      </c>
-      <c r="C852" s="26" t="s">
-        <v>1344</v>
       </c>
       <c r="D852" s="26"/>
     </row>
@@ -30805,10 +32026,10 @@
     </row>
     <row r="854" spans="2:5" ht="14.4" customHeight="1">
       <c r="B854" s="21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C854" s="26" t="s">
         <v>1345</v>
-      </c>
-      <c r="C854" s="26" t="s">
-        <v>1346</v>
       </c>
       <c r="D854" s="26"/>
     </row>
@@ -30818,10 +32039,10 @@
     </row>
     <row r="856" spans="2:5" ht="14.4" customHeight="1">
       <c r="B856" s="21" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C856" s="26" t="s">
         <v>1349</v>
-      </c>
-      <c r="C856" s="26" t="s">
-        <v>1350</v>
       </c>
       <c r="D856" s="26"/>
     </row>
@@ -30831,19 +32052,19 @@
     </row>
     <row r="858" spans="2:5" ht="14.4" customHeight="1">
       <c r="B858" s="21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C858" s="26" t="s">
         <v>1347</v>
-      </c>
-      <c r="C858" s="26" t="s">
-        <v>1348</v>
       </c>
       <c r="D858" s="26"/>
     </row>
     <row r="859" spans="2:5" ht="14.4" customHeight="1">
       <c r="B859" s="21" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C859" s="26" t="s">
         <v>1351</v>
-      </c>
-      <c r="C859" s="26" t="s">
-        <v>1352</v>
       </c>
       <c r="D859" s="26"/>
     </row>
@@ -30853,10 +32074,10 @@
     </row>
     <row r="861" spans="2:5" ht="14.4" customHeight="1">
       <c r="B861" s="21" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C861" s="26" t="s">
         <v>1353</v>
-      </c>
-      <c r="C861" s="26" t="s">
-        <v>1354</v>
       </c>
       <c r="D861" s="26"/>
     </row>
@@ -30869,11 +32090,11 @@
         <v>19.600000000000001</v>
       </c>
       <c r="C863" s="26" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D863" s="26"/>
       <c r="E863" s="26" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="864" spans="2:5" ht="14.4" customHeight="1">
@@ -30882,333 +32103,333 @@
     <row r="865" spans="2:4" ht="14.4" customHeight="1">
       <c r="B865" s="68"/>
       <c r="C865" s="26" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D865" s="26"/>
     </row>
     <row r="866" spans="2:4" ht="14.4" customHeight="1">
       <c r="B866" s="68"/>
       <c r="C866" s="21" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D866" s="26"/>
     </row>
     <row r="867" spans="2:4" ht="14.4" customHeight="1">
       <c r="B867" s="68"/>
       <c r="C867" s="21" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D867" s="26"/>
     </row>
     <row r="868" spans="2:4" ht="14.4" customHeight="1">
       <c r="B868" s="68"/>
       <c r="C868" s="21" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D868" s="26"/>
     </row>
     <row r="869" spans="2:4" ht="14.4" customHeight="1">
       <c r="B869" s="68"/>
       <c r="C869" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D869" s="26"/>
     </row>
     <row r="870" spans="2:4" ht="14.4" customHeight="1">
       <c r="C870" s="21" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D870" s="26"/>
     </row>
     <row r="871" spans="2:4" ht="14.4" customHeight="1">
       <c r="B871" s="68"/>
       <c r="C871" s="21" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D871" s="26"/>
     </row>
     <row r="872" spans="2:4" ht="14.4" customHeight="1">
       <c r="B872" s="68"/>
       <c r="C872" s="26" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D872" s="26"/>
     </row>
     <row r="873" spans="2:4" ht="14.4" customHeight="1">
       <c r="B873" s="68"/>
       <c r="C873" s="26" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D873" s="26"/>
     </row>
     <row r="874" spans="2:4" ht="14.4" customHeight="1">
       <c r="B874" s="68"/>
       <c r="C874" s="26" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D874" s="26"/>
     </row>
     <row r="875" spans="2:4" ht="14.4" customHeight="1">
       <c r="B875" s="68"/>
       <c r="C875" s="26" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D875" s="26"/>
     </row>
     <row r="876" spans="2:4" ht="14.4" customHeight="1">
       <c r="B876" s="68"/>
       <c r="C876" s="26" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D876" s="26"/>
     </row>
     <row r="877" spans="2:4" ht="14.4" customHeight="1">
       <c r="B877" s="68"/>
       <c r="C877" s="26" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D877" s="26"/>
     </row>
     <row r="878" spans="2:4" ht="14.4" customHeight="1">
       <c r="B878" s="68"/>
       <c r="C878" s="26" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D878" s="26"/>
     </row>
     <row r="879" spans="2:4" ht="14.4" customHeight="1">
       <c r="B879" s="68"/>
       <c r="C879" s="26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D879" s="26"/>
     </row>
     <row r="880" spans="2:4" ht="14.4" customHeight="1">
       <c r="B880" s="68"/>
       <c r="C880" s="26" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D880" s="26"/>
     </row>
     <row r="881" spans="2:13" ht="14.4" customHeight="1">
       <c r="B881" s="68"/>
       <c r="C881" s="26" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D881" s="26"/>
     </row>
     <row r="882" spans="2:13" ht="14.4" customHeight="1">
       <c r="B882" s="68"/>
       <c r="C882" s="26" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D882" s="26"/>
     </row>
     <row r="883" spans="2:13" ht="14.4" customHeight="1">
       <c r="B883" s="68"/>
       <c r="C883" s="26" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D883" s="26" t="s">
         <v>1378</v>
       </c>
-      <c r="D883" s="26" t="s">
-        <v>1379</v>
-      </c>
       <c r="M883" s="21" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="884" spans="2:13" ht="14.4" customHeight="1">
       <c r="B884" s="68"/>
       <c r="C884" s="26" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D884" s="26" t="s">
         <v>1380</v>
-      </c>
-      <c r="D884" s="26" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="885" spans="2:13" ht="14.4" customHeight="1">
       <c r="B885" s="68"/>
       <c r="C885" s="26" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D885" s="26"/>
       <c r="E885" s="26" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="886" spans="2:13" ht="14.4" customHeight="1">
       <c r="B886" s="68"/>
       <c r="C886" s="26" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D886" s="26" t="s">
         <v>1384</v>
-      </c>
-      <c r="D886" s="26" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="887" spans="2:13" ht="14.4" customHeight="1">
       <c r="B887" s="68"/>
       <c r="C887" s="26" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D887" s="26"/>
     </row>
     <row r="888" spans="2:13" ht="14.4" customHeight="1">
       <c r="B888" s="68"/>
       <c r="C888" s="26" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D888" s="26"/>
     </row>
     <row r="889" spans="2:13" ht="14.4" customHeight="1">
       <c r="B889" s="68"/>
       <c r="C889" s="26" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D889" s="26"/>
     </row>
     <row r="890" spans="2:13" ht="14.4" customHeight="1">
       <c r="B890" s="68"/>
       <c r="C890" s="26" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D890" s="26"/>
     </row>
     <row r="891" spans="2:13" ht="14.4" customHeight="1">
       <c r="B891" s="68"/>
       <c r="C891" s="26" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D891" s="26"/>
     </row>
     <row r="892" spans="2:13" ht="14.4" customHeight="1">
       <c r="B892" s="68"/>
       <c r="C892" s="26" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D892" s="26"/>
     </row>
     <row r="893" spans="2:13" ht="14.4" customHeight="1">
       <c r="B893" s="68"/>
       <c r="C893" s="26" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D893" s="26"/>
     </row>
     <row r="894" spans="2:13" ht="14.4" customHeight="1">
       <c r="B894" s="68"/>
       <c r="C894" s="26" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D894" s="26"/>
     </row>
     <row r="895" spans="2:13" ht="14.4" customHeight="1">
       <c r="B895" s="68"/>
       <c r="C895" s="26" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D895" s="26"/>
     </row>
     <row r="896" spans="2:13" ht="14.4" customHeight="1">
       <c r="B896" s="68"/>
       <c r="C896" s="26" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D896" s="26"/>
     </row>
     <row r="897" spans="2:4" ht="14.4" customHeight="1">
       <c r="B897" s="68"/>
       <c r="C897" s="26" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D897" s="26"/>
     </row>
     <row r="898" spans="2:4" ht="14.4" customHeight="1">
       <c r="B898" s="68"/>
       <c r="C898" s="26" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D898" s="26"/>
     </row>
     <row r="899" spans="2:4" ht="14.4" customHeight="1">
       <c r="B899" s="68"/>
       <c r="C899" s="26" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D899" s="26"/>
     </row>
     <row r="900" spans="2:4" ht="14.4" customHeight="1">
       <c r="B900" s="68"/>
       <c r="C900" s="26" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D900" s="26"/>
     </row>
     <row r="901" spans="2:4" ht="14.4" customHeight="1">
       <c r="B901" s="68"/>
       <c r="C901" s="26" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D901" s="26"/>
     </row>
     <row r="902" spans="2:4" ht="14.4" customHeight="1">
       <c r="B902" s="68"/>
       <c r="C902" s="21" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D902" s="26"/>
     </row>
     <row r="903" spans="2:4" ht="14.4" customHeight="1">
       <c r="B903" s="68"/>
       <c r="C903" s="26" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D903" s="26"/>
     </row>
     <row r="904" spans="2:4" ht="14.4" customHeight="1">
       <c r="B904" s="68"/>
       <c r="C904" s="26" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D904" s="26"/>
     </row>
     <row r="905" spans="2:4" ht="14.4" customHeight="1">
       <c r="B905" s="68"/>
       <c r="C905" s="26" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D905" s="26"/>
     </row>
     <row r="906" spans="2:4" ht="14.4" customHeight="1">
       <c r="B906" s="68"/>
       <c r="C906" s="26" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D906" s="26"/>
     </row>
     <row r="907" spans="2:4" ht="14.4" customHeight="1">
       <c r="B907" s="68"/>
       <c r="C907" s="26" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D907" s="26"/>
     </row>
     <row r="908" spans="2:4" ht="14.4" customHeight="1">
       <c r="B908" s="68"/>
       <c r="C908" s="26" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D908" s="26"/>
     </row>
     <row r="909" spans="2:4" ht="14.4" customHeight="1">
       <c r="B909" s="68"/>
       <c r="C909" s="26" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D909" s="26"/>
     </row>
     <row r="910" spans="2:4" ht="14.4" customHeight="1">
       <c r="B910" s="68"/>
       <c r="C910" s="26" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D910" s="26"/>
     </row>
@@ -31223,10 +32444,10 @@
     </row>
     <row r="913" spans="1:12" ht="14.4" customHeight="1">
       <c r="B913" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C913" s="69" t="s">
         <v>1355</v>
-      </c>
-      <c r="C913" s="69" t="s">
-        <v>1356</v>
       </c>
       <c r="D913" s="69"/>
       <c r="E913" s="70"/>
@@ -31237,7 +32458,7 @@
     <row r="914" spans="1:12" ht="14.4" customHeight="1">
       <c r="C914" s="69"/>
       <c r="D914" s="69" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E914" s="70"/>
       <c r="F914" s="70"/>
@@ -31247,7 +32468,7 @@
     <row r="915" spans="1:12" ht="14.4" customHeight="1">
       <c r="C915" s="69"/>
       <c r="D915" s="69" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E915" s="70"/>
       <c r="F915" s="70"/>
@@ -31257,7 +32478,7 @@
     <row r="916" spans="1:12" ht="15">
       <c r="C916" s="70"/>
       <c r="D916" s="69" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E916" s="70"/>
       <c r="F916" s="70"/>
@@ -31275,10 +32496,10 @@
     <row r="918" spans="1:12" ht="15">
       <c r="A918" s="26"/>
       <c r="B918" s="26" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C918" s="26" t="s">
         <v>1414</v>
-      </c>
-      <c r="C918" s="26" t="s">
-        <v>1415</v>
       </c>
       <c r="D918" s="26"/>
       <c r="E918" s="26"/>
@@ -31307,10 +32528,10 @@
     <row r="920" spans="1:12" ht="15">
       <c r="A920" s="26"/>
       <c r="B920" s="26" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C920" s="26" t="s">
         <v>1416</v>
-      </c>
-      <c r="C920" s="26" t="s">
-        <v>1417</v>
       </c>
       <c r="D920" s="26"/>
       <c r="E920" s="26"/>
@@ -31339,10 +32560,10 @@
     <row r="922" spans="1:12" ht="15">
       <c r="A922" s="26"/>
       <c r="B922" s="26" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C922" s="26" t="s">
         <v>1418</v>
-      </c>
-      <c r="C922" s="26" t="s">
-        <v>1419</v>
       </c>
       <c r="D922" s="26"/>
       <c r="E922" s="26"/>
@@ -31357,10 +32578,10 @@
     <row r="923" spans="1:12" ht="15">
       <c r="A923" s="26"/>
       <c r="B923" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C923" s="26" t="s">
         <v>1420</v>
-      </c>
-      <c r="C923" s="26" t="s">
-        <v>1421</v>
       </c>
       <c r="D923" s="26"/>
       <c r="E923" s="26"/>
@@ -31375,10 +32596,10 @@
     <row r="924" spans="1:12" ht="15">
       <c r="A924" s="26"/>
       <c r="B924" s="26" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C924" s="26" t="s">
         <v>1422</v>
-      </c>
-      <c r="C924" s="26" t="s">
-        <v>1423</v>
       </c>
       <c r="D924" s="26"/>
       <c r="E924" s="26"/>
@@ -31392,50 +32613,287 @@
     </row>
     <row r="927" spans="1:12" ht="15">
       <c r="A927" s="65" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B927" s="21" t="s">
         <v>1230</v>
       </c>
-      <c r="B927" s="21" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2" ht="15">
+    </row>
+    <row r="929" spans="1:5" ht="15">
       <c r="A929" s="65"/>
       <c r="B929" s="26"/>
     </row>
-    <row r="930" spans="1:2" ht="15">
+    <row r="930" spans="1:5" ht="15">
       <c r="A930" s="49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B930" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="B930" s="21" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" ht="16.2" customHeight="1">
+    </row>
+    <row r="931" spans="1:5" ht="16.2" customHeight="1">
       <c r="A931" s="49"/>
     </row>
-    <row r="932" spans="1:2" ht="16.2" customHeight="1">
+    <row r="932" spans="1:5" ht="16.2" customHeight="1">
       <c r="A932" s="49"/>
     </row>
-    <row r="933" spans="1:2" ht="15">
+    <row r="933" spans="1:5" ht="15">
       <c r="A933" s="65" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B933" s="26" t="s">
         <v>1224</v>
       </c>
-      <c r="B933" s="26" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" ht="15">
+    </row>
+    <row r="937" spans="1:5" ht="15">
       <c r="A937" s="65" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B937" s="26" t="s">
         <v>1233</v>
       </c>
-      <c r="B937" s="26" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2" ht="15">
+    </row>
+    <row r="940" spans="1:5" ht="15">
       <c r="A940" s="21" t="s">
-        <v>1327</v>
-      </c>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5">
+      <c r="B943" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E943" s="8" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5">
+      <c r="B944" s="71" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2">
+      <c r="B945" s="71" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="946" spans="2:2">
+      <c r="B946" s="71" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2">
+      <c r="B947" s="71" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2">
+      <c r="B949" s="21" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2" ht="15">
+      <c r="B950" s="21" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2">
+      <c r="B951" s="26" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2" ht="15">
+      <c r="B953" s="26" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="954" spans="2:2" ht="15">
+      <c r="B954" s="26" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" ht="15">
+      <c r="B955" s="26" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="956" spans="2:2" ht="15">
+      <c r="B956" s="26" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" ht="15">
+      <c r="B957" s="26" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2">
+      <c r="B958" s="26" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="960" spans="2:2">
+      <c r="B960" s="21" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="961" spans="2:13" ht="15">
+      <c r="B961" s="26" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="962" spans="2:13" ht="15">
+      <c r="B962" s="26" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C962" s="26"/>
+      <c r="D962" s="26"/>
+      <c r="E962" s="26"/>
+      <c r="F962" s="26"/>
+      <c r="G962" s="26"/>
+      <c r="H962" s="26"/>
+      <c r="I962" s="26"/>
+      <c r="J962" s="26"/>
+      <c r="K962" s="26"/>
+      <c r="L962" s="26"/>
+      <c r="M962" s="26"/>
+    </row>
+    <row r="963" spans="2:13" ht="15">
+      <c r="B963" s="26" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C963" s="26"/>
+      <c r="D963" s="26"/>
+      <c r="E963" s="26"/>
+      <c r="F963" s="26"/>
+      <c r="G963" s="26"/>
+      <c r="H963" s="26"/>
+      <c r="I963" s="26"/>
+      <c r="J963" s="26"/>
+      <c r="K963" s="26"/>
+      <c r="L963" s="26"/>
+      <c r="M963" s="26"/>
+    </row>
+    <row r="964" spans="2:13" ht="15">
+      <c r="B964" s="26"/>
+      <c r="C964" s="26"/>
+      <c r="D964" s="26"/>
+      <c r="E964" s="26"/>
+      <c r="F964" s="26"/>
+      <c r="G964" s="26"/>
+      <c r="H964" s="26"/>
+      <c r="I964" s="26"/>
+      <c r="J964" s="26"/>
+      <c r="K964" s="26"/>
+      <c r="L964" s="26"/>
+      <c r="M964" s="26"/>
+    </row>
+    <row r="965" spans="2:13" ht="15">
+      <c r="B965" s="26" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C965" s="26"/>
+      <c r="D965" s="26"/>
+      <c r="E965" s="26"/>
+      <c r="F965" s="26"/>
+      <c r="G965" s="26"/>
+      <c r="H965" s="26"/>
+      <c r="I965" s="26"/>
+      <c r="J965" s="26"/>
+      <c r="K965" s="26"/>
+      <c r="L965" s="26"/>
+      <c r="M965" s="26"/>
+    </row>
+    <row r="966" spans="2:13" ht="15">
+      <c r="B966" s="26"/>
+      <c r="C966" s="26"/>
+      <c r="D966" s="26"/>
+      <c r="E966" s="26"/>
+      <c r="F966" s="26"/>
+      <c r="G966" s="26"/>
+      <c r="H966" s="26"/>
+      <c r="I966" s="26"/>
+      <c r="J966" s="26"/>
+      <c r="K966" s="26"/>
+      <c r="L966" s="26"/>
+      <c r="M966" s="26"/>
+    </row>
+    <row r="967" spans="2:13" ht="15">
+      <c r="B967" s="26" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C967" s="26"/>
+      <c r="D967" s="26"/>
+      <c r="E967" s="26"/>
+      <c r="F967" s="26"/>
+      <c r="G967" s="26"/>
+      <c r="H967" s="26"/>
+      <c r="I967" s="26"/>
+      <c r="J967" s="26"/>
+      <c r="K967" s="26"/>
+      <c r="L967" s="26"/>
+      <c r="M967" s="26"/>
+    </row>
+    <row r="968" spans="2:13" ht="15">
+      <c r="B968" s="26" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C968" s="26"/>
+      <c r="D968" s="26"/>
+      <c r="E968" s="26"/>
+      <c r="F968" s="26"/>
+      <c r="G968" s="26"/>
+      <c r="H968" s="26"/>
+      <c r="I968" s="26"/>
+      <c r="J968" s="26"/>
+      <c r="K968" s="26"/>
+      <c r="L968" s="26"/>
+      <c r="M968" s="26"/>
+    </row>
+    <row r="969" spans="2:13" ht="15">
+      <c r="B969" s="26" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C969" s="26"/>
+      <c r="D969" s="26"/>
+      <c r="E969" s="26"/>
+      <c r="F969" s="26"/>
+      <c r="G969" s="26"/>
+      <c r="H969" s="26"/>
+      <c r="I969" s="26"/>
+      <c r="J969" s="26"/>
+      <c r="K969" s="26"/>
+      <c r="L969" s="26"/>
+      <c r="M969" s="26"/>
+    </row>
+    <row r="970" spans="2:13" ht="15">
+      <c r="B970" s="26" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C970" s="26"/>
+      <c r="D970" s="26"/>
+      <c r="E970" s="26"/>
+      <c r="F970" s="26"/>
+      <c r="G970" s="26"/>
+      <c r="H970" s="26"/>
+      <c r="I970" s="26"/>
+      <c r="J970" s="26"/>
+      <c r="K970" s="26"/>
+      <c r="L970" s="26"/>
+      <c r="M970" s="26"/>
+    </row>
+    <row r="971" spans="2:13">
+      <c r="C971" s="26" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="972" spans="2:13" ht="15">
+      <c r="B972" s="24" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C972" s="24"/>
+      <c r="D972" s="24"/>
+      <c r="E972" s="24"/>
+      <c r="F972" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31458,9 +32916,10 @@
     <hyperlink ref="E801" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
     <hyperlink ref="C818" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
     <hyperlink ref="D822" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="E943" r:id="rId19" xr:uid="{2225E940-5874-4B9D-890B-DC1138467E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -31468,8 +32927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="27.6" customHeight="1"/>
@@ -31540,10 +32999,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>1046</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6" customHeight="1">
@@ -31551,40 +33010,40 @@
         <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.6" customHeight="1">
       <c r="B13" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27.6" customHeight="1">
       <c r="B14" s="36" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.6" customHeight="1">
       <c r="B15" s="36" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.6" customHeight="1">
       <c r="B16" s="36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" customHeight="1">
       <c r="B17" s="36" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27.6" customHeight="1">
       <c r="B18" s="36" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27.6" customHeight="1">
@@ -31592,22 +33051,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27.6" customHeight="1">
       <c r="B21" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27.6" customHeight="1">
       <c r="B22" s="62" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27.6" customHeight="1">
       <c r="B23" s="62" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.6" customHeight="1">
@@ -31615,12 +33074,12 @@
         <v>8</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27.6" customHeight="1">
       <c r="B26" s="36" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.6" customHeight="1">
@@ -31628,17 +33087,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.6" customHeight="1">
       <c r="C29" s="36" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.6" customHeight="1">
       <c r="C30" s="36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27.6" customHeight="1">
@@ -31646,7 +33105,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>
@@ -31672,12 +33131,12 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>435</v>
@@ -31685,357 +33144,357 @@
     </row>
     <row r="6" spans="2:6" ht="17.399999999999999">
       <c r="B6" s="10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="C10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="C11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="C14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="D15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="D16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="D18" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="D19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="E20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G20" t="s">
         <v>1141</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="D23" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="D24" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="D26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="D27" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="D30" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="D38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="14.4" thickBot="1"/>
     <row r="40" spans="2:4" ht="14.4" thickBot="1">
       <c r="C40" s="64" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="C41" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="C44" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="17.399999999999999">
       <c r="B47" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="D49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="C50" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="D51" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="D52" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="D54" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="C56" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D56" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E56" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="C58" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17.399999999999999">
       <c r="B60" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="C62" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="C64" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="C65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="C66" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="C67" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="C68" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="C69" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="C70" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="C71" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="C72" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="17.399999999999999">
       <c r="B74" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="C76" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H76" t="s">
         <v>1188</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="C77" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="C78" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="D79" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="C80" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J80" t="s">
         <v>1193</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="C82" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="E83" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="E84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="C85" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="C87" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="17.399999999999999">
       <c r="B90" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="17.399999999999999">
       <c r="B91" s="10"/>
       <c r="C91" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D91" t="s">
         <v>1208</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="17.399999999999999">
@@ -32043,253 +33502,253 @@
     </row>
     <row r="93" spans="2:5">
       <c r="C93" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="D95" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="D96" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="100" spans="3:7">
       <c r="C100" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="101" spans="3:7">
       <c r="D101" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G101" t="s">
         <v>1212</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="102" spans="3:7">
       <c r="G102" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="106" spans="3:7">
       <c r="C106" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="107" spans="3:7">
       <c r="D107" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="109" spans="3:7">
       <c r="D109" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="C113" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="17.399999999999999">
       <c r="B120" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="130" spans="2:9">
       <c r="C130" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="17.399999999999999">
       <c r="B133" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="134" spans="2:9">
       <c r="I134" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="C135" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I135" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C136" t="s">
         <v>1253</v>
       </c>
-      <c r="C136" t="s">
-        <v>1254</v>
-      </c>
       <c r="I136" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="C137" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D137" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I137" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="I138" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="C139" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I139" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="C141" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="C142" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="143" spans="2:9">
       <c r="C143" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="C144" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="C161" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="C163" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="C164" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="C165" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="C166" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="C167" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -32297,7 +33756,7 @@
         <v>14.1</v>
       </c>
       <c r="D168" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -32305,27 +33764,27 @@
         <v>14.2</v>
       </c>
       <c r="D169" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="C171" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="C172" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="C173" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="C174" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="175" spans="2:4">
@@ -32333,82 +33792,82 @@
         <v>14.3</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="D176" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="D177" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="C179" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="17.399999999999999">
       <c r="B181" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="C183" s="67" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="C184" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="D185" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="E186" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="D187" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="D188" s="66" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="189" spans="2:5">
       <c r="D189" s="66" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="D190" s="66" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="191" spans="2:5">
       <c r="D191" s="66" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="D192" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="193" spans="3:5">
       <c r="E193" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="194" spans="3:5">
@@ -32416,97 +33875,97 @@
         <v>15.1</v>
       </c>
       <c r="E194" s="67" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="E196" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="D197" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="D199" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="200" spans="3:5">
       <c r="D200" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="201" spans="3:5">
       <c r="D201" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="202" spans="3:5">
       <c r="D202" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="203" spans="3:5">
       <c r="D203" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="204" spans="3:5">
       <c r="E204" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="206" spans="3:5">
       <c r="D206" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="207" spans="3:5">
       <c r="D207" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="208" spans="3:5">
       <c r="E208" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="209" spans="3:10">
       <c r="E209" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="210" spans="3:10">
       <c r="E210" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="211" spans="3:10">
       <c r="D211" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="212" spans="3:10">
       <c r="E212" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="213" spans="3:10">
       <c r="D213" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="214" spans="3:10">
@@ -32514,53 +33973,53 @@
         <v>15.2</v>
       </c>
       <c r="E214" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="217" spans="3:10">
       <c r="D217" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="218" spans="3:10">
       <c r="D218" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J218" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="219" spans="3:10">
       <c r="E219" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J219" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="220" spans="3:10">
       <c r="D220" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="221" spans="3:10">
       <c r="D221" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="222" spans="3:10">
       <c r="D222" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="223" spans="3:10">
       <c r="D223" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="224" spans="3:10">
       <c r="D224" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="225" spans="3:5">
@@ -32568,37 +34027,37 @@
         <v>15.3</v>
       </c>
       <c r="D225" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="226" spans="3:5">
       <c r="D226" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="227" spans="3:5">
       <c r="D227" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="228" spans="3:5">
       <c r="D228" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="229" spans="3:5">
       <c r="D229" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="230" spans="3:5">
       <c r="D230" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="231" spans="3:5">
       <c r="E231" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="234" spans="3:5">
@@ -32606,22 +34065,22 @@
         <v>15.4</v>
       </c>
       <c r="D234" s="67" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="235" spans="3:5">
       <c r="E235" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="236" spans="3:5">
       <c r="E236" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="237" spans="3:5">
       <c r="E237" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA76CFB-08C3-4D57-BF76-516BA6BC6279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA92AE4-C739-4EB0-ACB8-8171874998E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8088" yWindow="1776" windowWidth="16512" windowHeight="9420" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -12940,7 +12940,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -15149,10 +15149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFA972"/>
+  <dimension ref="A1:XFA973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A955" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K974" sqref="K974"/>
+    <sheetView tabSelected="1" topLeftCell="A943" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H939" sqref="H939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32658,108 +32658,92 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="943" spans="1:5">
-      <c r="B943" s="21" t="s">
+    <row r="944" spans="1:5">
+      <c r="B944" s="21" t="s">
         <v>1425</v>
       </c>
-      <c r="E943" s="8" t="s">
+      <c r="E944" s="8" t="s">
         <v>1431</v>
-      </c>
-    </row>
-    <row r="944" spans="1:5">
-      <c r="B944" s="71" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="945" spans="2:2">
       <c r="B945" s="71" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="946" spans="2:2">
       <c r="B946" s="71" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="947" spans="2:2">
       <c r="B947" s="71" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="948" spans="2:2">
+      <c r="B948" s="71" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="949" spans="2:2">
-      <c r="B949" s="21" t="s">
+    <row r="950" spans="2:2">
+      <c r="B950" s="21" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="950" spans="2:2" ht="15">
-      <c r="B950" s="21" t="s">
+    <row r="951" spans="2:2" ht="15">
+      <c r="B951" s="21" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="951" spans="2:2">
-      <c r="B951" s="26" t="s">
+    <row r="952" spans="2:2">
+      <c r="B952" s="26" t="s">
         <v>1433</v>
-      </c>
-    </row>
-    <row r="953" spans="2:2" ht="15">
-      <c r="B953" s="26" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="954" spans="2:2" ht="15">
       <c r="B954" s="26" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="955" spans="2:2" ht="15">
       <c r="B955" s="26" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="956" spans="2:2" ht="15">
       <c r="B956" s="26" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="957" spans="2:2" ht="15">
       <c r="B957" s="26" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2" ht="15">
+      <c r="B958" s="26" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="958" spans="2:2">
-      <c r="B958" s="26" t="s">
+    <row r="959" spans="2:2">
+      <c r="B959" s="26" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="960" spans="2:2">
-      <c r="B960" s="21" t="s">
+    <row r="961" spans="2:13">
+      <c r="B961" s="21" t="s">
         <v>1440</v>
-      </c>
-    </row>
-    <row r="961" spans="2:13" ht="15">
-      <c r="B961" s="26" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="962" spans="2:13" ht="15">
       <c r="B962" s="26" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C962" s="26"/>
-      <c r="D962" s="26"/>
-      <c r="E962" s="26"/>
-      <c r="F962" s="26"/>
-      <c r="G962" s="26"/>
-      <c r="H962" s="26"/>
-      <c r="I962" s="26"/>
-      <c r="J962" s="26"/>
-      <c r="K962" s="26"/>
-      <c r="L962" s="26"/>
-      <c r="M962" s="26"/>
+        <v>1441</v>
+      </c>
     </row>
     <row r="963" spans="2:13" ht="15">
       <c r="B963" s="26" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C963" s="26"/>
       <c r="D963" s="26"/>
@@ -32774,7 +32758,9 @@
       <c r="M963" s="26"/>
     </row>
     <row r="964" spans="2:13" ht="15">
-      <c r="B964" s="26"/>
+      <c r="B964" s="26" t="s">
+        <v>1443</v>
+      </c>
       <c r="C964" s="26"/>
       <c r="D964" s="26"/>
       <c r="E964" s="26"/>
@@ -32788,9 +32774,7 @@
       <c r="M964" s="26"/>
     </row>
     <row r="965" spans="2:13" ht="15">
-      <c r="B965" s="26" t="s">
-        <v>1444</v>
-      </c>
+      <c r="B965" s="26"/>
       <c r="C965" s="26"/>
       <c r="D965" s="26"/>
       <c r="E965" s="26"/>
@@ -32804,7 +32788,9 @@
       <c r="M965" s="26"/>
     </row>
     <row r="966" spans="2:13" ht="15">
-      <c r="B966" s="26"/>
+      <c r="B966" s="26" t="s">
+        <v>1444</v>
+      </c>
       <c r="C966" s="26"/>
       <c r="D966" s="26"/>
       <c r="E966" s="26"/>
@@ -32818,9 +32804,7 @@
       <c r="M966" s="26"/>
     </row>
     <row r="967" spans="2:13" ht="15">
-      <c r="B967" s="26" t="s">
-        <v>1445</v>
-      </c>
+      <c r="B967" s="26"/>
       <c r="C967" s="26"/>
       <c r="D967" s="26"/>
       <c r="E967" s="26"/>
@@ -32835,7 +32819,7 @@
     </row>
     <row r="968" spans="2:13" ht="15">
       <c r="B968" s="26" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C968" s="26"/>
       <c r="D968" s="26"/>
@@ -32851,7 +32835,7 @@
     </row>
     <row r="969" spans="2:13" ht="15">
       <c r="B969" s="26" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C969" s="26"/>
       <c r="D969" s="26"/>
@@ -32867,7 +32851,7 @@
     </row>
     <row r="970" spans="2:13" ht="15">
       <c r="B970" s="26" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C970" s="26"/>
       <c r="D970" s="26"/>
@@ -32881,19 +32865,35 @@
       <c r="L970" s="26"/>
       <c r="M970" s="26"/>
     </row>
-    <row r="971" spans="2:13">
-      <c r="C971" s="26" t="s">
+    <row r="971" spans="2:13" ht="15">
+      <c r="B971" s="26" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C971" s="26"/>
+      <c r="D971" s="26"/>
+      <c r="E971" s="26"/>
+      <c r="F971" s="26"/>
+      <c r="G971" s="26"/>
+      <c r="H971" s="26"/>
+      <c r="I971" s="26"/>
+      <c r="J971" s="26"/>
+      <c r="K971" s="26"/>
+      <c r="L971" s="26"/>
+      <c r="M971" s="26"/>
+    </row>
+    <row r="972" spans="2:13">
+      <c r="C972" s="26" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="972" spans="2:13" ht="15">
-      <c r="B972" s="24" t="s">
+    <row r="973" spans="2:13" ht="15">
+      <c r="B973" s="24" t="s">
         <v>1450</v>
       </c>
-      <c r="C972" s="24"/>
-      <c r="D972" s="24"/>
-      <c r="E972" s="24"/>
-      <c r="F972" s="24"/>
+      <c r="C973" s="24"/>
+      <c r="D973" s="24"/>
+      <c r="E973" s="24"/>
+      <c r="F973" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32916,7 +32916,7 @@
     <hyperlink ref="E801" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
     <hyperlink ref="C818" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
     <hyperlink ref="D822" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="E943" r:id="rId19" xr:uid="{2225E940-5874-4B9D-890B-DC1138467E81}"/>
+    <hyperlink ref="E944" r:id="rId19" xr:uid="{2225E940-5874-4B9D-890B-DC1138467E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA92AE4-C739-4EB0-ACB8-8171874998E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE79C318-5DD3-4444-AB6E-6569AC8F0745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8088" yWindow="1776" windowWidth="16512" windowHeight="9420" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1455">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -12218,6 +12218,21 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autodesk.Revit.DB.Transform 类的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revit 提供了Transform类来做二次开发时的坐标转换。 你可以给Transform对象进行赋值，构造一个变换矩阵。然后使用这个变化矩阵把给定的坐标点的坐标转成目标坐标系。</t>
+  </si>
+  <si>
+    <t>当然你可以使用第三方的代码做纯粹的坐标转换功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12940,7 +12955,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13601,10 +13616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14775,34 +14790,52 @@
         <v>837</v>
       </c>
     </row>
-    <row r="193" spans="2:4">
+    <row r="193" spans="2:8">
       <c r="B193" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="2:8">
       <c r="D194" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="2:8">
       <c r="D195" s="27" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:8">
       <c r="B197" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="198" spans="2:4">
+    <row r="198" spans="2:8">
       <c r="B198" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="20.399999999999999">
+    <row r="202" spans="2:8" ht="20.399999999999999">
       <c r="B202" s="38" t="s">
         <v>1202</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" ht="20.399999999999999">
+      <c r="B205" s="38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="15">
+      <c r="C206" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8">
+      <c r="C207" t="s">
+        <v>1454</v>
       </c>
     </row>
   </sheetData>
@@ -14812,9 +14845,10 @@
     <hyperlink ref="D98" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E163" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H205" r:id="rId5" xr:uid="{911477FD-CDF5-4536-9EDC-5FD4B17A805C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -14823,7 +14857,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15151,7 +15185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFA973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A943" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A943" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H939" sqref="H939"/>
     </sheetView>
   </sheetViews>
@@ -32696,7 +32730,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="952" spans="2:2">
+    <row r="952" spans="2:2" ht="15">
       <c r="B952" s="26" t="s">
         <v>1433</v>
       </c>
@@ -32726,7 +32760,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="959" spans="2:2">
+    <row r="959" spans="2:2" ht="15">
       <c r="B959" s="26" t="s">
         <v>1439</v>
       </c>
@@ -32881,7 +32915,7 @@
       <c r="L971" s="26"/>
       <c r="M971" s="26"/>
     </row>
-    <row r="972" spans="2:13">
+    <row r="972" spans="2:13" ht="15">
       <c r="C972" s="26" t="s">
         <v>1449</v>
       </c>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD112D6-3969-444C-9B51-9D4A8C0F33DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD54D27-B62A-4567-AAE8-640480D57D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1461">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -12261,6 +12261,22 @@
       </rPr>
       <t>, 详见《Learning hard C#学习笔记 [李志著]》8.4 委托的本质; 通过查看IL发现的.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference 是Revit对象的引用 也是二次开发必须了解和熟练掌握的技能之一，对象引用包括 图元基础引用 可以根据此引用 实现图元转化 参数信息过滤和设置，此外对于标注来说更重要的是 Face-面引用 Curve-线引用 Point-点引用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sel.PickObject()返回值是reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12896,6 +12912,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12915,7 +12999,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13576,10 +13660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14750,37 +14834,57 @@
         <v>837</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:9">
       <c r="B193" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:9">
       <c r="D194" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:9">
       <c r="D195" s="27" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:9">
       <c r="B197" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:9">
       <c r="B198" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="20.399999999999999">
+    <row r="201" spans="2:9">
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="34"/>
+    </row>
+    <row r="202" spans="2:9" ht="20.399999999999999">
       <c r="B202" s="38" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="20.399999999999999">
+    <row r="204" spans="2:9">
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="34"/>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
+      <c r="I204" s="34"/>
+    </row>
+    <row r="205" spans="2:9" ht="20.399999999999999">
       <c r="B205" s="38" t="s">
         <v>1451</v>
       </c>
@@ -14788,14 +14892,42 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="206" spans="2:8" ht="15">
+    <row r="206" spans="2:9" ht="15">
       <c r="C206" s="61" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="2:9">
       <c r="C207" t="s">
         <v>1454</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9">
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="34"/>
+      <c r="I209" s="34"/>
+    </row>
+    <row r="210" spans="2:9" ht="20.399999999999999">
+      <c r="B210" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9">
+      <c r="B211" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="B213" t="s">
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -14806,9 +14938,10 @@
     <hyperlink ref="E163" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="H205" r:id="rId5" xr:uid="{911477FD-CDF5-4536-9EDC-5FD4B17A805C}"/>
+    <hyperlink ref="E210" r:id="rId6" xr:uid="{C49A6E79-B5C9-4685-A862-328F9A7D9B39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -15145,8 +15278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFA975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B507" sqref="B507"/>
+    <sheetView topLeftCell="A493" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E2A154-5AE4-4B40-9ACC-E77ACAF4E594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4D5FE-98CD-4C1C-9E74-9A21D802838B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="2772" windowWidth="20616" windowHeight="8124" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="1584" windowWidth="20616" windowHeight="6276" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1493">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -12307,12 +12307,103 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Autodesk.Revit.ApplicationServices.Application （app）与 Autodesk.Revit.UIApplication(uiApp)之间的转换</t>
+  </si>
+  <si>
+    <t>app = uiApp.Application;</t>
+  </si>
+  <si>
+    <t>uiApp = new UIApplication(app);</t>
+  </si>
+  <si>
+    <t>————————————————</t>
+  </si>
+  <si>
+    <t>版权声明：本文为CSDN博主「LifeOases」的原创文章，遵循 CC 4.0 BY-SA 版权协议，转载请附上原文出处链接及本声明。</t>
+  </si>
+  <si>
+    <t>原文链接：https://blog.csdn.net/qq_43026206/article/details/84871247</t>
+  </si>
+  <si>
+    <t>Revit中ApplicationServices.Application与UIApplication之间的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一个参考链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么多Uiapp app怎么区分和相互转化,用在何处???????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据承载对象ApplicationServices.Application</t>
+  </si>
+  <si>
+    <t>一、应用程序Application</t>
+  </si>
+  <si>
+    <t>2、承载界面的UIApplication</t>
+  </si>
+  <si>
+    <t>3、承载应用程序仅包含界面数据控制应用程序ControlApplication</t>
+  </si>
+  <si>
+    <t>4、承载应用程序仅包含初始界面应用程序UIControlApplication</t>
+  </si>
+  <si>
+    <t>5、Creator.Application类，主要用于对Application类中的元素进行创建的一个包装类。</t>
+  </si>
+  <si>
+    <t>二、文档Document</t>
+  </si>
+  <si>
+    <t>1、数据承载对象：Autodesk.Revit.DB.Document</t>
+  </si>
+  <si>
+    <t>2、数据创建对象：Autodesk.Revit.Creation.Document</t>
+  </si>
+  <si>
+    <t>3、Autodesk.Revit.UI.UIDocument</t>
+  </si>
+  <si>
+    <t>三、视图对象</t>
+  </si>
+  <si>
+    <t>1、数据视图对象Autodesk.Revit.DB.View</t>
+  </si>
+  <si>
+    <t>2、视图呈现类Autodesk.Revit.UI.UIView  </t>
+  </si>
+  <si>
+    <t>小结，通过以上的分析，我们知道了Revit采用MVC的管理模式，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据和视图进行分离，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以View作为一个Element对象，存储在Document中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以通过对应的过滤器，能获取当前文档的所有视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilteredElementCollector collector = new FilteredElementCollector(doc);</t>
+  </si>
+  <si>
+    <t>IList&lt;Element&gt; views = collector.OfClass(typeof(View)).ToElements();</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12757,6 +12848,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="XinGothic-SinaWeibo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -12812,7 +12909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12933,6 +13030,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13620,10 +13718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212:XFD212"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14890,6 +14988,149 @@
         <v>1460</v>
       </c>
     </row>
+    <row r="215" spans="2:9" ht="20.399999999999999">
+      <c r="B215" s="72" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="B216" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="B217" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9">
+      <c r="B218" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="B219" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9">
+      <c r="B220" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="B221" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9">
+      <c r="C223" s="9" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="C224" s="8" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" t="s">
+        <v>1492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -14899,9 +15140,10 @@
     <hyperlink ref="B188" r:id="rId4" display="https://www.cnblogs.com/lonelyxmas/p/10560039.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="H205" r:id="rId5" xr:uid="{911477FD-CDF5-4536-9EDC-5FD4B17A805C}"/>
     <hyperlink ref="E210" r:id="rId6" xr:uid="{C49A6E79-B5C9-4685-A862-328F9A7D9B39}"/>
+    <hyperlink ref="C224" r:id="rId7" xr:uid="{DFA42CA8-A64E-4682-9BF9-65FB2153E1AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -15238,7 +15480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFA986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A610" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H614" sqref="H614"/>
     </sheetView>
   </sheetViews>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4D5FE-98CD-4C1C-9E74-9A21D802838B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFDA03A-C831-451B-869E-61F90E918083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="1584" windowWidth="20616" windowHeight="6276" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22224" windowHeight="13176" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1497">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -12397,6 +12397,22 @@
   </si>
   <si>
     <t>IList&lt;Element&gt; views = collector.OfClass(typeof(View)).ToElements();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autodesk.Revit.DB.View 是revit文件中所有视图类型的积累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autodesk.Revit.UI.UIView 表示在revit用户界面中的窗口视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//[宦国胜] P98:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13038,6 +13054,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13057,7 +13141,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13718,10 +13802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C252" sqref="C252"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15101,33 +15185,49 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="242" spans="3:3">
-      <c r="C242" t="s">
+    <row r="241" spans="3:6">
+      <c r="C241" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="242" spans="3:6">
+      <c r="F242" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6">
+      <c r="C244" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="243" spans="3:3">
-      <c r="C243" t="s">
+    <row r="245" spans="3:6">
+      <c r="C245" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
-      <c r="C244" t="s">
+    <row r="246" spans="3:6">
+      <c r="C246" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="245" spans="3:3">
-      <c r="C245" t="s">
+    <row r="247" spans="3:6">
+      <c r="C247" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
-      <c r="C246" t="s">
+    <row r="248" spans="3:6">
+      <c r="C248" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="247" spans="3:3">
-      <c r="C247" t="s">
+    <row r="249" spans="3:6">
+      <c r="C249" t="s">
         <v>1492</v>
       </c>
     </row>

--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFDA03A-C831-451B-869E-61F90E918083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B98FA7-836D-40E3-ADF6-52A1BF28C9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22224" windowHeight="13176" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1527">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -12412,6 +12412,129 @@
   </si>
   <si>
     <t>//[宦国胜] P98:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementReferenceType.REFERENCE_TYPE_SURFACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 射线法相关的类和方法等:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType.PointOnElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_point.ElementReferenceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:Any point on an element (on a face or curve). </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:The reference is to a face or face region.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:Element reference types.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlanarFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:A bounded face of a 3d solid or open shell.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RevitLinkInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:Represents an instance of a RevitLinkType. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeometryElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:This class contains geometric primitives that are generated from the parametric description of the element. The member geometric primitives can be obtained directly from this object using the capabilities of IEnumerable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XVector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExclusionFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:A quick filter used to exclude a set of elements automatically. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReferenceIntersector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:A class used to find and return elements that intersect a ray created from an origin point and direction. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refIntersector.FindReferencesInRevitLinks </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:Determines if references inside Revit Links should be found. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReferenceWithContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:An object including a reference to a geometric object and related context, as instance transform etc. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoundLine和UnboundLine的区别,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Face.Project(XYZ point)Method </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:Projects the specified point on the face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntersectionResult.Distance Members:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: Distance from the original object to located point.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GeometryInstance.GetInstanceGeometry Method </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:Computes the geometric representation of the instance.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13802,10 +13925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I269" sqref="I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15185,7 +15308,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="241" spans="3:6">
+    <row r="241" spans="2:9">
       <c r="C241" t="s">
         <v>1493</v>
       </c>
@@ -15196,39 +15319,186 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="242" spans="3:6">
+    <row r="242" spans="2:9">
       <c r="F242" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="244" spans="3:6">
+    <row r="244" spans="2:9">
       <c r="C244" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="245" spans="3:6">
+    <row r="245" spans="2:9">
       <c r="C245" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="246" spans="3:6">
+    <row r="246" spans="2:9">
       <c r="C246" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="247" spans="3:6">
+    <row r="247" spans="2:9">
       <c r="C247" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="248" spans="3:6">
+    <row r="248" spans="2:9">
       <c r="C248" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="249" spans="3:6">
+    <row r="249" spans="2:9">
       <c r="C249" t="s">
         <v>1492</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
+    </row>
+    <row r="252" spans="2:9" ht="20.399999999999999">
+      <c r="B252" s="18" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F252" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="C253" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9">
+      <c r="C254" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9">
+      <c r="C255" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9">
+      <c r="C256" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9">
+      <c r="C257" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9">
+      <c r="C258" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9">
+      <c r="C259" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9">
+      <c r="C260" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9">
+      <c r="C261" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9">
+      <c r="C262" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9">
+      <c r="C263" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="C264" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9">
+      <c r="C265" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
+      <c r="C266" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9">
+      <c r="C267" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="34"/>
+      <c r="I270" s="34"/>
+    </row>
+    <row r="271" spans="2:9" ht="20.399999999999999">
+      <c r="B271" s="18" t="s">
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
@@ -15241,9 +15511,10 @@
     <hyperlink ref="H205" r:id="rId5" xr:uid="{911477FD-CDF5-4536-9EDC-5FD4B17A805C}"/>
     <hyperlink ref="E210" r:id="rId6" xr:uid="{C49A6E79-B5C9-4685-A862-328F9A7D9B39}"/>
     <hyperlink ref="C224" r:id="rId7" xr:uid="{DFA42CA8-A64E-4682-9BF9-65FB2153E1AE}"/>
+    <hyperlink ref="F252" r:id="rId8" xr:uid="{22838E92-D0F8-41E6-A484-3A8A25C6CCB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId9"/>
 </worksheet>
 </file>
 
